--- a/data/cleaned_offers.xlsx
+++ b/data/cleaned_offers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>e82bf3b8-6038-40be-9c25-412854cd7995</t>
+          <t>4327226302</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3dcdb372-ee8b-48de-8b81-19b19ef6bc2e</t>
+          <t>4327106573</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -524,7 +524,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>b6a0e058-0670-4d04-943a-ce04111f7338</t>
+          <t>4343521499</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -552,7 +552,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>fddfe227-1c37-49ba-8a8d-39dc98059aa2</t>
+          <t>4343532281</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>276d2b56-49b1-48f3-86c3-a2ab4b2eb57d</t>
+          <t>4338300150</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>a5e0eca6-686b-4d51-9e6b-eb93cb659b90</t>
+          <t>4338260266</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -638,7 +638,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>a3631e49-a986-4530-96e5-f5dcce805416</t>
+          <t>4291659031</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -660,6 +660,63 @@
       <c r="F8" t="inlineStr">
         <is>
           <t>EPAM is a leading gl</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4343326779</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4343326779/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-12-13T15:35:28+00:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>«Computer vision»: Remote AI Engineer - HireLATAM y más</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Baufest, nuestra </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4338290130</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4338290130/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-12-13T15:35:28+00:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>«Computer vision»: Remote AI Engineer - HireLATAM y más</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Join Our Team
+Oowli</t>
         </is>
       </c>
     </row>

--- a/data/cleaned_offers.xlsx
+++ b/data/cleaned_offers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,10 +486,16 @@
           <t>«LLM»: Remote AI Engineer - HireLATAM y más</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>HireLatam is a premi</t>
+          <t>HireLatam is a premier recruitment agency that places top Latin American talent in independent contractor roles in US companies. With a proven track record and a commitment to excellence, we're your trusted partner in the pursuit of career success. Our extensive network, personalized approach, and supportive guidance ensure that you're in the best hands to find your next job opportunity.
+Job Title: Remote AI Engineer (100% Work From Home) Location: Remote from Latin AmericaPosition Type: Full-timeSalary: $3,500 - 4,500 USD/month + 10% of the yearly ROI on projects delivered, shared between members involved paid via DeelSchedule: Monday to Friday, 7:00am to 3:30pm Eastern Time (with a 30min break)
+Job OverviewOur client is the leading proptech platform serving condominium and HOA communities. They streamline the resident onboarding process by digitizing applications, background checks, payments, and approvals — creating a stress-free experience for applicants and property managers alike. With their innovative, AI-driven solutions, we help communities save time, reduce risk, and deliver exceptional service.Contribute to AI-powered features and reliable Java microservices that power screening, document/OCR, and identity workflows—bringing modern ML building blocks to production while learning our proven delivery practices.ResponsibilitiesBuild small Python services for ML/OCR (FastAPI), integrate with Bedrock/OpenAI and AWS Textract/Comprehend.Experience with AI frameworks, particularly LangChain.Productionize models (basic MLOps: packaging, Docker, versioning, evals); add batch/async processing.Create and consume REST APIs; write integration tests; participate in code reviews.Implement and maintain Java (Spring Boot) microservices.
+Qualifications, Skills and Key Competencies3-5 years in software engineering with Java (Spring/Hibernate) and Python.Exposure to ML workflows (NumPy/Pandas/scikit-learn or Keras/TensorFlow).Experience with Docker, SQL (Mysql, PostgreSQL), and at least one NoSQL (MongoDB).AWS (Lambda, SQS/SNS, S3, KMS, Step Functions, SageMaker or Bedrock).ML tooling: MLflow, DVC, basic prompt engineering, vector DBs (pgvector/Pinecone).Computer vision (YOLO), OCR pipelines, evaluation dashboards.Frontend basics (Vue/React) for internal tools.Familiarity with message brokers/streams and microservice patterns.Comfortable with Git, unit/integration testing,Written English/Spanish.Soft SkillsSelf-motivated, adaptable, and eager to embrace new challenges.Strong leadership and team management abilities.Excellent problem-solving and analytical thinking.
+SHORT TERM PROJECTSVendor &amp; AI Model IntegrationExecute integration projects with external vendors and AI model providers to automate internal (operations, development workflows) and external (customer-facing) processes.Work with senior engineering lead to translate integration requirements into working solutions using Java (Spring Boot) and Python (FastAPI).Build connectors, APIs, and services that securely exchange data with vendor systems and AI inference endpoints.Develop monitoring scripts and automated tests to validate vendor integration performance and reliabilityAI-Driven Workflow AutomationImplement LLM-powered decision-making and OCR/CV pipelines (YOLO, AWS Textract, Comprehend) to streamline document validation, screening, and application processing.Package and version AI models for production deployment, including Dockerization, API hosting, and performance tuning.Collaborate with QA to evaluate AI model outputs and improve accuracy over time.Legacy System IntegrationBuild adapters and middleware that allow AI-enhanced services to interoperate with the company's legacy systems during phased migration.Document integration points and dependency chains to support future modernization.</t>
         </is>
       </c>
     </row>
@@ -514,10 +520,26 @@
           <t>«LLM»: Remote AI Engineer - HireLATAM y más</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>¿Te apasiona la tecn</t>
+          <t>¿Te apasiona la tecnología y la innovación?
+Conoce nuestro ADN
+Nos adaptamos fácilmente a los cambiosCreamos valor constantementePensamos y actuamos como dueñosFanáticos de los resultados y la agilidadEl conocimiento colectivo nos vuelve poderosos
+Tu principal reto será:
+Estamos en búsqueda de un/a Ingeniero/a de Inteligencia Artificial Junior con más de 1 año y medio de experiencia profesional en el diseño, desarrollo e implementación de soluciones de software basadas en inteligencia artificial. Buscamos un/a profesional apasionado/a por la innovación tecnológica, con sólida experiencia en frameworks avanzados, automatización de procesos , herramientas especializadas en IA Generativa y flujos de trabajo con modelos avanzados
+Tendrás que:
+Desarrollar APIs RESTful y microservicios escalables utilizando Python y frameworks como Django y Flask.Diseñar soluciones innovadoras con IA Generativa y conversacional en modelos como Llama, Mixtral, GPT, BERT y sus variantes.Desarrollar sistemas con Recuperación Aumentada de Información (RAG) para integrar datos contextuales en aplicaciones basadas en IA.Crear flujos avanzados de trabajo con frameworks como LangChain para sistemas conversacionales y automatización de procesos complejos.Participar en la implementación de pipelines de datos y despliegue de modelos en entornos productivos usando Docker, Kubernetes y plataformas de nube como AWS, Azure y GCP.Desarrollar soluciones de visión por computadora para el análisis y procesamiento de imágenes y videos, utilizando técnicas avanzadasImplementar soluciones de RPA para automatizar procesos repetitivos, mejorando la eficiencia operativa y tareas empresariales clave, supervisando su rendimiento y ajustándolos según sea necesario.
+Necesitaras:
+Formación Académica:
+·Profesional en Ingeniería de Sistemas, Ingeniería de Software o áreas relacionadas.
+Experiencia Técnica:
+·Más de 1 año y medio de experiencia en el desarrollo de soluciones de inteligencia artificial.·Dominio de Python y frameworks asociados al desarrollo de software backend.·Experiencia en IA Generativa, incluyendo el uso de modelos de PLN.·Familiaridad con bases de datos vectoriales y su integración en aplicaciones.·Conocimientos en herramientas de automatización de procesos RPA como UiPath, Rocketbot o Power Automate.
+Habilidades Complementarias:
+·Pensamiento analítico y capacidad para resolver problemas técnicos complejos.·Habilidad para trabajar en equipo, con experiencia en metodologías ágiles como Scrum y Kanban.·Pasión por la actualización constante en tendencias de IA, aprendizaje automático y desarrollo de software
+Contrato a Término Indefinido + Beneficios.</t>
         </is>
       </c>
     </row>
@@ -542,10 +564,26 @@
           <t>«LLM»: Remote AI Engineer - HireLATAM y más</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>I’m helping Nova Kor</t>
+          <t>I’m helping Nova Kore find a top candidate to join their team flexible for the role of Senior Data Scientist - Kaggle Grandmaster.
+You'll transform complex data into cutting-edge AI insights, shaping next-generation analytical systems.
+Compensation:USD 57 - 77/hour
+Location:Remote (anywhere)
+Mission of Nova Kore:"Connecting people and companies to create meaningful, transformative career and business opportunities."
+What makes you a strong candidate:You are proficient in scikit-learn, Statistical analysis, SQL, Python, Pandas.You have the potential to develop in Word embedding, Spark, Snowflake, BigQuery.English - Conversational
+Responsibilities and more:Looking for a highly skilled Data Scientist with a Kaggle Grandmaster profile. In this role, you will transform complex datasets into actionable insights, high-performing models, and scalable analytical workflows. You will work closely with researchers and engineers to design rigorous experiments, build advanced statistical and ML models, and develop data-driven frameworks to support product and research decisions.
+What You’ll Do
+* Analyze large, complex datasets to uncover patterns, develop insights, and inform modeling direction.* Build predictive models, statistical analyses, and machine learning pipelines across tabular, time-series, NLP, or multimodal data.* Design and implement robust validation strategies, experiment frameworks, and analytical methodologies.* Develop automated data workflows, feature pipelines, and reproducible research environments.* Conduct exploratory data analysis (EDA), hypothesis testing, and model-driven investigations to support research and product teams.* Translate modeling outcomes into clear recommendations for engineering, product, and leadership teams.* Collaborate with ML engineers to productionize models and ensure data workflows operate reliably at scale.* Present findings through well-structured dashboards, reports, and documentation.
+Qualifications
+* Kaggle Competitions Grandmaster or comparable achievement: top-tier rankings, multiple medals, or exceptional competition performance.* 3–5+ years of experience in data science or applied analytics.* Strong proficiency in Python and data tools (Pandas, NumPy, Polars, scikit-learn, etc.).* Experience building ML models end-to-end: feature engineering, training, evaluation, and deployment.* Solid understanding of statistical methods, experiment design, and causal or quasi-experimental analysis.* Familiarity with modern data stacks: SQL, distributed datasets, dashboards, and experiment tracking tools.* Excellent communication skills with the ability to clearly present analytical insights.
+Nice to Have
+* Strong contributions across multiple Kaggle tracks (Notebooks, Datasets, Discussions, Code).* Experience in an AI lab, fintech, product analytics, or ML-focused organization.* Knowledge of LLMs, embeddings, and modern ML techniques for text, images, and multimodal data.* Experience working with big data ecosystems (Spark, Ray, Snowflake, BigQuery, etc.).* Familiarity with statistical modeling frameworks such as Bayesian methods or probabilistic programming.
+Why JoinGain exposure to cutting-edge AI research workflows, collaborating closely with data scientists, ML engineers, and research leaders shaping next-generation analytical systems.Work on high-impact data science challenges while experimenting with advanced modeling strategies, new analytical methods, and competition-grade validation techniques.Collaborate with world-class AI labs and technical teams operating at the frontier of forecasting, experimentation, tabular ML, and multimodal analytics.Flexible engagement options (30–40 hrs/week or full-time) — ideal for data scientists eager to apply Kaggle-level problem-solving to real-world, production analytics.Fully remote and globally flexible work structure — optimized for deep analytical work, async collaboration, and high-output research.
+We consider all qualified applicants without regard to legally protected characteristics and provide reasonable accommodations upon request.</t>
         </is>
       </c>
     </row>
@@ -570,10 +608,13 @@
           <t>«pytorch»: Remote AI Engineer - HireLATAM y más</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Job DescriptionSenio</t>
+          <t>Job DescriptionSenior Data Scientist – AI Product &amp; Customer InsightsAbout the TeamAt Coderoad, we're more than just a software development company — we're your gateway to the global tech world. Whether you're looking to skill up or level up your career, we offer the challenges you’ve been searching for.We provide end-to-end software development services and give you the opportunity to work on exciting, real-world projects in a supportive environment. Whether it's staff augmentation, dedicated IT teams, or general software engineering, we have opportunities for everyone to challenge themselves and take their career to the next level.Our client’s platform is evolving from business texting and reputation management into a comprehensive Customer Experience (CX) solution for the automotive and specialty dealership markets. Integrated with major DMS and CRM systems, they’re building their next-generation Customer Data Platform (CDP 2.0) on Google Cloud Platform (GCP) with BigQuery.We’re seeking an experienced and innovative Senior Data Scientist to play a key role in unlocking the value of this new platform and driving the company’s AI strategy.Location: LATAMTime Zone: Team operates on U.S. East/West Coast hoursHow You’ll Make an ImpactUncover deep customer insights by developing advanced segmentation models using clustering and ML techniques on CDP data (transactions, communications, demographics, sentiment).Build predictive models for Customer Lifetime Value (CLV) and churn propensity to support proactive retention strategies.Design and implement Retrieval-Augmented Generation (RAG) systems using dealership-specific data for more context-aware AI agents.Evaluate and recommend the best Large Language Models (LLMs) based on performance, cost, and fine-tuning potential.Optimize prompts and AI workflows to deliver sophisticated, integrated AI features.Develop predictive models to forecast the success of messaging and marketing campaigns across dealership goals (sales, service, reviews, NPS).Apply NLP techniques to analyze message content and linguistic patterns tied to successful outcomes.Conduct A/B/n testing to identify key engagement and conversion drivers.Analyze dealership data (anonymized and aggregated) to identify improvement opportunities and actionable business insights.Collaborate with Product and Engineering teams to build dashboards and reports highlighting:Operational efficiency (staffing, communication patterns)Process optimization (e.g., service follow-up bottlenecks)Marketing strategy performance and industry benchmarksPartner with Product, Engineering, and Data Platform teams to translate insights into new product features.Serve as a key user and advocate for the new GCP / Iceberg / BigQuery Data Platform, ensuring data readiness for analytics and ML applications.Support deployment, monitoring, and continuous improvement of ML models in production.
+What We’re Looking ForMust-HavesMS or PhD in Computer Science, Statistics, Machine Learning, or a related field (or equivalent experience).5+ years of experience building and deploying ML models in commercial environments.Strong proficiency in Python and core libraries (Pandas, NumPy, Scikit-learn, TensorFlow/PyTorch).Proven experience in NLP and working with LLMs, including RAG-based systems.Strong understanding of ML theory, statistical modeling, and A/B testing.Proficiency in SQL and experience with large datasets and data warehouses (BigQuery, Spark).Experience with cloud platforms, preferably GCP.Excellent communication skills — able to translate technical insights to both technical and business audiences.Nice-to-HavesExperience with Apache Iceberg or similar lakehouse formats.Hands-on experience implementing RAG architectures and using vector databases.Familiarity with BigQuery ML or Vertex AI.Knowledge of MLOps tools and best practices.Experience fine-tuning LLMs or developing customer-facing analytics.Background in SaaS or familiarity with the automotive/dealership industry.What You’ll LoveUSA Contractor100% RemoteHolidays OffPaid Time OffHealth Insurance Assistance ProgramCompetitive Pay (USD)Excellent teamwork and work environmentTraining opportunitiesHigh-impact role shaping the company’s AI and data strategyWork with a modern tech stack and newly formed Data Platform TeamA collaborative, innovative, and data-driven culture</t>
         </is>
       </c>
     </row>
@@ -598,11 +639,37 @@
           <t>«pytorch»: Remote AI Engineer - HireLATAM y más</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>7</v>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>Join Our Team
-Oowli</t>
+Oowlish, one of Latin America's rapidly expanding software development companies, is seeking experienced technology professionals to enhance our diverse and vibrant team.
+As a valued member of Oowlish, you will collaborate with premier clients from the United States and Europe, contributing to pioneering digital solutions. Our commitment to creating a nurturing work environment is recognized by our certification as a Great Place to Work, where you will have opportunities for professional development, growth, and a chance to make a significant international impact.
+We offer the convenience of remote work, allowing you to craft a work-life balance that suits your personal and professional needs. We're looking for candidates who are passionate about technology, proficient in English, and excited to engage in remote collaboration for a worldwide presence.
+About the Role:
+We are searching for an AI + Python Engineer to design and deploy advanced generative AI solutions across text, image, and video modalities. In this role, you’ll work at the intersection of engineering and AI product development, building scalable pipelines, integrating state-of-the-art models, and optimizing performance and cost in production environments. You will collaborate closely with product, engineering, and design teams to bring creative and technically complex ideas to life.
+This position offers the opportunity to work with cutting-edge tools—including LLMs, diffusion models, AWS Bedrock, and Anthropic Claude—while contributing to high-impact projects in the technology and education sectors. If you enjoy solving modern AI challenges, deploying production-ready models, and experimenting with the latest advancements in multimodal generation, this is an ideal role with strong growth potential.
+Responsibilities:
+Design and develop pipelines for multimodal AI generation (text, audio, image, video)Integrate generative AI models into production systems using AWS servicesCollaborate with product and design teams to translate requirements into functional featuresMonitor model performance, quality, and cost efficiency in productionMaintain continuous improvements and update models as new capabilities emerge
+Must Have:
+Hands-on experience with generative AI models (LLMs, Stable Diffusion, etc.)Strong proficiency in Python, including PyTorch/TensorFlow and API integrationsExperience with AWS (Bedrock, SageMaker, Lambda, S3)Familiarity working with Anthropic Claude, GPT, or similar LLMsAbility to work independently and deliver production-ready code
+Nice to have:
+Experience building multimodal (image/video) generation pipelinesExposure to ML optimization, fine-tuning, or cost-reduction techniques
+Benefits &amp; Perks:
+Home office;
+Competitive compensation based on experience;
+Career plans to allow for extensive growth in the company;
+International Projects;
+Oowlish English Program (Technical and Conversational);
+Oowlish Fitness with Total Pass;
+Games and Competitions;
+You can also apply here:
+Website: https://www.oowlish.com/work-with-us/
+LinkedIn: https://www.linkedin.com/company/oowlish/jobs/
+Instagram: https://www.instagram.com/oowlishtechnology/
+We may use artificial intelligence (AI) tools to support parts of the hiring process, such as reviewing applications, analyzing resumes, or assessing responses. These tools assist our recruitment team but do not replace human judgment. Final hiring decisions are ultimately made by humans. If you would like more information about how your data is processed, please contact us.</t>
         </is>
       </c>
     </row>
@@ -627,11 +694,37 @@
           <t>«pytorch»: Remote AI Engineer - HireLATAM y más</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>Join Our Team
-Oowli</t>
+Oowlish, one of Latin America's rapidly expanding software development companies, is seeking experienced technology professionals to enhance our diverse and vibrant team.
+As a valued member of Oowlish, you will collaborate with premier clients from the United States and Europe, contributing to pioneering digital solutions. Our commitment to creating a nurturing work environment is recognized by our certification as a Great Place to Work, where you will have opportunities for professional development, growth, and a chance to make a significant international impact.
+We offer the convenience of remote work, allowing you to craft a work-life balance that suits your personal and professional needs. We're looking for candidates who are passionate about technology, proficient in English, and excited to engage in remote collaboration for a worldwide presence.
+About the Role:
+We are searching for an AI + Python Engineer to design and deploy advanced generative AI solutions across text, image, and video modalities. In this role, you’ll work at the intersection of engineering and AI product development, building scalable pipelines, integrating state-of-the-art models, and optimizing performance and cost in production environments. You will collaborate closely with product, engineering, and design teams to bring creative and technically complex ideas to life.
+This position offers the opportunity to work with cutting-edge tools—including LLMs, diffusion models, AWS Bedrock, and Anthropic Claude—while contributing to high-impact projects in the technology and education sectors. If you enjoy solving modern AI challenges, deploying production-ready models, and experimenting with the latest advancements in multimodal generation, this is an ideal role with strong growth potential.
+Responsibilities:
+Design and develop pipelines for multimodal AI generation (text, audio, image, video)Integrate generative AI models into production systems using AWS servicesCollaborate with product and design teams to translate requirements into functional featuresMonitor model performance, quality, and cost efficiency in productionMaintain continuous improvements and update models as new capabilities emerge
+Must Have:
+Hands-on experience with generative AI models (LLMs, Stable Diffusion, etc.)Strong proficiency in Python, including PyTorch/TensorFlow and API integrationsExperience with AWS (Bedrock, SageMaker, Lambda, S3)Familiarity working with Anthropic Claude, GPT, or similar LLMsAbility to work independently and deliver production-ready code
+Nice to have:
+Experience building multimodal (image/video) generation pipelinesExposure to ML optimization, fine-tuning, or cost-reduction techniques
+Benefits &amp; Perks:
+Home office;
+Competitive compensation based on experience;
+Career plans to allow for extensive growth in the company;
+International Projects;
+Oowlish English Program (Technical and Conversational);
+Oowlish Fitness with Total Pass;
+Games and Competitions;
+You can also apply here:
+Website: https://www.oowlish.com/work-with-us/
+LinkedIn: https://www.linkedin.com/company/oowlish/jobs/
+Instagram: https://www.instagram.com/oowlishtechnology/
+We may use artificial intelligence (AI) tools to support parts of the hiring process, such as reviewing applications, analyzing resumes, or assessing responses. These tools assist our recruitment team but do not replace human judgment. Final hiring decisions are ultimately made by humans. If you would like more information about how your data is processed, please contact us.</t>
         </is>
       </c>
     </row>
@@ -656,10 +749,12 @@
           <t>«desarrollador ia»: Remote AI Engineer - HireLATAM y más</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>EPAM is a leading gl</t>
+          <t>EPAM is a leading global provider of digital platform engineering and development services. We are committed to having a positive impact on our customers, our employees, and our communities. We embrace a dynamic and inclusive culture. Here you will collaborate with multi-national teams, contribute to a myriad of innovative projects that deliver the most creative and cutting-edge solutions, and have an opportunity to continuously learn and grow. No matter where you are located, you will join a dedicated, creative, and diverse community that will help you discover your fullest potential.  We are looking for a remote Senior Machine Learning Engineer to join our team.As a Senior Machine Learning Engineer, you will be responsible for leading and driving innovative projects related to automatic structuring and understanding of unstructured content for our projects. You will be tasked with refactoring, extending, and improving Contaminant ID's model, algorithms, and MLOps so as to follow best practices and increase its autonomy as a product. Responsibilities Lead and drive innovative projects related to automatic structuring and understanding of unstructured content for our projects Design efficient deep learning-based solutions and ensure high-quality deliverables Refactor, extend, and improve Contaminant ID's model, algorithms, and MLOps so as to follow best practices and increase its autonomy as a product Update dependencies and replace OSS libraries that cannot be commercialized, containerize the solution, and help set up CI/CD pipelines Improve NFR aspects of the solution, such as security and modularity, and consult with the original developers of the prototype solution to productize it Requirements At least 3 years of industry experience as a Machine Learning Engineer with a focus on scientific research, experimentation, and optimal design Strong proficiency in TensorFlow/Python servers, JavaScript for web portal, Tableau for reporting, MariaDB for data storage, Filesystem for video storage, and Docker/Kubernetes for deployment Proven experience in refactoring or rewriting parts of existing Python/TensorFlow code, updating dependencies and replacing OSS libraries that cannot be commercialized, containerizing the solution, and setting up CI/CD pipelines Familiarity with NFR aspects of a solution, such as security and modularity, and ability to improve them Ability to document the new code design and comment on the implementationB2+ English level Nice to have Familiarity with AWS, Terraform, and Ansible Experience with GPU acceleration and parallel computing Familiarity with Natural Language Processing (NLP) techniques We offerInternational projects with top brandsWork with global teams of highly skilled, diverse peersHealthcare benefitsEmployee financial programsPaid time off and sick leaveUpskilling, reskilling and certification coursesUnlimited access to the LinkedIn Learning library and 22,000+ coursesGlobal career opportunitiesVolunteer and community involvement opportunitiesEPAM Employee GroupsAward-winning culture recognized by Glassdoor, Newsweek and LinkedIn</t>
         </is>
       </c>
     </row>
@@ -684,10 +779,19 @@
           <t>«Computer vision»: Remote AI Engineer - HireLATAM y más</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">En Baufest, nuestra </t>
+          <t>En Baufest, nuestra misión es mejorar la vida con tecnología, generando un impacto positivo en la sociedad. Por ello, buscamos un/a Sr Data Engineer para sumarse a nuestro equipo de profesionales.
+ResponsabilidadesLiderar el desarrollo de la práctica Applied AI, diseñando e implementando soluciones tecnológicas basadas en inteligencia artificial que aporten valor al negocio, y trabajando en un entorno multidisciplinario en un entorno ágil.Generar propuestas de valor para clientes y prospectos.Desarrollar y mantener actualizada la oferta de la práctica de AI.Generar una red de contactos que permita acelerar el crecimiento de la práctica.Coordinar y asistir al equipo de AI.Colaborar en el posicionamiento de la unidad AI en nuestros clientes y en el mercado.Implementar indicadores (KPI), seguimiento y análisis de las métricas y objetivos definidos para la prácticaLiderar el análisis Económico-Financiero de los proyectos del área
+RequisitosInglés conversacional (C1).+5 años de experiencia previa en roles como AI Leader, AI Architect o afines.Conocimientos técnicos en IA, Computer Vision, LLM, Python.Estar graduado/a de las carreras: Lic. Sistemas o afines / Económicas (con experiencia en el área de sistemas).
+Te ofrecemosBAU LUNCH: Recibirás un cupón de Pedidos Ya cada viernes del mesBAU COMPENSATIONS: 100% modalidad planilla. Evaluación anual de desempeño y revisión de categorizaciónBAU ANTI-TRAFFIC: En caso de que tu contratación sea en modalidad Híbrida, tendrás opción de elegir tu rango de horario laboral mientras lo avale el proyectoBAU UTILITIES: ¡Luego de trabajar 4 años con la misma notebook en Baufest, será tuya! BAU FAMILY: Maternidad y Paternidad. Softlanding para las madres baufesianas y Paternidad (10 días hábiles de licencia) . Flexibilidad horaria planificada;BAU HEALTH: EPS plan Base; Reintegro trimestrales por actividad deportivaBAU DAYs: Día de cumpleaños LibreBAU ACADEMY: Clases de Inglés in-company; Certificaciones y capacitaciones a cargo de Baufest; Pro Profes (días extra de estudios, premios para estudiantes Universitarios/Terciarios/Posgrados)BAU HOME: Luego de 2 años en Baufest, si tienes que cambiar tu residencia y mudarte recibirás una orden de compra para acompañarte en este gran pasoBAU REFERIDOS: Participa por interesantes premios al referir a tus colegas
+¡Postúlate y sé parte de un equipo inclusivo donde todo pueden crecer!
+Baufest promueve la igualdad de oportunidades y no discrimina por razones de Nacionalidad, género, edad, religión, orientación sexual, discapacidad, ni por ninguna otra característica protegida por la ley.
+¡Te esperamos!
+Baufest protege sus datos personales conforme a las leyes locales de protección de datos aplicables en cada país y siguiendo buenas prácticas de seguridad de la información alineadas con la norma ISO 27001. Su información será tratada con estricta confidencialidad y utilizada únicamente para fines de evaluación y selección.</t>
         </is>
       </c>
     </row>
@@ -712,11 +816,5727 @@
           <t>«Computer vision»: Remote AI Engineer - HireLATAM y más</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>7</v>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>Join Our Team
-Oowli</t>
+Oowlish, one of Latin America's rapidly expanding software development companies, is seeking experienced technology professionals to enhance our diverse and vibrant team.
+As a valued member of Oowlish, you will collaborate with premier clients from the United States and Europe, contributing to pioneering digital solutions. Our commitment to creating a nurturing work environment is recognized by our certification as a Great Place to Work, where you will have opportunities for professional development, growth, and a chance to make a significant international impact.
+We offer the convenience of remote work, allowing you to craft a work-life balance that suits your personal and professional needs. We're looking for candidates who are passionate about technology, proficient in English, and excited to engage in remote collaboration for a worldwide presence.
+About the Role:
+We are searching for an AI + Python Engineer to design and deploy advanced generative AI solutions across text, image, and video modalities. In this role, you’ll work at the intersection of engineering and AI product development, building scalable pipelines, integrating state-of-the-art models, and optimizing performance and cost in production environments. You will collaborate closely with product, engineering, and design teams to bring creative and technically complex ideas to life.
+This position offers the opportunity to work with cutting-edge tools—including LLMs, diffusion models, AWS Bedrock, and Anthropic Claude—while contributing to high-impact projects in the technology and education sectors. If you enjoy solving modern AI challenges, deploying production-ready models, and experimenting with the latest advancements in multimodal generation, this is an ideal role with strong growth potential.
+Responsibilities:
+Design and develop pipelines for multimodal AI generation (text, audio, image, video)Integrate generative AI models into production systems using AWS servicesCollaborate with product and design teams to translate requirements into functional featuresMonitor model performance, quality, and cost efficiency in productionMaintain continuous improvements and update models as new capabilities emerge
+Must Have:
+Hands-on experience with generative AI models (LLMs, Stable Diffusion, etc.)Strong proficiency in Python, including PyTorch/TensorFlow and API integrationsExperience with AWS (Bedrock, SageMaker, Lambda, S3)Familiarity working with Anthropic Claude, GPT, or similar LLMsAbility to work independently and deliver production-ready code
+Nice to have:
+Experience building multimodal (image/video) generation pipelinesExposure to ML optimization, fine-tuning, or cost-reduction techniques
+Benefits &amp; Perks:
+Home office;
+Competitive compensation based on experience;
+Career plans to allow for extensive growth in the company;
+International Projects;
+Oowlish English Program (Technical and Conversational);
+Oowlish Fitness with Total Pass;
+Games and Competitions;
+You can also apply here:
+Website: https://www.oowlish.com/work-with-us/
+LinkedIn: https://www.linkedin.com/company/oowlish/jobs/
+Instagram: https://www.instagram.com/oowlishtechnology/
+We may use artificial intelligence (AI) tools to support parts of the hiring process, such as reviewing applications, analyzing resumes, or assessing responses. These tools assist our recruitment team but do not replace human judgment. Final hiring decisions are ultimately made by humans. If you would like more information about how your data is processed, please contact us.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4326747864</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326747864/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-12-12T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Data Science Expert (Python &amp; SQL) - AI Trainer (Freelance, Remote) - Braintrust y más</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Job Description
+Job description
+At Mindrift, innovation meets opportunity. We believe in using the power of collective intelligence to ethically shape the future of AI.
+What We Do
+The Mindrift platform connects specialists with AI projects from major tech innovators. Our mission is to unlock the potential of Generative AI by tapping into real-world expertise from across the globe.
+Position Overview
+We are seeking experienced data scientists to create computationally intensive data science problems for an advanced AI evaluation project. This is a remote, project-based opportunity for experts who can design challenging problems that require computational methods to solve and mirror the full data science lifecycle - from data acquisition and processing to statistical analysis and actionable business insights.
+What You'll Do
+Design original computational data science problems that simulate real-world analytical workflows across industries (telecom, finance, government, e-commerce, healthcare)Create problems requiring Python programming to solve (using pandas, numpy, scipy, sklearn, statsmodels, matplotlib, seaborn)Ensure problems are computationally intensive and cannot be solved manually within reasonable timeframes (days/weeks)Develop problems requiring non-trivial reasoning chains in data processing, statistical analysis, feature engineering, predictive modeling, and insight extractionCreate deterministic problems with reproducible answers - avoid stochastic elements or require fixed random seeds for exact reproducibilityBase problems on real business challenges: customer analytics, risk assessment, fraud detection, forecasting, optimization, and operational efficiencyDesign end-to-end problems spanning the complete data science pipeline (data ingestion → cleaning → EDA → modeling → validation → deployment considerations)Incorporate big data processing scenarios requiring scalable computational approachesVerify solutions using Python with standard data science libraries and statistical methodsDocument problem statements clearly with realistic business contexts and provide verified correct answers
+Problem Domains (Examples)
+Business Analytics &amp; Predictive ModelingCustomer segmentation, churn prediction, and CLV modeling algorithmsFraud detection with precision-recall optimizationA/B test statistical calculations and experimental designCohort analysis and retention rate computationsModel evaluation metrics and performance optimizationStatistical Analysis &amp; Data ProcessingHypothesis testing with multiple comparison correctionsCausal inference: propensity score matching, difference-in-differencesComplex ETL pipeline logic and multi-source data integrationMissing data imputation and outlier detection algorithmsFeature engineering: encoding, interactions, dimensionality reductionTime Series &amp; ForecastingTrend decomposition and seasonality detectionStationarity testing and autocorrelation calculationsForecast accuracy metrics and moving average computationsOptimization &amp; Operations ResearchResource allocation and constraint satisfaction problemsCost-benefit analysis and capacity planning optimizationNetwork analysis and supply chain calculationsDatabase &amp; Mathematical FoundationsComplex SQL query optimization and window functionsProbability computations for business scenariosLinear algebra operations and matrix factorizationInformation theory metrics (entropy, mutual information)Optimization algorithms and convergence analysis
+Requirements
+Education &amp; Core Experience
+Advanced degree (Master's or PhD) in Data Science, Statistics, Mathematics, Computer Science, or related quantitative field5+ years of hands-on data science experience with proven business impactPortfolio of completed projects and publications showcasing real-world problem-solving
+Technical Skills
+Expert Python programming for data science (pandas, numpy, scipy, scikit-learn, statsmodels)Statistical analysis and machine learning - deep understanding of algorithms, methods, and their practical applicationsSQL and database operations for data manipulation and analysis
+Modern AI/ML (Highly Valued)
+Experience with GenAI technologies (LLMs, RAG, prompt engineering, vector databases)Understanding of MLOps practices and model deployment workflowsKnowledge of modern frameworks (TensorFlow, PyTorch, LangChain)
+Professional Skills
+Ability to design problems reflecting real-world business scenarios and industry challengesStrong analytical and problem-solving skills with attention to detailExperience translating business requirements into technical solutionsClear technical writing and documentation skillsProficient in English for problem creation and communication
+Preferred Qualifications
+Cross-industry experience (finance, telecommunications, healthcare, technology)Research background with publications or case studiesTeaching, mentoring, or training experienceProfessional certifications in data science or machine learning
+Compensation
+Task-based compensation.
+Application Process
+Please submit:
+CV/Resume highlighting ML research or engineering backgroundDomain knowledge testPython testInterview</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4326922356</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326922356/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-12-12T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Data Science Expert (Python &amp; SQL) - AI Trainer (Freelance, Remote) - Braintrust y más</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Role: Data ScientistHours: 9am - 6pm Eastern Time (Remote)USD Salary: negotiable based on experience
+The Data Scientist will be responsible for collecting, analyzing, and interpreting large datasets to generate actionable insights for marketing, operations, and product strategy. This role involves developing predictive models, automating reporting pipelines, and partnering with cross-functional teams to improve customer retention, optimize ad spend, and streamline operations.The ideal candidate is passionate about data-driven growth, skilled in statistical analysis and machine learning, and experienced in working with eCommerce datasets
+.
+ResponsibilitiesAnalyze large datasets to identify trends, patterns, and actionable business insights.Develop predictive and forecasting models for sales, demand, and customer behavior.Partner with marketing, operations, and finance teams to support data-driven decision-making.Design and implement A/B tests to evaluate marketing campaigns, product changes, or pricing strategies.Create and maintain data dashboards and automated reports to track business KPIs.Build and maintain ETL processes to collect and clean data from multiple sources (e.g., Shopify, Google Analytics, CRM, etc.).Apply machine learning and statistical techniques to solve complex business problems.Work with engineers and analysts to ensure data accuracy, consistency, and reliability.Communicate findings and recommendations to stakeholders in clear, actionable ways.Stay up to date with emerging data science tools, technologies, and methodologie
+s.
+RequirementsBachelor’s or Master’s degree in Data Science, Statistics, Computer Science, Mathematics, or a related field.2–5 years of experience as a Data Scientist, Data Analyst, or similar role (preferably in eCommerce, retail, or consumer analytics).Strong proficiency in Python or R for data analysis and modeling.Experience with SQL and data manipulation in relational databases.Hands-on experience with machine learning frameworks (scikit-learn, TensorFlow, PyTorch, etc.).Knowledge of data visualization tools (Power BI, Tableau, or Looker Studio).Solid understanding of statistics, hypothesis testing, and regression modeling.Excellent analytical and problem-solving skills with a business-oriented mindset.Strong communication skills and ability to translate data insights into strategic recommendatio
+ns.
+Preferred Skills (Nice to Have)Experience with eCommerce platforms (Shopify, Magento, Amazon Seller Central, etc.).Familiarity with customer segmentation, LTV prediction, and churn modeling.Understanding of digital marketing analytics (Meta Ads, Google Ads, GA4, attribution modeling)Experience with cloud data tools (BigQuery, Snowflake, AWS Redshift).Exposure to A/B testing tools and experimentation framewo
+rks.
+BenefitsRemote Work: Work from anywhere—our team is global, and we value work-life balance.Growth Opportunities: As a key player i you’ll have the chance to shape your role and grow with us.Innovative Culture: Join a team that is passionate about leveraging data to solve challenges and drive success in a rapidly evolving ma
+rket.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4326874573</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326874573/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-12-12T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Data Science Expert (Python &amp; SQL) - AI Trainer (Freelance, Remote) - Braintrust y más</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>At BairesDev®, we've been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the world's Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, you're taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Machine Learning Engineer at BairesDev
+We are looking for an outstanding Machine Learning Engineer to join our team. This professional will use data and machine learning techniques to help the business automate and scale decision-making, mainly by producing advanced data analysis reports and data-based models to infer and predict patterns.
+What You Will Do:
+- Help to improve data literacy and the overall analytical environment across the company.- Handle both structured and unstructured data using SQL and other programming languages.- Perform advanced data analysis and report results.- Tell the story behind data in a compelling manner for business people.- Build predictive models and machine-learning algorithms.- Combine models through ensemble modeling.- Propose solutions and strategies to business challenges.- Help to design and execute experiments for hypothesis testing.- Participate actively in discussions and decisions regarding the whole Machile Learning / Data Science chapter.- Collaborate with data product managers to build awesome data products.- Work with management to prioritize business and information needs.- Help to spread a data-driven mindset and to improve data literacy. Be a data evangelist.
+Here’s what we are looking for:
+- 3+ years of experience with Machine Learning, data science, IA, statistical, and other related areas.- Proficiency with MySQL.- Proficiency in Python, R, or another major programming language.- Excellent communication skills, and capacity to collaborate and build relationships with non-technical users.- Strong knowledge of probability and statistics, including experimental design, predictive modeling, optimization, and causal inference.- Hands-on experience with machine learning, like regression classification, clustering, neural networks, feature selection, cross-validation, the curse of dimensionality, bias-variance tradeoff, model explainability, NLP, etc.
+Desirable:- Experience with people analytics or growth.- Experience with data visualization tools.- Good understanding of the engineering challenges to deploying machine learning systems to production.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).- Excellent compensation in USD or your local currency if preferred- Hardware and software setup for you to work from home.- Flexible hours: create your own schedule.- Paid parental leaves, vacations, and national holidays.- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4326865171</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326865171/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-12-12T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Data Science Expert (Python &amp; SQL) - AI Trainer (Freelance, Remote) - Braintrust y más</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Job Description
+Job description
+At Mindrift, innovation meets opportunity. We believe in using the power of collective intelligence to ethically shape the future of AI.
+What We Do
+The Mindrift platform connects specialists with AI projects from major tech innovators. Our mission is to unlock the potential of Generative AI by tapping into real-world expertise from across the globe.
+Position Overview
+We are seeking experienced STEM professionals to create computationally intensive problems for an advanced AI evaluation project. This is a remote, project-based opportunity for experts who can design challenging problems that require computational methods to solve.
+What You'll Do
+Design original computational STEM problems that simulate real scientific workflowsCreate problems that require Python programming to solveEnsure problems are computationally intensive and cannot be solved manually within reasonable timeframes (days/weeks)Develop problems requiring non-trivial reasoning chains and creative problem-solving approachesVerify solutions using Python with standard libraries (numpy, pandas, scipy, sklearn)Document problem statements clearly and provide verified correct answers
+Problem Domains
+Problems should span various STEM areas and computational approaches:
+Combinatorial Problems: Enumerations, probability calculations, entropy, partitionsNumerical Analysis: Iterative methods, approximations, simulationsMathematical Modeling: Equation solving, optimization, statistical modelsApplied Mathematics: Graph theory, discrete mathematics, number theoryPhysics Simulations: Numerical integration, Monte Carlo methodsData Analysis: Statistical computations, algorithmic challengesEngineering Applications: Computational challenges from various engineering fieldsChemistry &amp; Biology: Computational problems from natural sciences
+Requirements
+Education &amp; Experience
+Advanced degree (Master's or PhD) in Mathematics, Physics, Computer Science, Engineering, or related STEM fieldResearch or industry experience involving computational problem-solving
+Technical Skills
+Strong programming skills in Python (numpy, pandas, scipy, sklearn)Solid understanding of numerical methods and computational algorithmsExperience with computationally intensive problem-solving
+Professional Skills
+Ability to design problems that mirror real scientific / engineering workflowsCreative thinking in problem designUnderstanding of computational complexityAttention to detail for answer verificationClear technical writing skillsProficient in English 
+Compensation
+Task-based compensation.
+Application Process
+Please submit:
+CV/Resume highlighting relevant STEM backgroundDomain knowledge testPython test1-2 sample computational problems you've createdBrief statement about your experience with computational problem-solvingInterview</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4349636105</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4349636105/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-12-12T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Data Science Expert (Python &amp; SQL) - AI Trainer (Freelance, Remote) - Braintrust y más</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>CloudGeometry is a Silicon Valley-based cloud-native system integrator with deep expertise in AWS, CNCF, and modern SaaS product development. We are an AI-driven engineering partner, working at the intersection of cloud infrastructure, data, and machine learning. Our distributed teams collaborate with enterprise clients and fast-growing startups across the US, Europe, and Latin America to design and build scalable platforms and solutions powered by cutting-edge technology.
+About the RoleWe are expanding our AI Team and looking for a Middle AI Developer to help build production-grade AI agents, NLQ workflows, and ML/LLM pipelines on Databricks. You will work with Python, LangChain/LangGraph, and MLFlow, focusing on reliability, data workflows, and MLOps best practices.
+ResponsibilitiesDevelop AI agents and NLQ workflows using LangChain &amp; LangGraph.Build and optimize pipelines in Databricks (PySpark, Unity Catalog).Implement MLOps with MLFlow (tracking, versioning, deployments).Write unit tests and contribute to improving the reliability of AI components.Apply guardrails and safety mechanisms for LLM outputs.Collaborate with engineering teams and maintain clear documentation.
+Requirements
+Must-HaveStrong Python skills; experience with Databricks (PySpark, Notebooks, Unity Catalog).Practical experience with LangChain &amp; LangGraph.Hands-on MLFlow experience (training, tracking, endpoints).Good SQL knowledge (MySQL and Databricks SQL).Understanding of LLM guardrails and multi-agent systems.Speaking and writing in English (B2)Nice-to-HaveExperience evaluating or fine-tuning LLMs (Llama, GPT, Gemini).Familiarity with NLQ systems, AI Assistants, and Marketing Mix Modelling.Knowledge of vector databases, NestJS/Prisma, or mixed-model architectures.Experience reducing AI/ML technical debt or working with Copilot/Gemini-in-IDE.Experience writing tests and using GitHub workflows (CI/CD).
+Personal SkillsProactive, fast-learning, detail-oriented.Strong analytical and problem-solving skills.Ability to work independently and in distributed teams.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4326797764</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326797764/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-12-12T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Data Science Expert (Python &amp; SQL) - AI Trainer (Freelance, Remote) - Braintrust y más</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Científico de Datos Senior en BairesDev
+Estamos buscando un destacado Científico de Datos Senior para unirse al Equipo de Investigación y Desarrollo (I+D) de BairesDev. Este profesional utilizará datos y técnicas de aprendizaje automático para ayudar al negocio a automatizar y escalar la toma de decisiones, principalmente mediante la producción de informes avanzados de análisis de datos y modelos basados en datos para inferir y predecir patrones.
+Actividades Principales:
+- Ayudar a mejorar el conocimiento de los datos y el entorno analítico general en toda la empresa.- Manejar datos estructurados y no estructurados utilizando SQL y otros lenguajes de programación.- Realizar análisis avanzados de datos e informar de los resultados.- Contar la historia detrás de los datos de una manera convincente para la gente de negocios.- Crear modelos predictivos y algoritmos de aprendizaje automático.- Combinar modelos mediante el modelado de conjuntos.- Proponer soluciones y estrategias para los retos empresariales.- Ayudar a diseñar y ejecutar experimentos para la comprobación de hipótesis.- Participar activamente en las discusiones y decisiones relativas a todo el capítulo de Data Science / Data Engineer.- Colaborar con los gestores de productos de datos para crear productos de datos impresionantes.- Trabajar con la dirección para priorizar las necesidades de negocio y de información.- Ayudar a difundir una mentalidad basada en los datos y a mejorar la alfabetización de datos. Ser un evangelizador de los datos.
+¿Qué Buscamos?:
+- 3+ años de experiencia en Data Science / Data Engineer, aprendizaje automático, IA, estadística y otras áreas relacionadas.- Dominio de SQL.- Dominio de Python, R u otro lenguaje de programación importante.- Excelentes habilidades de comunicación y capacidad para colaborar y establecer relaciones con usuarios no técnicos.- Sólidos conocimientos de probabilidad y estadística, incluido el diseño experimental, el modelado predictivo, la optimización y la inferencia causal.- Experiencia práctica con el aprendizaje automático, como la clasificación por regresión, la agrupación, las redes neuronales, la selección de características, la validación cruzada, la maldición de la dimensionalidad, el equilibrio entre sesgo y varianza, la explicabilidad del modelo, la PNL, etc.
+Deseable:
+- Experiencia en análisis o crecimiento de personas.- Experiencia con herramientas de visualización de datos.- Buena comprensión de los retos de ingeniería para el despliegue de sistemas de aprendizaje automático a la producción.
+Qué ofrecemos para que tu trabajo (y tu vida) seja mais fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.- Hardware y software.- Horarios flexibles- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4326758867</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326758867/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-12-12T23:09:12+00:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>«pytorch»: Data Science Expert (Python &amp; SQL) - AI Trainer (Freelance, Remote) - Braintrust y más</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Científico de Datos Senior en BairesDev
+Estamos buscando un destacado Científico de Datos Senior para unirse al Equipo de Investigación y Desarrollo (I+D) de BairesDev. Este profesional utilizará datos y técnicas de aprendizaje automático para ayudar al negocio a automatizar y escalar la toma de decisiones, principalmente mediante la producción de informes avanzados de análisis de datos y modelos basados en datos para inferir y predecir patrones.
+Actividades Principales:
+- Ayudar a mejorar el conocimiento de los datos y el entorno analítico general en toda la empresa.- Manejar datos estructurados y no estructurados utilizando SQL y otros lenguajes de programación.- Realizar análisis avanzados de datos e informar de los resultados.- Contar la historia detrás de los datos de una manera convincente para la gente de negocios.- Crear modelos predictivos y algoritmos de aprendizaje automático.- Combinar modelos mediante el modelado de conjuntos.- Proponer soluciones y estrategias para los retos empresariales.- Ayudar a diseñar y ejecutar experimentos para la comprobación de hipótesis.- Participar activamente en las discusiones y decisiones relativas a todo el capítulo de Data Science / Data Engineer.- Colaborar con los gestores de productos de datos para crear productos de datos impresionantes.- Trabajar con la dirección para priorizar las necesidades de negocio y de información.- Ayudar a difundir una mentalidad basada en los datos y a mejorar la alfabetización de datos. Ser un evangelizador de los datos.
+¿Qué Buscamos?:
+- 3+ años de experiencia en Data Science / Data Engineer, aprendizaje automático, IA, estadística y otras áreas relacionadas.- Dominio de SQL.- Dominio de Python, R u otro lenguaje de programación importante.- Excelentes habilidades de comunicación y capacidad para colaborar y establecer relaciones con usuarios no técnicos.- Sólidos conocimientos de probabilidad y estadística, incluido el diseño experimental, el modelado predictivo, la optimización y la inferencia causal.- Experiencia práctica con el aprendizaje automático, como la clasificación por regresión, la agrupación, las redes neuronales, la selección de características, la validación cruzada, la maldición de la dimensionalidad, el equilibrio entre sesgo y varianza, la explicabilidad del modelo, la PNL, etc.
+Deseable:
+- Experiencia en análisis o crecimiento de personas.- Experiencia con herramientas de visualización de datos.- Buena comprensión de los retos de ingeniería para el despliegue de sistemas de aprendizaje automático a la producción.
+Qué ofrecemos para que tu trabajo (y tu vida) seja mais fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.- Hardware y software.- Horarios flexibles- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4326826116</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326826116/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-12-12T21:35:02+00:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>«LLM»: Data Science Expert (Python &amp; SQL) - AI Trainer (Freelance, Remote) - Braintrust y más</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Job Description
+Job description
+Please submit your resume in English and indicate your level of English.
+At Mindrift, innovation meets opportunity. We believe in using the power of collective intelligence to ethically shape the future of AI.
+What We Do
+The Mindrift platform connects specialists with AI projects from major tech innovators. Our mission is to unlock the potential of Generative AI by tapping into real-world expertise from across the globe.
+About The Role
+GenAI models are improving very quickly, and one of our goals is to make them capable of addressing specialized questions and achieving complex reasoning skills. If you join the platform as an AI Tutor in Electrical Engineering, you’ll have the opportunity to collaborate on these projects.
+Although every project is unique, you might typically:
+Generate prompts that challenge AI.Define comprehensive scoring criteria to evaluate the accuracy of the AI’s answers.Correct the model’s responses based on your domain-specific knowledge.
+Requirements
+Bachelor's degree in a relevant field PLUS at least 1 years of relevant work experience, OR Master's degree or PhD in a relevant fieldlevel of English is advanced (C1)Proficiency in PythonStrong ability to design creative and diverse problems, particularly those that are computationally intensive and go beyond simple parameter modifications.You are ready to learn new methods, able to switch between tasks and topics quickly and sometimes work with challenging, complex guidelines.Our freelance role is fully remote so, you just need a laptop, internet connection, time available and enthusiasm to take on a challenge.
+Benefits
+Why this freelance opportunity might be a great fit for you?
+Take part in a part-time, remote, freelance project that fits around your primary professional or academic commitments.Work on advanced AI projects and gain valuable experience that enhances your portfolio.Influence how future AI models understand and communicate in your field of expertise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4326862496</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326862496/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-12-12T13:35:24+00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Data Science Expert (Python &amp; SQL) - AI Trainer (Freelance, Remote) - Braintrust y más</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>This is a remote position.Especialista en datos  
+Descripción de la posición  
+En Echez, empoderamos a nuestros clientes a triunfar en el mundo digital a través de la gestión del sistema comercial, protección de marca, análisis del mercado, inteligencia de mercado y generación de demanda en la búsqueda del desarrollo de su negocio digital. 
+Tu función principal es la recopilación, procesamiento y gestión de datos relevantes para la empresa o clientes, encargándote de su análisis estadístico y obteniendo de esa manera reportes con información útil para el seguimiento, control y toma de decisiones.
+Requirements
+Requerimientos:   
+Para postularte debes estar en cualquier parte de #Colombia y requieres ser profesional en Telecomunicaciones, sistemas, área industrial o electrónica, o carreras afines y tener experiencia de al menos 2 años trabajando en proyectos de tecnología y cargos con funciones similares o en los cuales se requiera manejo de datos, análisis estadísticos de información o inteligencia de negocios.
+· Programación en Python orientada a manipulación de datos (Pandas, PySpark, Scikit, Numpy, visualizaciones, EDA, Selenium, BS4, Scrapy, Request, manejo de API, entre otros). 
+· Experiencia y conocimientos sólidos en manejo de SQL (DML, DDL, TCL). Conceptos de administración de SQL y MDX deseable. 
+· Experiencia con MER u ORM con un lenguaje de programación. 
+· Conocimiento y/o experiencia en IA (desarrollo, evaluación, implementación). 
+· Conocimientos básicos de IaaS como Azure (de preferencia), AWS o GCP. 
+· Excel intermedio. 
+· Inglés nivel intermedio. 
+· Manejo de herramientas de control de versiones como Git (requerido) y de gestión de proyectos de desarrollo de software como Azure DevOps (Deseable). 
+Benefits
+¡Te ofrecemos!:  
+· Contrato indefinido 
+· Salario fijo + variable 
+· Modalidad de teletrabajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4349592039</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4349592039/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025-12-11T17:35:31+00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>«pytorch»: Pesonal Executive Assistant - AI &amp; Automation (Remote) - Paired</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Paired is a global staffing and recruiting agency that specializes in pairing remote work with top-tier talent. We admire the importance of innovative social media strategies and are committed to connecting talented individuals with great companies that need their unique skills. Our mission is to provide great jobs to talented people, no matter where they are located.We are looking for an Executive Assistant with strong AI and automation skills to support both personal and professional initiatives. This role combines executive support, project assistance, AI-driven problem solving, and workflow automation. You will work closely with an executive leading Digital Transformation in the energy industry, helping bring structure, clarity, and efficiency to a wide range of tasks.The role covers two areas:
+Personal: Helping integrate AI into day-to-day life, decision-making, planning, and productivity.Professional: Supporting the executive's work as Head of Digital Transformation, including research, documentation, automation, and structured execution.
+This is a full-time but flexible position (around 30 hours/week), with potential to grow. Mexico is strongly preferred, but LatAm candidates will also be considered.
+Key Responsibilities
+ Use AI tools to explore ideas, create drafts, summaries, insights, and research outputs.  Support the creation and development of AI-driven projects for personal and professional use.  Build workflows and automations using tools like Make, n8n, or Zapier.  Assist with data tasks such as organizing information, basic analysis, and AI-assisted reporting in Sheets/Excel.  Create structure through well-organized notes, dashboards, SOPs, docs, and templates.  Prepare talking points, meeting briefs, follow-ups, and documentation.  Manage tasks proactively, take ownership, and present clear recommendations.  Help streamline personal and professional systems using a combination of AI tools and automation.
+Requirements
+Experience as an Executive Assistant, Project Assistant, or similar support role. Experience with AI tools (ChatGPT, Claude, Gemini, etc.). Ability to build automations using Make, n8n, Zapier, or similar tools. Excellent written communication skills in English. Proactive thinker who can improve AI-generated ideas and validate outputs. Ability to learn complex topics quickly (no energy industry experience required). Strong organization, documentation, and information-structuring skills. Comfortable working independently and handling tasks with minimal direction. Based in Mexico preferred; LatAm acceptable. Bonus: Experience with Notion, Sheets/Excel, prompt engineering, or AI agents.
+Benefits
+USD Salary.Full-time but flexible role (around 30 hours per week) with potential to grow.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4342979083</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342979083/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025-12-11T15:36:38+00:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>«machine learning»: TELUS Digital - Online Data Analyst - Argentina publicado el 12/10/25</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Are you a detail-oriented individual with a passion for research and a good understanding of national and local geography? This freelance opportunity allows you to work at your own pace and from the comfort of your own home.
+A Day in the Life of an Online Data Analyst:In this role, you will be working on a project aimed at enhancing the content and quality of digital maps that are used by millions of people worldwideCompleting research and evaluation tasks in a web-based environment such as verifying and comparing data, and determining the relevance and accuracy of information.
+Join us today and be part of a dynamic and innovative team that is making a difference in the world!
+TELUS Digital AI CommunityOur global AI Community is a vibrant network of 1 million+ contributors from diverse backgrounds who help our customers collect, enhance, train, translate, and localize content to build better AI models. Become part of our growing community and make an impact supporting the machine learning models of some of the world’s largest brands.
+Qualification path
+No previous professional experience is required to apply to this role, however, working on this project will require you to pass the basic requirements and go through a standard assessment process. This is a part-time long-term project and your work will be subject to our standard quality assurance checks during the term of this agreement.
+Basic RequirementsFull Professional Proficiency in English &amp; Spanish languageBeing a resident in Argentina for the last 2 consecutive years and having familiarity with current and historical business, media, sport, news, social media, and cultural affairs in ArgentinaAbility to follow guidelines and conduct online research using search engines, online maps, and website informationFlexibility to work across a diverse set of task types, including maps, news, audio tasks, and relevanceDaily access to a broadband internet connection, computer, and relevant software
+AssessmentIn order to be hired into the program, you’ll take an open book qualification exam that will determine your suitability for the position and complete ID verification. Our team will provide you with guidelines and learning materials before your qualification exam. You will be required to complete the exam in a specific timeframe but at your convenience.
+Equal OpportunityAll qualified applicants will receive consideration for a contractual relationship without regard to race, color, religion, sex, sexual orientation, gender identity, national origin, disability, or protected veteran status. At TELUS Digital AI, we are proud to offer equal opportunities and are committed to creating a diverse and inclusive community. All aspects of selection are based on applicants’ qualifications, merits, competence, and performance without regard to any characteristic related to diversity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4342939106</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342939106/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-12-11T15:36:38+00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>«machine learning»: TELUS Digital - Online Data Analyst - Argentina publicado el 12/10/25</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Are you a detail-oriented individual with a passion for research and a good understanding of national and local geography? This freelance opportunity allows you to work at your own pace and from the comfort of your own home.
+A Day in the Life of an Online Data Analyst:In this role, you will be working on a project aimed at enhancing the content and quality of digital maps that are used by millions of people worldwideCompleting research and evaluation tasks in a web-based environment such as verifying and comparing data, and determining the relevance and accuracy of information.
+Join us today and be part of a dynamic and innovative team that is making a difference in the world!
+TELUS Digital AI CommunityOur global AI Community is a vibrant network of 1 million+ contributors from diverse backgrounds who help our customers collect, enhance, train, translate, and localize content to build better AI models. Become part of our growing community and make an impact supporting the machine learning models of some of the world’s largest brands.
+Qualification pathNo previous professional experience is required to apply to this role, however, working on this project will require you to pass the basic requirements and go through a standard assessment process. This is a part-time long-term project and your work will be subject to our standard quality assurance checks during the term of this agreement.
+Basic RequirementsFull Professional Proficiency in Spanish &amp; English languageBeing a resident in Chile for the last 2 consecutive years and having familiarity with current and historical business, media, sport, news, social media, and cultural affairs in ChileAbility to follow guidelines and conduct online research using search engines, online maps, and website informationFlexibility to work across a diverse set of task types, including maps, news, audio tasks, and relevanceDaily access to a broadband internet connection, computer, and relevant software
+AssessmentIn order to be hired into the program, you’ll take an open book qualification exam that will determine your suitability for the position and complete ID verification. Our team will provide you with guidelines and learning materials before your qualification exam. You will be required to complete the exam in a specific timeframe but at your convenience.
+Equal OpportunityAll qualified applicants will receive consideration for a contractual relationship without regard to race, color, religion, sex, sexual orientation, gender identity, national origin, disability, or protected veteran status. At TELUS Digital AI, we are proud to offer equal opportunities and are committed to creating a diverse and inclusive community. All aspects of selection are based on applicants’ qualifications, merits, competence, and performance without regard to any characteristic related to diversity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4343045951</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4343045951/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-12-11T15:36:38+00:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>«machine learning»: TELUS Digital - Online Data Analyst - Argentina publicado el 12/10/25</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>We are hiring freelance English &amp; Spanish speaking Online Data Analyst’s for a project aimed at improving the content and quality of digital maps, which are used by millions of users globally. The job would suit someone who is detail-oriented, likes doing research and has a good knowledge of national and local geography.
+This is a freelance position on a flexible schedule - you can work in your own time whenever work is available. You will be completing research and evaluation tasks in a web-based environment, eg verifying and comparing data, determining the relevance and accuracy of information. You will be provided with guidelines for each task, which need to be followed. The project offers a variety of tasks, and work is paid per task.
+RequirementsFull Professional Proficiency in English &amp; SpanishYou must be living in Mexico the last 2 consecutive yearsAbility to follow guidelines and do research online using search engines, online maps and website informationYou must have familiarity with current and historical business, media, sport, news, social media and cultural affairs in MexicoBeing open to work across a diverse set of Task Types (e.g. Maps, News, Audio tasks, Relevance)Applicants must be 18 years or over.
+Working on this project will require you to go through a standard recruitment process (including passing an open book assessment). This is a long-term project and your work will occasionally be subject to quality assurance checks.
+Why Join the TELUS International AI Community?Earn additional income with flexible hours to fit your lifestyleBetter work-life balanceBe your own bossComplimentary Well-Being package encompassing a wealth of well-being resources.Be part of an online community
+If you have any questions about the position, please contact our team at sourcingteam22@telusinternational.ai</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4343055590</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4343055590/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-12-11T15:36:38+00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>«machine learning»: TELUS Digital - Online Data Analyst - Argentina publicado el 12/10/25</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>We are hiring freelance English &amp; Spanish speaking Online Data Analyst’s for a project aimed at improving the content and quality of digital maps, which are used by millions of users globally. The job would suit someone who is detail-oriented, likes doing research and has a good knowledge of national and local geography.
+This is a freelance position on a flexible schedule - you can work in your own time whenever work is available. You will be completing research and evaluation tasks in a web-based environment, eg verifying and comparing data, determining the relevance and accuracy of information. You will be provided with guidelines for each task, which need to be followed. The project offers a variety of tasks, and work is paid per task.
+RequirementsFull Professional Proficiency in English &amp; SpanishYou must be living in Mexico the last 2 consecutive yearsAbility to follow guidelines and do research online using search engines, online maps and website informationYou must have familiarity with current and historical business, media, sport, news, social media and cultural affairs in MexicoBeing open to work across a diverse set of Task Types (e.g. Maps, News, Audio tasks, Relevance)Applicants must be 18 years or over.
+Working on this project will require you to go through a standard recruitment process (including passing an open book assessment). This is a long-term project and your work will occasionally be subject to quality assurance checks.
+Why Join the TELUS International AI Community?Earn additional income with flexible hours to fit your lifestyleBetter work-life balanceBe your own bossComplimentary Well-Being package encompassing a wealth of well-being resources.Be part of an online community
+If you have any questions about the position, please contact our team at sourcingteam14@telusinternational.ai</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4343215021</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4343215021/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025-12-11T15:36:38+00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>«machine learning»: TELUS Digital - Online Data Analyst - Argentina publicado el 12/10/25</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Are you a detail-oriented individual with a passion for research and a good understanding of national and local geography? This freelance opportunity allows you to work at your own pace and from the comfort of your own home.A Day in the Life of an Online Data Analyst:In this role, you will be working on a project aimed at enhancing the content and quality of digital maps that are used by millions of people worldwideCompleting research and evaluation tasks in a web-based environment such as verifying and comparing data, and determining the relevance and accuracy of information.Join us today and be part of a dynamic and innovative team that is making a difference in the world!TELUS Digital AI CommunityOur global AI Community is a vibrant network of 1 million+ contributors from diverse backgrounds who help our customers collect, enhance, train, translate, and localize content to build better AI models. Become part of our growing community and make an impact supporting the machine learning models of some of the world’s largest brands.Qualification Path:No previous professional experience is required to apply to this role, however, working on this project will require you to pass the basic requirements and go through a standard assessment process. This is a part-time long-term project and your work will be subject to our standard quality assurance checks during the term of this agreement.Basic RequirementsFull Professional Proficiency in English &amp; SpanishBeing a resident in Mexico for the last 2 consecutive years and having familiarity with current and historical business, media, sport, news, social media, and cultural affairs in MexicoAbility to follow guidelines and conduct online research using search engines, online maps, and website informationFlexibility to work across a diverse set of task types, including maps, news, audio tasks, and relevanceDaily access to a broadband internet connection, computer, and relevant softwareAssessmentIn order to be hired into the program, you’ll take an open book qualification exam that will determine your suitability for the position and complete ID verification. Our team will provide you with guidelines and learning materials before your qualification exam. You will be required to complete the exam in a specific timeframe but at your convenience.Equal OpportunityAll qualified applicants will receive consideration for a contractual relationship without regard to race, color, religion, sex, sexual orientation, gender identity, national origin, disability, or protected veteran status. At TELUS Digital AI, we are proud to offer equal opportunities and are committed to creating a diverse and inclusive community. All aspects of selection are based on applicants’ qualifications, merits, competence, and performance without regard to any characteristic related to diversity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4343204869</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4343204869/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025-12-11T15:36:38+00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>«machine learning»: TELUS Digital - Online Data Analyst - Argentina publicado el 12/10/25</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Are you a detail-oriented individual with a passion for research and a good understanding of national and local geography? This freelance opportunity allows you to work at your own pace and from the comfort of your own home.A Day in the Life of an Online Data Analyst:In this role, you will be working on a project aimed at enhancing the content and quality of digital maps that are used by millions of people worldwideCompleting research and evaluation tasks in a web-based environment such as verifying and comparing data, and determining the relevance and accuracy of information.Join us today and be part of a dynamic and innovative team that is making a difference in the world!TELUS Digital AI CommunityOur global AI Community is a vibrant network of 1 million+ contributors from diverse backgrounds who help our customers collect, enhance, train, translate, and localize content to build better AI models. Become part of our growing community and make an impact supporting the machine learning models of some of the world’s largest brands.Qualification Path:No previous professional experience is required to apply to this role, however, working on this project will require you to pass the basic requirements and go through a standard assessment process. This is a part-time long-term project and your work will be subject to our standard quality assurance checks during the term of this agreement.Basic RequirementsFull Professional Proficiency in English &amp; SpanishBeing a resident in Mexico for the last 2 consecutive years and having familiarity with current and historical business, media, sport, news, social media, and cultural affairs in MexicoAbility to follow guidelines and conduct online research using search engines, online maps, and website informationFlexibility to work across a diverse set of task types, including maps, news, audio tasks, and relevanceDaily access to a broadband internet connection, computer, and relevant softwareAssessmentIn order to be hired into the program, you’ll take an open book qualification exam that will determine your suitability for the position and complete ID verification. Our team will provide you with guidelines and learning materials before your qualification exam. You will be required to complete the exam in a specific timeframe but at your convenience.Equal OpportunityAll qualified applicants will receive consideration for a contractual relationship without regard to race, color, religion, sex, sexual orientation, gender identity, national origin, disability, or protected veteran status. At TELUS Digital AI, we are proud to offer equal opportunities and are committed to creating a diverse and inclusive community. All aspects of selection are based on applicants’ qualifications, merits, competence, and performance without regard to any characteristic related to diversity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4326312462</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326312462/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025-12-10T21:34:59+00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>«NLP»: EVT - Cientista de Dados Júnior (56381) publicado el 12/9/25</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Há mais de 20 anos, a EVT é referência em soluções corporativas de TI, promovendo a transformação digital de seus parceiros e clientes. Com uma equipe altamente qualificada, atuamos tanto no desenvolvimento de soluções quanto na alocação de profissionais especializados dentro dos nossos clientes.
+Atendemos grandes empresas dos mais diversos segmentos, sempre com foco em oferecer tecnologia de ponta, contato próximo e resultados que geram valor real para os negócios. 🤝💙
+Na EVT, vivemos nossos valores no dia a dia: Respeito, Parceria, Eficiência, Inovação e Resultados. É isso que garante entregas de qualidade e relações duradouras com nossos clientes e colaboradores. ✨
+Se você busca um ambiente colaborativo, cheio de desafios que impulsionam sua carreira, venha fazer parte de uma equipe que valoriza o talento e a dedicação de cada profissional!
+Informações Da Oportunidade
+Atuação: Remota | Part time
+Período: indeterminado
+Modelo de trabalho: Prestador de serviço (PJ)
+Responsabilidades
+Estamos em busca de um(a) Cientista de Dados Júnior para apoiar análises, preparação de dados e geração de insights que contribuam para a tomada de decisão. Buscamos alguém com boa base em Python, manipulação de dados (Pandas/SQL), noções de estatística e interesse em evoluir em técnicas analíticas. Conhecimentos básicos de machine learning serão considerados um diferencial.
+Requisitos
+Conhecimento em Python para análise e tratamento de dados.Experiência com Pandas e consultas SQL.Noções de estatística básica (médias, desvio padrão, correlação, probabilidades simples).Capacidade de organizar, limpar e preparar dados
+Desejáveis 
+Noções iniciais de machine learning (regressão, classificação, métricas básicas).Experiência com notebooks (Jupyter/Colab).Familiaridade com ferramentas de BI (Power BI, Tableau ou similares).Noções de versionamento com Git.Inglês intermediário/Avançado 
+Benefícios
+Programas de incentivo a aprendizados (udemy) ;Aulas de inglês corporativo com valores acessivos .
+Etapas Do Processo
+CadastroEntrevista RHEntrevista Cliente/TécnicaContrato
+Vamos juntos? 🚀💙</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4342642975</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342642975/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2025-12-10T19:37:53+00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Research Assistant (Remote) - Quik Hire Staffing y más</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>About the Role:Join the top 1% of experts worldwide to help shape the future of artificial intelligence. Work remotely, earn $500 - $900 USD/week, and enjoy a flexible schedule (5–40 hours/week)
+Key Responsibilities:Create and refine challenging prompts and problem solutionsDevelop scoring rubrics and evaluate AI model outputsAnalyse and review model performance with clear feedbackCollaborate with international experts and AI teams
+Qualifications:Master’s or PhD (or currently enrolled) in a relevant fieldDemonstrated subject matter expertiseStrong analytical, problem-solving, and communication skillsExcellent written EnglishValid permanent ID from the country of work
+You are eligible if you are from one of the fields mentioned below.EcologyPhysicsChemistryMathematicsChemical EngineeringEnvironmental Studies
+If you are from one of the locations, you can apply:EUUSUKArgentinaAustraliaCanadaMexicoPuerto Rico
+Ready to join a truly global community of experts and shape tomorrow’s AI? Apply now!</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4348786929</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4348786929/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025-12-10T19:37:53+00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Research Assistant (Remote) - Quik Hire Staffing y más</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>6</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Ingeniero(a) de Machine Learning – KosmetikOn (Colombia)📄 Sobre KosmetikOn / Labify®KosmetikOn es una empresa tecnológica especializada en soluciones de IA y PLM (Product Lifecycle Management) para la industria cosmética, de fragancias y productos de cuidado personal. A través de nuestra plataforma Labify®, apoyamos a laboratorios, marcas y fabricantes en sus procesos de formulación, producción, control de calidad y cumplimiento regulatorio. Trabajamos con equipos internacionales y multidisciplinarios, con un entorno dinámico, innovador y orientado al crecimiento.🎯 Descripción del cargoBuscamos un Ingeniero(a) de Machine Learning para unirse al equipo de Data &amp; AI en Colombia (modalidad remota o híbrida). La misión del rol es diseñar, construir, desplegar y mantener modelos y sistemas de IA/ML que ayuden a optimizar procesos de I+D, formulación y analítica en la industria cosmética.✅ Responsabilidades principalesDiseñar, entrenar y mantener modelos de machine learning (predicción, recomendación, optimización, clasificación, etc.).Construir y gestionar pipelines de datos: recolección, limpieza, transformación y preparación para entrenamiento.Desplegar modelos en producción, integrarlos con aplicaciones existentes y asegurar su estabilidad y rendimiento.Colaborar con los equipos de desarrollo, data science y producto para definir requisitos y métricas.Monitorear el desempeño de modelos, automatizar retraining y gestionar versiones del modelo.Producir documentación técnica clara sobre los modelos, procesos y decisiones.Implementar buenas prácticas de MLOps: CI/CD, monitoreo, pruebas, reproducibilidad y versionamiento.🎓 Requisitos del cargoPregrado en Ingeniería de Sistemas, Computación, Ciencia de Datos, Matemáticas, Estadística o áreas afines.Dominio de Python y librerías comunes de ML/DL (NumPy, pandas, scikit-learn, TensorFlow o PyTorch).Experiencia práctica construyendo y desplegando modelos de machine learning.Conocimientos de SQL y manejo de bases de datos.Experiencia con limpieza, preparación y manejo de datos (ETL/ELT).Comprensión de buenas prácticas de ingeniería: Git, documentación, código limpio.Capacidad analítica, atención al detalle y habilidades para la resolución de problemas.Inglés B1/B2 o superior para documentación y comunicación con equipos internacionales (deseable).🌟 Plus / DeseableExperiencia previa con datos o procesos de formulación, cosmética, química o manufactura.Experiencia en sistemas de recomendación, modelos predictivos o analítica aplicada a negocios.Conocimiento de plataformas cloud (AWS, GCP o Azure).Familiaridad con Docker, orquestación de servicios y CI/CD.Interés por IA aplicada a PLM, innovación y desarrollo de productos.💼 BeneficiosEntorno de trabajo dinámico, innovador y colaborativo.Oportunidad de crecimiento profesional dentro de un equipo internacional.Trabajo remoto o híbrido según acuerdo.Participación en proyectos de impacto dentro de la industria cosmética global.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4348853962</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4348853962/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2025-12-10T19:37:53+00:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Research Assistant (Remote) - Quik Hire Staffing y más</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>7</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Data Science &amp; AI Consultant  [Part-Time and Full-Time | Senior and Junior roles]  Are you looking for the next step in your technical career? Do you want to work on AI or data/analytics projects with cutting-edge technology? Do you want the flexibility to work remotely while continuing to grow professionally? Do you thrive in entrepreneurial environments where your contributions make a difference?  At Proactive Intelligence, you’ll contribute to a variety of challenging, modern AI/ML, data engineering, and analytics initiatives across multiple clients and industries. You’ll have the freedom to do your best work with a team that values excellence, integrity, collaboration, and innovation.  Position Summary The Data Science &amp; AI Consultant is a client-facing, hands-on consulting and engineering role responsible for designing, building, and delivering end-to-end AI, machine learning, and data analytics solutions.  This position blends deep technical expertise, practical engineering skills, and business acumen to create impactful solutions across: Classical ML and statistical modeling Generative AI, LLMs, RAG pipelines, and agentic systems Data engineering, data modeling, and cloud data ecosystems Business intelligence, analytics, and decision-support solutions Production-grade AI/ML deployment and lifecycle management  We offer both part-time and full-time consulting roles. Consultants may work on a single client engagement or across multiple projects depending on availability and interest. The work is remote, flexible, and structured around clear scopes, deliverables, and client needs. Projects range from research and proof-of-concepts, to MVPs and production-ready systems.  We have opportunities for both senior and junior professionals. Whether you have been working in data science for 7+ years or are early in your journey, we’re looking for individuals who are eager to learn, willing to work hard toward that goal, and able to demonstrate the curiosity, problem-solving ability, and rapid-learning skills needed to grow into a data science expert at an accelerated pace.  Success in this flexible role requires exceptional collaboration and teamwork. You will work closely with project leaders, subject matter experts, architects, peer developers/engineers, and other specialists to deliver outcomes aligned with each agile sprint or project phase. The role demands adaptability, strong communication skills, and the ability to thrive in fast-moving environments.  This role is ideal for someone who values flexibility, is energized by variety, pursues continuous learning, and takes personal ownership of outcomes. The strongest candidates excel in client-focused consulting environments and move seamlessly between research, prototyping, engineering, delivery, and hands-on collaboration with stakeholders.  What You’ll DoActivities may vary from project to project, but in general, you will be responsible for one or multiple major deliverables or components of the project and perform a variety of tasks such as:Engage directly with client stakeholders to understand business objectives, challenges, requirements, and data context, translating them into clear solution approaches. Architect end-to-end solutions that combine analytics, BI, data engineering, machine learning, and AI in ways that deliver real business value. Design and implement AI/ML/BI solutions that combine traditional analytical methods with modern GenAI and automation capabilities, delivering measurable business value. Build and optimize data workflows, ELT/ETL pipelines, semantic layers, feature stores, and analytics-ready datasets. Develop and deploy AI-powered applications, chatbots, agentic workflows, and document-processing solutions. Support BI and analytics initiatives by creating dashboards, KPI frameworks, semantic structures, and automated insights that drive decision-making. Ensure high standards of quality, performance, and responsible AI across all deliverables, and alignment with security, privacy, and compliance standards. Produce clear documentation and handoffs; support client teams during deployment and transition to ensure long-term maintainability. Work collaboratively with architects, engineers, analysts, and project managers to deliver high-value outcomes. Operate with autonomy and accountability—owning assigned workstreams and delivering timely while contributing to a culture of excellence, learning, and trust.  Why This Role Is Unique Flexible Schedule: part-time or full-time, subject to your availability. Variety: Take on diverse challenges across a variety of project types, platforms, and industries. Modern Stack: Build with cutting-edge technologies and best practices in generative AI, LLMs, cloud data platforms, and modern AI engineering. Hands-On Impact: See your talent directly drive innovation, measurable results, and client success. Entrepreneurial Environment: Join a team that values innovation, ownership, personal accountability, continuous learning, and excellence.  Required Qualifications – Junior Roles Education in Computer Science, Data Science, Engineering, Statistics, Mathematics, or a related field. 1–3 years of experience applying data science, analytics, machine learning, or AI. (Experience in data engineering or software development is a plus.) Advanced proficiency in SQL and Python, with hands-on use in data pipelines, analytics, or data science projects. (Knowledge of additional programming languages or BI tools is a plus.) Solid understanding of statistics, machine learning, and foundational AI concepts. Experience prompting commercial LLMs or AI agents (e.g., ChatGPT, Claude) to enhance productivity. Demonstrated ability to learn rapidly and apply new techniques in real-world, complex projects. Strong desire to learn and develop the full skill set required for the Senior role. Excellent analytical and quantitative reasoning skills. Strong communication skills and a willingness to collaborate, ask questions, and contribute effectively to team delivery. Curiosity, accountability, and a genuine passion for growing into a strong data science and AI professional.  Required Qualifications – Senior Roles Bachelor’s or master’s degree in computer science, Data Science, Engineering, Statistics, Mathematics, or a related field. 7+ years of professional experience working with data and technology 5+ years hands-on experience in machine learning or advanced data science roles 1+ years hands-on experience in generative AI solutions (AI Agents, Agentic Workflows, RAG Pipelines, LLM-powered applications, etc.) Strong proficiency in Python and SQL, including experience with the broader data/AI ecosystem: analytical libraries (Pandas, NumPy, SciPy, Statsmodels), classical ML frameworks (Scikit-learn, XGBoost, LightGBM, CatBoost), deep learning frameworks (PyTorch, TensorFlow, Keras), NLP/LLM libraries (SpaCy, Hugging Face Transformers), vector and embedding tools, and GenAI orchestration frameworks (LangChain, LangGraph, LlamaIndex, or similar.) Solid understanding of machine learning, statistical analysis, predictive modeling, and model performance evaluation techniques. Hands-on experience working with structured, semi-structured, and unstructured data across diverse data sources. Experience designing or maintaining data pipelines, transformation workflows, and analytical data models. Experience with databases, data warehouses, and data lakes, such as Snowflake, BigQuery, Redshift, Synapse, or Databricks Lakehouse. Knowledge of modern cloud platforms such as Azure, AWS, or GCP, including cloud-native data and AI/ML services. Competence building dashboards, reports, or analytics solutions using Power BI, Tableau, or similar BI tools. Strong problem-solving skills with the ability to break down complex issues and design effective analytical or AI solutions. Understanding of AI safety, responsible AI principles, and evaluation techniques to ensure that AI systems meet expected standards of correctness, relevance, robustness, consistency, and alignment with business, ethical, and safety requirements. Excellent verbal and written communication skills in English, including the ability to present findings to both technical and non-technical audiences. Ability to work independently and collaboratively in fast-moving, client-facing consulting environments.  Additional Nice-to-Have Skills Experience working in consulting environments Dbt or modern data transformation frameworks. Enterprise AI platforms and model-serving ecosystems (AWS Bedrock, Azure AI Foundry, GCP Vertex AI, or similar). Non-SQL databases, including NoSQL, document stores, or key-value stores (e.g., MongoDB, DynamoDB, CosmosDB). Vector databases, retrieval/reranking pipelines, and enterprise RAG or LLM orchestration frameworks. Graph databases (e.g., Neo4j, Neptune) for relationship-based analytics or entity linkage problems. Feature stores, metrics layers, or semantic modeling frameworks. MDM (Master Data Management) or entity resolution workflows. Optimization techniques (operations research, linear/nonlinear optimization, heuristic methods) to support prescriptive analytics. Hands-on experience implementing DevOps, DataOps, MLOps, or AIOps (CI/CD, monitoring, observability, versioning, model lifecycle management). Knowledge of APIs, microservices, cloud integrations, or embedding BI/AI/ML into applications or automation workflows. Strong skills in secondary programming languages (e.g., JavaScript/TypeScript, C#, Java) and experience applying them in application development, integration work, or building production-grade backend and frontend services. Prior experience mentoring or supporting junior team members.  Application - If you want to learn more and to apply, please contact careers@proactiveintelligence.com  About Proactive Intelligence - Learn more about Proactive Intelligence (a.k.a. Proactive Ingredient) in https://proactiveintelligence.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4342733532</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342733532/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2025-12-10T19:37:53+00:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Research Assistant (Remote) - Quik Hire Staffing y más</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>5</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>We're hiring Coding Experts (Spanish Proficiency) Earn Up to $5,000/Month as a Coding Expert (Remote/Flexible)
+Location: Open to professionals based in Mexico, Brazil, Colombia, Argentina, Chile, Peru, Guatemala, Honduras, Puerto Rico, and the Dominican Republic.
+About the RoleOutsmart Artificial Intelligence with your expertise. Join a global community of coding professionals to shape the future of AI. As part of our contributor network, you will help train and refine large language models by solving programming problems, reviewing AI-generated code, and providing feedback to improve system performance.
+This is a remote freelance opportunity that offers flexibility, competitive pay, and the chance to work on cutting-edge AI projects.
+Key ResponsibilitiesCreate and answer computer science-related questions to train AI models.Review, analyze, and evaluate AI-generated code for accuracy, efficiency, and reliability.Provide constructive feedback to improve AI responses.Explain complex programming concepts clearly in both Spanish and English.Collaborate on multiple projects depending on your skills and experience.
+What We’re Looking ForBachelor’s degree or higher in Computer Science (from a selective institution) or currently pursuing.Proficiency in at least one of the following programming languages: Python, Java, JavaScript, or C++.Strong ability to articulate technical concepts in written and spoken Spanish and English.Excellent attention to detail, problem-solving skills, and clear technical writing ability.Preferred: 1+ years of experience as a Software Engineer, Back-End Developer, or Full Stack Developer.
+Compensation and BenefitsEarn $15 – $32 USD per hour, paid weekly (via PayPal or AirTM).Rates vary based on expertise, accuracy, and project complexity.Flexible schedule: work 5–10 hours per week, up to 40 hours.Remote, work-from-home setup.Free access to the Model Playground to interact with and test large language models.Join a global network of experts contributing to advancements in AI technology.
+Why join us?Total Flexibility: Work anytime, anywhere - no contracts, no restrictions.Lucrative Pay: Earn up to $5,000/month, with weekly payouts via PayPal or AirTM.Global Impact: Help develop smarter, safer AI tools for millions of users.
+Fluent Spanish is a must, as you'll need to explain complex programming concepts clearly in Spanish.
+🚀 Ready to revolutionise AI with your coding expertise? Apply now and be part of the transformation!</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4326069835</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326069835/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2025-12-10T19:37:53+00:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Research Assistant (Remote) - Quik Hire Staffing y más</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>At BairesDev®, we've been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the world's Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, you're taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Artificial Intelligence + Python Engineer at BairesDev
+We are seeking an Artificial Intelligence + Python Engineer to develop and deploy intelligent systems and machine learning solutions. You'll combine strong Python programming skills with AI expertise to build innovative applications that solve complex problems. This role offers the opportunity to work on cutting-edge AI projects while delivering scalable, production-ready solutions.
+What You'll Do:
+- Design and develop AI models and machine learning solutions using Python.- Build and train deep learning models using TensorFlow or PyTorch.- Implement AI algorithms for various applications and use cases.- Optimize model performance and ensure scalability in production environments.- Collaborate with data scientists and engineers to deploy AI solutions.- Stay current with emerging AI technologies and best practices.
+What we are looking for:
+- 3+ years of Python development experience with focus on AI/ML.- Strong knowledge of machine learning algorithms and frameworks.- Experience with TensorFlow, PyTorch, or similar deep learning frameworks.- Understanding of AI model development lifecycle.- Knowledge of data preprocessing and feature engineering.- Experience deploying AI models to production.- Advanced level of English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).- Excellent compensation in USD or your local currency if preferred- Hardware and software setup for you to work from home.- Flexible hours: create your own schedule.- Paid parental leaves, vacations, and national holidays.- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4342613986</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342613986/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2025-12-10T15:36:34+00:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>«machine learning»: Quik Hire Staffing - Research Assistant (Remote) publicado el 12/8/25</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>About the Role:Join the top 1% of experts worldwide as a Research Assistant to help shape the future of artificial intelligence. Work remotely, earn $500 - $1000 USD/week, and enjoy a flexible schedule (5–40 hours/week)
+You are eligible if you belong to the Earth Sciences field.
+If you are from one of the locations, you can apply:AR, AU, BE, BR, CA, CO, DE, ES, IR, IT, LU, MX, NL, NZ, FR, PR, UK, US
+Key Responsibilities:Create and refine challenging prompts and problem solutionsDevelop scoring rubrics and evaluate AI model outputsAnalyse and review model performance with clear feedbackCollaborate with international experts and AI teams
+Qualifications:Master’s or PhD (or currently enrolled) in a relevant fieldDemonstrated subject matter expertiseStrong analytical, problem-solving, and communication skillsExcellent written English
+Ready to join a truly global community of experts and shape tomorrow’s AI?</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4342683771</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342683771/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2025-12-10T15:36:34+00:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>«machine learning»: Quik Hire Staffing - Research Assistant (Remote) publicado el 12/8/25</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>5</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>We're hiring a Data Analyst (Spanish Proficiency)Earn Up to $5,000/Month as a Coding Expert (Remote/Flexible)
+Location: Mexico, Brazil, Colombia, Argentina, Chile, Peru, Guatemala, Honduras, Puerto Rico, and the Dominican Republic.
+About the RoleJoin a global community of coding professionals shaping the next generation of Artificial Intelligence. As a Coding Expert, you’ll use your technical knowledge to train, evaluate, and refine AI systems, helping them better understand and generate high-quality code.This is a remote, flexible opportunity that lets you work on impactful projects while earning up to $32/hour, paid weekly.
+What You’ll DoCreate and answer computer science–related questions to train AI models.Review, test, and evaluate AI-generated code for correctness, clarity, and efficiency.Provide structured, detailed feedback to enhance AI model reasoning and output.Collaborate across diverse technical domains and languages.
+What We’re Looking ForEducation: Bachelor’s degree (or higher) in Computer Science or a related field.Technical Skills: Strong proficiency in Python, Java, JavaScript, or C++.Language Skills: Fluent in Spanish (required) and English (preferred).Writing Skills: Ability to explain programming concepts clearly in Spanish.Experience (Preferred): 1+ year as a Software Engineer, Backend Developer, or Full Stack Developer.
+Compensation &amp; BenefitsSchedule: Flexible, choose your own hours (typically 5–10 hours/week, up to 40).Perks:Free access to the Model Playground to interact with leading AI models.Join a global network of experts contributing to world-class AI systems.No contracts or fixed hours, complete flexibility and remote freedom.
+Fluent Spanish is a must, as you'll need to explain complex programming concepts clearly in Spanish.
+🚀 Ready to revolutionise AI with your coding expertise? Apply now and be part of the transformation!</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4342643783</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342643783/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2025-12-10T15:36:34+00:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>«machine learning»: Quik Hire Staffing - Research Assistant (Remote) publicado el 12/8/25</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>About the Role:Join the top 1% of experts worldwide as a Research Assistant to help shape the future of artificial intelligence. Work remotely, earn $500 - $1000 USD/week, and enjoy a flexible schedule (5–40 hours/week)
+You are eligible if you belong to the Earth Sciences field.
+If you are from one of the locations, you can apply:AR, AU, BE, BR, CA, CO, DE, ES, IR, IT, LU, MX, NL, NZ, FR, PR, UK, US
+Key Responsibilities:Create and refine challenging prompts and problem solutionsDevelop scoring rubrics and evaluate AI model outputsAnalyse and review model performance with clear feedbackCollaborate with international experts and AI teams
+Qualifications:Master’s or PhD (or currently enrolled) in a relevant fieldDemonstrated subject matter expertiseStrong analytical, problem-solving, and communication skillsExcellent written English
+Ready to join a truly global community of experts and shape tomorrow’s AI?</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4326380541</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326380541/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2025-12-10T13:39:51+00:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Machine Learning and Data Science Specialist - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>WinDifferent specializes in helping businesses achieve rapid and sustainable growth through our powerful proprietary marketing system. Our data-driven solutions generate positive engagement that leads to ready-to-close opportunities, massively expanding sales pipelines and enabling companies to scale faster than the competition.
+As one of WinDifferent's best success stories, BairesDev helps us to find the best talent worldwide and invites them to explore our continually growing job opportunities.
+Machine Learning and Data Science Specialist at WinDifferent
+We are looking for a Machine Learning and Data Science Specialist to serve as the owner of the ML algorithms powering SellDifferent’s campaign segmentation and targeting system. This role is central to the product’s success, managing a massive system with millions of data points and ensuring models directly impact business outcomes. You’ll optimize, supervise, and evolve ML pipelines, driving innovation and reliability in one of the most important components of the platform.
+What You’ll Do:
+- Optimize existing machine learning algorithms to improve accuracy and performance.- Propose, design, and implement new ML features that enhance product capabilities.- Supervise and monitor machine learning performance at scale.- Define ML requirements and collaborate with engineering and product teams to bring them to life.- Handle administrative and organizational duties related to ML initiatives.
+What We Are Looking For:
+- 5+ years of experience in Machine Learning, including at least 4 years building the end-to-end model development lifecycle (requirements definition, feature discovery, model training/registration, deployment, monitoring, and MLOps).- Proficiency in SQL and Python, with strong knowledge of data and ML frameworks.- Solid fundamentals in probability and statistics.- Business-minded approach with proven stakeholder management skills — able to define your own work based on conversations with senior leaders.- Product-oriented mindset: you design ML pipelines with direct business impact and thrive in ownership-heavy environments.- Familiarity with development best practices and navigating complex production codebases.- Postgraduate degree in Machine Learning or Data Science.
+Desirable Qualifications:
+- Experience with Databricks.- Experience implementing machine learning explainability pipelines.- Experience with orchestration tools such as Airflow.- Experience applying machine learning to marketing use cases.
+How we do make your work (and your life) easier:
+- 100% remote work.- Work-from-home hardware setup.- Flexible hours - make your schedule.- PTO, parental leave, and other special leaves.- English classes.- Personal loans with 0% interest, following the company's policies.- Udemy for Business (subject to manager's approval).- An excellent compensation package — well above the market average.- You can grow at the speed of your learning curve.- An innovation-driven, diverse, and multicultural work environment that provides the support and resources for its professionals to thrive.- The chance and resources to be a game-changer for one of America's fastest-growing companies.
+Join a global team where your unique AI talents can truly thrive and make a significant impact!
+Apply Now!</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4326119765</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326119765/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2025-12-10T13:39:51+00:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Machine Learning and Data Science Specialist - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Persona is the company top startups use to hire people from all around the world. Our vision is a future where each person can find the best role for them and companies can discover the world’s best talent. Founded by two Stanford University graduates, Persona works with the world’s fastest-growing technology startups. Our clients are funded by some of the world’s top investors, like Founders Fund, Sequoia Capital, and Andreessen Horowitz.
+Persona is a talent agency that recruits, trains, and staffs talented remote professionals such as yourself. This is an opportunity to work closely with the future Googles, Facebooks, and Amazons of the world—building out their organizations and helping them reach the next level of success.
+We support everyone we hire with training, mentoring, and technology resources so they are enabled to do their best and are as happy as possible in their roles. We have a large international team dedicated to supporting and taking care of new Persona team members, and our goal is to provide excellent long-term career opportunities for everyone who joins the team.
+Who’s building Persona?We are a global team of passionate problem solvers who love to build new things and make our customers happy. Our team is made up of motivated, hard-working people spanning the globe, united by a culture of learning and continuous improvement.
+What we’re looking for:We are looking for a Data Scientist who will work on building models, analyzing large datasets, and creating tools that power our investment decisions. You'll play a strategic role in leveraging data to identify high-potential startups and improve how we evaluate and support portfolio companies.
+Responsibilities—what you'll do:Build and maintain predictive models to score startups and markets.Apply machine learning techniques to extract insights from structured and unstructured data.Use historical deal flow and startup performance data to improve sourcing and screening.Design tools and internal systems that support scalable decision-making.Automate data pipelines and workflows to reduce manual work.Integrate third-party data (e.g., Crunchbase, PitchBook, LinkedIn) into internal platforms.Work with the investment team to validate insights and hypotheses using data.Provide technical support during due diligence processes.Translate complex models and insights into actionable recommendations.Help roll out native AI solutions across the firm to improve efficiency and deal quality
+Requirements:Bachelor’s or Master’s degree in Statistics, Computer Science, Data Science, Applied Mathematics, or a related field.4+ years of experience in data science, machine learning, or analytics.Prior experience in startups or venture capital firms is strongly preferred; a demonstrated interest is a plus.Experience in Python or R for data analysis and modeling.Strong SQL skills.Experience working with APIs and data scraping.Ability to work U.S. business hours (Pacific Time, Central Time, or Eastern Time)This position is for serious, career-oriented candidates
+Qualities we look for:Strong problem-solving skills and analytical thinking.Ability to explain complex concepts to non-technical audiences.Comfortable working independently and exploring messy datasets.Interest in using data to drive strategic decisions.
+What we offer:Best salaries in the industryPermanent ability to work from anywhere in the worldOpportunities for growth and advancementA fast-paced and collaborative environmentWarm and friendly company cultureFull benefits
+Benefits at Persona:Health insuranceUnlimited paid time off (paid sick and vacation leaves)Annual bonuses based on performanceMonthly tech allowanceOpportunity to be paid in your currency of choiceOthers depending on seniority
+This is a full-time and long-term role. We are looking for individuals who are ready to fully commit their time and energy to one company and grow and develop along with that company. All roles at Persona are 100% work-from-anywhere (work from home or wherever it suits you best). If this is your first time working for a U.S. company, that’s okay; we provide guidance and assistance getting set up as a remote professional. Once hired, we will carefully match you to a client company of ours that perfectly suits your career background, skills, and goals.
+Visit our website for more information: https://www.personatalent.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4326256699</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326256699/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2025-12-10T13:39:51+00:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Machine Learning and Data Science Specialist - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>This is a remote position to work from LATAM collaborating with US clients. 
+We offer:100% Remote Work$35-$40 USD per hour
+Title: Senior Applied Scientist (AI/ML)
+The Senior Applied Scientist owns the development and deployment of machine learning solutions and influences the technical direction of their team. They will work closely with Product and Engineering partners in the development of the solution.
+Lead the development and deployment of Machine Learning solutions to solve business problems.Develop and maintain clean, efficient, and scalable code that meets industrystandardsAnalyze large datasets to extract actionable insights and make informed decisions.Employ state-of-the-art Machine Learning methodologies and frameworks to develop robust and scalable models.
+Required Qualifications:5+ years of industry experience in applied Machine Learning Masters Degree or PhD in CS / ML, statistics, operation research or related field 3+ years experience in building, deploying, and managing machine learning and deep learning models in production environments at scale Deep understanding of ML best practices (A/B testing, training/serving pipelines, feature engineering etc), algorithms/techniques (gradient boosting, deep neural networks, transformers, optimization, regularization), and experiment design Experience in Computer Vision. Additional experience in Causal Inference is highly desirable.Extensive experience in scientific libraries in Python (numpy, pandas, polars) and Machine Learning tools and frameworks (PyTorch, Tensorflow, Keras, Scikit-Learn)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4326391471</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326391471/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2025-12-09T19:35:06+00:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>«Computer vision»: Freelance Software Engineer - AI Projects (Remote) - Quik Hire Staffing y más</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>This is a remote position to work from LATAM collaborating with US clients. 
+We offer:100% Remote Work$35-$40 USD per hour
+Title: Senior Machine Learning Engineer
+The Senior Applied Scientist owns the development and deployment of machine learning solutions and influences the technical direction of their team. They will work closely with Product and Engineering partners in the development of the solution.
+Lead the development and deployment of Machine Learning solutions to solve business problems.Develop and maintain clean, efficient, and scalable code that meets industrystandardsAnalyze large datasets to extract actionable insights and make informed decisions.Employ state-of-the-art Machine Learning methodologies and frameworks to develop robust and scalable models.
+Required Qualifications:5+ years of industry experience in applied Machine LearningMasters Degree or PhD in CS / ML, statistics, operation research or related field3+ years experience in building, deploying, and managing machine learning and deep learning models in production environments at scaleDeep understanding of ML best practices (A/B testing, training/serving pipelines, feature engineering etc), algorithms/techniques (gradient boosting, deep neural networks, transformers, optimization, regularization), and experiment designExperience in Computer Vision. Additional experience in Causal Inference is highly desirable.Extensive experience in scientific libraries in Python (numpy, pandas, polars) and Machine Learning tools and frameworks (PyTorch, Tensorflow, Keras, Scikit-Learn)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4326188014</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326188014/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2025-12-09T19:35:06+00:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>«Computer vision»: Freelance Software Engineer - AI Projects (Remote) - Quik Hire Staffing y más</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>4</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Científico de Datos en BairesDev
+Como Científico de Datos en BairesDev, utilizarás técnicas de análisis de datos y machine learning para resolver problemas empresariales complejos. Transformarás datos sin procesar en insights significativos, desarrollarás e implementarás modelos predictivos, y colaborarás con equipos multifuncionales para implementar soluciones basadas en datos que generen valor comercial e impulsen la toma de decisiones estratégicas.
+Qué harás:
+- Analizar conjuntos de datos complejos para identificar patrones, tendencias e insights que aborden desafíos empresariales.- Desarrollar e implementar modelos de machine learning para resolver problemas empresariales específicos.- Colaborar con stakeholders para entender requisitos y traducirlos en soluciones de ciencia de datos.- Crear visualizaciones de datos e informes para comunicar eficazmente hallazgos a audiencias técnicas y no técnicas.- Optimizar modelos existentes y pipelines de datos para mejorar el rendimiento y la precisión.- Mantenerte actualizado con los últimos avances en ciencia de datos, machine learning y tecnologías de IA.
+Qué buscamos:
+- 3+ años de experiencia aplicando técnicas de ciencia de datos a problemas del mundo real.- Experiencia con lenguajes de programación comúnmente utilizados en ciencia de datos (Python, R, etc.).- Conocimiento de algoritmos de machine learning y análisis estadístico.- Familiaridad con herramientas y técnicas de visualización de datos.- Experiencia con SQL y consultas de bases de datos.- Capacidad para traducir conceptos técnicos complejos a stakeholders no técnicos.- Nivel avanzado de inglés.
+Qué ofrecemos para que tu trabajo (y tu vida) seja mais fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.- Hardware y software.- Horarios flexibles- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4326149446</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326149446/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2025-12-09T19:35:06+00:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>«Computer vision»: Freelance Software Engineer - AI Projects (Remote) - Quik Hire Staffing y más</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>4</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Científico de Datos en BairesDev
+Como Científico de Datos en BairesDev, utilizarás técnicas de análisis de datos y machine learning para resolver problemas empresariales complejos. Transformarás datos sin procesar en insights significativos, desarrollarás e implementarás modelos predictivos, y colaborarás con equipos multifuncionales para implementar soluciones basadas en datos que generen valor comercial e impulsen la toma de decisiones estratégicas.
+Qué harás:
+- Analizar conjuntos de datos complejos para identificar patrones, tendencias e insights que aborden desafíos empresariales.- Desarrollar e implementar modelos de machine learning para resolver problemas empresariales específicos.- Colaborar con stakeholders para entender requisitos y traducirlos en soluciones de ciencia de datos.- Crear visualizaciones de datos e informes para comunicar eficazmente hallazgos a audiencias técnicas y no técnicas.- Optimizar modelos existentes y pipelines de datos para mejorar el rendimiento y la precisión.- Mantenerte actualizado con los últimos avances en ciencia de datos, machine learning y tecnologías de IA.
+Qué buscamos:
+- 3+ años de experiencia aplicando técnicas de ciencia de datos a problemas del mundo real.- Experiencia con lenguajes de programación comúnmente utilizados en ciencia de datos (Python, R, etc.).- Conocimiento de algoritmos de machine learning y análisis estadístico.- Familiaridad con herramientas y técnicas de visualización de datos.- Experiencia con SQL y consultas de bases de datos.- Capacidad para traducir conceptos técnicos complejos a stakeholders no técnicos.- Nivel avanzado de inglés.
+Qué ofrecemos para que tu trabajo (y tu vida) seja mais fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.- Hardware y software.- Horarios flexibles- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4342187433</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342187433/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2025-12-09T17:36:46+00:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>«pytorch»: Machine Learning and Data Science Specialist - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>This position is posted by Jobgether on behalf of a partner company. We are currently looking for a Senior Applied Scientist (AI/ML - Pricing) in Latin America.
+In this role, you will lead the development and deployment of advanced machine learning solutions focused on pricing optimization. You will translate complex business and operational constraints into mathematical models and scalable algorithms, enabling data-driven pricing strategies across diverse markets. The position requires ownership of the entire ML lifecycle, from data ingestion and analysis to model deployment and performance monitoring. You will work closely with cross-functional teams, influence technical direction, and contribute to thought leadership in AI/ML applied to real-world business challenges. This role is ideal for someone who thrives in a fast-paced, entrepreneurial environment, enjoys solving complex problems, and has a passion for high-impact data-driven solutions.
+Accountabilities
+Research, develop, and implement machine learning and statistical models to solve pricing challenges.Analyze large, complex datasets to extract insights that guide pricing strategies.Apply state-of-the-art ML techniques and frameworks to create robust, scalable models.Develop clean, efficient, and maintainable code following industry best practices.Communicate technical concepts and results clearly to both technical and non-technical stakeholders.Collaborate with teams to deploy data-driven products and solutions in production.Mentor junior team members, supporting the growth of team expertise.Contribute to intellectual property, publications, and technical leadership in AI/ML.
+Requirements
+PhD or Master’s degree in Computer Science, Machine Learning, Statistics, Operations Research, or a related field.5+ years of industry experience in applied ML; 3+ years in production deployment of ML and deep learning models at scale.Strong knowledge of ML best practices (A/B testing, feature engineering, training/serving pipelines) and algorithms (gradient boosting, neural networks, optimization).Proficiency in Python (numpy, pandas, polars) and ML frameworks (Scikit-Learn, TensorFlow, Keras, PyTorch).Experience with large-scale datasets and big data tools (Apache Beam, Kafka, Spark).Familiarity with cloud platforms such as AWS, GCP, or Azure.Strong SQL and data engineering skills.Preferred: experience applying ML to retail pricing, familiarity with MLOps pipelines, and demonstrated leadership experience.
+Benefits
+Competitive salary and performance-based incentives.Fully remote work within Latin America.Opportunities for career growth and leadership in high-impact projects.Collaboration with cross-functional, high-performing teams.Access to cutting-edge AI/ML tools and technologies.Learning and development opportunities to enhance technical expertise.
+Why Apply Through Jobgether?
+We use an AI-powered matching process to ensure your application is reviewed quickly, objectively, and fairly against the role's core requirements. Our system identifies the top-fitting candidates, and this shortlist is then shared directly with the hiring company. The final decision and next steps (interviews, assessments) are managed by their internal team.
+We appreciate your interest and wish you the best!
+Data Privacy Notice: By submitting your application, you acknowledge that Jobgether will process your personal data to evaluate your candidacy and share relevant information with the hiring employer. This processing is based on legitimate interest and pre-contractual measures under applicable data protection laws (including GDPR). You may exercise your rights (access, rectification, erasure, objection) at any time.
+We may use artificial intelligence (AI) tools to support parts of the hiring process, such as reviewing applications, analyzing resumes, or assessing responses. These tools assist our recruitment team but do not replace human judgment. Final hiring decisions are ultimately made by humans. If you would like more information about how your data is processed, please contact us.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4326341745</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326341745/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2025-12-09T17:36:46+00:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>«pytorch»: Machine Learning and Data Science Specialist - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>This is a remote position to work from LATAM collaborating with US clients.
+We offer:100% Remote Work$35-$40 USD per hour
+Title: Senior Applied Scientist (AI/ML)
+The Senior Applied Scientist owns the development and deployment of machine learning solutions and influences the technical direction of their team. They will work closely with Product and Engineering partners in the development of the solution.
+Lead the development and deployment of Machine Learning solutions to solve business problems.Develop and maintain clean, efficient, and scalable code that meets industrystandardsAnalyze large datasets to extract actionable insights and make informed decisions.Employ state-of-the-art Machine Learning methodologies and frameworks to develop robust and scalable models.
+Required Qualifications:5+ years of industry experience in applied Machine LearningMasters Degree or PhD in CS / ML, statistics, operation research or related field3+ years experience in building, deploying, and managing machine learning and deep learning models in production environments at scaleDeep understanding of ML best practices (A/B testing, training/serving pipelines, feature engineering etc), algorithms/techniques (gradient boosting, deep neural networks, transformers, optimization, regularization), and experiment designExperience in Computer Vision. Additional experience in Causal Inference is highly desirable.Extensive experience in scientific libraries in Python (numpy, pandas, polars) and Machine Learning tools and frameworks (PyTorch, Tensorflow, Keras, Scikit-Learn)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4326360562</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326360562/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2025-12-09T17:36:46+00:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>«pytorch»: Machine Learning and Data Science Specialist - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>WinDifferent specializes in helping businesses achieve rapid and sustainable growth through our powerful proprietary marketing system. Our data-driven solutions generate positive engagement that leads to ready-to-close opportunities, massively expanding sales pipelines and enabling companies to scale faster than the competition.
+As one of WinDifferent's best success stories, BairesDev helps us to find the best talent worldwide and invites them to explore our continually growing job opportunities.
+Machine Learning and Data Science Specialist at WinDifferent
+We are looking for a Machine Learning and Data Science Specialist to serve as the owner of the ML algorithms powering SellDifferent’s campaign segmentation and targeting system. This role is central to the product’s success, managing a massive system with millions of data points and ensuring models directly impact business outcomes. You’ll optimize, supervise, and evolve ML pipelines, driving innovation and reliability in one of the most important components of the platform.
+What You’ll Do:
+- Optimize existing machine learning algorithms to improve accuracy and performance.- Propose, design, and implement new ML features that enhance product capabilities.- Supervise and monitor machine learning performance at scale.- Define ML requirements and collaborate with engineering and product teams to bring them to life.- Handle administrative and organizational duties related to ML initiatives.
+What We Are Looking For:
+- 5+ years of experience in Machine Learning, including at least 4 years building the end-to-end model development lifecycle (requirements definition, feature discovery, model training/registration, deployment, monitoring, and MLOps).- Proficiency in SQL and Python, with strong knowledge of data and ML frameworks.- Solid fundamentals in probability and statistics.- Business-minded approach with proven stakeholder management skills — able to define your own work based on conversations with senior leaders.- Product-oriented mindset: you design ML pipelines with direct business impact and thrive in ownership-heavy environments.- Familiarity with development best practices and navigating complex production codebases.- Postgraduate degree in Machine Learning or Data Science.
+Desirable Qualifications:
+- Experience with Databricks.- Experience implementing machine learning explainability pipelines.- Experience with orchestration tools such as Airflow.- Experience applying machine learning to marketing use cases.
+How we do make your work (and your life) easier:
+- 100% remote work.- Work-from-home hardware setup.- Flexible hours - make your schedule.- PTO, parental leave, and other special leaves.- English classes.- Personal loans with 0% interest, following the company's policies.- Udemy for Business (subject to manager's approval).- An excellent compensation package — well above the market average.- You can grow at the speed of your learning curve.- An innovation-driven, diverse, and multicultural work environment that provides the support and resources for its professionals to thrive.- The chance and resources to be a game-changer for one of America's fastest-growing companies.
+Join a global team where your unique AI talents can truly thrive and make a significant impact!
+Apply Now!</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4326209017</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326209017/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2025-12-09T17:36:46+00:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>«pytorch»: Machine Learning and Data Science Specialist - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>WinDifferent specializes in helping businesses achieve rapid and sustainable growth through our powerful proprietary marketing system. Our data-driven solutions generate positive engagement that leads to ready-to-close opportunities, massively expanding sales pipelines and enabling companies to scale faster than the competition.
+As one of WinDifferent's best success stories, BairesDev helps us to find the best talent worldwide and invites them to explore our continually growing job opportunities.
+Machine Learning and Data Science Specialist at WinDifferent
+We are looking for a Machine Learning and Data Science Specialist to serve as the owner of the ML algorithms powering SellDifferent’s campaign segmentation and targeting system. This role is central to the product’s success, managing a massive system with millions of data points and ensuring models directly impact business outcomes. You’ll optimize, supervise, and evolve ML pipelines, driving innovation and reliability in one of the most important components of the platform.
+What You’ll Do:
+- Optimize existing machine learning algorithms to improve accuracy and performance.- Propose, design, and implement new ML features that enhance product capabilities.- Supervise and monitor machine learning performance at scale.- Define ML requirements and collaborate with engineering and product teams to bring them to life.- Handle administrative and organizational duties related to ML initiatives.
+What We Are Looking For:
+- 5+ years of experience in Machine Learning, including at least 4 years building the end-to-end model development lifecycle (requirements definition, feature discovery, model training/registration, deployment, monitoring, and MLOps).- Proficiency in SQL and Python, with strong knowledge of data and ML frameworks.- Solid fundamentals in probability and statistics.- Business-minded approach with proven stakeholder management skills — able to define your own work based on conversations with senior leaders.- Product-oriented mindset: you design ML pipelines with direct business impact and thrive in ownership-heavy environments.- Familiarity with development best practices and navigating complex production codebases.- Postgraduate degree in Machine Learning or Data Science.
+Desirable Qualifications:
+- Experience with Databricks.- Experience implementing machine learning explainability pipelines.- Experience with orchestration tools such as Airflow.- Experience applying machine learning to marketing use cases.
+How we do make your work (and your life) easier:
+- 100% remote work.- Work-from-home hardware setup.- Flexible hours - make your schedule.- PTO, parental leave, and other special leaves.- English classes.- Personal loans with 0% interest, following the company's policies.- Udemy for Business (subject to manager's approval).- An excellent compensation package — well above the market average.- You can grow at the speed of your learning curve.- An innovation-driven, diverse, and multicultural work environment that provides the support and resources for its professionals to thrive.- The chance and resources to be a game-changer for one of America's fastest-growing companies.
+Join a global team where your unique AI talents can truly thrive and make a significant impact!
+Apply Now!</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4326380804</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326380804/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2025-12-09T13:41:18+00:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Machine Learning and Data Science Specialist - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>WinDifferent specializes in helping businesses achieve rapid and sustainable growth through our powerful proprietary marketing system. Our data-driven solutions generate positive engagement that leads to ready-to-close opportunities, massively expanding sales pipelines and enabling companies to scale faster than the competition.
+As one of WinDifferent's best success stories, BairesDev helps us to find the best talent worldwide and invites them to explore our continually growing job opportunities.
+Machine Learning and Data Science Specialist at WinDifferent
+We are looking for a Machine Learning and Data Science Specialist to serve as the owner of the ML algorithms powering SellDifferent’s campaign segmentation and targeting system. This role is central to the product’s success, managing a massive system with millions of data points and ensuring models directly impact business outcomes. You’ll optimize, supervise, and evolve ML pipelines, driving innovation and reliability in one of the most important components of the platform.
+What You’ll Do:
+- Optimize existing machine learning algorithms to improve accuracy and performance.- Propose, design, and implement new ML features that enhance product capabilities.- Supervise and monitor machine learning performance at scale.- Define ML requirements and collaborate with engineering and product teams to bring them to life.- Handle administrative and organizational duties related to ML initiatives.
+What We Are Looking For:
+- 5+ years of experience in Machine Learning, including at least 4 years building the end-to-end model development lifecycle (requirements definition, feature discovery, model training/registration, deployment, monitoring, and MLOps).- Proficiency in SQL and Python, with strong knowledge of data and ML frameworks.- Solid fundamentals in probability and statistics.- Business-minded approach with proven stakeholder management skills — able to define your own work based on conversations with senior leaders.- Product-oriented mindset: you design ML pipelines with direct business impact and thrive in ownership-heavy environments.- Familiarity with development best practices and navigating complex production codebases.- Postgraduate degree in Machine Learning or Data Science.
+Desirable Qualifications:
+- Experience with Databricks.- Experience implementing machine learning explainability pipelines.- Experience with orchestration tools such as Airflow.- Experience applying machine learning to marketing use cases.
+How we do make your work (and your life) easier:
+- 100% remote work.- Work-from-home hardware setup.- Flexible hours - make your schedule.- PTO, parental leave, and other special leaves.- English classes.- Personal loans with 0% interest, following the company's policies.- Udemy for Business (subject to manager's approval).- An excellent compensation package — well above the market average.- You can grow at the speed of your learning curve.- An innovation-driven, diverse, and multicultural work environment that provides the support and resources for its professionals to thrive.- The chance and resources to be a game-changer for one of America's fastest-growing companies.
+Join a global team where your unique AI talents can truly thrive and make a significant impact!
+Apply Now!</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4342509859</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342509859/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2025-12-08T15:35:19+00:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>«NLP»: Senior Applied Scientist (AI/ML - Pricing) - Jobgether y más</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>3</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>At Lumenalta, we partner with forward-thinking organizations to build technology solutions that scale, delight users, and accelerate business growth. Our global teams bring curiosity, commitment, and technical excellence to every project. We value transparency, autonomy, and impact—empowering every team member to do their best work.
+We’re seeking experienced AI Engineers to join a high-growth fintech prospect focused on back-office workflow automation. This role is an opportunity to design and deploy production-grade AI systems for community banks, mortgage, and insurance institutions while shaping a flexible, modern architecture alongside an accomplished executive team.
+What You’ll Be DoingDesign, build, and deploy AI models into production (not just prototypes or wrappers).Develop and maintain backend Python services that power intelligent automation workflows.Implement enterprise-scale data pipelines for ingesting and processing financial and regulatory documents, with automated data quality checks and monitoring.Train and optimize models on banking rules, compliance standards, and regulatory datasets.Build intelligent routing systems (e.g., auto-approval for simple loans/accounts, escalation to humans for complex cases).Collaborate with engineering leadership to shape architecture, delivery models, and stack decisions.Ensure compliance-first design, embedding regulatory considerations into every product feature.
+What We’re Looking ForExperience: 3–5+ years in AI/ML engineering with a track record of deploying AI into production at scale.Technical Skills: Strong backend Python; expertise with ML frameworks (TensorFlow, PyTorch, Scikit-Learn, etc.); familiarity with modern data pipeline tools (Airflow, Spark, Kafka) and workflow orchestration frameworks such as n8n or LangGraph.Applied AI: Background in enterprise applications such as chatbots, workflow automation, RAG pipelines, or intelligent document processing.Domain Awareness: Understanding of regulated industries (financial services, insurance, or similar) with the ability to design compliance-aligned models.Collaboration: Comfortable working with a lean, high-performing team and influencing technical direction.Adaptability: Excels in startup-like environments with flexible, evolving tech stacks.
+Why Lumenalta is an amazing place to work atAt Lumenalta, you can expect that you will:Be 100% dedicated to one project at a time so that you can innovate and grow.Be a part of a team of talented and friendly senior-level developers.Work on projects that allow you to use leading tech.
+The job is 100% Remote; please ensure you have a comfortable office set at your desired work location.
+This is a fully remote position open to candidates based in Latin America (LATAM). While location is flexible, candidates must be willing to maintain at least a 6-hour overlap with core business hours, which are primarily aligned with the Pacific, Central, or Eastern U.S. time zones to ensure effective collaboration with project teams.
+This is an evergreen opening with no set deadline; we’re always excited to connect with professionals who want to help us build the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4342560533</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342560533/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2025-12-08T15:35:19+00:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>«NLP»: Senior Applied Scientist (AI/ML - Pricing) - Jobgether y más</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>3</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>At Lumenalta, we partner with forward-thinking organizations to build technology solutions that scale, delight users, and accelerate business growth. Our global teams bring curiosity, commitment, and technical excellence to every project. We value transparency, autonomy, and impact—empowering every team member to do their best work.
+We’re seeking experienced AI Engineers to join a high-growth fintech prospect focused on back-office workflow automation. This role is an opportunity to design and deploy production-grade AI systems for community banks, mortgage, and insurance institutions while shaping a flexible, modern architecture alongside an accomplished executive team.
+What You’ll Be DoingDesign, build, and deploy AI models into production (not just prototypes or wrappers).Develop and maintain backend Python services that power intelligent automation workflows.Implement enterprise-scale data pipelines for ingesting and processing financial and regulatory documents, with automated data quality checks and monitoring.Train and optimize models on banking rules, compliance standards, and regulatory datasets.Build intelligent routing systems (e.g., auto-approval for simple loans/accounts, escalation to humans for complex cases).Collaborate with engineering leadership to shape architecture, delivery models, and stack decisions.Ensure compliance-first design, embedding regulatory considerations into every product feature.
+What We’re Looking ForExperience: 3–5+ years in AI/ML engineering with a track record of deploying AI into production at scale.Technical Skills: Strong backend Python; expertise with ML frameworks (TensorFlow, PyTorch, Scikit-Learn, etc.); familiarity with modern data pipeline tools (Airflow, Spark, Kafka) and workflow orchestration frameworks such as n8n or LangGraph.Applied AI: Background in enterprise applications such as chatbots, workflow automation, RAG pipelines, or intelligent document processing.Domain Awareness: Understanding of regulated industries (financial services, insurance, or similar) with the ability to design compliance-aligned models.Collaboration: Comfortable working with a lean, high-performing team and influencing technical direction.Adaptability: Excels in startup-like environments with flexible, evolving tech stacks.
+Why Lumenalta is an amazing place to work atAt Lumenalta, you can expect that you will:Be 100% dedicated to one project at a time so that you can innovate and grow.Be a part of a team of talented and friendly senior-level developers.Work on projects that allow you to use leading tech.
+The job is 100% Remote; please ensure you have a comfortable office set at your desired work location.
+This is a fully remote position open to candidates based in Latin America (LATAM). While location is flexible, candidates must be willing to maintain at least a 6-hour overlap with core business hours, which are primarily aligned with the Pacific, Central, or Eastern U.S. time zones to ensure effective collaboration with project teams.
+This is an evergreen opening with no set deadline; we’re always excited to connect with professionals who want to help us build the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4335936675</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4335936675/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2025-12-06T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>«LLM»: Artificial Intelligence Intern (Remote) - Talent Orbit y más</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>7</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Who We Are
+At Twilio, we’re shaping the future of communications, all from the comfort of our homes. We deliver innovative solutions to hundreds of thousands of businesses and empower millions of developers worldwide to craft personalized customer experiences.
+Our dedication to remote-first work, and strong culture of connection and global inclusion means that no matter your location, you’re part of a vibrant team with diverse experiences making a global impact each day. As we continue to revolutionize how the world interacts, we’re acquiring new skills and experiences that make work feel truly rewarding. Your career at Twilio is in your hands.
+See yourself at Twilio
+Join the team as Twilio’s next AI Application Analyst.
+About The Job
+This position is a key member of the People Data Solutions and AI (PDS) team, needed to design and develop AI agents and assistants focused on enhancing People Team operations through expert prompt engineering and AI instruction development. This role involves scoping, designing, building, and launching AI agents and assistants to support the People Team’s highest priority needs. You will apply your expertise in prompt engineering and AI instruction writing to develop effective AI solutions that improve team operations and productivity. Working closely with various teams, you will contribute to scaling AI capabilities in a practical and impactful way within a dynamic work environment.
+Responsibilities
+In this role, you’ll:
+Drive outcomes with stakeholders from requirement gathering and problem identification to build, test, launch, and enable automation solutions. Design and development of AI agents and assistants by crafting clear, precise prompts and detailed AI instructions tailored to People Team needs.Build and deliver AI related enablement and training to end users.Continuously design, test and refine prompt structures and instruction sets to optimize AI response accuracy, relevance, and usability.Drive evaluation, testing, and integration and enablement of new enterprise AI tools (ie Gemini) for the People team specificallyAnalyze AI agent interactions and performance data to identify areas for improvement and implement iterative enhancements.Create comprehensive documentation of prompt engineering methods and AI instruction guidelines to support team adoption and future projects.Participate as a member of the People Data Solutions (PDS) and AI team to help shape and drive team strategy and roadmaps, as well as design, test, and help launch broader PDS products.
+Qualifications
+Twilio values diverse experiences from all kinds of industries, and we encourage everyone who meets the required qualifications to apply. If your career is just starting or hasn't followed a traditional path, don't let that stop you from considering Twilio. We are always looking for people who will bring something new to the table!
+Required:Proven experience in prompt engineering and developing AI instructions for conversational agents or assistants.Strong understanding of AI language models and natural language processing concepts.Ability to write clear, concise, and effective AI instructions to guide model behavior.Experience collaborating with cross-functional teams to translate business needs into AI solutions.Ability to work independently while also collaborating effectively with team members.Familiarity with Python is a plus but not mandatory.Excellent communication skills, with attention to detail and quality in AI content creation.Demonstrated problem-solving skills and ability to work in a fast-paced, evolving environment.
+Desired
+Experience with AI platforms such as OpenAI, Gemini, Claude, Hugging Face, or similar.Familiarity with prompt tuning and fine-tuning techniques for language models.Knowledge of Python programming and scripting for AI applications.Background in human-computer interaction or UX design related to AI assistants.Understanding of data privacy and security considerations in AI deployments.Ability to analyze user feedback and usage data to improve AI performance.Passion for innovation and staying current with advances in AI and NLP technologies.
+Location
+This role will be remote, and based in Colombia.
+Travel 
+We prioritize connection and opportunities to build relationships with our customers and each other. For this role, you may be required to travel occasionally to participate in project or team in-person meetings.
+What We Offer
+Working at Twilio offers many benefits, including competitive pay, generous time off, ample parental and wellness leave, healthcare, a retirement savings program, and much more. Offerings vary by location.
+Twilio thinks big. Do you?
+We like to solve problems, take initiative, pitch in when needed, and are always up for trying new things. That's why we seek out colleagues who embody our values — something we call Twilio Magic. Additionally, we empower employees to build positive change in their communities by supporting their volunteering and donation efforts.
+So, if you're ready to unleash your full potential, do your best work, and be the best version of yourself, apply now! If this role isn't what you're looking for, please consider other open positions.
+Twilio is proud to be an equal opportunity employer. We do not discriminate based upon race, religion, color, national origin, sex (including pregnancy, childbirth, reproductive health decisions, or related medical conditions), sexual orientation, gender identity, gender expression, age, status as a protected veteran, status as an individual with a disability, genetic information, political views or activity, or other applicable legally protected characteristics. We also consider qualified applicants with criminal histories, consistent with applicable federal, state and local law. Qualified applicants with arrest or conviction records will be considered for employment in accordance with the Los Angeles County Fair Chance Ordinance for Employers and the California Fair Chance Act. Additionally, Twilio participates in the E-Verify program in certain locations, as required by law.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4342443632</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342443632/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2025-12-06T23:09:00+00:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>«Computer vision»: Artificial Intelligence Intern (Remote) - Talent Orbit y más</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>About Truelogic
+At Truelogic we are a leading provider of nearshore staff augmentation services headquartered in New York. For over two decades, we’ve been delivering top-tier technology solutions to companies of all sizes, from innovative startups to industry leaders, helping them achieve their digital transformation goals.
+Our team of 600+ highly skilled tech professionals, based in Latin America, drives digital disruption by partnering with U.S. companies on their most impactful projects. Whether collaborating with Fortune 500 giants or scaling startups, we deliver results that make a difference.
+By applying for this position, you’re taking the first step in joining a dynamic team that values your expertise and aspirations. We aim to align your skills with opportunities that foster exceptional career growth and success while contributing to transformative projects that shape the future.
+Our Client
+A global digital innovation agency with a 50/50 balance of engineering and creative talent. The organization partners with major enterprises to solve complex problems across emerging technologies, AI, and evolving consumer behavior while delivering end-to-end experiences across the full customer lifecycle.
+Job Summary
+You will lead the design, development, and deployment of advanced generative AI and multimodal systems. The role focuses on building production-ready pipelines, architecting next-generation models, and guiding a team of engineers in pushing the boundaries of multimodal AI across text, image, audio, and video.
+Responsibilities
+Architect, develop, and deploy multimodal generative AI systems (text-to-image, image-to-text, text-to-video, audio-visual models). Lead implementation of vision architectures including diffusion models, vision transformers, and multimodal embedding frameworks. Design and optimize systems integrating LLMs with visual and audio modalities. Build scalable multimodal retrieval systems using vector databases and similarity search. Develop end-to-end pipelines for text generation, image synthesis, video generation, and audio/speech synthesis. Mentor and lead ML engineers and data scientists. Collaborate with cross-functional teams to translate complex requirements into scalable AI solutions. Build and maintain Python libraries and internal ML tooling. Communicate multimodal AI concepts effectively to technical and non-technical audiences. 
+Qualifications And Job Requirements
+7+ years of ML engineering experience. 2+ years specializing in generative AI or multimodal systems. Proven experience deploying multimodal generative AI systems to production. Strong expertise in diffusion models, vision transformers, and multimodal embeddings. Hands-on experience with LLMs and integration with visual/audio modalities. Experience building multimodal retrieval systems and working with vector databases. Production experience across multiple generative modalities (text, image, video, audio/speech). Leadership experience mentoring ML engineers/Data Scientists. Advanced proficiency in PyTorch and HuggingFace (Transformers, Diffusers). Experience with libraries such as Stable Diffusion, CLIP, timm, torchaudio, torchvision. Strong Python engineering skills for ML tooling. Excellent communication skills. 
+What we offer
+100% Remote Work: Enjoy the freedom to work from the location that helps you thrive. All it takes is a laptop and a reliable internet connection. Highly Competitive USD Pay: Earn an excellent, market-leading compensation in USD, that goes beyond typical market offerings. Paid Time Off: We value your well-being. Our paid time off policies ensure you have the chance to unwind and recharge when needed. Work with Autonomy: Enjoy the freedom to manage your time as long as the work gets done. Focus on results, not the clock. Work with Top American Companies: Grow your expertise working on innovative, high-impact projects with Industry-Leading U.S. Companies. 
+Why You’ll Like Working Here
+A Culture That Values You: We prioritize well-being and work-life balance, offering engagement activities and fostering dynamic teams to ensure you thrive both personally and professionally. Diverse, Global Network: Connect with over 600 professionals in 25+ countries, expand your network, and collaborate with a multicultural team from Latin America. Team Up with Skilled Professionals: Join forces with senior talent. All of our team members are seasoned experts, ensuring you're working with the best in your field. 
+Apply now!</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4342144324</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342144324/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2025-12-05T19:36:02+00:00</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Entry-Level Developer (100% remoto) - Simple Business Group y más</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>4</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Estamos contratando: Entry-Level Developer (100% remoto)
+En SimpleBG transformamos la manera en que empresas de Estados Unidos y Latinoamérica utilizan la Inteligencia Artificial para escalar su servicio al cliente y automatizar procesos críticos. Desarrollamos sistemas avanzados de IA conversacional, infraestructura para agentes de voz, y también soluciones especializadas para Enterprise y entidades gubernamentales.
+Estamos buscando un/a Entry-Level Developer, con ganas reales de aprender y crecer, para integrarse a nuestro equipo de tecnología y colaborar en la construcción e implementación de nuestras soluciones de IA.
+En este rol vas a:
+- Asistir en el desarrollo y mantenimiento de sistemas de IA, APIs y automatizaciones internas.- Trabajar en la creación de interfaces, integraciones y microservicios usando Node.js, React y Typescript.- Documentar procesos técnicos y mantener código limpio y entendible.- Apoyar a nuestro equipo senior en la construcción de infraestructura de IA y flujo de datos.- Aprender sobre prompt engineering, manejo de modelos LLM y buenas prácticas de desarrollo en IA.- Colaborar con equipos de producto y operaciones para mejorar continuamente nuestras soluciones.
+Buscamos a alguien que sea:
+- Proactivo/a, curioso/a y con alta disposición para aprender tecnologías nuevas.- Resiliente y capaz de adaptarse a entornos cambiantes.- Comunicativo/a, organizado/a y con capacidad de recibir retroalimentación constructiva.- Con mentalidad analítica para resolver problemas de manera creativa.- Dispuesto/a a trabajar en equipo y dejarse guiar por desarrolladores más senior.
+Requisitos técnicos (básicos):
+No buscamos expertos, pero sí buscamos potencial. Aun así, valoramos conocimientos fundamentales en:
+- Node.js- React- Typescript / JavaScript- APIs REST- Manipulación de JSON- Nociones de prompt engineering- Experiencia creando o entendiendo documentación técnica- Inglés intermedio/avanzado (necesario para documentación y herramientas técnicas)
+Ofrecemos:
+- Rol 100% remoto.- Salario competitivo + bonos.- Certificaciones pagadas en IA y tecnologías clave.- Crecimiento acompañado por nuestro equipo senior.- Oportunidad de trabajar en proyectos internacionales con tecnologías emergentes.
+Si crees que tienes el potencial para aportar a nuestro equipo de desarrollo, queremos conocerte.
+Envíanos tu CV + portfolio/GitHub.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4342266702</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342266702/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2025-12-05T19:36:02+00:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Entry-Level Developer (100% remoto) - Simple Business Group y más</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>6</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>About Huzzle
+At Huzzle, we connect high-performing B2B sales professionals with global companies across the UK, US, Canada, Europe, and Australia. Our clients include startups, digital agencies, and tech platforms in industries like SaaS, MarTech, FinTech, and EdTech. We match top sales talent to full-time remote roles where they're hired directly into client teams and provided ongoing support by Huzzle.
+Role Type: Full-time
+Engagement: Independent Contractor
+UK Timezone
+About The Company
+Join a fast-growing travel-tech company redefining how people plan and experience travel through AI. The team is composed of young, fast-paced engineers and tech enthusiasts united by a mission to use technology for positive global impact. Their cutting-edge AI-driven travel chat interface helps users plan trips effortlessly using conversational intelligence.
+Key Responsibilities
+Optimise and enhance the underlying agentic AI setup for the chat interface. Improve performance of individual nodes through model selection, prompt refinement, and fine-tuning. Design and implement specialised AI agents to improve multi-agent collaboration and system efficiency. Integrate and orchestrate workflows using LangChain and n8n. Leverage AWS (including Bedrock) for model hosting, scalability, and deployment. Collaborate with leadership to define and execute the company's AI product roadmap. Evaluate, benchmark, and iterate on AI model performance across various tasks
+Requirements
+Strong proficiency in Python and FastAPI for scalable backend and AI integrations. Experience with LangChain, n8n, and AWS (especially Bedrock). Deep understanding of prompt engineering, agentic setups, and AI model evaluation. Demonstrated ability to fine-tune models for specific tasks or data domains. Excellent problem-solving skills and a data-driven mindset. Fluent in English, both written and spoken. Experience working in a fast-paced startup or tech-driven environment is a plus
+Benefits
+💰 Competitive salary: £1050 - £1750 GBP/month (based on experience and qualifications)
+🌎 Fully remote role and a results-driven culture
+🚀 Work alongside top engineers and innovators in the AI and travel-tech space
+💡 High-impact role: directly shape the performance of a global AI travel assistant
+📈 Growth opportunities within a rapidly scaling company led by visionary founders
+🎯 Collaborative and mission-driven culture focused on making a positive global impact</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4342256747</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342256747/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2025-12-05T19:36:02+00:00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Entry-Level Developer (100% remoto) - Simple Business Group y más</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>6</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>About Huzzle
+At Huzzle, we connect high-performing B2B sales professionals with global companies across the UK, US, Canada, Europe, and Australia. Our clients include startups, digital agencies, and tech platforms in industries like SaaS, MarTech, FinTech, and EdTech. We match top sales talent to full-time remote roles where they're hired directly into client teams and provided ongoing support by Huzzle.
+Role Type: Full-time
+Engagement: Independent Contractor
+UK Timezone
+About The Company
+Join a fast-growing travel-tech company redefining how people plan and experience travel through AI. The team is composed of young, fast-paced engineers and tech enthusiasts united by a mission to use technology for positive global impact. Their cutting-edge AI-driven travel chat interface helps users plan trips effortlessly using conversational intelligence.
+Key Responsibilities
+Optimise and enhance the underlying agentic AI setup for the chat interface. Improve performance of individual nodes through model selection, prompt refinement, and fine-tuning. Design and implement specialised AI agents to improve multi-agent collaboration and system efficiency. Integrate and orchestrate workflows using LangChain and n8n. Leverage AWS (including Bedrock) for model hosting, scalability, and deployment. Collaborate with leadership to define and execute the company's AI product roadmap. Evaluate, benchmark, and iterate on AI model performance across various tasks
+Requirements
+Strong proficiency in Python and FastAPI for scalable backend and AI integrations. Experience with LangChain, n8n, and AWS (especially Bedrock). Deep understanding of prompt engineering, agentic setups, and AI model evaluation. Demonstrated ability to fine-tune models for specific tasks or data domains. Excellent problem-solving skills and a data-driven mindset. Fluent in English, both written and spoken. Experience working in a fast-paced startup or tech-driven environment is a plus
+Benefits
+💰 Competitive salary: £1050 - £1750 GBP/month (based on experience and qualifications)
+🌎 Fully remote role and a results-driven culture
+🚀 Work alongside top engineers and innovators in the AI and travel-tech space
+💡 High-impact role: directly shape the performance of a global AI travel assistant
+📈 Growth opportunities within a rapidly scaling company led by visionary founders
+🎯 Collaborative and mission-driven culture focused on making a positive global impact</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4325842603</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325842603/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2025-12-05T17:35:17+00:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>«tensorflow»: 3D Computer Vision Engineer - Scale Army Careers y más</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>💻 We’re Hiring: 3D Computer Vision Engineer 💻
+Location: Fully Remote (Work from Home) | 9 AM – 5 PM PST
+About the roleOur client is an AI infrastructure startup building cutting-edge models for the fashion industry. They are redefining how fashion is experienced through advanced computer vision and AI, operating at a pre-revenue, pre-Alpha stage while assembling a foundational technical team.
+They’re looking for a 3D Computer Vision Engineer to serve as the first computer vision hire and lead the development of the body measurement and 3D reconstruction pipeline. This role is central to shipping their Alpha prototype and establishing the technical backbone of the product.
+What You’ll DoDesign and build computer vision models for smartphone-based body measurement.Develop the 2D-to-3D reconstruction pipeline and optimize it for real-time mobile deployment.Build infrastructure for data collection, validation, and testing to support model training.Ship the Alpha prototype within 4–6 weeks and iterate quickly based on feedback.Lead all technical efforts related to 3D reconstruction and drive architectural decisions.
+What You BringMid to senior-level experience in computer vision, including shipped products.Strong background in 3D reconstruction, point clouds, or human mesh estimation.Experience deploying ML models to mobile or edge environments.Proficiency with Python and frameworks like PyTorch or TensorFlow.Ability to lead technical decisions, optimize real-time systems, and work in fast-paced environments.
+OpportunityThis is a rare chance to join a high-potential AI startup at the earliest stage and shape the product's technical foundation. You’ll influence the roadmap, build core architecture, and play a key role as the company scales.
+If you’re driven, innovative, and excited to build real-time 3D computer vision systems from the ground up. Apply today!</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>4342230539</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342230539/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2025-12-05T15:35:10+00:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>«machine learning»: TELUS Digital AI Data Solutions - Online Data Analyst | WFH Spanish Speakers publicado el 12/4/25</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>3</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Are you a detail-oriented individual with a passion for research and a good understanding of national and local geography? This freelance opportunity allows you to work at your own pace and from the comfort of your own home.
+A Day in the Life of an Online Data Analyst:In this role, you will be working on a project aimed at enhancing the content and quality of digital maps that are used by millions of people worldwideCompleting research and evaluation tasks in a web-based environment such as verifying and comparing data, and determining the relevance and accuracy of information.
+Join us today and be part of a dynamic and innovative team that is making a difference in the world!
+TELUS Digital AI CommunityOur global AI Community is a vibrant network of 1 million+ contributors from diverse backgrounds who help our customers collect, enhance, train, translate, and localize content to build better AI models. Become part of our growing community and make an impact supporting the machine learning models of some of the world’s largest brands.
+Qualification path
+No previous professional experience is required to apply to this role, however, working on this project will require you to pass the basic requirements and go through a standard assessment process. This is a part-time long-term project and your work will be subject to our standard quality assurance checks during the term of this agreement.
+Basic RequirementsFull Professional Proficiency in English &amp; Spanish languageBeing a resident in Mexico for the last 2 consecutive years and having familiarity with current and historical business, media, sport, news, social media, and cultural affairs in MexicoAbility to follow guidelines and conduct online research using search engines, online maps, and website informationFlexibility to work across a diverse set of task types, including maps, news, audio tasks, and relevanceDaily access to a broadband internet connection, computer, and relevant software
+AssessmentIn order to be hired into the program, you’ll take an open book qualification exam that will determine your suitability for the position and complete ID verification. Our team will provide you with guidelines and learning materials before your qualification exam. You will be required to complete the exam in a specific timeframe but at your convenience.
+Equal OpportunityAll qualified applicants will receive consideration for a contractual relationship without regard to race, color, religion, sex, sexual orientation, gender identity, national origin, disability, or protected veteran status. At TELUS Digital AI, we are proud to offer equal opportunities and are committed to creating a diverse and inclusive community. All aspects of selection are based on applicants’ qualifications, merits, competence, and performance without regard to any characteristic related to diversity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>4342240474</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342240474/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2025-12-05T15:35:10+00:00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>«machine learning»: TELUS Digital AI Data Solutions - Online Data Analyst | WFH Spanish Speakers publicado el 12/4/25</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>3</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Are you a detail-oriented individual with a passion for research and a good understanding of national and local geography? This freelance opportunity allows you to work at your own pace and from the comfort of your own home.
+A Day in the Life of an Online Data Analyst:In this role, you will be working on a project aimed at enhancing the content and quality of digital maps that are used by millions of people worldwideCompleting research and evaluation tasks in a web-based environment such as verifying and comparing data, and determining the relevance and accuracy of information.
+Join us today and be part of a dynamic and innovative team that is making a difference in the world!
+TELUS Digital AI CommunityOur global AI Community is a vibrant network of 1 million+ contributors from diverse backgrounds who help our customers collect, enhance, train, translate, and localize content to build better AI models. Become part of our growing community and make an impact supporting the machine learning models of some of the world’s largest brands.
+Qualification path
+No previous professional experience is required to apply to this role, however, working on this project will require you to pass the basic requirements and go through a standard assessment process. This is a part-time long-term project and your work will be subject to our standard quality assurance checks during the term of this agreement.
+Basic RequirementsFull Professional Proficiency in English &amp; Spanish languageBeing a resident in Mexico for the last 2 consecutive years and having familiarity with current and historical business, media, sport, news, social media, and cultural affairs in MexicoAbility to follow guidelines and conduct online research using search engines, online maps, and website informationFlexibility to work across a diverse set of task types, including maps, news, audio tasks, and relevanceDaily access to a broadband internet connection, computer, and relevant software
+AssessmentIn order to be hired into the program, you’ll take an open book qualification exam that will determine your suitability for the position and complete ID verification. Our team will provide you with guidelines and learning materials before your qualification exam. You will be required to complete the exam in a specific timeframe but at your convenience.
+Equal OpportunityAll qualified applicants will receive consideration for a contractual relationship without regard to race, color, religion, sex, sexual orientation, gender identity, national origin, disability, or protected veteran status. At TELUS Digital AI, we are proud to offer equal opportunities and are committed to creating a diverse and inclusive community. All aspects of selection are based on applicants’ qualifications, merits, competence, and performance without regard to any characteristic related to diversity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>4342210599</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342210599/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2025-12-05T15:35:10+00:00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>«machine learning»: TELUS Digital AI Data Solutions - Online Data Analyst | WFH Spanish Speakers publicado el 12/4/25</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>3</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Are you a detail-oriented individual with a passion for research and a good understanding of national and local geography? This freelance opportunity allows you to work at your own pace and from the comfort of your own home.
+A Day in the Life of an Online Data Analyst:In this role, you will be working on a project aimed at enhancing the content and quality of digital maps that are used by millions of people worldwideCompleting research and evaluation tasks in a web-based environment such as verifying and comparing data, and determining the relevance and accuracy of information.
+Join us today and be part of a dynamic and innovative team that is making a difference in the world!
+TELUS Digital AI CommunityOur global AI Community is a vibrant network of 1 million+ contributors from diverse backgrounds who help our customers collect, enhance, train, translate, and localize content to build better AI models. Become part of our growing community and make an impact supporting the machine learning models of some of the world’s largest brands.
+Qualification path
+No previous professional experience is required to apply to this role, however, working on this project will require you to pass the basic requirements and go through a standard assessment process. This is a part-time long-term project and your work will be subject to our standard quality assurance checks during the term of this agreement.
+Basic RequirementsFull Professional Proficiency in English &amp; Spanish languageBeing a resident in Mexico for the last 2 consecutive years and having familiarity with current and historical business, media, sport, news, social media, and cultural affairs in MexicoAbility to follow guidelines and conduct online research using search engines, online maps, and website informationFlexibility to work across a diverse set of task types, including maps, news, audio tasks, and relevanceDaily access to a broadband internet connection, computer, and relevant software
+AssessmentIn order to be hired into the program, you’ll take an open book qualification exam that will determine your suitability for the position and complete ID verification. Our team will provide you with guidelines and learning materials before your qualification exam. You will be required to complete the exam in a specific timeframe but at your convenience.
+Equal OpportunityAll qualified applicants will receive consideration for a contractual relationship without regard to race, color, religion, sex, sexual orientation, gender identity, national origin, disability, or protected veteran status. At TELUS Digital AI, we are proud to offer equal opportunities and are committed to creating a diverse and inclusive community. All aspects of selection are based on applicants’ qualifications, merits, competence, and performance without regard to any characteristic related to diversity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4342140947</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342140947/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2025-12-05T15:35:10+00:00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>«machine learning»: TELUS Digital AI Data Solutions - Online Data Analyst | WFH Spanish Speakers publicado el 12/4/25</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>3</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Are you a detail-oriented individual with a passion for research and a good understanding of national and local geography? This freelance opportunity allows you to work at your own pace and from the comfort of your own home.
+A Day in the Life of an Online Data Analyst:In this role, you will be working on a project aimed at enhancing the content and quality of digital maps that are used by millions of people worldwideCompleting research and evaluation tasks in a web-based environment such as verifying and comparing data, and determining the relevance and accuracy of information.
+Join us today and be part of a dynamic and innovative team that is making a difference in the world!
+TELUS Digital AI CommunityOur global AI Community is a vibrant network of 1 million+ contributors from diverse backgrounds who help our customers collect, enhance, train, translate, and localize content to build better AI models. Become part of our growing community and make an impact supporting the machine learning models of some of the world’s largest brands.
+Qualification path
+No previous professional experience is required to apply to this role, however, working on this project will require you to pass the basic requirements and go through a standard assessment process. This is a part-time long-term project and your work will be subject to our standard quality assurance checks during the term of this agreement.
+Basic RequirementsFull Professional Proficiency in English &amp; Spanish languageBeing a resident in Mexico for the last 2 consecutive years and having familiarity with current and historical business, media, sport, news, social media, and cultural affairs in MexicoAbility to follow guidelines and conduct online research using search engines, online maps, and website informationFlexibility to work across a diverse set of task types, including maps, news, audio tasks, and relevanceDaily access to a broadband internet connection, computer, and relevant software
+AssessmentIn order to be hired into the program, you’ll take an open book qualification exam that will determine your suitability for the position and complete ID verification. Our team will provide you with guidelines and learning materials before your qualification exam. You will be required to complete the exam in a specific timeframe but at your convenience.
+Equal OpportunityAll qualified applicants will receive consideration for a contractual relationship without regard to race, color, religion, sex, sexual orientation, gender identity, national origin, disability, or protected veteran status. At TELUS Digital AI, we are proud to offer equal opportunities and are committed to creating a diverse and inclusive community. All aspects of selection are based on applicants’ qualifications, merits, competence, and performance without regard to any characteristic related to diversity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4341554036</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4341554036/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2025-12-04T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>«Scikit-learn»: Spatial AI Intern - EON Reality</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>5</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Position: InternshipDuration: 1–3 to 6 monthsTime: Part-TimeCompensation: Variable – See program details below.Location: RemoteStart Date: January 12th, 2026Reimbursement: Non-Paid (see details on paid advancement opportunities)
+EON Reality – Spatial AI Internship ProgramAre you ready to step into the future? Join EON Reality’s newly relaunched Spatial AI Internship Program—a unique opportunity for bold graduates, ambitious students, and driven creators eager to make their mark in the AI era.
+What You'll ExperienceGain real-world skills and hands-on experience with cutting-edge AI and XR tools, learning directly on live projects.Explore roles in Marketing, Sales, Software Development, and more—choose one focus, or experience a few to discover your passion!Learn essential business tools, grow in project management, and see how different departments work together every day.Program Structure
+Month 1: Discover &amp; LearnAttend the Spatial AI Internship &amp; Entrepreneur School.Work on hands-on projects while mastering AI and XR, Marketing, Sales, and Software Development tools.Complete your first month and earn an official Certificate of Completion.This initial month is unpaid, designed to equip everyone with key foundational skills.Advanced Opportunities: 2–5 MonthsAfter the first month, top performers will be chosen to continue in the program.Selected interns receive department-specific training based on strengths and interests, with even deeper hands-on experience.This period is tuition-based ($500/month), plus potential bonuses for outstanding achievement.Training covers CRM systems, advanced marketing, AI for business, HR practices, R&amp;D for startups, and more.Your OutcomeEarn an official program completion certificate and a personalized reference letter to highlight your new skills.Elite performers may receive immediate job offers!Join the network of future leaders—this isn’t just a program, it’s your launchpad from learning to earning to leading.Ready to Shine?This opportunity is for the bold—those who want more than just another job.Apply with your CV and any materials that demonstrate your passion (including intro videos if you wish).Selected applicants will be invited for interviews.
+Apply today and start your journey towards a career built on innovation, skills, and real impact!</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4341583458</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4341583458/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2025-12-04T23:09:03+00:00</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>«machine learning»: Spatial AI Intern - EON Reality y más</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>8</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Job DescriptionJob Title: Junior Data Science Associate Consultant
+Job Type: Full-tim
+e
+Location: Remote in LAT
+AM
+Job SummaryZS's Insights &amp; Analytics group partners with clients to design and deliver solutions to help them tackle a broad range of business challenges. Our teams work on multiple projects simultaneously, leveraging advanced data analytics and problem-solving techniques. Our recommendations and solutions are based on rigorous research and analysis underpinned by deep expertise and thought leadersh
+ip.
+Key ResponsibilitiesSupport the development and testing of analytical and statistical models under senior guidance.Apply hypothesis testing, regression, and simple machine learning methods to solve structured data problems.Clean, transform, and visualize datasets using Python and basic BI tools.Assist in feature engineering, model validation, and documentation of analytical workflows.Collaborate with senior consultants to prepare reports and dashboards for client presentations.Explore and document emerging data sources and technologies relevant to ongoing proje
+cts.
+Required Skills and QualificationsBachelor’s or Master’s in Computer Science, Statistics, Data Science, or a related quantitative field.1–2 years of experience in data analytics or applied statistics.Proficiency in Python or R for data processing and visualization.Understanding of machine learning fundamentals, data wrangling, and exploratory analysis.Familiarity with SQL and basic data pipelines.Exposure to cloud environments (AWS or Azure) and Git version control.Strong analytical thinking and eagerness to learn from senior men
+tors.
+Preferred QualificationsExperience fine-tuning generative models and integrating classic AI techniques.Prior leadership experience and a record of mentoring junior colleagues.Domain expertise in healthcare, transportation, technology, insurance, or related se
+ctors.
+Our interview process is streamlined with a single step: an AI interview. If you perform well, our hiring managers will review your AI interview recording and may extend an offer directly based on that
+ review</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4342013049</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342013049/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2025-12-04T23:09:03+00:00</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>«machine learning»: Spatial AI Intern - EON Reality y más</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>4</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Job DescriptionJob Title: Mid-level Data Science Associate Consultant
+Job Type: Full-time
+Location: Remote - LATAM
+Job Summary:ZS's Insights &amp; Analytics group partners with clients to design and deliver solutions to help them tackle a broad range of business challenges. Our teams work on multiple projects simultaneously, leveraging advanced data analytics and problem-solving techniques. Our recommendations and solutions are based on rigorous research and analysis underpinned by deep expertise and thought leadership.
+Key Responsibilities:Design and implement advanced analytical and ML models to solve complex business challenges.Apply data mining, predictive modeling, and NLP techniques to extract insights from structured and unstructured data.Develop scalable analytical workflows using Python and integrate results into client systems.Build and maintain data pipelines; optimize data ingestion and transformation processes.Collaborate with cross-functional teams to interpret findings and influence data-driven decision-making.Develop reusable analytical assets and contribute to platform scalability initiatives.Mentor junior analysts and ensure best practices in data science workflows.
+Required Skills and Qualifications:Master’s in Computer Science, Statistics, Data Science, or related field with 2–4 years of experience.Proficiency in Python (pandas, NumPy, scikit-learn) or R for model building and analysis.Experience with machine learning pipelines, feature selection, and model evaluation.Hands-on knowledge of big data tools (Spark, Hadoop) and cloud platforms (AWS, Azure).Familiarity with SQL and NoSQL data stores.Ability to translate technical results into actionable business recommendations.Experience working in agile environments and leading small-scale analytical projects.
+Preferred Qualifications:Experience fine-tuning generative models and integrating classic AI techniques.Prior leadership experience and a record of mentoring junior colleagues.Domain expertise in healthcare, transportation, technology, insurance, or related sectors.
+Our interview process is streamlined with a single step: an AI interview. If you perform well, our hiring managers will review your AI interview recording and may extend an offer directly based on that review</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4341733201</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4341733201/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2025-12-04T21:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>«NLP»: Junior AI Engineer (LATAM) - micro1 y más</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>8</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Job Title: Junior AI Engineer
+Job Type: Full-time
+Location: LATAM (Remote)
+Experience: 1-2 Years of Relevant Experience
+Job Summary:Join our team as a Junior AI Engineer and help us push the boundaries of Generative AI applications. You’ll collaborate with passionate colleagues to design, build, and scale advanced GenAI systems that power innovative solutions. This is an exciting opportunity for a hands-on engineer eager to grow their skills while building impactful, production-grade AI features.
+Responsibilities:
+Contribute to the development of GenAI applications such as answering engines, entity extraction tools, and summarization systems.Assist in building and debugging REST APIs using Python frameworks like FastAPI or Flask.Support RAG (Retrieval-Augmented Generation) pipelines through tasks like data ingestion, embedding creation, and prompt testing.Work with vector databases (e.g., Pinecone, FAISS) for data storage and retrieval.Experiment with prompt templates and LLMs (OpenAI, Mistral, etc.) under guidance from senior engineers.Collaborate with cross-functional teams to integrate GenAI modules into products.Learn cloud deployment basics using AWS or Azure and assist in model or API deployment.Stay curious about LangChain, LangGraph, and emerging AI frameworks.
+Must-have Skills:
+Python: Proficient with the language. Able to write, test, and debug code.API Development: Experience with FastAPI, Flask, or equivalent.GenAI Basics: Exposure to LLMs, prompt engineering, and simple RAG use cases.Cloud/DevOps: Familiarity with one major cloud platform (AWS or Azure).Version Control: Git fundamentals and collaborative development.
+Good-to-have Skills:
+Familiarity with LangChain or LangGraph.Experience working with embeddings and vector databases.Basic understanding of CI/CD pipelines and containerization (Docker).Curiosity about agents and autonomous AI systems.
+Our interview process is streamlined with a single step: an AI interview. If you perform well, our hiring managers will review your AI interview recording and may extend an offer directly based on that review.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4325628188</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325628188/</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2025-12-04T21:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>«NLP»: Junior AI Engineer (LATAM) - micro1 y más</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>7</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Please submit your resume in English and indicate your level of English.
+Mindrift is looking for highly skilled Vibecode specialists to join the Tendem project (https://tendem.ai/) and shape the future of hybrid agents—where human expertise and AI-driven automation work together seamlessly to deliver exceptional results for real clients.In this role, you'll work alongside Tendem Agent that handle repetitive and time-consuming tasks, while you provide the critical thinking, domain expertise, and quality control needed to produce accurate, reliable, and actionable outputs.You'll be solving complex, real-world challenges across multiple domains—from data analysis to web scraping, data processing, and research synthesis.This flexible, part-time remote opportunity is ideal for professionals with technical expertise and hands-on experience in scripting, automation, or AI-driven tools.
+What we doThe Mindrift platform connects specialists with AI projects from major tech innovators. Our mission is to unlock the potential of Generative AI by tapping into real-world expertise from across the globe.
+About the RoleAs a Vibe Code specialist, you'll handle research, data extraction, and analysis tasks requiring technical precision and strategic problem-solving.Conduct advanced web research and data mining using multiple tools to locate and extract information from official sources. Use LLMs and advanced prompts to refine search strategies and validate data accuracy by cross-referencing authoritative sources.Perform web scraping and data extraction by navigating complex website structures and multi-level pages (regions → companies → detailed pages). Handle dynamic content, archived pages, and various HTML formats, and organize extracted data into clean, well-formatted CSV files.Write and optimize Python scripts for data processing and analysis using libraries such as pandas, BeautifulSoup, Selenium, and matplotlib. Transform raw data into structured formats (CSV, JSON, tables) and create visualizations when required.Carry out data processing and quality assurance by cleaning, validating, and structuring datasets. Ensure data integrity across multiple sources, apply formatting specifications, and run verification steps to maintain high output quality.Apply strong problem-solving and task execution skills to break down complex workflows, troubleshoot technical issues independently, and adapt quickly between different domains and task types with minimal supervision.Produce clear documentation and high-quality outputs that follow exact requirements for file formats, naming conventions, and data structure. Maintain reproducible workflows and well-organized code.
+How to get startedSimply apply to this post, qualify, and get the chance to contribute to projects that match your technical skills, on your own schedule. From coding and automation to fine-tuning AI outputs, you’ll play a key role in advancing AI capabilities and real-world applications.RequirementsAt least 1 year of relevant experience in data analysis, AI automation, data engineering, or software development is desirable.Bachelor's or Master’s Degree in Engineering, Applied Mathematics, Computer Science, or related technical fields is a plus.Python proficiency: Demonstrated ability to write functional scripts for data analysis, web scraping, and visualization.Web scraping expertise: Experience extracting structured data from websites using tools like BeautifulSoup, Scrapy, Selenium, or similar.Data manipulation: Strong skills in cleaning, transforming, and organizing datasets using pandas or equivalent libraries.Research capabilities: Ability to locate authoritative sources, official databases, and government datasets.Data visualization: Experience creating charts and graphs using matplotlib, seaborn, or similar libraries.Hands-on experience with LLMs and AI frameworks to enhance automation and problem-solving.Advanced web research skills with ability to find specific, credible data sources.Strong attention to detail and commitment to data accuracy.Ability to follow complex, multi-step instructions precisely.Comfortable working with CSV files, structured data formats, and file specifications.Self-directed work ethic with ability to troubleshoot independently.English proficiency: Upper-intermediate (B2) or above (required).Fully remote role: laptop, stable internet connection, and time availability required.Flexibility to switch between tasks and adapt to new methods quickly.Willingness to work with detailed, sometimes challenging guidelines.
+Why this freelance opportunity might be a great fit for you?Get paid for your expertise, with rates that can go up to $9/hour depending on your skills, experience, location and project needs.Work fully remote on your own schedule with just a laptop and stable internet connection.Gain hands-on experience in a unique hybrid environment where human expertise and AI agents collaborate seamlessly—a distinctive skill set in a rapidly growing field.Exceptional performers advance to quality assurance roles or higher-priority project lines with increased compensation. Your performance directly impacts your earning potential.Participate in performance-based bonus programs that reward high-quality work and consistent delivery.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>4325518486</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325518486/</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2025-12-04T21:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>«NLP»: Junior AI Engineer (LATAM) - micro1 y más</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>At Mindrift, innovation meets opportunity. We believe in using the power of collective human intelligence to ethically shape the future of AI.The Mindrift platform, launched and powered by Toloka, connects domain experts with cutting-edge AI projects from innovative tech clients. Our mission is to unlock the potential of GenAI by tapping into real-world expertise from across the globe.
+Who we're looking for:We’re looking for curious and intellectually proactive contributors, the kind of person who double-checks assumptions and plays devil’s advocate.Are you comfortable with ambiguity and complexity? Does an async, remote, flexible opportunity sound exciting? Would you like to learn how modern AI systems are tested and evaluated?This is a flexible, project-based opportunity well-suited for:Analysts, researchers, or consultants with strong critical thinking skills.Students (senior undergrads / grad students) looking for an intellectually interesting gig.People open to a part-time and non-permanent opportunity.
+About the project:We’re on the hunt for QAs for autonomous AI agents for a new project focused on validating and improving complex task structures, policy logic, and agent evaluation frameworks. Throughout the project, you’ll have to balance quality assurance, research, and logical problem-solving. This project opportunity is ideal for people who enjoy looking at systems holistically and thinking through scenarios, implications, and edge cases.You do not need a coding background, but you must be curious, intellectually rigorous, and capable of evaluating the soundness and consistency of complex setups. If you’ve ever excelled in things like consulting, CHGK, Olympiads, case solving, or systems thinking — you might be a great fit.What you’ll be doing:Reviewing evaluation tasks and scenarios for logic, completeness, and realism.Identifying inconsistencies, missing assumptions, or unclear decision points.Helping define clear expected behaviors (gold standards) for AI agents.Annotating cause-effect relationships, reasoning paths, and plausible alternatives.Thinking through complex systems and policies as a human would to ensure agents are tested properly.Working closely with QA, writers, or developers to suggest refinements or edge case coverage.
+How to get started:Apply to this post, qualify, and get the chance to contribute to a project aligned with your skills, on your own schedule. Shape the future of AI while building tools that benefit everyone.RequirementsExcellent analytical thinking: Can reason about complex systems, scenarios, and logical implications.Strong attention to detail: Can spot contradictions, ambiguities, and vague requirements.Familiarity with structured data formats: Can read, not necessarily write JSON/YAML.Can assess scenarios holistically: What's missing, what’s unrealistic, what might break?Good communication and clear writing (in English) to document your findings.We also value applicants who have:Experience with policy evaluation, logic puzzles, case studies, or structured scenario design.Background in consulting, academia, olympiads (e.g. logic/math/informatics), or research.Exposure to LLMs, prompt engineering, or AI-generated content.Familiarity with QA or test-case thinking (edge cases, failure modes, “what could go wrong”).Some understanding of how scoring or evaluation works in agent testing (precision, coverage, etc.).
+Benefits:Take part in a flexible, remote, freelance project that fits around your primary professional or academic commitments.Participate in an advanced AI project and gain valuable experience to enhance your portfolio.Influence how future AI models understand and communicate in your field of expertise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4341763163</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4341763163/</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2025-12-04T19:36:03+00:00</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>«pytorch»: Spatial AI Intern - EON Reality y más</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>4</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Job DescriptionJob Title: Mid-level AI Engineer
+Job Type: Full-time
+Location: LATAM (Remote)
+Experience: 2-4 Years of Relevant Experience
+Job Summary:Join our team as a Mid-level AI Engineer and help drive the next generation of GenAI-powered applications. You will architect robust solutions, collaborating closely with fellow engineers, product managers, and designers to turn cutting-edge research into real-world impact. If you thrive in a fast-paced, innovation-driven environment and are passionate about clear communication, this is the opportunity for you.
+Responsibilities:
+Build GenAI applications such as question-answering systems, content generation tools, and extraction pipelines.Design, implement, and optimize RAG pipelines end-to-end: ingestion, chunking, embedding, prompt templating, evaluation, and deployment.Develop robust APIs using Python frameworks (FastAPI preferred).Work with multiple LLMs (OpenAI, Mistral, Anthropic, etc.) and evaluate model performance for different use cases.Use LangChain, LangGraph, or LangSmith to orchestrate and monitor GenAI workflows.Deploy applications on AWS or Azure and implement CI/CD for continuous improvement.Collaborate with data engineers and product managers to translate technical designs into scalable solutions.Participate in system design discussions, contributing ideas for performance and maintainability.
+Must-have Skills:
+Python: Strong experience with the language. Able to design clean, modular, production-grade code.API Development: Proven experience building and maintaining APIs (FastAPI/Flask).GenAI Stack: LangChain, LangGraph, LangSmith; multiple LLM APIs (OpenAI, Mistral, etc.).RAG Lifecycle: Data ingestion, prompt templating (Jinja), evaluation/re-ranking, deployment.Cloud/DevOps: Hands-on with AWS or Azure (deployments, monitoring).
+Good-to-have Skills:
+Understanding of distributed systems and scaling strategies.Experience with containerization (Docker) and orchestration (Kubernetes).Familiarity with Guardrails AI or Responsible AI frameworks.Basic UI integration knowledge (React, optional).
+Our interview process is streamlined with a single step: an AI interview. If you perform well, our hiring managers will review your AI interview recording and may extend an offer directly based on that review.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4341738827</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4341738827/</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2025-12-04T19:36:03+00:00</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>«pytorch»: Spatial AI Intern - EON Reality y más</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>This position is posted by Jobgether on behalf of a partner company. We are currently looking for a Senior AI Consultant in Latin America.
+We are seeking a highly skilled AI consultant to lead innovative AI initiatives across diverse industries. This role blends client-facing engagement with technical leadership, internal product development, and thought leadership. You will design, prototype, and implement AI solutions while guiding engineering teams and shaping best practices. The position offers the chance to work with cutting-edge AI frameworks, LLMs, and vector databases in a fully remote, collaborative environment. Ideal candidates are entrepreneurial, enjoy solving complex problems, and are motivated to contribute to both client success and internal innovation programs.
+Accountabilities
+Lead AI discovery sessions and technical assessments with clients, developing prototypes and proof-of-concepts for real-world applications.Provide technical leadership across multiple client engagements, creating detailed specifications for engineering teams.Guide internal AI product development, evaluating and integrating emerging tools and frameworks into delivery methodologies.Mentor AI engineers, establish technical best practices, and contribute to the development of AI innovation frameworks.Author technical content such as white papers, case studies, and blog posts, and deliver presentations at conferences or webinars.Support business development efforts by creating compelling demos, contributing to proposals, and providing technical expertise during sales meetings.Coordinate with distributed engineering teams to ensure successful project delivery and knowledge transfer.
+Requirements
+Proven experience designing, building, and deploying AI/ML solutions in production environments.Proficiency in rapid prototyping using modern AI development tools (Claude Code, Cursor, Gemini, etc.) and LLM frameworks (LangChain, LlamaIndex).Strong programming skills in Python; familiarity with vector databases, RAG implementations, and prompt engineering.Solid understanding of AI/ML fundamentals and the ability to select appropriate approaches for business problems.Excellent communication skills with the ability to present technical concepts to both technical and non-technical audiences.Experience translating business requirements into technical specifications and managing ambiguous, fast-paced projects.Flexibility to coordinate with global teams across time zones.Preferred: previous experience in consulting, professional services, or sales engineering; domain expertise in healthcare, finance, or enterprise software; track record of AI project delivery; experience managing distributed teams; published work or contributions to AI/ML communities.
+Benefits
+Competitive salary and equity opportunities.Fully remote role with flexible work hours and autonomy.Opportunity to work on cutting-edge AI projects across multiple industries.Career development through mentorship, technical leadership, and exposure to client engagements.Access to modern AI tools, LLM frameworks, and development environments.Collaborative and inclusive remote-first culture with global teams.
+Why Apply Through Jobgether?
+We use an AI-powered matching process to ensure your application is reviewed quickly, objectively, and fairly against the role's core requirements. Our system identifies the top-fitting candidates, and this shortlist is then shared directly with the hiring company. The final decision and next steps (interviews, assessments) are managed by their internal team.
+We appreciate your interest and wish you the best!
+Data Privacy Notice: By submitting your application, you acknowledge that Jobgether will process your personal data to evaluate your candidacy and share relevant information with the hiring employer. This processing is based on legitimate interest and pre-contractual measures under applicable data protection laws (including GDPR). You may exercise your rights (access, rectification, erasure, objection) at any time.
+We may use artificial intelligence (AI) tools to support parts of the hiring process, such as reviewing applications, analyzing resumes, or assessing responses. These tools assist our recruitment team but do not replace human judgment. Final hiring decisions are ultimately made by humans. If you would like more information about how your data is processed, please contact us.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4341792705</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4341792705/</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2025-12-04T17:35:07+00:00</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>«LLM»: Spatial AI Intern - EON Reality y más</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>6</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>*Native/Bilingual English is required for this role (read/written/spoken)
+Please upload your CV Resume in English.
+Monthly salary: $2,000 - $3,500 USD
+Along with our partner, we're looking for a talented ML Engineer who will be the main touchpoint for our partner's client. You will have to leverage technical knowledge, soft skills, and strong problem-solving skills to deliver great experiences to clients.
+Key Responsibilities:Guide new users through onboarding, setup, and best practices Document technical learnings, common patterns, and solutions derived from real customer interactions Transform lessons learned into clear, actionable knowledge for both internal teams and external users Create and maintain documentation, tutorials, and sample projects Provide technical support via Slack, email, and meetings, helping users troubleshoot and resolve issues quickly Collaborate with engineering to debug production issues and prioritize fixes Help users architect scalable and efficient deployments using FriendliAI Lead customer-facing technical sessions, demos, and Q&amp;As 
+Qualifications:1+ years of hands-on experience with deploying &amp; debugging LLMs on GPUs for production1+ years in a developer-facing or technical support role (Customer Success, Solutions Engineering, etc.) Bachelor’s or Master's degree in Computer Science, Computer Engineering, Electrical Engineering, or equivalent Have deep knowledge of how LLMs and related technologies/features workFamiliarity with Kubernetes and cloud infrastructureExcellent written and verbal communication skills Proficient in Python and familiar with LLM ecosystems (e.g., Hugging Face, LangChain) Experience working with APIs, CLI tools, and deployment workflows Ability to explain complex technical concepts clearly and concisely 
+Preferred Experience:Strong technical writing skills with experience authoring user-facing or internal technical content.Experience working with open-source model inference in production.Experience writing developer documentation or educational content.Prior experience working with enterprise customers or managing technical escalations.Contributions to developer communities or open source.Familiarity with model serving platforms and inference workflows.Hands-on experience building with agentic or autonomous AI frameworks.
+Work Schedule: rotating through Monday - Sunday, 6 AM - 6 PM PST.
+Commitment: 180 hours per month
+Benefits:A fully remote position with a structured schedule that supports work-life balance.The opportunity to work with our partner at the cutting edge of generative AI infrastructure and model serving.Two weeks of paid vacation per year.10 paid days for local holidays.
+*Please note our partner is only looking for full-time dedicated team members who are eager to fully integrate within their team.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4348422585</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4348422585/</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2025-12-04T17:35:07+00:00</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>«LLM»: Spatial AI Intern - EON Reality y más</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>7</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Título: Freelancer en Automatización e Inteligencia Artificial para Pymes (Remoto, Latam)
+Sobre Nitida AI Nitida AI ayuda a pequeñas y medianas empresas a aprovechar la inteligencia artificial para vender más, atender mejor a sus clientes y reducir trabajo manual. Trabajamos principalmente con pymes en Colombia y Latinoamérica, construyendo soluciones prácticas como asistentes de WhatsApp, automatización de documentos y tableros de negocio.Estamos buscando freelancers en automatización e IA que se encarguen de la implementación técnica de los proyectos que diseñamos con nuestros clientes.
+ResponsabilidadesComo freelancer en Nitida AI, te encargarás de:Construir y configurar chatbots y asistentes con IA (WhatsApp, web u otros canales).Diseñar automatizaciones usando herramientas como Zapier, Make, n8n u otras.Integrar APIs y webhooks entre diferentes sistemas (por ejemplo: formulario → CRM → WhatsApp).Trabajar con herramientas de LLM (OpenAI / ChatGPT u otras) para:Generar y transformar texto.Clasificar mensajes o tickets.Extraer información de documentos y conversaciones.Apoyar la creación de tableros e informes usando datos del cliente (Google Sheets, Looker Studio, Power BI, etc.).Colaborar de cerca con la fundadora, proponiendo soluciones simples y robustas a partir de las necesidades del negocio.
+RequisitosExperiencia demostrable en:Automatización de procesos y flujos.Integraciones con APIs y webhooks.Manejo práctico de al menos algunas herramientas como:Zapier, Make, n8n u otras plataformas de automatización.Plataformas de chatbots (Dialogflow, ManyChat, Botpress, bots a medida, etc.).Herramientas de IA / LLMs (OpenAI, Claude, etc.).Buen dominio de al menos un lenguaje de programación (idealmente Python o JavaScript).Capacidad para leer y entender documentación técnica.Español fluido (clientes principalmente en Colombia y Latam).Comunicación clara y capacidad de explicar lo técnico en lenguaje sencillo.
+Plus / Valoramos tambiénExperiencia previa trabajando con pymes.Experiencia con:Automatización sobre Google Sheets / Excel.Visualización de datos (Looker Studio, Power BI, Tableau, etc.).Procesamiento de documentos (facturas, contratos, PDFs).Interés genuino en inteligencia artificial aplicada a negocios reales.
+Qué ofrecemosColaboración freelance por proyecto, 100% remota.Horario flexible y trabajo orientado a resultados.Alcances de proyecto claros y comunicación directa.Oportunidad de trabajar en casos reales de pymes y ver impacto directo.Posibilidad de colaboración a largo plazo si hay buen encaje.
+Cómo postularPor favor envía un mensaje o aplica adjuntando:Tu experiencia con automatización, APIs, chatbots e IA (herramientas que dominas).Enlaces a proyectos anteriores / portafolio / GitHub / LinkedIn.Tu tarifa por hora o rango típico por proyecto.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4338520321</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4338520321/</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2025-12-04T15:35:22+00:00</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Spatial AI Intern - EON Reality y más</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>4</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>At DevSavant, we are a trusted technology partner specializing in Software Development, Data Engineering, AI/Machine Learning, Cloud Solutions, Automation Testing, and UI/UX Design. We deliver innovative, high-quality solutions with a focus on excellence and results. Our people are at the heart of everything we do, fostering a culture of growth and well-being. Join us and thrive in a supportive, success-driven environment.
+We're looking for a talented Data Scientist with expert Python skills and experience in processing large amounts of data to join our client's team. You'll be a key player in designing, building, and making our main data pipelines and ML systems (that power our advanced analytics and machine learning models) able to handle more. You'll work closely with data scientists and engineers to create strong, efficient, and scalable systems. If you love solving complex technical problems, building production-ready data systems, and want to make a big impact on a data-driven company, this job is for you!
+Antenna, our client, is a remote-first company, and we are looking for candidates who can work during US business hours. You will report to the Data Science Lead.
+What You’ll Do
+Design, develop, test, and maintain strong and scalable data pipelines using Python and tools for large-scale data processing (like Spark, Dask, or similar on GCP).Design and take ownership of key parts of our ML systems, making sure they are reliable, efficient, and can grow.Set up and manage MLOps practices, including automatic updates for machine learning models (CI/CD), model monitoring, and automated launch plans.Improve and manage data processing jobs on cloud platforms (GCP: Dataproc, BigQuery, Cloud Run, Cloud Build).Work with data scientists to get machine learning models ready for production and connect them to our data systems.Write detailed documents for the system designs, code, and systems you create and manage.Fix complex technical problems in data systems that run on many computers and in ML pipelines.
+Who You Are
+You have 3-5+ years of work experience in software engineering, with a strong focus on data engineering, ML engineering, or building applications that use a lot of data.You are an expert in Python, with a strong understanding of object-oriented design, software system design, and experience building high-quality, testable code for production.You have strong, hands-on experience with tools for handling large amounts of data like Apache Spark (PySpark), Dask, or similar.You have solid experience with cloud platforms (GCP is highly preferred). This includes putting services live, managing them, making them handle more users (e.g., Docker, Cloud Run, GKE), and working with large data systems (e.g., Dataproc, BigQuery).You have strong SQL skills and experience working with large, complex datasets.You have a deep understanding of machine learning ideas, the full process of creating a model, and MLOps principles.You are an excellent problem-solver, good at fixing complex issues in systems that run on many computers, and making them perform better and handle more data.You explain complex technical ideas and system design decisions clearly and effectively in English.Advanced English proficiency (B2-C1); Excellent communication, teamwork, and consulting skills.You are passionate about building strong, scalable systems and are eager to guide and work with a team.You care deeply about code quality, system reliability, and writing good documentation.
+Bonus
+Experience in or passion for the Subscription Economy, especially in media and entertainment.Deep knowledge of specific GCP services like Dataproc, Dataflow, Cloud Composer, Vertex AI, or Kubernetes Engine.Experience building and maintaining Python code (libraries) used by many, or contributions to open-source projects.Advanced knowledge of MLOps tools and ways to manage workflows (e.g. Cloudbuild, CloudRun).
+Tech Stack 
+Languages: Python (expert), SQL (strong)Large-Scale Data Processing: Apache Spark/PySpark (or similar like Dask)Cloud Platform: Google Cloud (Dataproc, BigQuery, Cloud Storage, Cloud Run, Cloud Build, GKE - strong experience expected)Version Control: Git (expert)MLOps &amp; Orchestration: Familiar with tools like Airflow, Kubeflow, Vertex AI PipelinesContainerization: Docker, KubernetesData Analysis Libraries: Pandas, NumPy (very good with these)Machine Learning: scikit-learn, TensorFlow/PyTorch (understand how to get them to production)AI Tools: Claude, Gemini, OpenAI offerings</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4325624780</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325624780/</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2025-12-04T15:35:22+00:00</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Spatial AI Intern - EON Reality y más</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>4</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>💻 We’re Hiring: 3D Computer Vision Engineer 💻
+Location: Fully Remote (Work from Home) | 9 AM – 5 PM EST
+About the roleOur client is an AI infrastructure startup building cutting-edge models for the fashion industry. They are redefining how fashion is experienced through advanced computer vision and AI, operating at a pre-revenue, pre-Alpha stage while assembling a foundational technical team.
+They’re looking for a 3D Computer Vision Engineer to serve as the first computer vision hire and lead the development of the body measurement and 3D reconstruction pipeline. This role is central to shipping their Alpha prototype and establishing the technical backbone of the product.
+What You’ll DoDesign and build computer vision models for smartphone-based body measurement.Develop the 2D-to-3D reconstruction pipeline and optimize it for real-time mobile deployment.Build infrastructure for data collection, validation, and testing to support model training.Ship the Alpha prototype within 4–6 weeks and iterate quickly based on feedback.Lead all technical efforts related to 3D reconstruction and drive architectural decisions.
+What You BringMid to senior-level experience in computer vision, including shipped products.Strong background in 3D reconstruction, point clouds, or human mesh estimation.Experience deploying ML models to mobile or edge environments.Proficiency with Python and frameworks like PyTorch or TensorFlow.Ability to lead technical decisions, optimize real-time systems, and work in fast-paced environments.
+OpportunityThis is a rare chance to join a high-potential AI startup at the earliest stage and shape the product's technical foundation. You’ll influence the roadmap, build core architecture, and play a key role as the company scales.
+If you’re driven, innovative, and excited to build real-time 3D computer vision systems from the ground up. Apply today!</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4341214486</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4341214486/</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2025-12-04T01:35:09+00:00</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>«LLM»: Machine Learning Engineer - Ai Jobs y más</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>3</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Machine Learning, Data &amp; AI Talent Pool
+Location: LATAM (Remote)Work Type: Full-time / Contract (varies by role)
+We are building a curated Talent Pool of experienced professionals across Machine Learning, Data Engineering, Data Science, MLOps, and Applied AI. By joining our pipeline, you’ll be considered for multiple opportunities with our technology clients—ranging from startups to enterprise-level companies—based on your expertise, seniority, and industry focus.
+About the Talent PoolWe are looking to connect with strong technical talent who have hands-on experience designing, developing, and deploying data-driven and AI-powered solutions. If you specialize in any area of the Data &amp; AI ecosystem, we’d love to learn more about your background and match you with upcoming projects or full-time roles.
+Key Areas of Expertise We’re Looking For
+1. Machine Learning &amp; Applied AIBuilding and deploying ML models (supervised, unsupervised, NLP, CV, deep learning).Experience with ML frameworks: TensorFlow, PyTorch, Scikit-learn, XGBoost, Hugging Face.Model evaluation, experimentation, fine-tuning, and optimization.Experience with GenAI, LLMs, embeddings, RAG, prompt engineering, or agentic workflows is a plus.2. Data EngineeringBuilding scalable data pipelines and ETL/ELT workflows.Strong SQL and Python.Cloud-native data stack: AWS, Azure, GCP, Snowflake, BigQuery, Databricks, Redshift, or similar.Stream processing or distributed systems (Kafka, Spark, Flink).3. MLOps / DataOpsModel deployment, monitoring, CI/CD for ML, model registries, feature stores.Experience with tools like MLflow, Kubeflow, SageMaker, Vertex AI, Databricks ML.Strong understanding of production ML lifecycle.4. Data Science &amp; AnalyticsStatistical modeling, experimentation (A/B testing), forecasting, segmentation.BI tools and data visualization (Tableau, Power BI, Looker).Experience translating business problems into analytical solutions.
+General Requirements5+ years of experience in one or more ML/Data/AI tracks.Strong Python skills.Cloud experience (AWS, Azure, or GCP).Solid understanding of data modeling, pipelines, and best practices in production environments.Ability to work remotely, communicate clearly, and collaborate asynchronously.English proficiency (written and spoken).
+Nice-to-Have SkillsExperience with LLMs in production environments.Familiarity with RAG, vector databases, or agent frameworks.Experience working in startups, fast-paced environments, or distributed teams.Exposure to data governance, security, compliance, or responsible AI.
+How to Join the Talent PoolIf you're interested, apply through this posting and complete the short questionnaire. Your details will help us understand your profile, tech stack, and project preferences so we can match you with the most relevant.
+Why Join Us?
+We offer a supportive and rewarding work environment with a range of benefits designed to help you thrive:Full-Time Position: Stability and growth in a dedicated role.Competitive Compensation: Get paid in US dollars, ensuring a strong and stable income.100% Remote Work: Enjoy the flexibility of working from anywhere.Paid Time Off: Receive 12 PTO days per year to recharge and unwind.Local Holidays: Celebrate your country's holidays with paid time off.Birthday Off: Take your special day off, on us!Career Growth: Access clear career paths and opportunities for advancement.Recognition Program: Be celebrated for your achievements and contributions.Paid Leaves: Enjoy peace of mind with fully paid leaves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4325457932</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325457932/</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2025-12-04T01:35:09+00:00</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>«LLM»: Machine Learning Engineer - Ai Jobs y más</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>4</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>At BairesDev®, we've been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the world's Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, you're taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Machine Learning Engineer at BairesDev
+We are looking for an outstanding Machine Learning Engineer to join our team. This professional will use data and machine learning techniques to help the business automate and scale decision-making, mainly by producing advanced data analysis reports and data-based models to infer and predict patterns.
+What You Will Do:
+- Help to improve data literacy and the overall analytical environment across the company.- Handle both structured and unstructured data using SQL and other programming languages.- Perform advanced data analysis and report results.- Tell the story behind data in a compelling manner for business people.- Build predictive models and machine-learning algorithms.- Combine models through ensemble modeling.- Propose solutions and strategies to business challenges.- Help to design and execute experiments for hypothesis testing.- Participate actively in discussions and decisions regarding the whole Machile Learning / Data Science chapter.- Collaborate with data product managers to build awesome data products.- Work with management to prioritize business and information needs.- Help to spread a data-driven mindset and to improve data literacy. Be a data evangelist.
+Here’s what we are looking for:
+- 3+ years of experience with Machine Learning, data science, IA, statistical, and other related areas.- Proficiency with MySQL.- Proficiency in Python, R, or another major programming language.- Excellent communication skills, and capacity to collaborate and build relationships with non-technical users.- Strong knowledge of probability and statistics, including experimental design, predictive modeling, optimization, and causal inference.- Hands-on experience with machine learning, like regression classification, clustering, neural networks, feature selection, cross-validation, the curse of dimensionality, bias-variance tradeoff, model explainability, NLP, etc.
+Desirable:- Experience with people analytics or growth.- Experience with data visualization tools.- Good understanding of the engineering challenges to deploying machine learning systems to production.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).- Excellent compensation in USD or your local currency if preferred- Hardware and software setup for you to work from home.- Flexible hours: create your own schedule.- Paid parental leaves, vacations, and national holidays.- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4325347383</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325347383/</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2025-12-04T01:35:09+00:00</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>«LLM»: Machine Learning Engineer - Ai Jobs y más</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>WinDifferent specializes in helping businesses achieve rapid and sustainable growth through our powerful proprietary marketing system. Our data-driven solutions generate positive engagement that leads to ready-to-close opportunities, massively expanding sales pipelines and enabling companies to scale faster than the competition.
+As one of WinDifferent's best success stories, BairesDev helps us to find the best talent worldwide and invites them to explore our continually growing job opportunities.
+Machine Learning and Data Science Specialist at WinDifferent
+We are looking for a Machine Learning and Data Science Specialist to serve as the owner of the ML algorithms powering SellDifferent’s campaign segmentation and targeting system. This role is central to the product’s success, managing a massive system with millions of data points and ensuring models directly impact business outcomes. You’ll optimize, supervise, and evolve ML pipelines, driving innovation and reliability in one of the most important components of the platform.
+What You’ll Do:
+- Optimize existing machine learning algorithms to improve accuracy and performance.- Propose, design, and implement new ML features that enhance product capabilities.- Supervise and monitor machine learning performance at scale.- Define ML requirements and collaborate with engineering and product teams to bring them to life.- Handle administrative and organizational duties related to ML initiatives.
+What We Are Looking For:
+- 5+ years of experience in Machine Learning, including at least 4 years building the end-to-end model development lifecycle (requirements definition, feature discovery, model training/registration, deployment, monitoring, and MLOps).- Proficiency in SQL and Python, with strong knowledge of data and ML frameworks.- Solid fundamentals in probability and statistics.- Business-minded approach with proven stakeholder management skills — able to define your own work based on conversations with senior leaders.- Product-oriented mindset: you design ML pipelines with direct business impact and thrive in ownership-heavy environments.- Familiarity with development best practices and navigating complex production codebases.- Postgraduate degree in Machine Learning or Data Science.
+Desirable Qualifications:
+- Experience with Databricks.- Experience implementing machine learning explainability pipelines.- Experience with orchestration tools such as Airflow.- Experience applying machine learning to marketing use cases.
+How we do make your work (and your life) easier:
+- 100% remote work.- Work-from-home hardware setup.- Flexible hours - make your schedule.- PTO, parental leave, and other special leaves.- English classes.- Personal loans with 0% interest, following the company's policies.- Udemy for Business (subject to manager's approval).- An excellent compensation package — well above the market average.- You can grow at the speed of your learning curve.- An innovation-driven, diverse, and multicultural work environment that provides the support and resources for its professionals to thrive.- The chance and resources to be a game-changer for one of America's fastest-growing companies.
+Join a global team where your unique AI talents can truly thrive and make a significant impact!
+Apply Now!</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4325447364</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325447364/</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2025-12-04T01:35:09+00:00</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>«LLM»: Machine Learning Engineer - Ai Jobs y más</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>3</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>WinDifferent specializes in helping businesses achieve rapid and sustainable growth through our powerful proprietary marketing system. Our data-driven solutions generate positive engagement that leads to ready-to-close opportunities, massively expanding sales pipelines and enabling companies to scale faster than the competition.
+As one of WinDifferent's best success stories, BairesDev helps us to find the best talent worldwide and invites them to explore our continually growing job opportunities.
+Machine Learning and Data Science Specialist at WinDifferent
+We are looking for a Machine Learning and Data Science Specialist to serve as the owner of the ML algorithms powering SellDifferent’s campaign segmentation and targeting system. This role is central to the product’s success, managing a massive system with millions of data points and ensuring models directly impact business outcomes. You’ll optimize, supervise, and evolve ML pipelines, driving innovation and reliability in one of the most important components of the platform.
+What You’ll Do:
+- Optimize existing machine learning algorithms to improve accuracy and performance.- Propose, design, and implement new ML features that enhance product capabilities.- Supervise and monitor machine learning performance at scale.- Define ML requirements and collaborate with engineering and product teams to bring them to life.- Handle administrative and organizational duties related to ML initiatives.
+What We Are Looking For:
+- 5+ years of experience in Machine Learning, including at least 4 years building the end-to-end model development lifecycle (requirements definition, feature discovery, model training/registration, deployment, monitoring, and MLOps).- Proficiency in SQL and Python, with strong knowledge of data and ML frameworks.- Solid fundamentals in probability and statistics.- Business-minded approach with proven stakeholder management skills — able to define your own work based on conversations with senior leaders.- Product-oriented mindset: you design ML pipelines with direct business impact and thrive in ownership-heavy environments.- Familiarity with development best practices and navigating complex production codebases.- Postgraduate degree in Machine Learning or Data Science.
+Desirable Qualifications:
+- Experience with Databricks.- Experience implementing machine learning explainability pipelines.- Experience with orchestration tools such as Airflow.- Experience applying machine learning to marketing use cases.
+How we do make your work (and your life) easier:
+- 100% remote work.- Work-from-home hardware setup.- Flexible hours - make your schedule.- PTO, parental leave, and other special leaves.- English classes.- Personal loans with 0% interest, following the company's policies.- Udemy for Business (subject to manager's approval).- An excellent compensation package — well above the market average.- You can grow at the speed of your learning curve.- An innovation-driven, diverse, and multicultural work environment that provides the support and resources for its professionals to thrive.- The chance and resources to be a game-changer for one of America's fastest-growing companies.
+Join a global team where your unique AI talents can truly thrive and make a significant impact!
+Apply Now!</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4325235622</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325235622/</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2025-12-03T23:36:33+00:00</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Machine Learning Engineer - Ai Jobs y más</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>6</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Role: AI EngineerLocation: LatAmInvestors:Goldman Sachs Asset ManagementFinTech CollectiveCometa
+Company Overview
+Created in 2019, Simetrik is a robust B2B platform powered by no code and generative AI. It empowers financial and operational teams by allowing them to automate all reconciliations from start to finish, and anticipate and manage risks all on a single, intuitive, and robust interface inspired by spreadsheets.
+Simetrik has established itself as a market leader in Latin America, handling two-thirds of the region’s transactions. Its clientele includes prominent institutions such as PayU, Mercado Libre, Rappi, PagSeguro, Falabella, Oxxo, Itaú, and Nubank, and partnerships with leading firms like Deloitte. Expanding its international reach, Simetrik has also successfully penetrated key Asian markets, serving clients in India and Singapore. The company's global footprint spans over 35 countries, monitoring over 200 million records daily.
+Executive TeamAlejandro Casas Caro Co-Founder &amp; CEOSantiago Gómez Co-Founder &amp; COOFelipe PardoCFOSebastián BezzoVP of Revenue | Latam
+About the role
+At Simetrik we are building the foundation of an AI-powered ecosystem where agents transform financial operations. As an AI Engineer you will join the AI Agent team to design, build, and deploy production ready AI agents that deliver tangible client value. The role blends software engineering rigor with data science depth. We want builders who thrive in ambiguity, move fast from concept to production, and are motivated by creating the first generation of scalable AI agents at Simetrik.
+What does success look like in this role?
+Your work reaches production with measurable outcomes such as agents deployed, client adoption, and user satisfaction. You balance speed and quality, communicate clearly, and adapt to changing priorities without losing execution momentum.
+What is the impact and the scope of this position?
+This team sits at the core of Simetrik’s future. The agents you ship can become a new business line larger than today’s company. You will be among the pioneers defining what the future looks like, moving agents from experiments to revenue.
+What results do we expect in the first 3 to 6 months?
+You deliver at least six functional agents ready for production. You validate use cases with product and operations, measure value, and establish lightweight engineering practices that let pods replicate and scale delivery.
+In this role you will
+Design, build, and deploy AI agents tailored to real customer problems.Work end to end from data preparation and model experimentation to backend integration and cloud deployment.Collaborate with product, data, and operations to identify high-value opportunities and iterate based on feedback.Ensure production readiness through testing, monitoring, and performance evaluation.Contribute reusable components and frameworks that speed up future agent development.Continuously explore state-of-the-art AI technologies and assess their production viability.Build functional agents aligned with business needs and client expectations.Maintain robust Python codebases using sound engineering practices.Integrate machine learning and large language models into scalable systems.Deploy and operate services in cloud environments with maintainability in mind.Partner with cross-functional pods to validate, iterate, and improve outcomes.
+Responsibilities
+Design, build, and deploy LLM-powered agents with capabilities for reasoning, memory, and tool use.Adapt foundation models through prompting, RAG, fine-tuning, or hybrid approaches as required.Build evaluation pipelines to measure accuracy, consistency, safety, and alignment with business goals.Implement caching, model routing, and guardrails to optimize performance and ensure safe outputs.Develop scalable APIs and services that expose LLM and agent capabilities.Collaborate with product and engineering teams to integrate agents into real-world applications.Monitor, retrain, and refine agents using user feedback loops for long-term reliability.Document system architectures, data flows, and AI workflows for reproducibility and maintainability.
+Must Have
+Hands-on experience with API development and model serving (FastAPI, Flask, or Django).Hands-on experience with LLMs (e.g., OpenAI, Anthropic, Hugging Face, Cohere).Practical experience with LLM frameworks (ADK, LangChain, LlamaIndex, CrewAI, Autogen, or similar).Experience designing and building LLM Agents, applying techniques such as RAG, tool-use, and behavioral customizations (Swarm, MagenticOne, etc.).Familiarity with multi-agent communication standards and tooling (MCP – Model Context Protocol, A2A protocols).Familiarity with prompt engineering, RAG pipelines, and fine-tuning workflows.Knowledge of experiment tracking and evaluation frameworks (MLflow, Weights &amp; Biases, or custom setups).Experience with containerized applications (Docker) and CI/CD pipelines. * Experience working with relational and non-relational databases.Comfortable collaborating in cross-functional, remote teams
+Nice to Have
+Familiarity with vector databases and retrieval systems (Pinecone, Weaviate, FAISS, Milvus).Proficiency in cloud services (AWS Lambda, S3, SageMaker, ECS, or similar).Experience with data versioning and dataset management (DVC, Delta Lake).Knowledge of caching strategies, model routing, and latency optimization for AI systems.Experience designing evaluation pipelines aligned with product and user metrics.Understanding of responsible AI principles: fairness, privacy, security, explainability.Fluency in written and spoken English and Spanish. * Startup experience is a plus.
+Qualifications
+Degree in Computer Science, Engineering, Mathematics, or a related field. Advanced degrees are a plus but not required.Three or more years of experience across data science, machine learning, or software engineering.Hybrid profiles are strongly valued.Professional proficiency in English and Spanish, Portuguese is a plus.Location in LATAM preferred. Remote friendly with distributed pods.
+Benefits
+Well-funded and proven startup with large ambitions and competitive salaries.Entrepreneurial culture where pushing limits, creating and collaborating is everyday business.Open communication with management and company leadership.Small, dynamic teams = massive impact.100% Remote Work (You choose where to work from).500USD a year for you to invest in learning.
+Simetrik considers qualified applicants for employment without regard to race, gender, age, color, religion, national origin, marital status, disability, sexual orientation, gender identity/expression, protected military/veteran status, or any other legally protected factor.
+I authorize Simetrik to be the data controller and, as such, it may collect, store and use for the purposes of my possible hiring, under the conditions described in this document. I also give my consent to Simetrik to treat my personal data information in accordance with the Personal Data Treatment Policy available at https://simetrik.com/, which was made known to me before collecting my personal data.
+Join a team of incredibly talented people that build things, are free to create, and love collaborating!</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4325267378</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325267378/</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2025-12-03T23:36:33+00:00</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Machine Learning Engineer - Ai Jobs y más</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>4</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>WinDifferent specializes in helping businesses achieve rapid and sustainable growth through our powerful proprietary marketing system. Our data-driven solutions generate positive engagement that leads to ready-to-close opportunities, massively expanding sales pipelines and enabling companies to scale faster than the competition.
+As one of WinDifferent's best success stories, BairesDev helps us to find the best talent worldwide and invites them to explore our continually growing job opportunities.
+Machine Learning and Data Science Specialist at WinDifferent
+We are looking for a Machine Learning and Data Science Specialist to serve as the owner of the ML algorithms powering SellDifferent’s campaign segmentation and targeting system. This role is central to the product’s success, managing a massive system with millions of data points and ensuring models directly impact business outcomes. You’ll optimize, supervise, and evolve ML pipelines, driving innovation and reliability in one of the most important components of the platform.
+What You’ll Do:
+- Optimize existing machine learning algorithms to improve accuracy and performance.- Propose, design, and implement new ML features that enhance product capabilities.- Supervise and monitor machine learning performance at scale.- Define ML requirements and collaborate with engineering and product teams to bring them to life.- Handle administrative and organizational duties related to ML initiatives.
+What We Are Looking For:
+- 5+ years of experience in Machine Learning, including at least 4 years building the end-to-end model development lifecycle (requirements definition, feature discovery, model training/registration, deployment, monitoring, and MLOps).- Proficiency in SQL and Python, with strong knowledge of data and ML frameworks.- Solid fundamentals in probability and statistics.- Business-minded approach with proven stakeholder management skills — able to define your own work based on conversations with senior leaders.- Product-oriented mindset: you design ML pipelines with direct business impact and thrive in ownership-heavy environments.- Familiarity with development best practices and navigating complex production codebases.- Postgraduate degree in Machine Learning or Data Science.
+Desirable Qualifications:
+- Experience with Databricks.- Experience implementing machine learning explainability pipelines.- Experience with orchestration tools such as Airflow.- Experience applying machine learning to marketing use cases.
+How we do make your work (and your life) easier:
+- 100% remote work.- Work-from-home hardware setup.- Flexible hours - make your schedule.- PTO, parental leave, and other special leaves.- English classes.- Personal loans with 0% interest, following the company's policies.- Udemy for Business (subject to manager's approval).- An excellent compensation package — well above the market average.- You can grow at the speed of your learning curve.- An innovation-driven, diverse, and multicultural work environment that provides the support and resources for its professionals to thrive.- The chance and resources to be a game-changer for one of America's fastest-growing companies.
+Join a global team where your unique AI talents can truly thrive and make a significant impact!
+Apply Now!</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>4325319913</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325319913/</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2025-12-03T23:36:33+00:00</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Machine Learning Engineer - Ai Jobs y más</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>2</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Te invitamos a formar parte del equipo regional de especialistas de tecnología y agilidad, con habilidades de abordar distintos desafíos en las iniciativas de innovación tecnológica, permitiéndonos responder a las necesidades en cada uno de nuestros clientes.En nuestra empresa puedes poner a prueba tus aptitudes y generar valor con una mentalidad de aprendizaje continuo.Estamos en constante contacto con nuevas tecnologías, múltiples proyectos eindustrias, acompañado de profesionales expertos, académicos y PhDs con una amplia experiencia en el mundo de TI y de negocio.En Practia Global 🔴 nos encontramos en la búsqueda de un Data Engineer en Perú.
+-Funciones:✅ Desplegar e integrar modelos de machine learning en la infraestructura de AWS.✅ Garantizar el mantenimiento y la mejora continua de los modelos analíticos, asegurando el cumplimiento de los lineamientos de la empresa.✅ Supervisar y optimizar los pipelines de datos en AWS, asegurando su correcto funcionamiento end-to-end, mejorando interfaces existentes e impulsando la generación de valor.
+-Requisitos:✅ Tecnico / Universitario Egresado Ingeniería de sistemas o informática.✅ De 03 años de experiencia en roles similares.✅ Conocimiento en AWS SageMaker.✅ Conocimiento en AWS S3/Glue/Athena/DynamoDB✅ Experiencia en Ciclo de vida de modelos ML✅ Experiencia en Desarrollo de pipeline de modelos.✅ Conocimiento en Terraform (deseable)
+-Te ofrecemos:🔆 Salario a convenir competitivo en el mercado.🔆 Estabilidad laboral.🔆 Plan de carrera.🔆 Somos una empresa con proyección de crecimiento a nivel LATAM.🔆 Flexibilidad Laboral y de vestimenta.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4325267389</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325267389/</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2025-12-03T19:35:01+00:00</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Machine Learning Engineer - Ai Jobs y más</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>4</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>WinDifferent specializes in helping businesses achieve rapid and sustainable growth through our powerful proprietary marketing system. Our data-driven solutions generate positive engagement that leads to ready-to-close opportunities, massively expanding sales pipelines and enabling companies to scale faster than the competition.
+As one of WinDifferent's best success stories, BairesDev helps us to find the best talent worldwide and invites them to explore our continually growing job opportunities.
+Machine Learning and Data Science Specialist at WinDifferent
+We are looking for a Machine Learning and Data Science Specialist to serve as the owner of the ML algorithms powering SellDifferent’s campaign segmentation and targeting system. This role is central to the product’s success, managing a massive system with millions of data points and ensuring models directly impact business outcomes. You’ll optimize, supervise, and evolve ML pipelines, driving innovation and reliability in one of the most important components of the platform.
+What You’ll Do:
+- Optimize existing machine learning algorithms to improve accuracy and performance.- Propose, design, and implement new ML features that enhance product capabilities.- Supervise and monitor machine learning performance at scale.- Define ML requirements and collaborate with engineering and product teams to bring them to life.- Handle administrative and organizational duties related to ML initiatives.
+What We Are Looking For:
+- 5+ years of experience in Machine Learning, including at least 4 years building the end-to-end model development lifecycle (requirements definition, feature discovery, model training/registration, deployment, monitoring, and MLOps).- Proficiency in SQL and Python, with strong knowledge of data and ML frameworks.- Solid fundamentals in probability and statistics.- Business-minded approach with proven stakeholder management skills — able to define your own work based on conversations with senior leaders.- Product-oriented mindset: you design ML pipelines with direct business impact and thrive in ownership-heavy environments.- Familiarity with development best practices and navigating complex production codebases.- Postgraduate degree in Machine Learning or Data Science.
+Desirable Qualifications:
+- Experience with Databricks.- Experience implementing machine learning explainability pipelines.- Experience with orchestration tools such as Airflow.- Experience applying machine learning to marketing use cases.
+How we do make your work (and your life) easier:
+- 100% remote work.- Work-from-home hardware setup.- Flexible hours - make your schedule.- PTO, parental leave, and other special leaves.- English classes.- Personal loans with 0% interest, following the company's policies.- Udemy for Business (subject to manager's approval).- An excellent compensation package — well above the market average.- You can grow at the speed of your learning curve.- An innovation-driven, diverse, and multicultural work environment that provides the support and resources for its professionals to thrive.- The chance and resources to be a game-changer for one of America's fastest-growing companies.
+Join a global team where your unique AI talents can truly thrive and make a significant impact!
+Apply Now!</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4325264421</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325264421/</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2025-12-03T17:36:35+00:00</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>«pytorch»: AI Engineer - Simetrik y más</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>4</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>At BairesDev®, we've been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the world's Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, you're taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Senior AI Engineer at BairesDev
+We are looking for a Senior AI Engineer to join our innovative team and lead the development of impactful AI-driven solutions. This role will involve creating, deploying, and optimizing cutting-edge AI and machine learning models to solve complex problems and drive innovation.
+What You’ll Do:
+- Lead the design, development, and deployment of AI models and machine learning systems.- Collaborate with cross-functional teams to create scalable AI-driven solutions tailored to client needs.- Perform data analysis, preprocessing, feature engineering, and model optimization.- Research and implement the latest advancements in AI and machine learning to enhance solutions.- Mentor junior team members, conducting code reviews and fostering best practices.
+What we are looking for:
+- 4+ years of experience in AI, machine learning, or related fields.- Proficiency in Python and popular ML frameworks such as TensorFlow, PyTorch, or scikit-learn.- Strong experience in data preprocessing, model development, and optimization techniques.- Deep understanding of natural language processing (NLP) and related technologies (preferred).- Proven ability to design and implement scalable AI solutions.- Advanced analytical, problem-solving, and leadership skills.- Advanced English proficiency.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).- Excellent compensation in USD or your local currency if preferred- Hardware and software setup for you to work from home.- Flexible hours: create your own schedule.- Paid parental leaves, vacations, and national holidays.- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4324978911</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4324978911/</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2025-12-03T01:35:01+00:00</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>«Computer vision»: AI Engineer - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>6</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>At BairesDev®, we've been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the world's Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, you're taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+AI Engineer at BairesDev
+As an AI Engineer, you'll contribute to developing and implementing artificial intelligence solutions that solve business challenges. You'll work with machine learning models, collaborate with data teams, and help deploy AI systems while continuously improving their performance and reliability.
+What You'll Do:
+- Develop and implement machine learning models and AI solutions.- Collaborate with teams to integrate AI capabilities into applications.- Process and prepare data for model training and evaluation.- Optimize model performance and conduct testing.- Participate in deploying AI solutions to production environments.- Document technical approaches and maintain AI systems.
+What we are looking for:
+- 3+ years of experience in AI/ML engineering or related roles.- Knowledge of machine learning frameworks and libraries.- Proficiency in Python or other programming languages for AI development.- Experience with data processing and model training pipelines.- Understanding of AI/ML concepts and algorithms.- Advanced level of English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).- Excellent compensation in USD or your local currency if preferred- Hardware and software setup for you to work from home.- Flexible hours: create your own schedule.- Paid parental leaves, vacations, and national holidays.- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4340736689</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4340736689/</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2025-12-03T01:35:01+00:00</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>«Computer vision»: AI Engineer - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>4</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Gramian Consultancy is a boutique consultancy specializing in IT professional services and engineering talent solutions. With a strong background in software engineering and leadership, we help companies build high-performing teams by matching them with professionals who truly fit their needs.
+Role Overview
+We are looking for Solution Engineers to partner directly with customers and lead the end-to-end delivery of high-impact technical solutions. Successful candidates will need to be able to work with customer teams, translating real-world challenges into production-ready systems that leverage Generative AI, Computer Vision, and Machine Learning. This role is a blend of software engineering, ML engineering, architecture, and consulting. Engineers will design and deploy solutions, integrate models, build custom workflows, and guide customers through successful implementation.
+Commitments Required: 8 hours per day with an overlap of 4 hours with PST. 
+Employment type: Contractor assignment (no medical/paid leave); 100% REMOTE
+Duration of contract: 5+ months with the possibility of transitioning into a full-time role upon successful delivery.
+Locations: LATAM
+Interview: Technical Assessment, Technical Interview, Cultural Interview
+Responsibilities
+You will lead the backend and AI components of a new, HIPAA-compliant clinical intelligence platform in the urology domain. The product ingests data from Electronic Health Records, performs advanced semantic search over structured and unstructured clinical content, and supports workflow automation for medical teams. This is a greenfield build, offering the rare chance to architect foundational systems from scratch alongside the founder.
+Engage directly with enterprise and strategic customers to understand their workflows, data, and technical requirementsArchitect, build, and deploy custom solutions leveraging GenAI, LLMs, Machine Learning and Vision models, and customer data sourcesLead full project lifecycles: scoping, solution design, development, implementation, testing, deployment, and iterationIntegrate and optimize AI/ML pipelines, including data preprocessing, prompt engineering, model selection, and evaluationBuild reliable, scalable software integrations using APIs, cloud services, and containerized systemsTroubleshoot complex technical issues across the stack—applications, models, data pipelines, infrastructure, and integrationsAct as the customer's trusted technical advisor, enabling adoption of new product capabilities and AI featuresPartner closely with internal product and engineering teams to communicate customer feedback and shape roadmap directionProduce high-quality documentation, architecture diagrams, runbooks, and technical assets for customer teamsMentor junior engineers and contribute to internal best practices for FDE delivery
+Requirements
+5-10+ years in engineering roles such as Forward Deployed Engineer, ML Engineer, Software Engineer, Solutions Engineer, Technical Consultant, or similarStrong proficiency in Python, JavaScript/TypeScript, Go, or similar production-oriented languagesHands-on experience with Machine Learning, including training, fine-tuning, evaluating, or deploying modelsDirect experience with Generative AI (LLMs, multimodal models, vector databased, or RAG) and applying them to real-world problemsExposure to Computer Vision techniques (detection, segmentation, OCR, embeddings, multimodal pipelines)Strong knowledge of ML frameworks (PyTorch, TensorFlow, OpenCV, etc.)Experience with cloud infrastructure (AWS, GCP, Azure) and containerization (Docker, Kubernetes)Excellent communication skills with both technical and non-technical audiencesComfort leading customer-facing engagements and guiding stakeholders through ambiguityWillingness and ability to travel frequentlyPrior experience in consulting, technical solutions, professional services, or customer-embedded technical rolesExperience with vector databases, embedding pipelines, or retrieval-augmented generation (RAG)Experience building APIs, microservices, or distributed systemsFamiliarity with MLOps tools (Docker, Kubernetes, model registries, CI/CD for ML)Background in deploying or fine-tuning CV models (YOLO, SAM, CLIP, DETR, etc.)Experience in startup or high-growth environments</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>4325097202</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325097202/</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2025-12-03T01:35:01+00:00</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>«Computer vision»: AI Engineer - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>6</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Científico de Datos Senior en BairesDev
+Estamos buscando un destacado Científico de Datos Senior para unirse al Equipo de Investigación y Desarrollo (I+D) de BairesDev. Este profesional utilizará datos y técnicas de aprendizaje automático para ayudar al negocio a automatizar y escalar la toma de decisiones, principalmente mediante la producción de informes avanzados de análisis de datos y modelos basados en datos para inferir y predecir patrones.
+Actividades Principales:
+- Ayudar a mejorar el conocimiento de los datos y el entorno analítico general en toda la empresa.- Manejar datos estructurados y no estructurados utilizando SQL y otros lenguajes de programación.- Realizar análisis avanzados de datos e informar de los resultados.- Contar la historia detrás de los datos de una manera convincente para la gente de negocios.- Crear modelos predictivos y algoritmos de aprendizaje automático.- Combinar modelos mediante el modelado de conjuntos.- Proponer soluciones y estrategias para los retos empresariales.- Ayudar a diseñar y ejecutar experimentos para la comprobación de hipótesis.- Participar activamente en las discusiones y decisiones relativas a todo el capítulo de Data Science / Data Engineer.- Colaborar con los gestores de productos de datos para crear productos de datos impresionantes.- Trabajar con la dirección para priorizar las necesidades de negocio y de información.- Ayudar a difundir una mentalidad basada en los datos y a mejorar la alfabetización de datos. Ser un evangelizador de los datos.
+¿Qué Buscamos?:
+- 3+ años de experiencia en Data Science / Data Engineer, aprendizaje automático, IA, estadística y otras áreas relacionadas.- Dominio de SQL.- Dominio de Python, R u otro lenguaje de programación importante.- Excelentes habilidades de comunicación y capacidad para colaborar y establecer relaciones con usuarios no técnicos.- Sólidos conocimientos de probabilidad y estadística, incluido el diseño experimental, el modelado predictivo, la optimización y la inferencia causal.- Experiencia práctica con el aprendizaje automático, como la clasificación por regresión, la agrupación, las redes neuronales, la selección de características, la validación cruzada, la maldición de la dimensionalidad, el equilibrio entre sesgo y varianza, la explicabilidad del modelo, la PNL, etc.
+Deseable:
+- Experiencia en análisis o crecimiento de personas.- Experiencia con herramientas de visualización de datos.- Buena comprensión de los retos de ingeniería para el despliegue de sistemas de aprendizaje automático a la producción.
+Qué ofrecemos para que tu trabajo (y tu vida) seja mais fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.- Hardware y software.- Horarios flexibles- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>4325098708</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325098708/</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2025-12-03T01:35:01+00:00</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>«Computer vision»: AI Engineer - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>3</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>WE ARE
+SoftServe is a global digital solutions company, headquartered in Austin, Texas, and founded in 1993. With 2,000+ active projects across the USA, Europe, APAC, and LATAM, we deliver meaningful outcomes through bold thinking and deep expertise. Our people create impactful solutions, drive innovation, and genuinely enjoy what they do.
+The AI and Data Science Center of Excellence (CoE) is SoftServe’s premier AI/ML hub, primarily based in Europe. With 130+ experts, including data scientists, research analysts, MLOps engineers, ML and LLM architects, we cover the full AI lifecycle, from problem framing to deployment.
+In 2024, we delivered 150+ AI projects, including over 100 focused on Generative AI, combining scale with measurable impact. We are a 2024 NVIDIA Service Delivery Partner and maintain strong collaborations 8with Google Cloud, Amazon, and Microsoft, ensuring our teams always work with cutting-edge tools and technologies.
+We also lead Gen AI Lab, our internal innovation engine focused on applied research and cross-functional collaboration in Generative AI. In 2025, a key area of innovation is Agentic AI, where we design and deploy autonomous, collaborative agent systems capable of addressing complex, real-world challenges at scale for our clients and internally.
+IF YOU ARE
+Qualified with a Ph.D. or master’s degree in Computer Science or a related fieldExperienced (3+ years) in building and deploying real-world applications with C#, Java, or NodeJSSkilled in developing, packaging, and integrating ML services into real applicationsProficient in the AI project lifecycle, from development to operationalization and cloud deployment with cloud-based AI/ML services (AWS, GCP, or Azure)Strong in working with GenAI tools, prompt design, and generative workflowsInterested in autonomous AI systems, and familiar with decision-making algorithms, planning frameworks, or agentic tools like LangGraph, CrewAI, or similarFamiliar with CI/CD/CT practices for machine learning systemsPossessing strong interpersonal, analytical, and problem-solving skillsFluent in English at an upper-intermediate level or aboveSkilled in Python for automation and data processing and the core data science and machine learning ecosystem (preferable)Knowledgeable in workflow orchestration tools such as Kubeflow, Airflow, or similar (as a perk)Working with LLMs (Claude, GPT, and others) and code generation tools like Cloude, WindSurf, GitHub CoPilot (as a win)Skilled in developing, packaging, and integrating applications in end-to-end cycle of development (nice to have)Experienced with vector DBs (as an advantage)
+AND YOU WANT TO
+Build LLMOps pipelines to enable model observability, reproducibility, and prompt versioningDevelop and manage AI-driven workflows (agentic pipelines) for code generation, using agents to produce functional code artifacts aligned with business and technical requirementsWork on cutting-edge ML applications involving NLP, RAG systems, and multi-modal models (text and image)Take part in productionizing large language models (LLMs) and other advanced AI modelsCollaborate closely with clients to understand use cases, gather requirements, and translate them into production-ready ML solutionsAct as the human-in-the-loop to ensure outputs meet quality, compliance, and contextual standardsHelp scale the team's discovery process by capturing reusable prompt patterns, templates, and playbooks
+TOGETHER WE WILL
+Be part of a team that's shaping the future of AI and data science through innovation and shared growthAdvance the frontier of Agentic AI by shaping intelligent multi-agent ecosystems that drive autonomy, scalability, and measurable business valueHave access to world-class training, cutting-edge research, and collaborate with top industry partnersMaintain a synergy of Data Scientists, DevOps team, and ML Engineers to build infrastructure, set up processes, productize machine learning pipelines, and integrate them into existing business environmentsCommunicate with the world-leading companies from our logos portfolioEnjoy the opportunity to work with the latest modern tools and technologies on various projectsParticipate in international events and get certifications in cutting-edge technologiesHave access to powerful educational and mentorship programsRevolutionize the software industry and drive innovation in adaptive self-learning technologies by leveraging multidisciplinary expertise
+SoftServe is an Equal Opportunity Employer. All qualified applicants will receive consideration for employment regardless of race, color, religion, age, sex, nationality, disability, sexual orientation, gender identity and expression, veteran status, and other protected characteristics under applicable law. Let’s put your talents and experience in motion with SoftServe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>4325087276</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325087276/</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2025-12-03T01:35:01+00:00</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>«Computer vision»: AI Engineer - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>6</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>At BairesDev®, we've been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the world's Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, you're taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Artificial Intelligence + Python Engineer at BairesDev
+We are seeking an Artificial Intelligence + Python Engineer to develop and deploy intelligent systems and machine learning solutions. You'll combine strong Python programming skills with AI expertise to build innovative applications that solve complex problems. This role offers the opportunity to work on cutting-edge AI projects while delivering scalable, production-ready solutions.
+What You'll Do:
+- Design and develop AI models and machine learning solutions using Python.- Build and train deep learning models using TensorFlow or PyTorch.- Implement AI algorithms for various applications and use cases.- Optimize model performance and ensure scalability in production environments.- Collaborate with data scientists and engineers to deploy AI solutions.- Stay current with emerging AI technologies and best practices.
+What we are looking for:
+- 3+ years of Python development experience with focus on AI/ML.- Strong knowledge of machine learning algorithms and frameworks.- Experience with TensorFlow, PyTorch, or similar deep learning frameworks.- Understanding of AI model development lifecycle.- Knowledge of data preprocessing and feature engineering.- Experience deploying AI models to production.- Advanced level of English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).- Excellent compensation in USD or your local currency if preferred- Hardware and software setup for you to work from home.- Flexible hours: create your own schedule.- Paid parental leaves, vacations, and national holidays.- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>4325214884</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325214884/</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2025-12-03T01:35:01+00:00</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>«Computer vision»: AI Engineer - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>6</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Científico de Datos Senior en BairesDev
+Estamos buscando un destacado Científico de Datos Senior para unirse al Equipo de Investigación y Desarrollo (I+D) de BairesDev. Este profesional utilizará datos y técnicas de aprendizaje automático para ayudar al negocio a automatizar y escalar la toma de decisiones, principalmente mediante la producción de informes avanzados de análisis de datos y modelos basados en datos para inferir y predecir patrones.
+Actividades Principales:
+- Ayudar a mejorar el conocimiento de los datos y el entorno analítico general en toda la empresa.- Manejar datos estructurados y no estructurados utilizando SQL y otros lenguajes de programación.- Realizar análisis avanzados de datos e informar de los resultados.- Contar la historia detrás de los datos de una manera convincente para la gente de negocios.- Crear modelos predictivos y algoritmos de aprendizaje automático.- Combinar modelos mediante el modelado de conjuntos.- Proponer soluciones y estrategias para los retos empresariales.- Ayudar a diseñar y ejecutar experimentos para la comprobación de hipótesis.- Participar activamente en las discusiones y decisiones relativas a todo el capítulo de Data Science / Data Engineer.- Colaborar con los gestores de productos de datos para crear productos de datos impresionantes.- Trabajar con la dirección para priorizar las necesidades de negocio y de información.- Ayudar a difundir una mentalidad basada en los datos y a mejorar la alfabetización de datos. Ser un evangelizador de los datos.
+¿Qué Buscamos?:
+- 3+ años de experiencia en Data Science / Data Engineer, aprendizaje automático, IA, estadística y otras áreas relacionadas.- Dominio de SQL.- Dominio de Python, R u otro lenguaje de programación importante.- Excelentes habilidades de comunicación y capacidad para colaborar y establecer relaciones con usuarios no técnicos.- Sólidos conocimientos de probabilidad y estadística, incluido el diseño experimental, el modelado predictivo, la optimización y la inferencia causal.- Experiencia práctica con el aprendizaje automático, como la clasificación por regresión, la agrupación, las redes neuronales, la selección de características, la validación cruzada, la maldición de la dimensionalidad, el equilibrio entre sesgo y varianza, la explicabilidad del modelo, la PNL, etc.
+Deseable:
+- Experiencia en análisis o crecimiento de personas.- Experiencia con herramientas de visualización de datos.- Buena comprensión de los retos de ingeniería para el despliegue de sistemas de aprendizaje automático a la producción.
+Qué ofrecemos para que tu trabajo (y tu vida) seja mais fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.- Hardware y software.- Horarios flexibles- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>4324949099</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4324949099/</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2025-12-02T23:35:03+00:00</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>«pytorch»: Científico de Datos para Agentes (Colombia) - Echez Group y más</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>4</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>This is a remote position.Científico de Datos para Agentes (Colombia) 
+ Descripción del Puesto  
+En Echez, empoderamos a nuestros clientes para triunfar en el mundo digital mediante la gestión de sistemas comerciales, protección de marca, análisis de mercado, inteligencia de mercado y generación de demanda, con el objetivo de desarrollar su negocio digital. 
+Tu función principal es liderar todo el ciclo de vida de los agentes de IA: desde el diseño y la preparación de datos hasta el despliegue, monitoreo y mejora continua. 
+Requirements
+ Requisitos
+  Para postularte, debes estar ubicado en cualquier parte de Colombia y contar con un título profesional en ingeniería industrial, matemáticas, estadística,ingeniería de sistemas o áreas afines. Debes tener experiencia de al menos 5 años trabajando en proyectos de tecnología y roles que requiera Inteligencia Artificial o Machine Learning, gestión de datos y análisis estadístico de información. 
+Es importante contar con: 
+  Frameworks de orquestación de agentes de IA  – AnythingLLM, LangChain, AutoGen/CrewAI, n8n; ingeniería de prompts, abstracción de herramientas, patrones de Recuperación Aumentada por Generación (RAG). 
+  Fundamentos de Aprendizaje Automático  – aprendizaje automático clásico, aprendizaje profundo, ajuste fino de transformadores, modelos de embeddings, métricas de evaluación. 
+  Ingeniería de software en Python  – arquitectura limpia, tipado, REST, pytest, FastAPI, I/O asíncrono, API REST y gRPC. 
+  Pipelines de ingeniería de datos –  modelado de datos relacional, ETL por lotes. Airflow/Prefect, procesamiento en streaming, Kafka. 
+  Operaciones y versionado de ML –  Git, Docker, DVC. MLflow, CI/CD, Kubernetes, registro de modelos, seguimiento de experimentos. 
+  Conocimiento de IaaS  como Azure, AWS o GCP. 
+  Excel Intermedio  
+  Dominio del inglés intermedio a avanzado  . (B2 conversacional – C1) 
+  Cloud y DevOps –  despliegue en Azure ML y servicios sin servidor o basados en contenedores; infraestructura como código (Terraform/ARM) y monitoreo básico. 
+  Bases de datos vectoriales y búsqueda semántica –  conocimiento práctico de un almacén vectorial moderno (Pinecone, pgvector, Milvus) y capacidad para ajustar índices. 
+Benefits
+Te ofrecemos: 
+· Contrato indefinido 
+· Salario fijo y variable 
+· Teletrabajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>4340366580</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4340366580/</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2025-12-02T23:35:03+00:00</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>«pytorch»: Científico de Datos para Agentes (Colombia) - Echez Group y más</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>7</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>¡Haz parte de la transformación #AnaliticaDatos #CientificoDatos!Únete a nuestro equipo, trabaja en los proyectos tecnológicos más impactantes y con las empresas más grandes del mundo.
+Queremos que hagas parte de la #FamiliaCeiba en el rol de Científico de Datos.Buscamos a una persona apasionada con recorrido en el mundo de analítica de datos que desee asumir el reto de aplicar métodos estadísticos avanzados e inteligencia artificial para construir soluciones basadas en datos que permita a la empresa y clientes tomar mejores decisiones basados en datos históricos y predicciones.Si te encanta encontrar patrones en los datos y transformar hallazgos en soluciones de negocio, ¡este reto es para ti!
+Responsabilidades:Entendimiento del Negocio y Datos: Traducir los retos de negocio del cliente en preguntas y experimentos de ciencia de datos. Realizar análisis exploratorios profundos para entender la estructura y calidad de los datos.  Desarrollo de Modelos (ML/IA): Diseñar, entrenar, validar y optimizar modelos de Machine Learning utilizando las mejores prácticas, herramientas, frameworks y metodologías.
+Experimentación e Innovación: Investigar y aplicar nuevas técnicas, algoritmos y herramientas de IA para resolver problemas de negocio de formas novedosas. 
+Validación y Comunicación: Definir métricas de éxito y realizar validaciones estadísticas rigurosas de los modelos. Comunicar los resultados, supuestos y limitaciones de los modelos a stakeholders técnicos y no técnicos. Colaboración (MLOps): Trabajar de cerca con los Ingenieros ML para asegurar que los modelos desarrollados sean reproducibles, eficientes y desplegables en entornos productivos.  Nos interesa que tengas:
+Experiencia en manejo en análisis exploratorio, prospección de diversas fuentes de información (datos estructurados y no estructurados) y problemas de calidad de datos.Experiencia en manejo de técnicas tradicionales y avanzadas en modelamiento estadístico y machine learning.Experiencia en Python.Experiencia en crear aplicaciones a partir de LLMs y framework/arquitectura RAG.Experiencia en desarrollo de soluciones en nube (Azure Machine Learning, Azure OpenAI, Amazon SageMaker,Amazon Bedrock, Vertex AI)Conocimientos básicos en SQL para extracción y manipulación de datos.Conocimientos en marcos de trabajo ágil/CRISP-DMNivel mínimo de educación: Universitario en Estadística, Matemáticas, Física, Ingeniería de Sistemas o áreas con fuerte componente estadístico.Sería un plus si cuentas con: Dominio de inglés conversacional B2+**Aplica sólo en Colombia. Si vive en Medellín mejor aún. Pero puede ser remoto.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>4324948895</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4324948895/</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2025-12-02T23:35:03+00:00</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>«pytorch»: Científico de Datos para Agentes (Colombia) - Echez Group y más</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>6</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Científico de Datos en BairesDev
+Como Científico de Datos en BairesDev, utilizarás técnicas de análisis de datos y machine learning para resolver problemas empresariales complejos. Transformarás datos sin procesar en insights significativos, desarrollarás e implementarás modelos predictivos, y colaborarás con equipos multifuncionales para implementar soluciones basadas en datos que generen valor comercial e impulsen la toma de decisiones estratégicas.
+Qué harás:
+- Analizar conjuntos de datos complejos para identificar patrones, tendencias e insights que aborden desafíos empresariales.- Desarrollar e implementar modelos de machine learning para resolver problemas empresariales específicos.- Colaborar con stakeholders para entender requisitos y traducirlos en soluciones de ciencia de datos.- Crear visualizaciones de datos e informes para comunicar eficazmente hallazgos a audiencias técnicas y no técnicas.- Optimizar modelos existentes y pipelines de datos para mejorar el rendimiento y la precisión.- Mantenerte actualizado con los últimos avances en ciencia de datos, machine learning y tecnologías de IA.
+Qué buscamos:
+- 3+ años de experiencia aplicando técnicas de ciencia de datos a problemas del mundo real.- Experiencia con lenguajes de programación comúnmente utilizados en ciencia de datos (Python, R, etc.).- Conocimiento de algoritmos de machine learning y análisis estadístico.- Familiaridad con herramientas y técnicas de visualización de datos.- Experiencia con SQL y consultas de bases de datos.- Capacidad para traducir conceptos técnicos complejos a stakeholders no técnicos.- Nivel avanzado de inglés.
+Qué ofrecemos para que tu trabajo (y tu vida) seja mais fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.- Hardware y software.- Horarios flexibles- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>4314301536</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4314301536/</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2025-12-02T23:35:03+00:00</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>«pytorch»: Científico de Datos para Agentes (Colombia) - Echez Group y más</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>8</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Job Description
+Senior AI Developer 
+Location: Mexico (REMOTE)
+About the Role:
+Are you early in your career and passionate about artificial intelligence, machine learning, and building impactful real-world applications? Join the Oracle Applications Labs (OAL) team as a Senior AI/ML Developer, where you’ll work alongside experienced engineers to design, build, and deploy cutting-edge AI solutions across Oracle’s enterprise applications.
+This is a growth-oriented role designed to give you practical experience in AI/ML development, hands-on exposure to production systems, and an opportunity to contribute to solutions that matter — all while learning from a supportive and collaborative team.
+What You’ll Do:
+Build and Contribute to AI-Powered Applications
+Help design and develop features in AI-driven applications, primarily using Python or similar languages.Collaborate with cross-functional teams to deliver scalable and reliable solutions.
+Work with Data
+Support data preparation efforts, including feature selection, basic ETL processes, and data quality checks.Assist in analyzing datasets for training and evaluating machine learning models.
+Learn and Grow in MLOps &amp; LLMs
+Get hands-on experience with tools and practices in MLOps: model deployment, monitoring, and versioning.Explore foundational concepts in large language models (LLMs), including prompting techniques and task automation.Learn to implement basic agentic workflows using tools like LangGraph or similar frameworks.
+Experiment and Evaluate
+Run model experiments under guidance, using metrics to measure performance and reliability.Begin learning how to debug and improve AI systems through iterative testing.
+Understand Responsible AI
+Develop awareness of AI ethics, privacy, fairness, and secure coding practices in real-world AI development.
+Contribute to Oracle Fusion and Conversational UX
+Support the integration of AI features into Oracle business applications.Participate in designing intuitive, user-centric conversational interfaces.
+Who You Are:
+A degree (or equivalent experience) in Computer Science, Engineering, Mathematics, Physics, Statistics, or a related field.Familiar with at least one programming language — Python preferred.Basic understanding of software engineering principles, data structures, and algorithms.Interest or introductory experience in AI/ML through coursework, self-study, personal projects, or internships.Curious, motivated to learn, and eager to contribute to meaningful projects.Comfortable working in a team environment, with strong communication and organization skills.
+Preferred Qualifications:
+2+ years’ experience with ML tools or libraries (e.g., Scikit-learn, TensorFlow, PyTorch).Participation in AI/ML hackathons, open-source contributions, or passion projects.Exposure to cloud platforms like Oracle Cloud, AWS, GCP, or Azure.Understanding of tech ethics, data privacy, or basic security principles.
+Why Join Us?
+Start your AI career with real impact — your code and ideas will contribute to solutions used by businesses worldwide.Learn from experts — work closely with experienced engineers, data scientists, and product teams.Grow your skills — we’ll support your development in AI/ML, MLOps, cloud technologies, and more.Work on diverse projects — from conversational interfaces to enterprise-scale integrations.Be yourself — we value diversity, inclusion, and creating a safe space for all team members to grow and thrive.
+Your Growth Path Could Include:
+Advancing your Python and data engineering skills.Moving into LLM engineering, platform/MLOps, or applied AI science.Gaining certifications or deeper knowledge in cloud, AI ethics, or enterprise systems.Taking on increased responsibility as a mid-level or senior AI engineer.
+Qualifications
+Career Level - IC3
+About Us
+As a world leader in cloud solutions, Oracle uses tomorrow’s technology to tackle today’s challenges. We’ve partnered with industry-leaders in almost every sector—and continue to thrive after 40+ years of change by operating with integrity.
+We know that true innovation starts when everyone is empowered to contribute. That’s why we’re committed to growing an inclusive workforce that promotes opportunities for all.
+Oracle careers open the door to global opportunities where work-life balance flourishes. We offer competitive benefits based on parity and consistency and support our people with flexible medical, life insurance, and retirement options. We also encourage employees to give back to their communities through our volunteer programs.
+We’re committed to including people with disabilities at all stages of the employment process. If you require accessibility assistance or accommodation for a disability at any point, let us know by emailing accommodation-request_mb@oracle.com or by calling +1 888 404 2494 in the United States.
+Oracle is an Equal Employment Opportunity Employer. All qualified applicants will receive consideration for employment without regard to race, color, religion, sex, national origin, sexual orientation, gender identity, disability and protected veterans’ status, or any other characteristic protected by law. Oracle will consider for employment qualified applicants with arrest and conviction records pursuant to applicable law.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>4314306517</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4314306517/</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2025-12-02T21:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>«tensorflow»: AI Engineer - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>8</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Job Description
+Senior AI Developer 
+Location: Mexico (REMOTE)
+About the Role:
+Are you early in your career and passionate about artificial intelligence, machine learning, and building impactful real-world applications? Join the Oracle Applications Labs (OAL) team as a Senior AI/ML Developer, where you’ll work alongside experienced engineers to design, build, and deploy cutting-edge AI solutions across Oracle’s enterprise applications.
+This is a growth-oriented role designed to give you practical experience in AI/ML development, hands-on exposure to production systems, and an opportunity to contribute to solutions that matter — all while learning from a supportive and collaborative team.
+What You’ll Do:
+Build and Contribute to AI-Powered Applications
+Help design and develop features in AI-driven applications, primarily using Python or similar languages.Collaborate with cross-functional teams to deliver scalable and reliable solutions.
+Work with Data
+Support data preparation efforts, including feature selection, basic ETL processes, and data quality checks.Assist in analyzing datasets for training and evaluating machine learning models.
+Learn and Grow in MLOps &amp; LLMs
+Get hands-on experience with tools and practices in MLOps: model deployment, monitoring, and versioning.Explore foundational concepts in large language models (LLMs), including prompting techniques and task automation.Learn to implement basic agentic workflows using tools like LangGraph or similar frameworks.
+Experiment and Evaluate
+Run model experiments under guidance, using metrics to measure performance and reliability.Begin learning how to debug and improve AI systems through iterative testing.
+Understand Responsible AI
+Develop awareness of AI ethics, privacy, fairness, and secure coding practices in real-world AI development.
+Contribute to Oracle Fusion and Conversational UX
+Support the integration of AI features into Oracle business applications.Participate in designing intuitive, user-centric conversational interfaces.
+Who You Are:
+A degree (or equivalent experience) in Computer Science, Engineering, Mathematics, Physics, Statistics, or a related field.Familiar with at least one programming language — Python preferred.Basic understanding of software engineering principles, data structures, and algorithms.Interest or introductory experience in AI/ML through coursework, self-study, personal projects, or internships.Curious, motivated to learn, and eager to contribute to meaningful projects.Comfortable working in a team environment, with strong communication and organization skills.
+Preferred Qualifications:
+2+ years’ experience with ML tools or libraries (e.g., Scikit-learn, TensorFlow, PyTorch).Participation in AI/ML hackathons, open-source contributions, or passion projects.Exposure to cloud platforms like Oracle Cloud, AWS, GCP, or Azure.Understanding of tech ethics, data privacy, or basic security principles.
+Why Join Us?
+Start your AI career with real impact — your code and ideas will contribute to solutions used by businesses worldwide.Learn from experts — work closely with experienced engineers, data scientists, and product teams.Grow your skills — we’ll support your development in AI/ML, MLOps, cloud technologies, and more.Work on diverse projects — from conversational interfaces to enterprise-scale integrations.Be yourself — we value diversity, inclusion, and creating a safe space for all team members to grow and thrive.
+Your Growth Path Could Include:
+Advancing your Python and data engineering skills.Moving into LLM engineering, platform/MLOps, or applied AI science.Gaining certifications or deeper knowledge in cloud, AI ethics, or enterprise systems.Taking on increased responsibility as a mid-level or senior AI engineer.
+Qualifications
+Career Level - IC3
+About Us
+As a world leader in cloud solutions, Oracle uses tomorrow’s technology to tackle today’s challenges. We’ve partnered with industry-leaders in almost every sector—and continue to thrive after 40+ years of change by operating with integrity.
+We know that true innovation starts when everyone is empowered to contribute. That’s why we’re committed to growing an inclusive workforce that promotes opportunities for all.
+Oracle careers open the door to global opportunities where work-life balance flourishes. We offer competitive benefits based on parity and consistency and support our people with flexible medical, life insurance, and retirement options. We also encourage employees to give back to their communities through our volunteer programs.
+We’re committed to including people with disabilities at all stages of the employment process. If you require accessibility assistance or accommodation for a disability at any point, let us know by emailing accommodation-request_mb@oracle.com or by calling +1 888 404 2494 in the United States.
+Oracle is an Equal Employment Opportunity Employer. All qualified applicants will receive consideration for employment without regard to race, color, religion, sex, national origin, sexual orientation, gender identity, disability and protected veterans’ status, or any other characteristic protected by law. Oracle will consider for employment qualified applicants with arrest and conviction records pursuant to applicable law.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>4324550720</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4324550720/</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2025-12-02T21:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>«tensorflow»: AI Engineer - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>3</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Alpha Anywhere delivers a proven 2-Hour Learning model: students complete their core academic work in two concentrated hours, then spend afternoons producing podcasts, creating art, or training for athletics. As Lead Data Scientist, you will maintain and advance the AI infrastructure that powers this system.
+Operating remotely from anywhere with reliable internet, you will convert large volumes of AI-generated academic metrics into precise, actionable interventions that drive each learner toward 90% mastery and higher. When learners encounter obstacles, you will join live coaching sessions to identify and resolve issues in real time, restoring momentum and confidence. In parallel, you will analyze deep student performance datasets to identify emerging patterns that reveal untapped potential, then architect next-generation AI solutions capable of accelerating learning velocity.
+Families see rising self-efficacy, learners achieve 2× speed gains, and you witness the measurable outcomes of every analysis you perform, every automated workflow you build, and every inquiry you pursue. If you are ready to convert data into accelerant for young learners, read on.
+What You Will Be Doing
+Producing high-precision Academic Data Reports and executing systematic reviews to detect issues, identify outliers, and initiate corrective actions within 48 hoursFacilitating urgent intervention calls and delivering post-assessment coaching to clear obstacles, distinguish knowledge deficits from execution errors, and sustain learner motivationAssessing and integrating emerging educational applications and content while prototyping AI and LLM solutions to advance learning methodologies and address targeted challengesCollaborating with leadership to refine dashboards, analytical tools, and mastery benchmarks as the AI tutor platform advances
+What You Won’t Be Doing
+Attending marathon meetings or producing generic presentations disconnected from tangible resultsScoring assignments, drafting curricula, or administering conventional educational programs—AI and innovation are the core driversWorking in abstract strategy without execution or remaining confined to repetitive tasks—this position demands hands-on engagement and agility
+Lead Data Scientist Key Responsibilities
+Accelerate student learning outcomes via AI-powered analysis and real-time academic intelligence, evidenced by improved indicators including 2× learning velocity, application engagement, lesson mastery, answer precision, and diminished negative learning behaviors throughout the Alpha Anywhere network.
+Basic Requirements
+Proven experience in data science or comparable position, education, EdTech, or student-support capacity combining analytical rigor with interpersonal capabilitySkilled use of Google Sheets for data analysis (lookups, pivot tables, filtering)Strong emotional intelligence, effective communication abilities, and a coaching approach suitable for childrenTrack record building workflows and automations leveraging AI
+Nice-to-have Requirements
+Foundation in learning science, pedagogical theory, or documented success enhancing outcomes via data-informed methodsFamiliarity with Generative AI, prompt engineering, and introductory coding proficiency (Python, JavaScript, etc.) for interacting with AI APIs
+About 2 Hour Learning
+Education is broken, but 2 Hour Learning is proving it doesn’t have to be. They’re tearing down the outdated one-size-fits-all model and replacing it with AI-driven personalized learning that helps kids master academics in just two hours a day.
+With students consistently ranking in the top 1-2% nationally and the top 20% achieving an astonishing 6.5x growth, they’re proving that smarter learning is possible. At 2 Hour Learning, it’s talent and performance that matter. 
+They offer a dynamic, on-campus and remote-friendly environment where innovators, educators, and AI specialists can be a part of fixing a broken school system.
+2 Hour Learning is reprogramming learning for the AI era.
+Here’s How They’re Fixing It.
+There is so much to cover for this exciting role, and space here is limited. Hit the Apply button if you found this interesting and want to learn more. We look forward to meeting you!
+Working with us
+This is a full-time (40 hours per week), long-term position. The position is immediately available and requires entering into an independent contractor agreement with Crossover as a Contractor of Record. The compensation level for this role is $30 USD/hour, which equates to $60,000 USD/year assuming 40 hours per week and 50 weeks per year. The payment period is weekly. Consult www.crossover.com/help-and-faqs for more details on this topic.
+Crossover Job Code: LJ-5238-MX-COUNTRY-LeadDataScient.001</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>4325186947</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325186947/</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2025-12-02T21:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>«tensorflow»: AI Engineer - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>6</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Científico de Datos en BairesDev
+Como Científico de Datos en BairesDev, utilizarás técnicas de análisis de datos y machine learning para resolver problemas empresariales complejos. Transformarás datos sin procesar en insights significativos, desarrollarás e implementarás modelos predictivos, y colaborarás con equipos multifuncionales para implementar soluciones basadas en datos que generen valor comercial e impulsen la toma de decisiones estratégicas.
+Qué harás:
+- Analizar conjuntos de datos complejos para identificar patrones, tendencias e insights que aborden desafíos empresariales.- Desarrollar e implementar modelos de machine learning para resolver problemas empresariales específicos.- Colaborar con stakeholders para entender requisitos y traducirlos en soluciones de ciencia de datos.- Crear visualizaciones de datos e informes para comunicar eficazmente hallazgos a audiencias técnicas y no técnicas.- Optimizar modelos existentes y pipelines de datos para mejorar el rendimiento y la precisión.- Mantenerte actualizado con los últimos avances en ciencia de datos, machine learning y tecnologías de IA.
+Qué buscamos:
+- 3+ años de experiencia aplicando técnicas de ciencia de datos a problemas del mundo real.- Experiencia con lenguajes de programación comúnmente utilizados en ciencia de datos (Python, R, etc.).- Conocimiento de algoritmos de machine learning y análisis estadístico.- Familiaridad con herramientas y técnicas de visualización de datos.- Experiencia con SQL y consultas de bases de datos.- Capacidad para traducir conceptos técnicos complejos a stakeholders no técnicos.- Nivel avanzado de inglés.
+Qué ofrecemos para que tu trabajo (y tu vida) seja mais fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.- Hardware y software.- Horarios flexibles- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>4313888009</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4313888009/</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2025-12-02T19:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>«LLM»: Científico de Datos para Agentes (Colombia) - Echez Group y más</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Job Description
+Principal AI Developer 
+Location: Mexico (REMOTE)
+About the Role:
+We’re looking for highly experienced AI Developers to join our team and help shape the future of AI at Oracle. In this role, you’ll lead the design and development of advanced AI applications, particularly those powered by large language models (LLMs) and help integrate them across Oracle’s Fusion ecosystem. You’ll work on cutting-edge problems, set engineering best practices, and collaborate with cross-functional teams to deliver secure, scalable, and responsible AI solutions.
+We encourage applicants from all backgrounds and experiences to apply — if you’re passionate about AI and meet most of the qualifications, we want to hear from you.
+What You’ll Do:
+LLM Application Engineering
+Architect and implement scalable applications using LLMs, focusing on prompt engineering, model customization, and performance optimization.Design and orchestrate agent-based solutions (e.g., using LangGraph or similar), including task decomposition, tool invocation, and setting up guardrails for safe operations.Develop effective RAG (retrieval-augmented generation) pipelines with robust chunking, embedding model selection, and vector store optimization.Structure and refine prompts, manage tool/function calling, and evaluate when to use general vs. fine-tuned models based on trade-offs like accuracy, latency, and cost.Build secure, scalable integrations with enterprise systems, using NL2SQL patterns and API connectivity.
+AI/ML Engineering
+Design, train, and optimize machine learning models for practical, real-world use cases.Build end-to-end ML pipelines: data ingestion, feature engineering, model training, validation, and deployment.Work closely with data engineers and developers to embed ML into production systems.Monitor model performance and retrain as needed to maintain quality and relevance.
+LLMOps &amp; Platform Engineering
+Manage versioning for prompts, models, and pipelines; run controlled experiments (A/B tests) and deployments.Implement observability for agent workflows, including tracing, logging, retries, and fallback mechanisms.
+Data Engineering &amp; Feature Development
+Lead data acquisition, transformation, and feature engineering efforts to support reliable training and inference.Ensure clear schema definitions, metadata tracking, and lineage management.
+Evaluation, Quality, and Safety
+Define and maintain rigorous evaluation processes (e.g., precision/recall, hallucination detection, business alignment).Implement and enforce Responsible AI practices, including privacy protection, access controls, and secure data handling.
+Conversational UX &amp; Fusion Integration
+Set standards for conversational UX, including multi-turn dialogues and natural language interfaces.Design AI components that integrate seamlessly into Oracle Fusion applications, promoting automation and user-centric workflows.
+Thought Leadership &amp; Collaboration
+Mentor and support teammates; advocate for best practices in AI/ML development.Collaborate in agile pods and influence architectural and strategic decisions across teams.Evaluate emerging AI technologies and run proof-of-concept experiments to drive innovation
+What We’re Looking For:
+Experience: 8+ years in software/AI development, with 3+ years focused on LLMs or related deep learning systems.Technical Skills: Proficiency in Python (and/or Java), cloud-based data pipelines, and MLOps tools (e.g., OCI Data Science, MLflow, Kubeflow).LLM Expertise: Hands-on experience with models such as OpenAI, Anthropic, or open-source LLMs; familiarity with prompt engineering, fine-tuning, and deployment strategies.Cloud &amp; Enterprise Experience: Experience integrating AI into enterprise cloud ecosystems. Oracle Cloud/Fusion experience is a strong plus.NLP &amp; Conversational AI: Deep understanding of NLP, conversational systems, and dialog design.Responsible AI: Proven ability to design AI systems with safety, fairness, and governance in mind.Collaboration: Excellent communication and mentorship skills; thrives in cross-functional, diverse teams.
+Why Join Us?
+Shape the future of AI at Oracle and influence global-scale business applications.Work with a talented, inclusive, and innovative team on impactful AI projects.Contribute to solutions that are immediately deployed across Oracle’s AI offerings.Enjoy the flexibility of working remotely or from a hub, with a focus on work-life balance.Tackle diverse and complex challenges with the support of world-class engineers and scientists.
+Qualifications
+Career Level - IC4
+About Us
+As a world leader in cloud solutions, Oracle uses tomorrow’s technology to tackle today’s challenges. We’ve partnered with industry-leaders in almost every sector—and continue to thrive after 40+ years of change by operating with integrity.
+We know that true innovation starts when everyone is empowered to contribute. That’s why we’re committed to growing an inclusive workforce that promotes opportunities for all.
+Oracle careers open the door to global opportunities where work-life balance flourishes. We offer competitive benefits based on parity and consistency and support our people with flexible medical, life insurance, and retirement options. We also encourage employees to give back to their communities through our volunteer programs.
+We’re committed to including people with disabilities at all stages of the employment process. If you require accessibility assistance or accommodation for a disability at any point, let us know by emailing accommodation-request_mb@oracle.com or by calling +1 888 404 2494 in the United States.
+Oracle is an Equal Employment Opportunity Employer. All qualified applicants will receive consideration for employment without regard to race, color, religion, sex, national origin, sexual orientation, gender identity, disability and protected veterans’ status, or any other characteristic protected by law. Oracle will consider for employment qualified applicants with arrest and conviction records pursuant to applicable law.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>4340717003</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4340717003/</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2025-12-02T13:35:20+00:00</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Científico de Datos para Agentes (Colombia) - Echez Group y más</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>4</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Gramian Consultancy is a boutique consultancy specializing in IT professional services and engineering talent solutions. With a strong background in software engineering and leadership, we help companies build high-performing teams by matching them with professionals who truly fit their needs.
+Role Overview
+We are looking for Solution Engineers to partner directly with customers and lead the end-to-end delivery of high-impact technical solutions. Successful candidates will need to be able to work with customer teams, translating real-world challenges into production-ready systems that leverage Generative AI, Computer Vision, and Machine Learning. This role is a blend of software engineering, ML engineering, architecture, and consulting. Engineers will design and deploy solutions, integrate models, build custom workflows, and guide customers through successful implementation.
+Commitments Required: 8 hours per day with an overlap of 4 hours with PST. 
+Employment type: Contractor assignment (no medical/paid leave); 100% REMOTE
+Duration of contract: 5+ months with the possibility of transitioning into a full-time role upon successful delivery.
+Locations: LATAM
+Interview: Technical Assessment, Technical Interview, Cultural Interview
+Responsibilities
+You will lead the backend and AI components of a new, HIPAA-compliant clinical intelligence platform in the urology domain. The product ingests data from Electronic Health Records, performs advanced semantic search over structured and unstructured clinical content, and supports workflow automation for medical teams. This is a greenfield build, offering the rare chance to architect foundational systems from scratch alongside the founder.
+Engage directly with enterprise and strategic customers to understand their workflows, data, and technical requirementsArchitect, build, and deploy custom solutions leveraging GenAI, LLMs, Machine Learning and Vision models, and customer data sourcesLead full project lifecycles: scoping, solution design, development, implementation, testing, deployment, and iterationIntegrate and optimize AI/ML pipelines, including data preprocessing, prompt engineering, model selection, and evaluationBuild reliable, scalable software integrations using APIs, cloud services, and containerized systemsTroubleshoot complex technical issues across the stack—applications, models, data pipelines, infrastructure, and integrationsAct as the customer's trusted technical advisor, enabling adoption of new product capabilities and AI featuresPartner closely with internal product and engineering teams to communicate customer feedback and shape roadmap directionProduce high-quality documentation, architecture diagrams, runbooks, and technical assets for customer teamsMentor junior engineers and contribute to internal best practices for FDE delivery
+Requirements
+5-10+ years in engineering roles such as Forward Deployed Engineer, ML Engineer, Software Engineer, Solutions Engineer, Technical Consultant, or similarStrong proficiency in Python, JavaScript/TypeScript, Go, or similar production-oriented languagesHands-on experience with Machine Learning, including training, fine-tuning, evaluating, or deploying modelsDirect experience with Generative AI (LLMs, multimodal models, vector databased, or RAG) and applying them to real-world problemsExposure to Computer Vision techniques (detection, segmentation, OCR, embeddings, multimodal pipelines)Strong knowledge of ML frameworks (PyTorch, TensorFlow, OpenCV, etc.)Experience with cloud infrastructure (AWS, GCP, Azure) and containerization (Docker, Kubernetes)Excellent communication skills with both technical and non-technical audiencesComfort leading customer-facing engagements and guiding stakeholders through ambiguityWillingness and ability to travel frequentlyPrior experience in consulting, technical solutions, professional services, or customer-embedded technical rolesExperience with vector databases, embedding pipelines, or retrieval-augmented generation (RAG)Experience building APIs, microservices, or distributed systemsFamiliarity with MLOps tools (Docker, Kubernetes, model registries, CI/CD for ML)Background in deploying or fine-tuning CV models (YOLO, SAM, CLIP, DETR, etc.)Experience in startup or high-growth environments</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>4339899550</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4339899550/</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2025-12-01T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>«NLP»: AI Engineer (Remote) - Lumenalta y más</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>4</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>At Lumenalta, we partner with forward-thinking organizations to build technology solutions that scale, delight users, and accelerate business growth. Our global teams bring curiosity, commitment, and technical excellence to every project. We value transparency, autonomy, and impact—empowering every team member to do their best work.
+We’re seeking experienced AI Engineers to join a high-growth fintech prospect focused on back-office workflow automation. This role is an opportunity to design and deploy production-grade AI systems for community banks, mortgage, and insurance institutions while shaping a flexible, modern architecture alongside an accomplished executive team.
+What You’ll Be DoingDesign, build, and deploy AI models into production (not just prototypes or wrappers).Develop and maintain backend Python services that power intelligent automation workflows.Implement enterprise-scale data pipelines for ingesting and processing financial and regulatory documents, with automated data quality checks and monitoring.Train and optimize models on banking rules, compliance standards, and regulatory datasets.Build intelligent routing systems (e.g., auto-approval for simple loans/accounts, escalation to humans for complex cases).Collaborate with engineering leadership to shape architecture, delivery models, and stack decisions.Ensure compliance-first design, embedding regulatory considerations into every product feature.
+What We’re Looking ForExperience: 3–5+ years in AI/ML engineering with a track record of deploying AI into production at scale.Technical Skills: Strong backend Python; expertise with ML frameworks (TensorFlow, PyTorch, Scikit-Learn, etc.); familiarity with modern data pipeline tools (Airflow, Spark, Kafka) and workflow orchestration frameworks such as n8n or LangGraph.Applied AI: Background in enterprise applications such as chatbots, workflow automation, RAG pipelines, or intelligent document processing.Domain Awareness: Understanding of regulated industries (financial services, insurance, or similar) with the ability to design compliance-aligned models.Collaboration: Comfortable working with a lean, high-performing team and influencing technical direction.Adaptability: Excels in startup-like environments with flexible, evolving tech stacks.
+Why Lumenalta is an amazing place to work atAt Lumenalta, you can expect that you will:Be 100% dedicated to one project at a time so that you can innovate and grow.Be a part of a team of talented and friendly senior-level developers.Work on projects that allow you to use leading tech.
+The job is 100% Remote; please ensure you have a comfortable office set at your desired work location.
+This is a fully remote position open to candidates based in Latin America (LATAM). While location is flexible, candidates must be willing to maintain at least a 6-hour overlap with core business hours, which are primarily aligned with the Pacific, Central, or Eastern U.S. time zones to ensure effective collaboration with project teams.
+This is an evergreen opening with no set deadline; we’re always excited to connect with professionals who want to help us build the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>4339809934</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4339809934/</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2025-12-01T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>«NLP»: AI Engineer (Remote) - Lumenalta y más</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>4</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>At Lumenalta, we partner with forward-thinking organizations to build technology solutions that scale, delight users, and accelerate business growth. Our global teams bring curiosity, commitment, and technical excellence to every project. We value transparency, autonomy, and impact—empowering every team member to do their best work.
+We’re seeking experienced AI Engineers to join a high-growth fintech prospect focused on back-office workflow automation. This role is an opportunity to design and deploy production-grade AI systems for community banks, mortgage, and insurance institutions while shaping a flexible, modern architecture alongside an accomplished executive team.
+What You’ll Be DoingDesign, build, and deploy AI models into production (not just prototypes or wrappers).Develop and maintain backend Python services that power intelligent automation workflows.Implement enterprise-scale data pipelines for ingesting and processing financial and regulatory documents, with automated data quality checks and monitoring.Train and optimize models on banking rules, compliance standards, and regulatory datasets.Build intelligent routing systems (e.g., auto-approval for simple loans/accounts, escalation to humans for complex cases).Collaborate with engineering leadership to shape architecture, delivery models, and stack decisions.Ensure compliance-first design, embedding regulatory considerations into every product feature.
+What We’re Looking ForExperience: 3–5+ years in AI/ML engineering with a track record of deploying AI into production at scale.Technical Skills: Strong backend Python; expertise with ML frameworks (TensorFlow, PyTorch, Scikit-Learn, etc.); familiarity with modern data pipeline tools (Airflow, Spark, Kafka) and workflow orchestration frameworks such as n8n or LangGraph.Applied AI: Background in enterprise applications such as chatbots, workflow automation, RAG pipelines, or intelligent document processing.Domain Awareness: Understanding of regulated industries (financial services, insurance, or similar) with the ability to design compliance-aligned models.Collaboration: Comfortable working with a lean, high-performing team and influencing technical direction.Adaptability: Excels in startup-like environments with flexible, evolving tech stacks.
+Why Lumenalta is an amazing place to work atAt Lumenalta, you can expect that you will:Be 100% dedicated to one project at a time so that you can innovate and grow.Be a part of a team of talented and friendly senior-level developers.Work on projects that allow you to use leading tech.
+The job is 100% Remote; please ensure you have a comfortable office set at your desired work location.
+This is a fully remote position open to candidates based in Latin America (LATAM). While location is flexible, candidates must be willing to maintain at least a 6-hour overlap with core business hours, which are primarily aligned with the Pacific, Central, or Eastern U.S. time zones to ensure effective collaboration with project teams.
+This is an evergreen opening with no set deadline; we’re always excited to connect with professionals who want to help us build the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>4325185596</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325185596/</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2025-12-01T23:09:03+00:00</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>«LLM»: AI Engineer (Remote) - Lumenalta (formerly Clevertech) y más</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>4</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Persona is the company top startups use to hire people from all around the world. Our vision is a future where each person can find the best role for them and companies can discover the world’s best talent. Founded by two Stanford University graduates, Persona works with the world’s fastest-growing technology startups. Our clients are funded by some of the world’s top investors, like Founders Fund, Sequoia Capital, and Andreessen Horowitz.
+Persona is a talent agency that recruits, trains, and staffs talented remote professionals such as yourself. This is an opportunity to work closely with the future Googles, Facebooks, and Amazons of the world—building out their organizations and helping them reach the next level of success.
+We support everyone we hire with training, mentoring, and technology resources so they are enabled to do their best and are as happy as possible in their roles. We have a large international team dedicated to supporting and taking care of new Persona team members, and our goal is to provide excellent long-term career opportunities for everyone who joins the team.
+Who’s building Persona?We are a global team of passionate problem solvers who love to build new things and make our customers happy. Our team is made up of motivated, hard-working people spanning the globe, united by a culture of learning and continuous improvement.
+What we’re looking for:We are looking for a Data Scientist who will work on building models, analyzing large datasets, and creating tools that power our investment decisions. You'll play a strategic role in leveraging data to identify high-potential startups and improve how we evaluate and support portfolio companies.
+Responsibilities—what you'll do:Build and maintain predictive models to score startups and markets.Apply machine learning techniques to extract insights from structured and unstructured data.Use historical deal flow and startup performance data to improve sourcing and screening.Design tools and internal systems that support scalable decision-making.Automate data pipelines and workflows to reduce manual work.Integrate third-party data (e.g., Crunchbase, PitchBook, LinkedIn) into internal platforms.Work with the investment team to validate insights and hypotheses using data.Provide technical support during due diligence processes.Translate complex models and insights into actionable recommendations.Help roll out native AI solutions across the firm to improve efficiency and deal quality
+Requirements:Bachelor’s or Master’s degree in Statistics, Computer Science, Data Science, Applied Mathematics, or a related field.4+ years of experience in data science, machine learning, or analytics.Prior experience in startups or venture capital firms is strongly preferred; a demonstrated interest is a plus.Experience in Python or R for data analysis and modeling.Strong SQL skills.Experience working with APIs and data scraping.Ability to work U.S. business hours (Pacific Time, Central Time, or Eastern Time)This position is for serious, career-oriented candidates
+Qualities we look for:Strong problem-solving skills and analytical thinking.Ability to explain complex concepts to non-technical audiences.Comfortable working independently and exploring messy datasets.Interest in using data to drive strategic decisions.
+What we offer:Best salaries in the industryPermanent ability to work from anywhere in the worldOpportunities for growth and advancementA fast-paced and collaborative environmentWarm and friendly company cultureFull benefits
+Benefits at Persona:Health insuranceUnlimited paid time off (paid sick and vacation leaves)Annual bonuses based on performanceMonthly tech allowanceOpportunity to be paid in your currency of choiceOthers depending on seniority
+This is a full-time and long-term role. We are looking for individuals who are ready to fully commit their time and energy to one company and grow and develop along with that company. All roles at Persona are 100% work-from-anywhere (work from home or wherever it suits you best). If this is your first time working for a U.S. company, that’s okay; we provide guidance and assistance getting set up as a remote professional. Once hired, we will carefully match you to a client company of ours that perfectly suits your career background, skills, and goals.
+Visit our website for more information: https://www.personatalent.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>4338918471</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4338918471/</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2025-12-01T23:09:03+00:00</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>«LLM»: AI Engineer (Remote) - Lumenalta (formerly Clevertech) y más</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>5</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>About us: 
+Talent has no borders. Proxify's mission is to connect top developers around the world with the opportunities they deserve. So, it doesn't matter where you are; we are here to help you fast-track your independent career in the right direction. 🙂
+Since our launch, Proxify's developers have successfully worked with 1200+ happy clients to build their products and growth features. 5000+ talented developers trust Proxify and its network to fulfill their dreams and objectives.
+Proxify is shaped by a global network of supportive, talented developers interested in remote full-time jobs. Our Glassdoor (4.5/5) and Trustpilot (4.8/5) ratings reflect the trust developers place in us and our commitment to our members' success.
+The Role:
+We are looking for Machine Learning Engineers with strong Python experience to join our fast-growing Network. You will play a key role in designing and deploying machine learning solutions that power modern applications and enhance user experiences
+What we are looking for:
+Proven track record in building and deploying machine learning models to production.Strong Python programming skills (experience with R or Java is a plus). Python is your primary working language, and you are comfortable using it across the full ML lifecycle.Experience with machine learning frameworks (e.g., PyTorch, TensorFlow, Scikit-learn, Keras).Familiarity with MLOps tools (MLflow, Kubeflow, Airflow) and cloud platforms (AWS, GCP, or Azure).Solid knowledge of statistics, data analysis, and data mining techniques.Experience with databases, data warehouses, and large-scale datasets.
+Responsibilities:
+Design and maintain scalable, reliable data pipelines and monitor models in production.Develop and optimize classification, prediction, and recommendation models applied to real-world business problems.Research and integrate new data sources to enhance model performance and accuracy.Collaborate with software engineers, product teams, analysts, and other stakeholders to improve product performance.Write production-grade code for cloud and on-premise environments, ensuring scalability and robustness.Contribute to MLOps practices, including CI/CD for ML, monitoring, and model lifecycle management.
+What we offer:
+Get paid, not playedNo more unreliable clients. Enjoy on-time monthly payments with flexible withdrawal options
+Predictable project hoursEnjoy a harmonious work-life balance with consistent 8-hour working days with clients.
+Flex days, so you can rechargeEnjoy up to 24 flex days off per year without losing pay, for full-time positions found through Proxify.
+Career-accelerating positions at cutting-edge companiesDiscover exclusive long-term remote positions at the world's most exciting companies.
+Hand-picked opportunities just for youSkip the typical recruitment roadblocks and biases with personally matched positions.
+One seamless process, multiple opportunitiesA one-time contracting process for endless opportunities, with no extra assessments.
+CompensationEnjoy the same pay, every month with positions landed through Proxify.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>4313886061</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4313886061/</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2025-12-01T23:09:03+00:00</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>«LLM»: AI Engineer (Remote) - Lumenalta (formerly Clevertech) y más</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Job Description
+Principal AI Developer 
+Location: Mexico (REMOTE)
+About the Role:
+We’re looking for highly experienced AI Developers to join our team and help shape the future of AI at Oracle. In this role, you’ll lead the design and development of advanced AI applications, particularly those powered by large language models (LLMs) and help integrate them across Oracle’s Fusion ecosystem. You’ll work on cutting-edge problems, set engineering best practices, and collaborate with cross-functional teams to deliver secure, scalable, and responsible AI solutions.
+We encourage applicants from all backgrounds and experiences to apply — if you’re passionate about AI and meet most of the qualifications, we want to hear from you.
+What You’ll Do:
+LLM Application Engineering
+Architect and implement scalable applications using LLMs, focusing on prompt engineering, model customization, and performance optimization.Design and orchestrate agent-based solutions (e.g., using LangGraph or similar), including task decomposition, tool invocation, and setting up guardrails for safe operations.Develop effective RAG (retrieval-augmented generation) pipelines with robust chunking, embedding model selection, and vector store optimization.Structure and refine prompts, manage tool/function calling, and evaluate when to use general vs. fine-tuned models based on trade-offs like accuracy, latency, and cost.Build secure, scalable integrations with enterprise systems, using NL2SQL patterns and API connectivity.
+AI/ML Engineering
+Design, train, and optimize machine learning models for practical, real-world use cases.Build end-to-end ML pipelines: data ingestion, feature engineering, model training, validation, and deployment.Work closely with data engineers and developers to embed ML into production systems.Monitor model performance and retrain as needed to maintain quality and relevance.
+LLMOps &amp; Platform Engineering
+Manage versioning for prompts, models, and pipelines; run controlled experiments (A/B tests) and deployments.Implement observability for agent workflows, including tracing, logging, retries, and fallback mechanisms.
+Data Engineering &amp; Feature Development
+Lead data acquisition, transformation, and feature engineering efforts to support reliable training and inference.Ensure clear schema definitions, metadata tracking, and lineage management.
+Evaluation, Quality, and Safety
+Define and maintain rigorous evaluation processes (e.g., precision/recall, hallucination detection, business alignment).Implement and enforce Responsible AI practices, including privacy protection, access controls, and secure data handling.
+Conversational UX &amp; Fusion Integration
+Set standards for conversational UX, including multi-turn dialogues and natural language interfaces.Design AI components that integrate seamlessly into Oracle Fusion applications, promoting automation and user-centric workflows.
+Thought Leadership &amp; Collaboration
+Mentor and support teammates; advocate for best practices in AI/ML development.Collaborate in agile pods and influence architectural and strategic decisions across teams.Evaluate emerging AI technologies and run proof-of-concept experiments to drive innovation
+What We’re Looking For:
+Experience: 8+ years in software/AI development, with 3+ years focused on LLMs or related deep learning systems.Technical Skills: Proficiency in Python (and/or Java), cloud-based data pipelines, and MLOps tools (e.g., OCI Data Science, MLflow, Kubeflow).LLM Expertise: Hands-on experience with models such as OpenAI, Anthropic, or open-source LLMs; familiarity with prompt engineering, fine-tuning, and deployment strategies.Cloud &amp; Enterprise Experience: Experience integrating AI into enterprise cloud ecosystems. Oracle Cloud/Fusion experience is a strong plus.NLP &amp; Conversational AI: Deep understanding of NLP, conversational systems, and dialog design.Responsible AI: Proven ability to design AI systems with safety, fairness, and governance in mind.Collaboration: Excellent communication and mentorship skills; thrives in cross-functional, diverse teams.
+Why Join Us?
+Shape the future of AI at Oracle and influence global-scale business applications.Work with a talented, inclusive, and innovative team on impactful AI projects.Contribute to solutions that are immediately deployed across Oracle’s AI offerings.Enjoy the flexibility of working remotely or from a hub, with a focus on work-life balance.Tackle diverse and complex challenges with the support of world-class engineers and scientists.
+Qualifications
+Career Level - IC4
+About Us
+As a world leader in cloud solutions, Oracle uses tomorrow’s technology to tackle today’s challenges. We’ve partnered with industry-leaders in almost every sector—and continue to thrive after 40+ years of change by operating with integrity.
+We know that true innovation starts when everyone is empowered to contribute. That’s why we’re committed to growing an inclusive workforce that promotes opportunities for all.
+Oracle careers open the door to global opportunities where work-life balance flourishes. We offer competitive benefits based on parity and consistency and support our people with flexible medical, life insurance, and retirement options. We also encourage employees to give back to their communities through our volunteer programs.
+We’re committed to including people with disabilities at all stages of the employment process. If you require accessibility assistance or accommodation for a disability at any point, let us know by emailing accommodation-request_mb@oracle.com or by calling +1 888 404 2494 in the United States.
+Oracle is an Equal Employment Opportunity Employer. All qualified applicants will receive consideration for employment without regard to race, color, religion, sex, national origin, sexual orientation, gender identity, disability and protected veterans’ status, or any other characteristic protected by law. Oracle will consider for employment qualified applicants with arrest and conviction records pursuant to applicable law.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>4324419174</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4324419174/</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2025-12-01T13:37:12+00:00</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: AI Engineer (Remote) - Lumenalta (formerly Clevertech) y más</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>3</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Alpha Anywhere delivers a proven 2-Hour Learning model: students complete their core academic work in two concentrated hours, then spend afternoons producing podcasts, creating art, or training for athletics. As Lead Data Scientist, you will maintain and advance the AI infrastructure that powers this system.
+Operating remotely from anywhere with reliable internet, you will convert large volumes of AI-generated academic metrics into precise, actionable interventions that drive each learner toward 90% mastery and higher. When learners encounter obstacles, you will join live coaching sessions to identify and resolve issues in real time, restoring momentum and confidence. In parallel, you will analyze deep student performance datasets to identify emerging patterns that reveal untapped potential, then architect next-generation AI solutions capable of accelerating learning velocity.
+Families see rising self-efficacy, learners achieve 2× speed gains, and you witness the measurable outcomes of every analysis you perform, every automated workflow you build, and every inquiry you pursue. If you are ready to convert data into accelerant for young learners, read on.
+What You Will Be Doing
+Producing high-precision Academic Data Reports and executing systematic reviews to detect issues, identify outliers, and initiate corrective actions within 48 hoursFacilitating urgent intervention calls and delivering post-assessment coaching to clear obstacles, distinguish knowledge deficits from execution errors, and sustain learner motivationAssessing and integrating emerging educational applications and content while prototyping AI and LLM solutions to advance learning methodologies and address targeted challengesCollaborating with leadership to refine dashboards, analytical tools, and mastery benchmarks as the AI tutor platform advances
+What You Won’t Be Doing
+Attending marathon meetings or producing generic presentations disconnected from tangible resultsScoring assignments, drafting curricula, or administering conventional educational programs—AI and innovation are the core driversWorking in abstract strategy without execution or remaining confined to repetitive tasks—this position demands hands-on engagement and agility
+Lead Data Scientist Key Responsibilities
+Accelerate student learning outcomes via AI-powered analysis and real-time academic intelligence, evidenced by improved indicators including 2× learning velocity, application engagement, lesson mastery, answer precision, and diminished negative learning behaviors throughout the Alpha Anywhere network.
+Basic Requirements
+Proven experience in data science or comparable position, education, EdTech, or student-support capacity combining analytical rigor with interpersonal capabilitySkilled use of Google Sheets for data analysis (lookups, pivot tables, filtering)Strong emotional intelligence, effective communication abilities, and a coaching approach suitable for childrenTrack record building workflows and automations leveraging AI
+Nice-to-have Requirements
+Foundation in learning science, pedagogical theory, or documented success enhancing outcomes via data-informed methodsFamiliarity with Generative AI, prompt engineering, and introductory coding proficiency (Python, JavaScript, etc.) for interacting with AI APIs
+About 2 Hour Learning
+Education is broken, but 2 Hour Learning is proving it doesn’t have to be. They’re tearing down the outdated one-size-fits-all model and replacing it with AI-driven personalized learning that helps kids master academics in just two hours a day.
+With students consistently ranking in the top 1-2% nationally and the top 20% achieving an astonishing 6.5x growth, they’re proving that smarter learning is possible. At 2 Hour Learning, it’s talent and performance that matter. 
+They offer a dynamic, on-campus and remote-friendly environment where innovators, educators, and AI specialists can be a part of fixing a broken school system.
+2 Hour Learning is reprogramming learning for the AI era.
+Here’s How They’re Fixing It.
+There is so much to cover for this exciting role, and space here is limited. Hit the Apply button if you found this interesting and want to learn more. We look forward to meeting you!
+Working with us
+This is a full-time (40 hours per week), long-term position. The position is immediately available and requires entering into an independent contractor agreement with Crossover as a Contractor of Record. The compensation level for this role is $30 USD/hour, which equates to $60,000 USD/year assuming 40 hours per week and 50 weeks per year. The payment period is weekly. Consult www.crossover.com/help-and-faqs for more details on this topic.
+Crossover Job Code: LJ-5238-CL-COUNTRY-LeadDataScient.001</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>4313312448</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4313312448/</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2025-11-30T17:35:07+00:00</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>«LLM»: REMOTE Senior AI/ML Developer - Oracle y más</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>9</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Job Description
+Senior AI Developer 
+Location: Mexico (REMOTE)
+About the Role:
+Are you early in your career and passionate about artificial intelligence, machine learning, and building impactful real-world applications? Join the Oracle Applications Labs (OAL) team as a Senior AI/ML Developer, where you’ll work alongside experienced engineers to design, build, and deploy cutting-edge AI solutions across Oracle’s enterprise applications.
+This is a growth-oriented role designed to give you practical experience in AI/ML development, hands-on exposure to production systems, and an opportunity to contribute to solutions that matter — all while learning from a supportive and collaborative team.
+What You’ll Do:
+Build and Contribute to AI-Powered Applications
+Help design and develop features in AI-driven applications, primarily using Python or similar languages.Collaborate with cross-functional teams to deliver scalable and reliable solutions.
+Work with Data
+Support data preparation efforts, including feature selection, basic ETL processes, and data quality checks.Assist in analyzing datasets for training and evaluating machine learning models.
+Learn and Grow in MLOps &amp; LLMs
+Get hands-on experience with tools and practices in MLOps: model deployment, monitoring, and versioning.Explore foundational concepts in large language models (LLMs), including prompting techniques and task automation.Learn to implement basic agentic workflows using tools like LangGraph or similar frameworks.
+Experiment and Evaluate
+Run model experiments under guidance, using metrics to measure performance and reliability.Begin learning how to debug and improve AI systems through iterative testing.
+Understand Responsible AI
+Develop awareness of AI ethics, privacy, fairness, and secure coding practices in real-world AI development.
+Contribute to Oracle Fusion and Conversational UX
+Support the integration of AI features into Oracle business applications.Participate in designing intuitive, user-centric conversational interfaces.
+Who You Are:
+A degree (or equivalent experience) in Computer Science, Engineering, Mathematics, Physics, Statistics, or a related field.Familiar with at least one programming language — Python preferred.Basic understanding of software engineering principles, data structures, and algorithms.Interest or introductory experience in AI/ML through coursework, self-study, personal projects, or internships.Curious, motivated to learn, and eager to contribute to meaningful projects.Comfortable working in a team environment, with strong communication and organization skills.
+Preferred Qualifications:
+2+ years’ experience with ML tools or libraries (e.g., Scikit-learn, TensorFlow, PyTorch).Participation in AI/ML hackathons, open-source contributions, or passion projects.Exposure to cloud platforms like Oracle Cloud, AWS, GCP, or Azure.Understanding of tech ethics, data privacy, or basic security principles.
+Why Join Us?
+Start your AI career with real impact — your code and ideas will contribute to solutions used by businesses worldwide.Learn from experts — work closely with experienced engineers, data scientists, and product teams.Grow your skills — we’ll support your development in AI/ML, MLOps, cloud technologies, and more.Work on diverse projects — from conversational interfaces to enterprise-scale integrations.Be yourself — we value diversity, inclusion, and creating a safe space for all team members to grow and thrive.
+Your Growth Path Could Include:
+Advancing your Python and data engineering skills.Moving into LLM engineering, platform/MLOps, or applied AI science.Gaining certifications or deeper knowledge in cloud, AI ethics, or enterprise systems.Taking on increased responsibility as a mid-level or senior AI engineer.
+Qualifications
+Career Level - IC3
+About Us
+As a world leader in cloud solutions, Oracle uses tomorrow’s technology to tackle today’s challenges. We’ve partnered with industry-leaders in almost every sector—and continue to thrive after 40+ years of change by operating with integrity.
+We know that true innovation starts when everyone is empowered to contribute. That’s why we’re committed to growing an inclusive workforce that promotes opportunities for all.
+Oracle careers open the door to global opportunities where work-life balance flourishes. We offer competitive benefits based on parity and consistency and support our people with flexible medical, life insurance, and retirement options. We also encourage employees to give back to their communities through our volunteer programs.
+We’re committed to including people with disabilities at all stages of the employment process. If you require accessibility assistance or accommodation for a disability at any point, let us know by emailing accommodation-request_mb@oracle.com or by calling +1 888 404 2494 in the United States.
+Oracle is an Equal Employment Opportunity Employer. All qualified applicants will receive consideration for employment without regard to race, color, religion, sex, national origin, sexual orientation, gender identity, disability and protected veterans’ status, or any other characteristic protected by law. Oracle will consider for employment qualified applicants with arrest and conviction records pursuant to applicable law.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>4334849324</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4334849324/</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2025-11-30T17:35:07+00:00</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>«LLM»: REMOTE Senior AI/ML Developer - Oracle y más</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>4</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>About FullStack
+FullStack is one of the fastest-growing software consultancy companies in the Americas. We deliver transformational digital solutions to top global companies and Silicon Valley startups. As an employee-first company, we focus on hiring the most talented software designers and developers by creating a positive, respectful, and supportive work environment where they can achieve their greatest potential.
+We’re Most Proud Of
+Offering life-changing career opportunities to talented software professionals across the Americas.Building highly-skilled software development teams for hundreds of the world’s greatest companies.Having delivered hundreds of successful custom software solutions, which have positively impacted the lives and careers of millions of users.Our 4.2-star rating on GlassDoor.Our client Net Promoter Score of 68, twice the industry average.
+The Position
+We're looking to hire an Elasticsearch + Agentic AI Developer to join our team. You'll work with one of our incredible product teams to build and deliver a product to our clients.
+What We're Looking For
+4+ years of professional AI software development experience.Advanced English is required.Successful completion of a four-year college degree is required.Experience with Elasticsearch setup, scaling, and query optimization.Hands-on experience building agents using Google ADK (or similar agent frameworks).Understanding of Model Context Protocol (MCP) or comparable model orchestration systems.Knowledge of agentic AI architectures and multi-agent coordination patterns.Strong programming background (Python, TypeScript, Go, or similar languages).Familiarity with vector embeddings, LLM integration, and RAG workflows.Experience with LangChain, LlamaIndex, or comparable orchestration libraries.Prior work with knowledge-graph or semantic indexing pipelines.Cloud experience (GCP preferred, AWS/Azure also relevant).Understanding of prompt engineering strategies for agent execution.Ability to work through new and difficult issues and contribute to libraries as needed.Ability to create and maintain continuous integration and delivery of applications.Forensic attention to detail.A positive mindset and a can-do attitude.Experience working on Agile / Scrum teams.Meaningful experience working on large, complex systems.Ability to take extreme ownership over your work. Every day is a challenge to ensure you are performing to the expectations you and your team have agreed upon.Ability to identify with the goals of FullStack's clients, and dedicate yourself to delivering on the commitments you and your team make to them.Ability to consistently work 40 hours per week.
+What We Offer
+Competitive Salary.Paid Time Off (vacation, sick leave, maternity and paternity leave, holidays).100% remote work.The ability to work with leading startups and Fortune 500 companies.Health policy with Sura 100% for you and up to 4 primary family members.English Classes.Food card.Ample opportunity for career advancement.Continuing education opportunities.
+FullStack is proud to be an equal opportunity workplace. We are committed to equal employment opportunity regardless of race, color, ancestry, religion, sex, national origin, sexual orientation, age, citizenship, marital status, disability, gender identity, or Veteran status.
+Learn more about our Applicants Privacy Notice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>4313034409</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4313034409/</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2025-11-30T13:35:19+00:00</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Software Engineer (Remote) - Taskify AI y más</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>EPAM is a leading global provider of digital platform engineering and development services. We are committed to having a positive impact on our customers, our employees, and our communities. We embrace a dynamic and inclusive culture. Here you will collaborate with multi-national teams, contribute to a myriad of innovative projects that deliver the most creative and cutting-edge solutions, and have an opportunity to continuously learn and grow. No matter where you are located, you will join a dedicated, creative, and diverse community that will help you discover your fullest potential.  We are looking for an experienced Lead Data Engineer with expertise in computer vision and machine learning to spearhead the development of an AI-powered platform for photo evaluation and personalized recommendations. In this role, you will create systems capable of analyzing and ranking photos based on their suitability for personalized physical products. This position is an exciting opportunity to bring together semantic image understanding, aesthetic scoring, and behavioral personalization into a unified recommendation framework. ResponsibilitiesDevelop systems leveraging CNN-based models and transformer-based vision architectures to analyze, score, and tag photos with metadataBuild models for facial recognition, grouping, and expression analysisGenerate contextual categories for photos, such as portraits, vacations, and eventsEvaluate images for aesthetic appeal and print suitabilityCreate object and scene detection models to extract valuable metadata from photosDesign and prototype custom transformer architectures tailored to product creation needsConstruct scalable pipelines to process large volumes of image data and produce structured, queryable metadataIntegrate image intelligence outputs into downstream applications such as search, ranking, and personalizationDevelop and deploy transformer-based machine learning models to analyze user behavior and purchase patterns for personalized product recommendationsLead experimentation frameworks such as A/B testing to optimize relevance and improve user conversion ratesBuild, manage, and maintain the entire machine learning model stack, ensuring seamless deployment and comprehensive system documentationCollaborate with cross-functional teams to operationalize model development and ensure successful integration into production environmentsCommunicate effectively with stakeholders and team members while maintaining a self-driven approach to problem-solving RequirementsBachelor’s or Master’s degree in Computer Science, Information Technology, or a related field, or equivalent professional experienceA minimum of 5 years of experience in software engineering or AI/ML-focused rolesAt least one year of experience leading and managing development teamsExpertise in computer vision techniques, including CNNs, vision transformers, facial recognition, object detection, image classification, and embedding generationStrong experience with recommendation systems, collaborative filtering, and deep learning for personalization tasksAdvanced knowledge of transformer-based models for recommendation systemsProficiency in Python for designing and deploying AI/ML solutionsPractical experience deploying machine learning models at scale using tools such as Docker, AWS, or GCPProven ability to lead cross-functional technical initiatives from concept to deliveryIn-depth understanding of the machine learning lifecycle, including data management, model evaluation, explainability, and observabilityProficient English communication skills, both written and spoken, at a B2+ level Nice to haveFamiliarity with machine learning libraries such as PyTorch or TensorFlowHands-on experience with diffusion models, graph neural networks (GNNs), or reinforcement learning We offerInternational projects with top brandsWork with global teams of highly skilled, diverse peersHealthcare benefitsEmployee financial programsPaid time off and sick leaveUpskilling, reskilling and certification coursesUnlimited access to the LinkedIn Learning library and 22,000+ coursesGlobal career opportunitiesVolunteer and community involvement opportunitiesEPAM Employee GroupsAward-winning culture recognized by Glassdoor, Newsweek and LinkedIn</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>4325162459</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325162459/</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2025-11-30T13:35:19+00:00</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Software Engineer (Remote) - Taskify AI y más</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>AgileEngine is an Inc. 5000 company that creates award-winning software for Fortune 500 brands and trailblazing startups across 17+ industries. We rank among the leaders in areas like application development and AI/ML, and our people-first culture has earned us multiple Best Place to Work awards. 
+WHY JOIN US 
+If you're looking for a place to grow, make an impact, and work with people who care, we'd love to meet you!
+ABOUT THE ROLE
+This role allows you to shape data foundations and analytics that drive key business insights. You’ll design dashboards, enable advanced analytics, and apply SQL, Python, and cloud expertise in a collaborative, growth-focused environment. With a flexible, innovative culture and mentorship opportunities, you’ll make a real impact while advancing your technical and leadership skills.
+WHAT YOU WILL DO
+ Build consolidated data foundations and dashboards to support workforce analytics; 
+  Develop and maintain single sources of truth for business data, ensuring accuracy and consistency;
+  Implement and optimize data pipelines, dashboards, and analytics platforms;
+  Enable advanced analytics and data science use cases, including anomaly detection, recommendation systems, and predictive analytics.
+ MUST HAVES
+ 6+ years of experience in Python; 
+  6+ years of experience in SQL (Snowflake/Cloud platform: AWS preferred);
+  6+ years of experience in Tableau desktop, cloud, prep;
+  Upper-Intermediate English level.
+ NICE TO HAVES
+ 6+ years workflow orchestration and building end-to-end data pipelines (Airflow, GitHub, etc.); 
+  6+ years of strong data modeling, data warehousing, and ETL/ELT frameworks (foundational design for long-term data usage);
+  6+ years experience in data monitoring and troubleshooting preferred;
+  Strong display of UX/UI design;
+  Strong PMO background;
+  Self-starter and strong ability to guide / lead self and/or team on projects;
+  Ability to strategize and lead complex data analysis, working with business leaders and cross-functional teams to understand and match their strategic and operational needs;
+  Exceptional ability to distill complex data into clear, concise, and actionable recommendations for both technical and non-technical stakeholders, including senior management (CEO, VP, SVP).
+ PERKS AND BENEFITS
+ Professional growth: Accelerate your professional journey with mentorship, TechTalks, and personalized growth roadmaps.
+  Competitive compensation: We match your ever-growing skills, talent, and contributions with competitive USD-based compensation and budgets for education, fitness, and team activities.
+  A selection of exciting projects: Join projects with modern solutions development and top-tier clients that include Fortune 500 enterprises and leading product brands.
+  Flextime: Tailor your schedule for an optimal work-life balance, by having the options of working from home and going to the office – whatever makes you the happiest and most productive.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>4325192299</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325192299/</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2025-11-30T13:35:19+00:00</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Software Engineer (Remote) - Taskify AI y más</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>AgileEngine is an Inc. 5000 company that creates award-winning software for Fortune 500 brands and trailblazing startups across 17+ industries. We rank among the leaders in areas like application development and AI/ML, and our people-first culture has earned us multiple Best Place to Work awards. 
+WHY JOIN US 
+If you're looking for a place to grow, make an impact, and work with people who care, we'd love to meet you!
+ABOUT THE ROLE
+This role allows you to shape data foundations and analytics that drive key business insights. You’ll design dashboards, enable advanced analytics, and apply SQL, Python, and cloud expertise in a collaborative, growth-focused environment. With a flexible, innovative culture and mentorship opportunities, you’ll make a real impact while advancing your technical and leadership skills.
+WHAT YOU WILL DO
+ Build consolidated data foundations and dashboards to support workforce analytics; 
+  Develop and maintain single sources of truth for business data, ensuring accuracy and consistency;
+  Implement and optimize data pipelines, dashboards, and analytics platforms;
+  Enable advanced analytics and data science use cases, including anomaly detection, recommendation systems, and predictive analytics.
+ MUST HAVES
+ 6+ years of experience in Python; 
+  6+ years of experience in SQL (Snowflake/Cloud platform: AWS preferred);
+  6+ years of experience in Tableau desktop, cloud, prep;
+  Upper-Intermediate English level.
+ NICE TO HAVES
+ 6+ years workflow orchestration and building end-to-end data pipelines (Airflow, GitHub, etc.); 
+  6+ years of strong data modeling, data warehousing, and ETL/ELT frameworks (foundational design for long-term data usage);
+  6+ years experience in data monitoring and troubleshooting preferred;
+  Strong display of UX/UI design;
+  Strong PMO background;
+  Self-starter and strong ability to guide / lead self and/or team on projects;
+  Ability to strategize and lead complex data analysis, working with business leaders and cross-functional teams to understand and match their strategic and operational needs;
+  Exceptional ability to distill complex data into clear, concise, and actionable recommendations for both technical and non-technical stakeholders, including senior management (CEO, VP, SVP).
+ PERKS AND BENEFITS
+ Professional growth: Accelerate your professional journey with mentorship, TechTalks, and personalized growth roadmaps.
+  Competitive compensation: We match your ever-growing skills, talent, and contributions with competitive USD-based compensation and budgets for education, fitness, and team activities.
+  A selection of exciting projects: Join projects with modern solutions development and top-tier clients that include Fortune 500 enterprises and leading product brands.
+  Flextime: Tailor your schedule for an optimal work-life balance, by having the options of working from home and going to the office – whatever makes you the happiest and most productive.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>4324954309</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4324954309/</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2025-11-30T13:35:19+00:00</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Software Engineer (Remote) - Taskify AI y más</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>AgileEngine is an Inc. 5000 company that creates award-winning software for Fortune 500 brands and trailblazing startups across 17+ industries. We rank among the leaders in areas like application development and AI/ML, and our people-first culture has earned us multiple Best Place to Work awards. 
+WHY JOIN US 
+If you're looking for a place to grow, make an impact, and work with people who care, we'd love to meet you!
+ABOUT THE ROLE
+This role allows you to shape data foundations and analytics that drive key business insights. You’ll design dashboards, enable advanced analytics, and apply SQL, Python, and cloud expertise in a collaborative, growth-focused environment. With a flexible, innovative culture and mentorship opportunities, you’ll make a real impact while advancing your technical and leadership skills.
+WHAT YOU WILL DO
+ Build consolidated data foundations and dashboards to support workforce analytics; 
+  Develop and maintain single sources of truth for business data, ensuring accuracy and consistency;
+  Implement and optimize data pipelines, dashboards, and analytics platforms;
+  Enable advanced analytics and data science use cases, including anomaly detection, recommendation systems, and predictive analytics.
+ MUST HAVES
+ 6+ years of experience in Python; 
+  6+ years of experience in SQL (Snowflake/Cloud platform: AWS preferred);
+  6+ years of experience in Tableau desktop, cloud, prep;
+  Upper-Intermediate English level.
+ NICE TO HAVES
+ 6+ years workflow orchestration and building end-to-end data pipelines (Airflow, GitHub, etc.); 
+  6+ years of strong data modeling, data warehousing, and ETL/ELT frameworks (foundational design for long-term data usage);
+  6+ years experience in data monitoring and troubleshooting preferred;
+  Strong display of UX/UI design;
+  Strong PMO background;
+  Self-starter and strong ability to guide / lead self and/or team on projects;
+  Ability to strategize and lead complex data analysis, working with business leaders and cross-functional teams to understand and match their strategic and operational needs;
+  Exceptional ability to distill complex data into clear, concise, and actionable recommendations for both technical and non-technical stakeholders, including senior management (CEO, VP, SVP).
+ PERKS AND BENEFITS
+ Professional growth: Accelerate your professional journey with mentorship, TechTalks, and personalized growth roadmaps.
+  Competitive compensation: We match your ever-growing skills, talent, and contributions with competitive USD-based compensation and budgets for education, fitness, and team activities.
+  A selection of exciting projects: Join projects with modern solutions development and top-tier clients that include Fortune 500 enterprises and leading product brands.
+  Flextime: Tailor your schedule for an optimal work-life balance, by having the options of working from home and going to the office – whatever makes you the happiest and most productive.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>4339442938</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4339442938/</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2025-11-30T03:37:58+00:00</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>«tensorflow»: AI Engineer - Right Balance ® y más</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>4</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Engagement DetailsIn a rapidly evolving world of interactive entertainment, this company positions itself not as a game creator—but as the engine that empowers creators. Think of them as the behind‑the‑scenes partner who enables studios, publishers, and producers to move faster, smarter, and at scale.
+Their target clients are game publishers, developers, and producers who have big visions but need help making those visions reliable, viable, and financially efficient. They’re not selling games—they’re selling enablement: future‑proofed operations, leaner infrastructure, richer data, and immersive innovation.
+Our client is looking for an experienced AI Engineer to architect, implement, and optimize AI-powered solutions driving our next-generation products and platforms. This hands-on role will focus on integrating, deploying, and scaling machine learning models, collaborating closely with product and engineering teams, and ensuring robust, reliable, and secure AI services across their organization.
+Availability: Full-time.Length: 1+ YearClient: Gaming Giant
+What’s in it for you?Learn and evolve your skills using the latest and greatest technology tools in a rapidly growing company.Learn from the best people around you. We constantly challenge the status quo and invent new ways of building a great product.100% remote. Work anywhere, whether it is remotely in the comfort of your home, in a shared co-working space, in an RV on the beach, or while being a nomad in another country.Work on challenging problems, innovate, and positively impact many people's lives while having fun doing it.
+Required QualificationsUpper-intermediate to fluent speaking and writing English. Able to have a real-time conversation.4+ years of full-time hands-on Python/Tensorflow/Pytorch experience.4+ years of full-time hands-on AI Getaway experience.3+ years of full-time hands-on Golang experience.3+ years of full-time hands-on AWS experience.3+ years of full-time hands-on MCP experience.Experience implementing prompt management, data protection, and content moderation systems for AI-powered applications.Track record building scalable data and ML pipelines.Familiarity with cloud-native architecture (AWS, GCP, or Azure)Proficiency in model development, training, and deployment using leading ML/DL frameworks.Strong capability in API integration and RESTful service design for serving AI models.Experience with data engineering, caching (Redis), and monitoring tools.Comfort integrating external APIs (e.g., third-party LLM/AI services) and designing abstraction layers.Experience with AI Gateway platforms (Kong, Mosaic, TrueFoundry, Portkey) and integrating with LLM APIs.
+Nice to HavesFamiliarity with observability stacks (OpenTelemetry, Datadog, Prometheus).Background building multi-tenant platforms or scaling AI applications for large userbases.Experience with the Golang programming language.AI Getaway experience.Bachelor’s degree in Computer Science or equivalent demonstrated ability.
+Frequently Asked QuestionsWhat are your typical clients?The majority of our clients are venture-backed startups at the growth stage. Usually, at this stage, the company already achieved a product-market fit and is looking to expand rapidly. That’s where we bring the best engineering practices, strong architecture, the latest technologies, and consistent processes to help companies scale.
+What is the length of your engagements?Most of our long-term full-time engagements last multiple years. It allows you to evolve your career with the client company taking on more responsibilities.
+What’s your company size?The Right Balance team is 55+ engineers going to 75+ by the end of the year. The current client size team is 150+ people. The timing is great to be a part of a rapidly growing team making meaningful contributions.
+What happens if the engagement is completed?Most of our engagements are long-term in nature. That said, if the current engagement is ramping down, we’ll present you with more long-term opportunities to transition into.
+What are your core values?Client First: we only win when our clients win. We treat client challenges as our own.Ownership: we embrace responsibility, taking on challenges, getting them to completion, and enjoying getting things done.Quality: we’re passionate about achieving quality outcomes by applying meticulous attention to detail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>4340143134</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4340143134/</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2025-11-30T03:37:58+00:00</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>«tensorflow»: AI Engineer - Right Balance ® y más</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>9</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Job Title: Junior AI Engineer
+Job Type: Full-time
+Location: LATAM (Remote)
+Experience: 1-2 Years of Relevant Experience
+Job Summary:Join our team as a Junior AI Engineer and help us push the boundaries of Generative AI applications. You’ll collaborate with passionate colleagues to design, build, and scale advanced GenAI systems that power innovative solutions. This is an exciting opportunity for a hands-on engineer eager to grow their skills while building impactful, production-grade AI features.
+Responsibilities:
+Contribute to the development of GenAI applications such as answering engines, entity extraction tools, and summarization systems.Assist in building and debugging REST APIs using Python frameworks like FastAPI or Flask.Support RAG (Retrieval-Augmented Generation) pipelines through tasks like data ingestion, embedding creation, and prompt testing.Work with vector databases (e.g., Pinecone, FAISS) for data storage and retrieval.Experiment with prompt templates and LLMs (OpenAI, Mistral, etc.) under guidance from senior engineers.Collaborate with cross-functional teams to integrate GenAI modules into products.Learn cloud deployment basics using AWS or Azure and assist in model or API deployment.Stay curious about LangChain, LangGraph, and emerging AI frameworks.
+Must-have Skills:
+Python: Proficient with the language. Able to write, test, and debug code.API Development: Experience with FastAPI, Flask, or equivalent.GenAI Basics: Exposure to LLMs, prompt engineering, and simple RAG use cases.Cloud/DevOps: Familiarity with one major cloud platform (AWS or Azure).Version Control: Git fundamentals and collaborative development.
+Good-to-have Skills:
+Familiarity with LangChain or LangGraph.Experience working with embeddings and vector databases.Basic understanding of CI/CD pipelines and containerization (Docker).Curiosity about agents and autonomous AI systems.
+Our interview process is streamlined with a single step: an AI interview. If you perform well, our hiring managers will review your AI interview recording and may extend an offer directly based on that review.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>4340113276</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4340113276/</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2025-11-30T03:37:58+00:00</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>«tensorflow»: AI Engineer - Right Balance ® y más</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>6</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Job DescriptionJob Title: Mid-level AI Engineer
+Job Type: Full-time
+Location: LATAM (Remote)
+Experience: 2-4 Years of Relevant Experience
+Job Summary:Join our team as a Mid-level AI Engineer and help drive the next generation of GenAI-powered applications. You will architect robust solutions, collaborating closely with fellow engineers, product managers, and designers to turn cutting-edge research into real-world impact. If you thrive in a fast-paced, innovation-driven environment and are passionate about clear communication, this is the opportunity for you.
+Responsibilities:
+Build GenAI applications such as question-answering systems, content generation tools, and extraction pipelines.Design, implement, and optimize RAG pipelines end-to-end: ingestion, chunking, embedding, prompt templating, evaluation, and deployment.Develop robust APIs using Python frameworks (FastAPI preferred).Work with multiple LLMs (OpenAI, Mistral, Anthropic, etc.) and evaluate model performance for different use cases.Use LangChain, LangGraph, or LangSmith to orchestrate and monitor GenAI workflows.Deploy applications on AWS or Azure and implement CI/CD for continuous improvement.Collaborate with data engineers and product managers to translate technical designs into scalable solutions.Participate in system design discussions, contributing ideas for performance and maintainability.
+Must-have Skills:
+Python: Strong experience with the language. Able to design clean, modular, production-grade code.API Development: Proven experience building and maintaining APIs (FastAPI/Flask).GenAI Stack: LangChain, LangGraph, LangSmith; multiple LLM APIs (OpenAI, Mistral, etc.).RAG Lifecycle: Data ingestion, prompt templating (Jinja), evaluation/re-ranking, deployment.Cloud/DevOps: Hands-on with AWS or Azure (deployments, monitoring).
+Good-to-have Skills:
+Understanding of distributed systems and scaling strategies.Experience with containerization (Docker) and orchestration (Kubernetes).Familiarity with Guardrails AI or Responsible AI frameworks.Basic UI integration knowledge (React, optional).
+Our interview process is streamlined with a single step: an AI interview. If you perform well, our hiring managers will review your AI interview recording and may extend an offer directly based on that review.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>4339863749</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4339863749/</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2025-11-30T03:37:58+00:00</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>«tensorflow»: AI Engineer - Right Balance ® y más</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>5</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>About Us
+A Félix, we're building the financial ecosystem for Latin immigrants in the U.S., starting with a revolution in remittances. Our core product is an AI-powered chatbot built on WhatsApp, allowing our users to send money home as easily as sending a text message. We leverage cutting-edge technology like AI, blockchain, and stablecoins to make cross-border payments faster, more affordable, and more accessible than ever before.
+We are a hyper-growth Series B company, backed by over $100 million in funding from top-tier global investors, including QED, Castle Island, Switch Ventures, HTwenty, Monashees, and General Catalyst Customer Value Fund. This isn't just about the numbers; it's a testament to the trust our investors have in our vision and our team. Additionally, Félix was selected as an “Endeavour Entrepreneur” and was a recipient of the CrossTech Fintech Startups Award. We are a group of extremely talented and dedicated high-performers, united by our shared obsession with a single goal: empowering our customers. We are all owners of Félix, driven by a bias for action and a true experimentation spirit to get shit done with urgency and focus.
+Joining Félix means you will be part of a team building a legacy, a company that will outlive us all. This is a rare opportunity to apply your skills to a deeply meaningful mission—serving a community that has been underserved for too long. We are a team that is fiercely loyal to each other, where radical transparency and constructive feedback are how we grow and push for excellence. We are bold, we care less about what others are doing, and more about creating sustainable value and a product that truly makes our users' lives better. We are building the future, today.
+About the Role
+We are seeking a proactive and highly skilled AI Engineer to join our core AI team. This role is central to Félix's next phase of growth, focusing on designing, building, and scaling autonomous AI Agents that will integrate directly into our product and internal operations.
+You will be instrumental in evolving our WhatsApp-based AI platform beyond simple Q&amp;A into a sophisticated, multi-agent system capable of reasoning, planning, and executing complex, multi-step tasks across our critical functions (e.g., loans, payments, fraud). You will partner closely with JM Mommessin, our Head of AI, as well as with other engineering teams and PMs to translate our AI strategy into a tangible roadmap and bring it to life. This is a unique opportunity to apply a bias toward action and an experimentation spirit to solve deeply meaningful, real-world problems for Latin immigrants in the U.S. If you thrive in a rapid-iteration environment and want to build the infrastructure that powers a hyper-growth fintech, this is your mission.
+Responsibilities
+Agent Development &amp; Deployment: Design, build, test, and deploy robust, stateful, and scalable AI agents using Python and modern agentic frameworks (Google ADK, LangChain, LlamaIndex, CrewAI, OpenAI SDK, etc.).Cross-Functional Agent Integration: Partner closely with Engineering, Product, and domain teams (e.g., Payments, Fraud) to deliver key AI augmentation opportunities and seamlessly integrate built agents across our production use cases.LLM Evaluation &amp; Optimization: Design and implement rigorous evaluation pipelines for LLM-powered agents, including A/B testing and performance monitoring, focusing on accuracy, speed, and cost efficiency.Prompt Engineering &amp; Tooling: Apply advanced prompt engineering techniques and develop custom tooling, retrieval-augmented generation (RAG), and external API connections to enhance agent capabilities and ensure grounded, reliable performance.Technical Scrutiny: Act as a subject matter expert on the latest advancements in generative AI technology, best practices, protocols, etc.
+Requirements
+Experience: 3+ years of hands-on experience in software engineering, with at least 1-2 years dedicated to building and deploying production-grade AI/ML applications, specifically focused on Large Language Models (LLMs) or generative AI.Technical Mastery: Mandatory expertise in Python and deep familiarity with core LLM APIs and frameworks (OpenAI SDK, Google AI SDK, CrewAI, LangChain, etc.).Agentic System Knowledge: Proven experience implementing agentic systems, including knowledge of RAG, vector databases, and memory/state management.Engineering Fundamentals: Strong understanding of software development best practices, version control (Git/GitHub), and CI/CD pipelines. Experience with personal projects or demonstrable contributions on GitHub is a strong plus.Execution &amp; Communication: Proven ability to translate high-level business needs into concrete, maintainable, and well-tested code.These are the applicable requisites, although equivalent competencies in any of the above will also be considered.
+What We Offer
+Competitive salaryInitial stock options grantAnnual performance bonusHealth, dental, and vision plansRemote work environment, although we have offices in Miami and México City and would love to work in hybrid model if you are up to it.Continuous learning opportunitiesUnlimited PTOPaid parental leaveEmpowering opportunities for growth in a dynamic entrepreneurial environment
+Equal Opportunity Employer
+At Félix, we are committed to providing equal employment opportunities to all qualified employees and applicants without regard to race, religion, nationality, sex, sexual orientation, gender identity, age, or disability. This policy applies to all terms and conditions of employment, including recruitment, hiring, placement, promotion, training, compensation, benefits, and termination.
+Want to learn more about our privacy practices? Check out our Privacy Policy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>4324931842</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4324931842/</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2025-11-30T03:37:58+00:00</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>«tensorflow»: AI Engineer - Right Balance ® y más</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>5</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Please submit your resume in English and indicate your level of English proficiency.
+At Mindrift, innovation meets opportunity. We believe in using the power of collective intelligence to ethically shape the future of AI.
+What we doThe Mindrift platform connects specialists with AI projects from major tech innovators. Our mission is to unlock the potential of Generative AI by tapping into real-world expertise from across the globe.
+About the RoleGenAI models are improving very quickly, and one of our goals is to make them capable of addressing specialized questions and achieving complex reasoning skills. If you join the platform as an AI Tutor in Coding, you’ll have the opportunity to collaborate on these projects.Although every project is unique, you might typically:Evaluate and red team AI models and agents and machine learning systems for vulnerabilities and safety risks.Create offline reproducible &amp; auto-evaluable test cases to test safety &amp; capability of AI agents.Develop and implement automation scripts, custom tools, environments and test harnesses.Lead or contribute to security research initiatives, especially in AI safety, creating and implementing realistic and challenging attack scenarios for the model.Advise on cybersecurity best practices and policy implications.
+How to get startedSimply apply to this post, qualify, and get the chance to contribute to projects aligned with your skills, on your own schedule. From creating training prompts to refining model responses, you’ll help shape the future of AI while ensuring technology benefits everyone.RequirementsYou hold a Bachelor's or Master’s Degree in Computer Science, Software Engineering, Cybersecurity, Digital Forensics or other related fields.Your level of English is advanced (C1) or above.Proficient in scripting and automation using Python, Bash, or PowerShell.Experienced with containerization and CI/CD security tools, especially Docker.Hands-on experience with penetration testing across web, API, network, and infrastructure environments.Knowledge of vulnerabilities in current AI models, including prompt injections, with knowledge of OWASP Top 10 for Large Language Models (LLMs).Familiar with AI red-teaming frameworks such as garak or PyRIT.Experience in AI/ML security, evaluation, and red teaming, particularly with LLMs, AI agents, and RAG pipelines.Proficient in offensive exploitation and exploit development.Skilled in reverse engineering using tools like Ghidra or equivalents.Expertise in network and application security, including web application security.Knowledge of operating system security concepts such as Linux privilege escalation and Windows internals.Familiar with secure coding practices for full-stack development.You are ready to learn new methods, able to switch between tasks and topics quickly and sometimes work with challenging, complex guidelines.Our freelance role is fully remote so, you just need a laptop, internet connection, time available and enthusiasm to take on a challenge.
+Why this freelance opportunity might be a great fit for you?Get paid for your expertise, with rates that can go up to $23/hour depending on your skills, experience, location and project needs.Take part in a part-time, remote, freelance project that fits around your primary professional or academic commitments.Work on advanced AI projects and gain valuable experience that enhances your portfolio.Influence how future AI models understand and communicate in your field of expertise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>4340113598</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4340113598/</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2025-11-30T01:36:07+00:00</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>«LLM»: Data Science - AI trainer - micro1 y más</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>8</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Job Title: Data Science - AI TrainerJob Type: Part-timeLocation: Remote
+Job SummaryJoin our customer’s team as a Data Science - AI Trainer, where you will play a pivotal role in training and mentoring the next generation of AI talent. You will leverage your expertise as a Data Scientist to design, deliver, and optimize training programs that focus on full-cycle prompting and AI model development within a dynamic, innovation-driven environment.
+Key ResponsibilitiesDesign and deliver comprehensive AI and data science training modules tailored to various learner levels.Guide learners through hands-on projects covering the entire AI development lifecycle, with a particular emphasis on full-cycle prompting techniques.Provide actionable, constructive feedback through both written and verbal channels to foster learner growth.Collaborate with the customer’s team to continuously update and refine course materials based on technological advancements and industry best practices.Develop assessments, project challenges, and interactive exercises that measure and enhance learner competency in data science and AI.Mentor and support learners, addressing their questions and challenges with a solution-oriented mindset.Champion clear, effective communication in all training activities, ensuring complex concepts are accessible and engaging.
+Required Skills and QualificationsBachelor’s degree or higher in Computer Science or a related technical field.At least 2 years of hands-on experience as a Data Scientist working on AI-driven projects.Demonstrated experience in designing, implementing, or teaching full-cycle AI prompting techniques.Excellent written and verbal communication skills; proven ability to explain complex AI concepts clearly.Self-motivated with strong organizational and time management abilities.Familiarity with state-of-the-art machine learning frameworks and data science toolkits.Proficient in remote collaboration using digital tools and platforms.
+Preferred QualificationsPrior experience as an educator, trainer, or mentor in data science or AI.Knowledge of the latest trends in AI model optimization and deployment.Portfolio of published projects or contributions to AI education.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>4339443654</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4339443654/</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2025-11-30T01:36:07+00:00</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>«LLM»: Data Science - AI trainer - micro1 y más</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>9</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Job DescriptionJob Title: Junior Data Science Associate Consultant
+Job Type: Full-tim
+e
+Location: Remote in LAT
+AM
+Job SummaryZS's Insights &amp; Analytics group partners with clients to design and deliver solutions to help them tackle a broad range of business challenges. Our teams work on multiple projects simultaneously, leveraging advanced data analytics and problem-solving techniques. Our recommendations and solutions are based on rigorous research and analysis underpinned by deep expertise and thought leadersh
+ip.
+Key ResponsibilitiesSupport the development and testing of analytical and statistical models under senior guidance.Apply hypothesis testing, regression, and simple machine learning methods to solve structured data problems.Clean, transform, and visualize datasets using Python and basic BI tools.Assist in feature engineering, model validation, and documentation of analytical workflows.Collaborate with senior consultants to prepare reports and dashboards for client presentations.Explore and document emerging data sources and technologies relevant to ongoing proje
+cts.
+Required Skills and QualificationsBachelor’s or Master’s in Computer Science, Statistics, Data Science, or a related quantitative field.1–2 years of experience in data analytics or applied statistics.Proficiency in Python or R for data processing and visualization.Understanding of machine learning fundamentals, data wrangling, and exploratory analysis.Familiarity with SQL and basic data pipelines.Exposure to cloud environments (AWS or Azure) and Git version control.Strong analytical thinking and eagerness to learn from senior men
+tors.
+Preferred QualificationsExperience fine-tuning generative models and integrating classic AI techniques.Prior leadership experience and a record of mentoring junior colleagues.Domain expertise in healthcare, transportation, technology, insurance, or related se
+ctors.
+Our interview process is streamlined with a single step: an AI interview. If you perform well, our hiring managers will review your AI interview recording and may extend an offer directly based on that
+ review</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>4339484045</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4339484045/</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2025-11-30T01:36:07+00:00</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>«LLM»: Data Science - AI trainer - micro1 y más</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>5</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Job Title: Backend Engineer - AI trainerJob Type: Part-timeLocation: Remote
+Job SummaryJoin our customer's team as a Backend Engineer - AI trainer and play a pivotal role in shaping the future of AI-driven backend solutions. As a subject matter expert, you will leverage your backend engineering expertise to train and refine cutting-edge AI systems, contributing to high-impact projects and continuous product innovation.
+Key Responsibilities- Collaborate closely with cross-functional teams to design, build, and optimize backend architectures for AI training initiatives- Develop, test, and maintain code samples, technical documentation, and prompts used to train and evaluate AI models- Guide the AI training process by providing domain expertise, reviewing outputs, and supplying insightful feedback- Participate in the full prompt engineering cycle, ensuring clarity, accuracy, and scalability of backend training tasks- Analyze model performance, identify improvement areas, and drive quality enhancements- Foster knowledge sharing and promote best practices within the team through clear written and verbal communication- Stay updated on the latest backend and AI technologies to continuously improve training methodologies
+Required Skills and Qualifications- Bachelor’s degree in Computer Science or a related technical field- Minimum 2 years of professional experience in backend engineering- Demonstrated expertise in server-side programming languages (such as Python, Java, or Node.js)- Solid understanding of software design patterns, RESTful APIs, and database management- Strong written and verbal communication skills, with an emphasis on clear and concise knowledge transfer- Experience working on projects related to AI, machine learning, or prompt engineering- Ability to work independently in a remote, part-time environment, meeting deadlines and delivering quality results
+Preferred Qualifications- Prior experience training or fine-tuning AI models as a subject matter expert- Familiarity with cloud infrastructure and deployment (e.g., AWS, GCP)- Experience in code review, technical mentorship, or educational content creation</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>4339414156</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4339414156/</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2025-11-30T01:36:07+00:00</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>«LLM»: Data Science - AI trainer - micro1 y más</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>7</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Job Title: Statistics, Biostatistics - AI TrainerJob Type: Part-timeLocation: Remote
+Job SummaryJoin our customer's team as a Statistics, Biostatistics - AI Trainer, playing a pivotal role in shaping advanced AI solutions through your expertise in data-driven methodologies. In this impactful remote, part-time position, you will guide AI training initiatives that rely on robust statistical and biostatistical frameworks, directly influencing the next generation of intelligent systems.
+Key ResponsibilitiesDevelop, curate, and deliver high-quality training materials in statistics and biostatistics for AI development projects.Assess AI models and datasets, ensuring rigorous statistical validity and methodological soundness.Collaborate with multidisciplinary teams to identify project needs and tailor training content accordingly.Coach and mentor team members and AI models on the application of advanced statistical concepts.Facilitate interactive training sessions and workshops, fostering a culture of continuous learning and improvement.Provide detailed feedback and documentation to support ongoing refinement and optimization of AI training processes.Stay updated on emerging trends in statistics, biostatistics, and their intersection with artificial intelligence.
+Required Skills and QualificationsPhD or Master’s degree in Statistics, Biostatistics, or a closely related field.Demonstrated experience applying statistical methodologies in academic, research, or industry AI projects.Exceptional written and verbal communication skills, with a keen ability to convey complex concepts clearly.Hands-on experience with statistical software (such as R, SAS, or Python) and data analysis frameworks.Proven ability to create engaging instructional content for technical audiences.Strong analytical thinking and problem-solving abilities.Self-motivated, organized, and adept at working independently in a remote environment.
+Preferred QualificationsExperience in AI model training, machine learning, or related data science initiatives.Background in educational or instructional design within scientific or technical domains.Publications or notable contributions in the fields of statistics or biostatistics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>4340123234</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4340123234/</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2025-11-29T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>«machine learning»: AI Engineer - Right Balance ® y más</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>3</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Job DescriptionJob Title: Senior Data Science Associate Consultant
+Job Type: Full-time
+Location: Remote LATAM
+Job SummaryZS's Insights &amp; Analytics group partners with clients to design and deliver solutions to help them tackle a broad range of business challenges. Our teams work on multiple projects simultaneously, leveraging advanced data analytics and problem-solving techniques. Our recommendations and solutions are based on rigorous research and analysis underpinned by deep expertise and thought leadership.
+Key ResponsibilitiesLead the design, development, and deployment of advanced AI and ML models addressing large-scale, high-dimensional problems.Architect data-driven systems combining statistical, predictive, and generative modeling techniques.Evaluate and integrate emerging datasets, frameworks, and tools into scalable production pipelines.Fine-tune large language models (LLMs) and experiment with hybrid AI systems using agentic or classical approaches.Collaborate directly with clients to define project scope, design analytical solutions, and deliver business impact.Lead teams of data scientists, ensuring methodological rigor, reproducibility, and innovation.Contribute to thought leadership initiatives through publications and research collaborations.
+Required Skills and QualificationsPhD in Computer Science, Statistics, or a related field, or Master’s with 4–6 years of data science experience.Expert in Python, statistical modeling, and advanced ML frameworks (TensorFlow, PyTorch, scikit-learn).Deep understanding of data architecture, MLOps, and model lifecycle management.Hands-on experience with RAG pipelines, fine-tuning generative models, and multi-agent systems.Strong experience with big data ecosystems (Spark, Hadoop) and cloud platforms (AWS, Azure).Proven ability to lead analytical projects, mentor teams, and communicate technical results to executives.Experience in domains like healthcare, tech, or finance is a plus.
+Preferred QualificationsExperience fine-tuning generative models and integrating classic AI techniques.Prior leadership experience and a record of mentoring junior colleagues.Domain expertise in healthcare, transportation, technology, insurance, or related sectors.
+Our interview process is streamlined with a single step: an AI interview. If you perform well, our hiring managers will review your AI interview recording and may extend an offer directly based on that review</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>4339413766</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4339413766/</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2025-11-29T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>«machine learning»: AI Engineer - Right Balance ® y más</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>3</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Job DescriptionJob Title: Mid-level Data Science Associate Consultant
+Job Type: Full-time
+Location: Remote - LATAM
+Job Summary:ZS's Insights &amp; Analytics group partners with clients to design and deliver solutions to help them tackle a broad range of business challenges. Our teams work on multiple projects simultaneously, leveraging advanced data analytics and problem-solving techniques. Our recommendations and solutions are based on rigorous research and analysis underpinned by deep expertise and thought leadership.
+Key Responsibilities:Design and implement advanced analytical and ML models to solve complex business challenges.Apply data mining, predictive modeling, and NLP techniques to extract insights from structured and unstructured data.Develop scalable analytical workflows using Python and integrate results into client systems.Build and maintain data pipelines; optimize data ingestion and transformation processes.Collaborate with cross-functional teams to interpret findings and influence data-driven decision-making.Develop reusable analytical assets and contribute to platform scalability initiatives.Mentor junior analysts and ensure best practices in data science workflows.
+Required Skills and Qualifications:Master’s in Computer Science, Statistics, Data Science, or related field with 2–4 years of experience.Proficiency in Python (pandas, NumPy, scikit-learn) or R for model building and analysis.Experience with machine learning pipelines, feature selection, and model evaluation.Hands-on knowledge of big data tools (Spark, Hadoop) and cloud platforms (AWS, Azure).Familiarity with SQL and NoSQL data stores.Ability to translate technical results into actionable business recommendations.Experience working in agile environments and leading small-scale analytical projects.
+Preferred Qualifications:Experience fine-tuning generative models and integrating classic AI techniques.Prior leadership experience and a record of mentoring junior colleagues.Domain expertise in healthcare, transportation, technology, insurance, or related sectors.
+Our interview process is streamlined with a single step: an AI interview. If you perform well, our hiring managers will review your AI interview recording and may extend an offer directly based on that review</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>4321278461</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4321278461/</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2025-11-29T01:35:43+00:00</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>«pytorch»: Artificial Intelligence Intern (Remote) - Taskify AI y más</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>2</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>About vidIQvidIQ builds software to help YouTube creators achieve their goals. Our mission is to advance the creator's journey with actionable data-driven insights and AI-powered tools. We are dedicated to our values of being creator-obsessed, lean and fast, and scientific. Having already supported millions of creators, we invite stunning new co-workers to join us in reaching millions more.
+Imagine a product that reached over a million users without a traditional sales team. This product stands at the forefront of career evolution, where everyone can be their own brand with unlimited growth potential. That's the opportunity at vidIQ—an infinite market, a large and highly engaged customer base, and the chance to help scale the platform that delivers insights to millions of creators.
+Discover more about vidIQ firsthand at www.vidiq.com.
+About the TeamWe're a team of 100+ people. Our vision is to be the smart copilot for every creator. We strive to create a welcoming environment where our team of highly driven, passionate people can share ideas with each other and do their best work. We are looking for team members who are excellent at their craft, communicate with kindness, and act like OWNERS.
+An overview of our technology stackFrontend: Typescript, React.js, Next.jsBackend: Scala/Python/Node.jsInfrastructure &amp; CI/CD: Kubernetes, Docker, GitHub, ArgoCDCloud: AWS, GCPDatabases: PostgreSQL, MongoDB, DynamoDB, OpenSearchData processing: Python, Spark, Kafka, Airflow, Pandas, NumpyML libraries: PyTorch, Hugging Face, sci-kit-learn, Tensorflow, KerasML algorithms: multi-modal LLMs, Diffusion Models, Recommender Systems, ANN
+About the RoleWe are looking for a highly motivated AI/Machine Learning Engineer, with a background in backend development. In this role, you'll work closely with a cross-functional team to drive product innovation and deliver high-impact results. The ideal candidate will have robust engineering experience, a proactive mindset, and a proven track record in product development. You will be expected to frequently collaborate with key stakeholders, including senior leadership, articulate technical concepts to non-technical audiences, and lead by example in a FAST-PACED, results-oriented environment.
+This is a remote position open to candidates worldwide. Employment classification and engagement structure will be determined based on location, legal requirements, and mutual fit.
+What you will doWork closely with Product Managers/Senior Leadership to frame problems within the business context and deliver the highest impact to our usersDesign, implement and ship new features with a high level of responsibility and OWNERSHIPImplement scalable solutions to consistently serve a vast global user baseHelp establish architecture based on technology and our needsBuild, train, and test Machine learning/AI solutions focusing on natural language processing, recommender systems, computer visionWrite well-crafted, well-tested, maintainable code to convert our ML models into working pipelinesCollaborate closely with Frontend, DevOps, and Data Engineering teams to deliver cohesive end-to-end solutions, align on technical decisions, and ensure smooth integration between system componentsParticipate in code-reviews to ensure code quality and distribute knowledgeMonitor and troubleshoot existing features and resolve any issues that arise
+Requirements6+ years of professional software engineering experience (preferably in Python)3+ years of experience developing and delivering ML solutions into productionProduct oriented mindsetHands-on experience building and optimizing end-to-end data and machine learning pipelines, with a focus on LLM-based solutionsEngineering mindset, with a high degree of comfort in designing software and producing production-grade codeProactive, results-oriented self-starter with a proven ability to drive growth and innovation in dynamic environments.Ability to work with modern data integration and analytics toolsExperience with AI-dev tools (e.g. GitHub Co-Pilot, Cursor)Ability to turn ML paper into working code
+Nice to have B.S., M.S. or PhD in Computer Science or related technical fieldDeveloper-level experience with Kubernetes and DockerExperience with data processing technologies (e.g. Spark, Kafka, Airflow)Experience working with RDBMS and NoSQL data scores (PostgreSQL, DynamoDB and alike)Experience in product management
+Perks and BenefitsWork Remotely: Embrace the freedom to choose your ideal workspace anywhere in the world.Flexible Time Off: We support a flexible vacation policy allowing you to take time off when you need to recharge.Communication Stipend: Enjoy a monthly stipend to cover your phone and internet expenses, helping you stay connected effortlessly.Global Impact: Join our diverse team that’s shaping the future of the creator economy across the globe.Competitive Compensation: vidIQ believes in offering competitive compensation that reflects your skills, experience, and contributions. We ensure fairness through internal equity and geo-location based pay, with the upper range reserved for individuals demonstrating exceptional job knowledge and skills.
+Our CommitmentAt vidIQ, we dedicate ourselves to enabling creators of all kinds to succeed. We prioritize attracting diverse talent and fostering an environment that encourages collaboration, creativity, and personal growth. We are committed to building a company and a community where individuals thrive by being true to themselves and are inspired to do their best work every day.If you share our enthusiasm for empowering creators, we would love to hear from you. Click the “Apply” button below to start your journey with us.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>4347921832</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4347921832/</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2025-11-29T01:35:43+00:00</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>«pytorch»: Artificial Intelligence Intern (Remote) - Taskify AI y más</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>2</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>EPAM is a leading global provider of digital platform engineering and development services. We are committed to having a positive impact on our customers, our employees, and our communities. We embrace a dynamic and inclusive culture. Here you will collaborate with multi-national teams, contribute to a myriad of innovative projects that deliver the most creative and cutting-edge solutions, and have an opportunity to continuously learn and grow. No matter where you are located, you will join a dedicated, creative, and diverse community that will help you discover your fullest potential.  Join our team as a Senior AI/Computer Vision Engineer to develop next-generation AI systems that analyze visual media and deliver hyper-personalized product recommendations.You will lead the integration of computer vision, semantic image understanding, and behavioral AI into scalable, intelligent pipelines. Apply now to contribute to innovative AI solutions that enhance client experiences. ResponsibilitiesDevelop and optimize CNN-based and transformer-based vision models for photo analysis and scoringDesign and prototype custom transformer architectures tailored to product creation needsBuild scalable pipelines for processing large volumes of image data and generating structured metadataIntegrate image intelligence with downstream applications such as search, ranking, and personalizationDevelop and deploy transformer-based ML models for personalized product recommendationsLead experimentation frameworks including A/B testing to improve recommendation relevance and conversionOperate and document the full ML model development and deployment stackCollaborate across teams to drive cross-functional technical initiatives from ideation to deliveryEnsure best practices in data management, model evaluation, explainability, and observability RequirementsExperience in software engineering with at least 3+ years in AI/ML-focused rolesDeep knowledge of computer vision techniques including CNNs, vision transformers, facial recognition, object detection, image classification, and image embeddingStrong experience with recommendation systems, collaborative filtering, deep learning for personalization, and transformer-based recommendation modelsProficiency in Python and relevant ML libraries such as PyTorch and TensorFlowExperience deploying ML models at scale using Docker, AWS, GCP, or similar platformsProven ability to lead cross-functional technical initiatives from ideation to deliveryStrong grasp of ML lifecycle best practices including data management, model evaluation, explainability, and observabilityMaster’s degree in Computer Science or related field, preferably with a math or physics backgroundEnglish proficiency at B2 level or higher Nice to haveHands-on experience with diffusion modelsExperience with graph neural networks (GNNs)Familiarity with reinforcement learning We offerInternational projects with top brandsWork with global teams of highly skilled, diverse peersHealthcare benefitsEmployee financial programsPaid time off and sick leaveUpskilling, reskilling and certification coursesUnlimited access to the LinkedIn Learning library and 22,000+ coursesGlobal career opportunitiesVolunteer and community involvement opportunitiesEPAM Employee GroupsAward-winning culture recognized by Glassdoor, Newsweek and LinkedIn</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>4347901958</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4347901958/</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2025-11-29T01:35:43+00:00</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>«pytorch»: Artificial Intelligence Intern (Remote) - Taskify AI y más</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>2</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Join our team as a Senior AI/Computer Vision Engineer to develop next-generation AI systems that analyze visual media and deliver hyper-personalized product recommendations.You will lead the integration of computer vision, semantic image understanding, and behavioral AI into scalable, intelligent pipelines. Apply now to contribute to innovative AI solutions that enhance client experiences. ResponsibilitiesDevelop and optimize CNN-based and transformer-based vision models for photo analysis and scoringDesign and prototype custom transformer architectures tailored to product creation needsBuild scalable pipelines for processing large volumes of image data and generating structured metadataIntegrate image intelligence with downstream applications such as search, ranking, and personalizationDevelop and deploy transformer-based ML models for personalized product recommendationsLead experimentation frameworks including A/B testing to improve recommendation relevance and conversionOperate and document the full ML model development and deployment stackCollaborate across teams to drive cross-functional technical initiatives from ideation to deliveryEnsure best practices in data management, model evaluation, explainability, and observability RequirementsExperience in software engineering with at least 3+ years in AI/ML-focused rolesDeep knowledge of computer vision techniques including CNNs, vision transformers, facial recognition, object detection, image classification, and image embeddingStrong experience with recommendation systems, collaborative filtering, deep learning for personalization, and transformer-based recommendation modelsProficiency in Python and relevant ML libraries such as PyTorch and TensorFlowExperience deploying ML models at scale using Docker, AWS, GCP, or similar platformsProven ability to lead cross-functional technical initiatives from ideation to deliveryStrong grasp of ML lifecycle best practices including data management, model evaluation, explainability, and observabilityMaster’s degree in Computer Science or related field, preferably with a math or physics backgroundEnglish proficiency at B2 level or higher Nice to haveHands-on experience with diffusion modelsExperience with graph neural networks (GNNs)Familiarity with reinforcement learning We offerInternational projects with top brandsWork with global teams of highly skilled, diverse peersHealthcare benefitsEmployee financial programsPaid time off and sick leaveUpskilling, reskilling and certification coursesUnlimited access to the LinkedIn Learning library and 22,000+ coursesGlobal career opportunitiesVolunteer and community involvement opportunitiesEPAM Employee GroupsAward-winning culture recognized by Glassdoor, Newsweek and LinkedIn</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>4347941917</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4347941917/</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2025-11-28T23:35:01+00:00</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>«Computer vision»: Senior AI/ML Engineer (Global Remote) - vidIQ y más</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>1</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Join us as a Chief AI/Computer Vision Engineer leading the development of cutting-edge AI technologies focused on analyzing visual data and enhancing personalized client recommendations.You will oversee the deployment of computer vision, semantic image interpretation, and behavioral AI into scalable, intelligent platforms. Take this opportunity to drive innovative AI solutions that improve client interactions and deliver significant impact. ResponsibilitiesDevelop and refine CNN and transformer-based vision algorithms for image analysis and scoringCreate and implement specialized transformer frameworks for product innovationConstruct reliable pipelines to process large-scale image datasets and generate organized metadataIncorporate visual intelligence into functionalities such as search, ranking, and personalizationDeploy transformer-driven models to deliver customized product suggestionsLead experimentation including A/B testing to enhance recommendation performance and conversion metricsOversee and document the entire ML model lifecycle from design to deploymentCoordinate with multidisciplinary teams to direct technical projects from ideation to completionMaintain compliance with best practices in data management, model validation, explainability, and system monitoring RequirementsExtensive software engineering background with more than 7 years in AI/ML specialtiesExpertise in computer vision techniques including CNNs, vision transformers, facial recognition, object detection, image classification, and embeddingsStrong experience in recommendation algorithms, collaborative filtering, deep learning personalization, and transformer-based methodsProficiency in Python alongside ML frameworks like PyTorch and TensorFlowExperience in scaling machine learning solutions using Docker, AWS, GCP, or similar servicesProven leadership in managing cross-functional technical initiatives from start to finishThorough knowledge of ML lifecycle best practices covering data handling, model evaluation, explainability, and observabilityMaster’s degree in Computer Science or related field with emphasis on mathematics or physicsEnglish proficiency at B2 level or higher Nice to haveHands-on experience with diffusion modelsFamiliarity with graph neural networks (GNNs)Understanding of reinforcement learning principles We offerInternational projects with top brandsWork with global teams of highly skilled, diverse peersHealthcare benefitsEmployee financial programsPaid time off and sick leaveUpskilling, reskilling and certification coursesUnlimited access to the LinkedIn Learning library and 22,000+ coursesGlobal career opportunitiesVolunteer and community involvement opportunitiesEPAM Employee GroupsAward-winning culture recognized by Glassdoor, Newsweek and LinkedIn</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>4338777813</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4338777813/</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2025-11-28T19:37:49+00:00</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>«LLM»: Artificial Intelligence Intern (Remote) - Taskify AI y más</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>2</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>About Jobgether
+Jobgether is a pioneering HR Tech startup, operating entirely remotely, and leading the revolution in the world of work. As the largest job search engine designed exclusively for remote workers, we believe that flexibility is the cornerstone of the future of work. Our mission is to empower individuals to discover opportunities that align seamlessly with their unique lifestyles.
+On the Jobgether platform, companies can showcase their commitment to flexibility and remote work policies, attracting top-tier talent from across the globe. Our diverse team of individuals is distributed worldwide, embodying the true spirit of remote work. We prioritize accountability, valuing outcomes above all else. At Jobgether, it's not about where you work; it's about what you achieve.
+What will you do?
+Join our dynamic Content and Data team as a Senior Data Engineer, specializing in data enrichment. In this role, you'll be pivotal in developing and enhancing our data processes to improve the quality and relevance of our job listings. Your expertise in machine learning and natural language processing will help us better identify job seekers' needs and match them with suitable opportunities.
+Key Responsibilities
+Data Enrichment Processes: Design and implement strategies for enriching datasets, enhancing the quality of information available for analysis and decision-makingSupport ML Workflows: Implement, support and manage ML algorithms for improved data processing and insights, focusing on utilizing existing models rather than building new onesNatural Language Processing (NLP): Utilize NLP techniques to process and analyze textual data, enabling better understanding and categorization of job listings and candidate profilesNon-Relational Database Management: Develop and maintain non-relational database systems (e.g., MongoDB, NoSQL) to store enriched data efficientlyData Pipeline Management: Build, operate, and optimize data pipelines to ensure seamless data ingestion, processing, and delivery across various systemsCollaboration &amp; Documentation: Work closely with product and engineering teams to understand data needs, document workflows, and maintain comprehensive documentation of data enrichment processes
+Requirements
+Mandatory Qualifications 
+Educational Background: Bachelor's or Master's degree in Computer Science, Engineering, or a related technical fieldExperience: At least 3 years of relevant experience in data engineering, with a strong focus on data enrichment processes and machine learning applicationsLanguage Skills: Fluency in both English and SpanishDatabase Knowledge: Experience with non-relational databases (e.g., MongoDB, NoSQL) and familiarity with relational databasesNatural Language Processing: Practical experience with NLP techniques and frameworksProgramming Skills: Proficiency in Python with a solid understanding of data manipulation libraries
+Preferred Qualifications
+Machine Learning Experience: Some experience in working with machine learning algorithms (e.g., scikit-learn, TensorFlow) and understanding their application in data engineering contextsCloud Platforms: Experience with cloud services such as AWS for data storage and processingProblem-Solving Skills: Strong analytical and troubleshooting abilities to optimize data flows and processesCommunication Skills: Excellent verbal and written communication skills, with the ability to explain technical concepts to non-technical stakeholders
+Benefits
+Remote Work Culture: Enjoy the flexibility of working from anywhere in the worldInnovative Environment: Be part of a forward-thinking team that shapes the future of remote workProfessional Growth: Opportunity to work on cutting-edge technologies and challenging projects that drive real impactDiverse Team: Collaborate with a global team of passionate professionals</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>4339199661</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4339199661/</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2025-11-28T19:37:49+00:00</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>«LLM»: Artificial Intelligence Intern (Remote) - Taskify AI y más</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>About Aios Medical
+Our overarching mission is to accelerate the mass-market adoption of consumer biotech products so every human can live at least 100 healthy years. Our immediate focus is excess bodyweight. We are increasing the accessibility of GLP-1 medications to accelerate their take-up to help solve obesity worldwide.
+To do that, we’re building an AI-powered clinical operating system: ClinicOS. ClinicOS makes it effortless for consumer brands to easily offer direct-to-patient healthcare, globally. We work with external Brand Partners, as well as using this infrastructure to scale our own internal consumer healthcare brands.
+Since we launched Fella Health in the US in June 2021, Fella has positioned itself as no-nonsense weight loss for busy bigger guys. Today, we operate multiple brands across the US &amp; UK — our two biggest are Fella Health (US &amp; UK) &amp; Bolt Pharmacy (UK).
+Our infrastructure will have served 100 million patients worldwide by 2035. We’ll then use that direct-to-patient infrastructure to serve next-gen biotech products at-scale to increase the proportion of humans living at least 100 healthy years.
+In so doing, we’ll become the world’s first trillion dollar healthcare company.
+How far along are we?
+We’ve grown &gt;2000x since Aug 2021, &gt;200x since Aug 2022, &gt;20x since Aug 2023. We’re &gt;$50M/yr revenue. We’ve been cashflow positive since June 2023. We’re &gt;10,000 customers with high NPS.
+We’re a young startup and we’re just getting started. This is still Day 1 and all our work is ahead of us.
+We're backed by top healthcare &amp; consumer investors:
+Y CombinatorGlobal Founders Capital — backed Facebook, Slack, LinkedIn, Revolut, Rocket InternetAngelList Early Stage Fund (backed by Naval Ravikant)BrandProject (venture-builder behind 2 unicorns)The founders of Indeed, Curative (unicorn), Alan (unicorn), Kaia Health (&gt;$300mil valuation), Vouch Insurance (&gt;$500mil valuation), Not Boring (Packy McCormick)
+You can read more about working with us here: Working at Aios Medical https://fella.notion.site/working-at-aios-medical
+Being an AI Engineer at Aios Medical
+As AI Engineering Lead at Aios Medical, you'll architect our AI-first future. You'll own the entire AI strategy across our ClinicOS platform, transforming how millions access healthcare through intelligent automation.
+You'll work directly with me, Gzim (our Head of Engineering), our CEO (Richie Cartwright) and the rest of the AI engineering team to build AI systems that deliver world-class healthcare at software scale.
+This role combines deep technical expertise with strategic vision. You'll ship production AI while defining our long-term roadmap. You'll automate clinical workflows, build AI assistants that enhance our providers, and create systems that scale to 100 million patients.
+If you're excited by making healthcare radically more accessible through AI, can build LLM reliable LLM powered apps, and want your work to directly impact people - this role is for you.
+This is a full-time, fully remote role. You must thrive in intense, high-velocity environments. This will be the most impactful work of your career.
+Key Responsibilities
+You'll build and lead our AI systems across the entire company. We need someone who can ship production AI while keeping it simple, reliable, and actually useful. You'll work across clinical, growth, and operations - wherever AI can make us 10x better
+Core AI infrastructure: Build a model-agnostic AI platform that lets us switch between OpenAI, Anthropic, and open-source models seamlessly. Set up robust A/B testing to optimize performance and costs. Create intelligent routing that matches tasks to the right models. Implement comprehensive monitoring and ensure high reliability with proper fallbacks. AI-powered clinical care: Drive AI adoption across our clinical operating system. Find the manual processes that slow us down and automate them intelligently. Create AI assistants that make our clinical team more effective. Measure impact rigorously - every feature must demonstrably improve patient outcomes and operational efficiency. AI-powered growth: Leverage AI to transform our conversion funnel from personalized outreach sequences to AI sales agents that close deals. Source new tools like AI video generation, voice synthesis, and behavioral prediction models and adapt them to our specific needs &amp; infrastructure. Target human-level conversion rates while removing all manual touch-points. Data &amp; experimentation: Be genuinely obsessed with data - it should be your default way of thinking. Study our datasets to identify AI opportunities, build lightweight MVPs in days not months, and run controlled tests with clear KPIs. Create feedback loops that tell us within weeks if something works. Scale winners, kill losers, and always let data drive decisions over intuition. 
+Need to Have
+Have 6+ years of highly relevant experience in software engineering with a focus on AI and machine learningHave strong experience building production applications powered by LLMs. Prompt and context engineering, RAG systems, model fine-tuning and evaluation frameworks. Possess strong programming skills using Typescript and/or PythonHave strong experience designing and building modern, customer-facing API’sAre comfortable building user-friendly interfaces using React or similar frameworksHave experience leading engineering team members
+Nice to Have
+Experience with AI/ML infrastructure including vector databases, embedding models, and orchestration frameworksHave built evaluation and monitoring systems for LLM applications in productionHave experience building large-scale data pipelines and distributed systemsHave experience with cloud platforms (AWS) at enterprise scaleHave a CS degree or equivalent experienceHave open source contributions
+Our cultural standards
+These are the core cultural standards to which we hold ourselves &amp; our team-members at Fella:
+These are the core cultural standards to which we hold ourselves &amp; our team-members:
+Belief in the mission: We will have served 100 million patients by the end of 2035 and we transform the life of most patients who join. We have a lot of work to do. We are obsessed with our patients and are dedicated to the mission. Unwavering integrity: We are at the frontier, so we often live in ambiguity with no trodden path. When we can’t look to others for guidance, we must maintain impeccable ethics and unwavering integrity. Only the paranoid survive: Bad sh*t is coming. By joining us, you’re choosing to sail straight towards the storms with unhesitating conviction. However much we’ve already done, however far we’ve already come — it’s still Day 1 and all our work is ahead of us. If we’re average we fail: We are only interested in “insanely great”, a focus on the quality of our execution that in everyday life would be considered pathological. We have a dedication to excellence and reject incompetence. Commitment to candor: That which can be destroyed by the truth should be. You get full transparency from the company and the company expects full transparency from you. We never say anything about someone that we wouldn’t say to them directly. We give feedback with love and do not need to protect people from fleeting physical sensations. A maniacal sense of urgency: We execute at an intensity that most people think is impossible. Speed is critical and we need things done yesterday. We all work very hard and in such a competitive world there really is no other way to win. Enduring frugality: We are frugal. We hate being wasteful and we are anti-luxury. A culture of cheapness keeps us young. We spend our cash wisely &amp; carefully — in a way that would make our grandmas proud. Bulldozing barriers: The world is malleable and we shape it. We truly believe this and act accordingly. We are relentlessly resourceful and are at the mercy of no-one but ourselves. You’ll be shocked how capable you are and how much you can achieve. Keep your head down: We’re boring people doing exciting work. We don’t chase short-term status — we ignore short-term dopamine hits and focus on what matters. Outsiders will underestimate us and we revel in that. The power of focus: We live in a world of power laws and we cannot overestimate the unimportance of practically everything. Know your One Thing, and nail it. 
+🎯 “You just build a fing amazing experience. Make each step amazing. Make every decision in the long term interest of the customer. Give the customer massively more value than you take.”*
+Compensation &amp; Benefits
+Compensation: $80k-$120k/year (cash comp + equity)Vacation: generous time-off with a yearly minimumRemote: our team is fully distributed across the world and functions fully remotelyHealthcare: comprehensive medical insuranceProfessional development: budget for books, courses, coaching ($600/yr)Personal wellness: budget for gym, health apps ($600/yr)Equipment: WFH gear provided as needed, inc Macbook (&gt;$1000)What are we missing? We're still early so you get to shape our culture. 
+How to apply
+Apply on Ashby or the platform you are in. Email lorena+hiring@joinfella.com with:ResumeLinkedInGithub
+Recruiter note
+this job description is still in progress, but we want to have it live and visible to candidates as soon as possible. until August 29th, we may make some edits to the job description, but none of the core requirements will change. we expect to start reviewing applications by september 1st and begin interviews by september 8th.
+any questions about the process, please email me at: lorena+hiring@joinfella.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>4321220058</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4321220058/</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2025-11-28T13:38:29+00:00</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Artificial Intelligence Intern (Remote) - Taskify AI y más</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>9</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Job Description
+Job Description
+This is a great opportunity to supplement your income while pursuing full-time or longer-term opportunities — all while contributing your Data Science expertise to the development of new AI models!
+Our client has already hired over 1,000 Braintrust talent and intends to hire hundreds more.Many Braintrust data experts earn over $12,000 per month!You’ll have the flexibility to work as much or as little as you choose — 20 hrs/week is suggested, but not a limit. You can start working in as little as 48 hours.Your final hourly rate will be chosen by Outlier AI and determined by your location.
+What To Expect
+If qualified, you’ll receive an email with instructions to proceed with the assessment. Once the assessment has been successfully passed, you'll get access to the queue.
+Required Qualifications
+Strong experience in Data Science and statistical modelingProficiency in Python (strongly preferred) and familiarity with common data science libraries (e.g., pandas, NumPy, scikit-learn, PyTorch, TensorFlow)Ability to analyze, interpret, and explain complex data problems in clear EnglishExperience designing and evaluating experiments, metrics, and model performance
+Preferred Qualifications
+Bachelor’s and/or Master’s degree in Data Science, Computer Science, Statistics, or a related field3+ years of experience as a Data Scientist, ideally at a blue-chip or top technology companyFamiliarity with machine learning engineering workflows, including data preprocessing, model training, validation, and deploymentGraduate-level education or research experience in data analysis, applied ML, or AI (nice to have)
+What You’ll Be Working On
+Our client has partnered with organizations to train AI large language and data models, improving how cutting-edge generative AI systems understand, analyze, and generate insights from data.
+Example projects may include:
+Evaluating the accuracy and reasoning quality of AI-generated data analyses and modelsReviewing and critiquing machine learning model outputs and predictionsWriting and explaining Python-based analytical workflows and ML solutionsDesigning and assessing statistical experiments or simulation resultsProducing clear, human-readable explanations of data-driven methodologies and outcomes
+💡 No prior experience with AI training is required!
+You’ll receive detailed instructions and guidelines after completing the application and verification process.
+Note: Outlier AI is partnering with Remotasks for this opportunity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>4339259928</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4339259928/</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2025-11-28T13:38:29+00:00</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Artificial Intelligence Intern (Remote) - Taskify AI y más</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>8</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Location: Remote (Global)
+Type: Full-time
+Company: Yotta Labs
+Apply: careers@yottalabs.ai
+🧠 About Yotta Labs
+Yotta Labs is pioneering the development of a Decentralized Operating System (DeOS) for AI workload orchestration at a planetary scale. Our mission is to democratize access to AI resources by aggregating geo-distributed GPUs, enabling high-performance computing for AI training and inference on a wide spectrum of hardware—from commodity to high-end GPUs. Our platform supports major large language models (LLMs) and offers customizable solutions for new models, facilitating elastic and efficient AI development.
+🛠️ Role Overview
+We are seeking a Research Engineer with a passion for decentralized systems and AI infrastructure. In this role, you will contribute to the development of our DeOS framework, focusing on optimizing AI workloads across a heterogeneous network of GPUs. Your work will directly impact the scalability and performance of AI applications deployed on our platform.
+🎯 Responsibilities
+Design and implement components of the DeOS for efficient AI workload orchestration. Develop and optimize software for managing geo-distributed, heterogeneous GPU resources. Collaborate with cross-functional teams to integrate support for various LLMs and AI models. Ensure high availability and fault tolerance in decentralized computing environments. Contribute to open-source projects and engage with the developer community. 
+✅ Qualifications
+Proficiency in AI programming languages such as PythonExperience with distributed systems, cloud computing, or blockchain technologies. Familiarity with AI frameworks and tools (e.g., PyTorch, Ray). Strong problem-solving skills and the ability to work in a collaborative, remote environment. A background in computer science, engineering, or a related field is preferred. 
+🌟 Preferred Experience
+Contributions to open-source projects in AI or decentralized systems. Experience with GPU programming and optimization. Familiarity with frameworks and libraries like vLLM, SGLang, and Verl. 
+🌐 Why Join Yotta Labs?
+Be part of a visionary team aiming to redefine AI infrastructure. Work on cutting-edge technologies that bridge AI and decentralized computing. Collaborate with experts from leading institutions and tech companies. Enjoy a flexible, remote work environment that values innovation and autonomy. 
+📩 How to Apply
+Interested candidates should apply directly or send their resume and a brief cover letter to careers@yottalabs.ai. Please include links to any relevant projects or contributions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>4339148908</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4339148908/</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2025-11-28T03:35:12+00:00</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Junior AI Engineer (LATAM) - micro1 y más</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>9</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Job Title: Junior AI Engineer
+Job Type: Full-time
+Location: LATAM (Remote)
+Experience: 1-2 Years of Relevant Experience
+Job Summary:Join our team as a Junior AI Engineer and help us push the boundaries of Generative AI applications. You’ll collaborate with passionate colleagues to design, build, and scale advanced GenAI systems that power innovative solutions. This is an exciting opportunity for a hands-on engineer eager to grow their skills while building impactful, production-grade AI features.
+Responsibilities:
+Contribute to the development of GenAI applications such as answering engines, entity extraction tools, and summarization systems.Assist in building and debugging REST APIs using Python frameworks like FastAPI or Flask.Support RAG (Retrieval-Augmented Generation) pipelines through tasks like data ingestion, embedding creation, and prompt testing.Work with vector databases (e.g., Pinecone, FAISS) for data storage and retrieval.Experiment with prompt templates and LLMs (OpenAI, Mistral, etc.) under guidance from senior engineers.Collaborate with cross-functional teams to integrate GenAI modules into products.Learn cloud deployment basics using AWS or Azure and assist in model or API deployment.Stay curious about LangChain, LangGraph, and emerging AI frameworks.
+Must-have Skills:
+Python: Proficient with the language. Able to write, test, and debug code.API Development: Experience with FastAPI, Flask, or equivalent.GenAI Basics: Exposure to LLMs, prompt engineering, and simple RAG use cases.Cloud/DevOps: Familiarity with one major cloud platform (AWS or Azure).Version Control: Git fundamentals and collaborative development.
+Good-to-have Skills:
+Familiarity with LangChain or LangGraph.Experience working with embeddings and vector databases.Basic understanding of CI/CD pipelines and containerization (Docker).Curiosity about agents and autonomous AI systems.
+Our interview process is streamlined with a single step: an AI interview. If you perform well, our hiring managers will review your AI interview recording and may extend an offer directly based on that review.</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>4338959441</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4338959441/</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2025-11-28T03:35:12+00:00</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Junior AI Engineer (LATAM) - micro1 y más</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>4</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>¡En Scanntech nos encontramos en búsqueda de AI Engineer para sumarse a nuestro equipo!
+Tendrá la oportunidad de desarrollar y optimizar pipelines completos para el entrenamiento y despliegue de modelos de Machine Learning tradicional y Deep Learning. Además, podrá contribuir al diseño de sistemas multiagente basados en LLMs, aprovechando tecnologías de vanguardia.
+Responsabilidades:Diseñar, desarrollar y optimizar modelos de machine learning para resolver problemas complejos, asegurando eficiencia, escalabilidad y mantenibilidad en los pipelines de entrenamiento y despliegue.Implementar y mantener sistemas multiagentes que colaboren o compitan entre sí para simular comportamientos complejos, utilizando arquitecturas modernas y técnicas avanzadas de programación distribuida o asincrónica.Escribir documentación clara, estructurada y útil del código y las arquitecturas desarrolladas, promoviendo buenas prácticas de desarrollo y facilitando el trabajo en equipo y la escalabilidad del proyecto.
+Competencias excluyentes:Al menos 2 años de experiencia en áreas de desarrollo de modelos de ML/Sistemas de agentes.Al menos 2 años experiencia desarrollando en Python.
+Competencias deseables: Conocimiento de:LangChain y/o LangGraphMLFLow o similarAWS o similarPracticas de MLOPSAPIsGitSQL
+Te proponemos:Excelente Clima Organizacional: estamos entre las mejores GPTW, entre las mejores para trabajar para Millennials y entre las mejores para trabajar para Mujeres.Capacitaciones internas (Universidad Scanntech).Capacitación en idiomas (inglés y portugués) 100% gratis para colaboradores y dentro del horario laboral.Integración de equipos de trabajo con personas de diversos países.Días por estudio desde el ingreso y más que lo previsto por ley.Part of day para cumpleaños.¡Y mucho más!
+Somos una empresa con más de 30 años en el mercado, más de mil colaboradores, presente en diversos países de América Latina. Sumate a escribir un nuevo capítulo en el mercado basado en el concepto de data driven.
+Innovar está en nuestro ADN y todos trabajamos para la Excelencia hacia nuestros clientes y de nuestro clima organizacional.
+Excelencia, Innovación, Trabajo en Equipo, Respeto, Orientación a Resultados y Compromiso son nuestros VALORES y orientan nuestras decisiones.
+En Scanntech destacamos el RESPETO por las personas. Ofrecemos un ambiente justo, igualitario, buscando inclusión y diversidad en nuestros equipos, incorporando personas independientemente de su género, identidad de género, raza, edad, etnia, nacionalidad, condición física, orientación sexual, opinión política o religiosa.
+¡Nos importa tu actitud y ganas de agregar valor!</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>4339009100</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4339009100/</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2025-11-28T03:35:12+00:00</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Junior AI Engineer (LATAM) - micro1 y más</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>3</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Job DescriptionJob Title: Mid-level AI Engineer
+Job Type: Full-time
+Location: LATAM (Remote)
+Experience: 2-4 Years of Relevant Experience
+Job Summary:Join our team as a Mid-level AI Engineer and help drive the next generation of GenAI-powered applications. You will architect robust solutions, collaborating closely with fellow engineers, product managers, and designers to turn cutting-edge research into real-world impact. If you thrive in a fast-paced, innovation-driven environment and are passionate about clear communication, this is the opportunity for you.
+Responsibilities:
+Build GenAI applications such as question-answering systems, content generation tools, and extraction pipelines.Design, implement, and optimize RAG pipelines end-to-end: ingestion, chunking, embedding, prompt templating, evaluation, and deployment.Develop robust APIs using Python frameworks (FastAPI preferred).Work with multiple LLMs (OpenAI, Mistral, Anthropic, etc.) and evaluate model performance for different use cases.Use LangChain, LangGraph, or LangSmith to orchestrate and monitor GenAI workflows.Deploy applications on AWS or Azure and implement CI/CD for continuous improvement.Collaborate with data engineers and product managers to translate technical designs into scalable solutions.Participate in system design discussions, contributing ideas for performance and maintainability.
+Must-have Skills:
+Python: Strong experience with the language. Able to design clean, modular, production-grade code.API Development: Proven experience building and maintaining APIs (FastAPI/Flask).GenAI Stack: LangChain, LangGraph, LangSmith; multiple LLM APIs (OpenAI, Mistral, etc.).RAG Lifecycle: Data ingestion, prompt templating (Jinja), evaluation/re-ranking, deployment.Cloud/DevOps: Hands-on with AWS or Azure (deployments, monitoring).
+Good-to-have Skills:
+Understanding of distributed systems and scaling strategies.Experience with containerization (Docker) and orchestration (Kubernetes).Familiarity with Guardrails AI or Responsible AI frameworks.Basic UI integration knowledge (React, optional).
+Our interview process is streamlined with a single step: an AI interview. If you perform well, our hiring managers will review your AI interview recording and may extend an offer directly based on that review.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>4339293648</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4339293648/</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2025-11-28T03:35:12+00:00</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Junior AI Engineer (LATAM) - micro1 y más</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>2</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>This position is posted by Jobgether on behalf of a partner company. We are currently looking for a Senior AI Inference Engineer in Latin America.
+In this role, you will lead the design and deployment of advanced AI inference systems for high-profile clients in Media, Entertainment, Gaming, and Sports. You will be responsible for translating complex, ambiguous business problems into robust, real-time AI architectures capable of interpreting and reasoning about video and multi-modal content. Working across the full project lifecycle—from early discovery and pre-sales to architecture, implementation, and optimization—you will partner with technical teams and clients to deliver scalable, high-performance solutions on modern GPU and cloud infrastructure. This position requires hands-on expertise, innovation, and the ability to communicate complex technical concepts clearly to diverse stakeholders.
+AccountabilitiesArchitect, implement, and optimize end-to-end AI inference services and agentic pipelines using Python.Design autonomous AI agents that can interpret, reason about, and act on video and multi-modal inputs.Integrate Vision Language Models (e.g., GPT-4o, Gemini Pro Vision, LLaVA) into production-grade workflows.Utilize LLM/agent orchestration frameworks (LangGraph, AutoGen, Semantic Kernel, etc.) to manage complex visual AI tasks.Deploy and operate AI services on Kubernetes or similar platforms, ensuring reliability and scalability under heavy workloads.Architect distributed systems on AWS, balancing performance, cost, and resilience.Optimize workloads for modern NVIDIA GPU architectures (Ampere, Hopper, Blackwell) focusing on real-time, high-throughput media applications.Produce clear architecture diagrams and technical documentation for both technical and non-technical audiences.Provide technical leadership and guidance to project teams to ensure fidelity to architectural designs and solution goals.(Optional) Work with video tooling such as FFmpeg, GStreamer, NVENC/NVDEC, and modern codecs, or deploy AI to edge/hybrid environments.RequirementsExtensive professional experience designing and shipping AI/ML systems in production, with strong Python expertise.Proven track record of taking AI/ML models from prototype to robust, low-latency inference services.Hands-on experience building agentic systems, especially with computer vision or multi-modal inputs.Familiarity with Vision Language Model integration and orchestration frameworks for multi-modal tasks.Strong practical experience with Kubernetes and cloud-native distributed architectures (AWS preferred).Knowledge of modern NVIDIA GPU architectures and optimization techniques.Product-oriented mindset: able to align technical solutions with business outcomes and ROI.Excellent communication skills for collaborating with technical teams, clients, and C-level stakeholders.Self-starter, able to work independently in ambiguous or rapidly evolving environments.Nice-to-have: experience with FFmpeg, GStreamer, NVENC/NVDEC, OpenShift, NVIDIA Holoscan, Mojo, or AI deployment on edge/hybrid/on-prem environments.BenefitsCompetitive compensation package.Fully remote work within North or South America.Exposure to high-impact projects with leading global clients in Media, Entertainment, Gaming, and Sports.Opportunity to work with cutting-edge AI technologies and modern GPU/cloud infrastructure.Professional growth through complex, real-world problem solving.Inclusive and diverse work environment.
+Why Apply Through Jobgether?
+We use an AI-powered matching process to ensure your application is reviewed quickly, objectively, and fairly against the role's core requirements. Our system identifies the top-fitting candidates, and this shortlist is then shared directly with the hiring company. The final decision and next steps (interviews, assessments) are managed by their internal team.
+We appreciate your interest and wish you the best!
+Data Privacy Notice: By submitting your application, you acknowledge that Jobgether will process your personal data to evaluate your candidacy and share relevant information with the hiring employer. This processing is based on legitimate interest and pre-contractual measures under applicable data protection laws (including GDPR). You may exercise your rights (access, rectification, erasure, objection) at any time.
+We may use artificial intelligence (AI) tools to support parts of the hiring process, such as reviewing applications, analyzing resumes, or assessing responses. These tools assist our recruitment team but do not replace human judgment. Final hiring decisions are ultimately made by humans. If you would like more information about how your data is processed, please contact us.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>4324623077</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4324623077/</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2025-11-28T03:35:12+00:00</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Junior AI Engineer (LATAM) - micro1 y más</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>RemoteSenior Machine Learning Engineer$4,264 - $9,645 / USD month
+The role &amp; the clientWe build end-to-end AI systems, core microservices, and infrastructures by leveraging cutting-edge technologies to impact millions with personalized user experiences everyday.We are looking for an outstanding machine learning engineer to join our team! The role will provide an opportunity to work on large scale machine learning to improve the podcast creation experience at Zencastr.
+You’ll join a team of hardworking engineers that are passionate about understanding what drives users’ long-term happiness with Zencastr, and how our recommendations and content affects that. As an integral part of the squad, you will collaborate with research scientists, data scientists and other engineers in prototyping and productizing brand-new ML at the intersection of speech processing and long-term user satisfaction.
+What You'll Do..Design, research and develop state-of-the-art machine learning applications and algorithms to improve the lives of podcasters and podcast listeners around the worldCollaborate with engineering partners and colleagues in large multi-functional efforts to build new product features that advise and enrich Zencastr’s various ML services.Drive forward audio and text capabilities within the ML teamWork with some of the brightest minds in signal processing
+If This Describes You..A postgraduate degree in Machine Learning, Mathematics, Computer Science, or a related quantitative field5 + years experience in Python3+ years experience in machine learning research, with a focus on speech3+ years experience training or deploying neural networksSignificant experience with machine learning libraries like PyTorch, Tensorflow, Scikit-LearnExperience with building and operating production-ready ML systemsAbility to lead design and implementation of major software components, systems, and featuresYou enjoy quickly building model prototypesExperience with cloud technologies (Google Cloud, AWS, Modal)You are a self-starter who drives your own projects and builds positive relationships with partners and colleagues to solve big multi-functional efforts from start to finish. You are able to succeed with minimal mentorship and process.
+Bonus points if you have:Publications in peer-reviewed journals from a related fieldExperience with modern speech processing frameworksGood dev ops experienceAdvanced DSP experienceMongoDB or SQL experienceExperience with unit, integration, and load testingExperience building APIsExperience with Docker containers, Implementing Docker Containers, Container ClusteringExperience with container orchestration technology such as Kubernetes a big plus
+We are flexible! For the right candidate we ask: What do you need to do your best work?</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>4324830669</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4324830669/</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2025-11-28T03:35:12+00:00</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Junior AI Engineer (LATAM) - micro1 y más</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>3</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>At BairesDev®, we've been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the world's Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, you're taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Artificial Intelligence + Python Engineer at BairesDev
+We are seeking an Artificial Intelligence + Python Engineer to develop and deploy intelligent systems and machine learning solutions. You'll combine strong Python programming skills with AI expertise to build innovative applications that solve complex problems. This role offers the opportunity to work on cutting-edge AI projects while delivering scalable, production-ready solutions.
+What You'll Do:
+- Design and develop AI models and machine learning solutions using Python.- Build and train deep learning models using TensorFlow or PyTorch.- Implement AI algorithms for various applications and use cases.- Optimize model performance and ensure scalability in production environments.- Collaborate with data scientists and engineers to deploy AI solutions.- Stay current with emerging AI technologies and best practices.
+What we are looking for:
+- 3+ years of Python development experience with focus on AI/ML.- Strong knowledge of machine learning algorithms and frameworks.- Experience with TensorFlow, PyTorch, or similar deep learning frameworks.- Understanding of AI model development lifecycle.- Knowledge of data preprocessing and feature engineering.- Experience deploying AI models to production.- Advanced level of English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).- Excellent compensation in USD or your local currency if preferred- Hardware and software setup for you to work from home.- Flexible hours: create your own schedule.- Paid parental leaves, vacations, and national holidays.- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>4339009244</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4339009244/</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2025-11-28T01:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>«NLP»: Junior AI Engineer (LATAM) - micro1 y más</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>9</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Job DescriptionJob Title: Junior Data Science Associate Consultant
+Job Type: Full-tim
+e
+Location: Remote in LAT
+AM
+Job SummaryZS's Insights &amp; Analytics group partners with clients to design and deliver solutions to help them tackle a broad range of business challenges. Our teams work on multiple projects simultaneously, leveraging advanced data analytics and problem-solving techniques. Our recommendations and solutions are based on rigorous research and analysis underpinned by deep expertise and thought leadersh
+ip.
+Key ResponsibilitiesSupport the development and testing of analytical and statistical models under senior guidance.Apply hypothesis testing, regression, and simple machine learning methods to solve structured data problems.Clean, transform, and visualize datasets using Python and basic BI tools.Assist in feature engineering, model validation, and documentation of analytical workflows.Collaborate with senior consultants to prepare reports and dashboards for client presentations.Explore and document emerging data sources and technologies relevant to ongoing proje
+cts.
+Required Skills and QualificationsBachelor’s or Master’s in Computer Science, Statistics, Data Science, or a related quantitative field.1–2 years of experience in data analytics or applied statistics.Proficiency in Python or R for data processing and visualization.Understanding of machine learning fundamentals, data wrangling, and exploratory analysis.Familiarity with SQL and basic data pipelines.Exposure to cloud environments (AWS or Azure) and Git version control.Strong analytical thinking and eagerness to learn from senior men
+tors.
+Preferred QualificationsExperience fine-tuning generative models and integrating classic AI techniques.Prior leadership experience and a record of mentoring junior colleagues.Domain expertise in healthcare, transportation, technology, insurance, or related se
+ctors.
+Our interview process is streamlined with a single step: an AI interview. If you perform well, our hiring managers will review your AI interview recording and may extend an offer directly based on that
+ review</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>4324891943</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4324891943/</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2025-11-28T01:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>«NLP»: Junior AI Engineer (LATAM) - micro1 y más</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>1</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Job Description
+Contract-to-hirePartial timezone overlap: PST 6am-12pm (flexible)
+We are seeking a Senior AI Systems &amp; Time-Series Engineer with deep expertise in probabilistic modeling, time-series forecasting, and modern AI architectures such as JEPA and reinforcement learning. This role is ideal for someone who thrives in noisy, high-uncertainty domains such as finance or space operations and can drive production-grade deployment of AI systems. You will work on a small, high-ownership team focused on building real, end-to-end systems — not just experiments. Remote-friendly, with significant overlap in US Eastern time preferred.
+Core Mathematical &amp; Modeling Skills
+Deep probability theory and statisticsStrong time-series experience in noisy, high-uncertainty domains (finance/crypto strongly preferred; space or industrial operations also valued)Comfortable with uncertainty quantification, false positives, noisy signals, proper evaluation metrics
+Methodologies &amp; Architectures
+Hands-on building and training of:Joint Embedding Predictive Architectures (JEPA-style)Reinforcement Learning (offline RL, Decision Transformers, etc.)Modern transformers for sequence/decision modelingBayesian/probabilistic methods and uncertainty estimation experienceExplicitly looking for real modeling experience, not just “calling someone else’s LLM API”
+Systems, Deployment &amp; Data Pipelines
+Containerized model deployment and orchestration (Singularity, Apptainer, multi-node)Building and maintaining large-scale training/inference pipelinesExperience with HPC/supercomputing environments (job submission, large datasets, node-hour scaling) is a strong plus
+Application Domains
+Trading / financial time-seriesSpace operations and industrial facility monitoringHierarchical agentic systems and workflow automation
+General Profile
+Ships production-grade systems, not just research notebooksCan produce and present tangible evidence of progress (plots, graphs, statistics, MLflow dashboards, etc.) to highly technical stakeholdersSmall team, high ownership, remote-friendly (significant US Eastern time overlap)</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>4339382786</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4339382786/</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2025-11-27T17:35:47+00:00</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Junior AI Engineer (LATAM) - micro1 y más</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>3</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>At Beradavi Solution, we are looking for our new AI Developer Engineer, located in Colombia - 100% Remote ✨
+Are you ready to transform business data into high-impact decisions using the power of Artificial Intelligence? At Beradavi Solution, we are looking for a highly skilled AI Developer Engineer with a passion for Machine Learning, Deep Learning, and innovation. If you have 3 years of solid experience and an expert command of Python, we want to hear from you!
+✨ What You'll Do:
+Design, develop, and implement end-to-end Machine Learning (ML) and Deep Learning (DL) models.Integrate AI solutions into our core products and services,.Optimize and scale AI models in production environments, ensuring high performance and reliability.Collaborate closely with product and data science teams to define the technical and strategic requirements of AI solutions.Stay up-to-date with the latest AI trends and propose new technologies to continuously improve our systems.
+🎯 What You'll Need (Key Requirements):
+3+ years of professional experience developing and implementing Artificial Intelligence/Machine Learning solutions.Expert proficiency in Python and its essential AI libraries (e.g., TensorFlow, PyTorch, Scikit-learn, Pandas).Business English (C1/B2 or Native): The ability to communicate fluently and participate effectively in technical discussions. This is a mandatory requirement.Experience in the full ML lifecycle (MLOps), including training, deployment, and monitoring models in the cloud (AWS, Azure, or GCP).Strong foundation in mathematics, statistics, and Machine Learning algorithms.
+Don't miss the chance to be part of the future of AI at Beradavi Solution!#ArtificialIntelligence #MachineLearning #Python #AIDeveloper #AIEngineer #LinkedInJobs #RemoteWork [Add other relevant hashtags]</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>4339170097</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4339170097/</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2025-11-27T17:35:47+00:00</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Junior AI Engineer (LATAM) - micro1 y más</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>4</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>We are looking for a remote, full-time AI Software Engineer to join our US client's team. You should have a minimum of 3+ years of experience developing and delivering commercial software, with a solid background in AI/ML, Python, TypeScript/JavaScript, and C#/ .NET.In this role, you will leverage deep expertise in NLP and ML to help build scalable, production-grade language technology systems. This position is ideal for someone passionate about transformer models, audio processing, large-scale data pipelines, and real-world ML deployments.You will have a high impact on shaping the future of language accessibility and global communication through sophisticated, scalable ML systems. If you're excited to build at the intersection of language, audio, and AI, and to do so in a real-world product used globally, we'd love to meet you.Our U.S. client is a fast-growing, mission-driven language technology company developing the next generation of interpretation and multilingual communication platforms. Their goal is to break down language barriers worldwide by leveraging cutting-edge speech and language AI to power solutions such as video remote interpretation (VRI), over-the-phone interpretation (OPI), interpreter scheduling, simultaneous interpretation, and more.Our client has remote teams across the U.S., Europe, and the Philippines. The company has consistently achieved Net Promoter Scores (NPS) above 60, reflecting excellent customer satisfaction. The team is collaborative, inclusive, and highly engaged, with strong onboarding and growth support for new hires.
+ResponsibilitiesArchitect, build, and maintain scalable ML-based systems focused on language processing, speech recognition, and real-time communication technologiesTrain and fine-tune transformer-based models (e.g., Whisper, wav2vec 2.0, BERT, T5) for tasks such as audio transcription, classification, summarization, and conversational AIDevelop and deploy ML-powered microservices and APIs that integrate tightly with the platform's cloud infrastructureBuild and manage robust data pipelines for multilingual speech and text datasets, including cleaning, augmentation, and validationCollaborate with cross-functional teams to integrate ML models into production workflows with a strong emphasis on reliability, observability, and user experienceApply software engineering best practices to assure performance, scalability, and maintainability using secure coding principles, automated unit testing, code reviews, horizontal scaling, vertical scaling, microservice architectures, and continuous integration CI/CD pipelinesTroubleshoot, isolate root causes, and provide innovative solutions in reasonable timeframesConduct research to evaluate and adopt emerging ML methods, with a focus on efficient inference, transfer learning, and low-latency deploymentStay up to date with industry trends, emerging technologies, and best practices in software development and AI
+Required ExperienceExcellent verbal and written English communication skills3+ years of hands-on software development experience using Python, TypeScript, and C#/.NETAgile development experienceSolid background in machine learning, with experience in supervised and unsupervised algorithmsPractical experience with transformers, generative models, and LLMs in NLP or audio processingFamiliarity with Hugging Face Transformers, TorchAudio, OpenAI APIs, or similar platformsExpertise in developing REST APIs and microservices in production environmentsDeep understanding of containerization and orchestration using Docker and KubernetesStrong knowledge of AWS (S3, ECS, SageMaker, CloudWatch, Load Balancer Controller, and more)Experience with NoSQL and RDBMS databasesProficient in Git, Jira, Infrastructure as Code (IaC) tools, and CI/CD pipelinesStrong problem-solving skills and ability to work independently or in a team
+Preferred ExperienceBachelor's degree in Computer Science, Engineering, or a related technical fieldExperience building ML-based products for interpretation, transcription, or conversational interfacesPrevious exposure to the Microsoft Orleans distributed systems frameworkFamiliarity with Pulumi, GCP, or Azure as alternative cloud environmentsKnowledge of innovation accelerators or previous work with AI startup toolkitsFamiliarity with real-time data streaming and low-latency model serving</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>4339049282</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4339049282/</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2025-11-27T13:35:44+00:00</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>«machine learning»: Junior Data Science Associate Consultant - LATAM - micro1 y más</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>2</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Job DescriptionJob Title: Senior Data Science Associate Consultant
+Job Type: Full-time
+Location: Remote LATAM
+Job SummaryZS's Insights &amp; Analytics group partners with clients to design and deliver solutions to help them tackle a broad range of business challenges. Our teams work on multiple projects simultaneously, leveraging advanced data analytics and problem-solving techniques. Our recommendations and solutions are based on rigorous research and analysis underpinned by deep expertise and thought leadership.
+Key ResponsibilitiesLead the design, development, and deployment of advanced AI and ML models addressing large-scale, high-dimensional problems.Architect data-driven systems combining statistical, predictive, and generative modeling techniques.Evaluate and integrate emerging datasets, frameworks, and tools into scalable production pipelines.Fine-tune large language models (LLMs) and experiment with hybrid AI systems using agentic or classical approaches.Collaborate directly with clients to define project scope, design analytical solutions, and deliver business impact.Lead teams of data scientists, ensuring methodological rigor, reproducibility, and innovation.Contribute to thought leadership initiatives through publications and research collaborations.
+Required Skills and QualificationsPhD in Computer Science, Statistics, or a related field, or Master’s with 4–6 years of data science experience.Expert in Python, statistical modeling, and advanced ML frameworks (TensorFlow, PyTorch, scikit-learn).Deep understanding of data architecture, MLOps, and model lifecycle management.Hands-on experience with RAG pipelines, fine-tuning generative models, and multi-agent systems.Strong experience with big data ecosystems (Spark, Hadoop) and cloud platforms (AWS, Azure).Proven ability to lead analytical projects, mentor teams, and communicate technical results to executives.Experience in domains like healthcare, tech, or finance is a plus.
+Preferred QualificationsExperience fine-tuning generative models and integrating classic AI techniques.Prior leadership experience and a record of mentoring junior colleagues.Domain expertise in healthcare, transportation, technology, insurance, or related sectors.
+Our interview process is streamlined with a single step: an AI interview. If you perform well, our hiring managers will review your AI interview recording and may extend an offer directly based on that review</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>4339099044</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4339099044/</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2025-11-27T13:35:44+00:00</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>«machine learning»: Junior Data Science Associate Consultant - LATAM - micro1 y más</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>3</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Job DescriptionJob Title: Mid-level Data Science Associate Consultant
+Job Type: Full-time
+Location: Remote - LATAM
+Job Summary:ZS's Insights &amp; Analytics group partners with clients to design and deliver solutions to help them tackle a broad range of business challenges. Our teams work on multiple projects simultaneously, leveraging advanced data analytics and problem-solving techniques. Our recommendations and solutions are based on rigorous research and analysis underpinned by deep expertise and thought leadership.
+Key Responsibilities:Design and implement advanced analytical and ML models to solve complex business challenges.Apply data mining, predictive modeling, and NLP techniques to extract insights from structured and unstructured data.Develop scalable analytical workflows using Python and integrate results into client systems.Build and maintain data pipelines; optimize data ingestion and transformation processes.Collaborate with cross-functional teams to interpret findings and influence data-driven decision-making.Develop reusable analytical assets and contribute to platform scalability initiatives.Mentor junior analysts and ensure best practices in data science workflows.
+Required Skills and Qualifications:Master’s in Computer Science, Statistics, Data Science, or related field with 2–4 years of experience.Proficiency in Python (pandas, NumPy, scikit-learn) or R for model building and analysis.Experience with machine learning pipelines, feature selection, and model evaluation.Hands-on knowledge of big data tools (Spark, Hadoop) and cloud platforms (AWS, Azure).Familiarity with SQL and NoSQL data stores.Ability to translate technical results into actionable business recommendations.Experience working in agile environments and leading small-scale analytical projects.
+Preferred Qualifications:Experience fine-tuning generative models and integrating classic AI techniques.Prior leadership experience and a record of mentoring junior colleagues.Domain expertise in healthcare, transportation, technology, insurance, or related sectors.
+Our interview process is streamlined with a single step: an AI interview. If you perform well, our hiring managers will review your AI interview recording and may extend an offer directly based on that review</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>4324438493</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4324438493/</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2025-11-27T01:35:01+00:00</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>«machine learning»: Back End Engineer - AI Training (Remote, Freelance) - Braintrust y más</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>7</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Job Description
+AI Training Specialist – Back End Engineering
+Braintrust AI is looking for individuals with a strong background in [Domain Name] to help train and improve AI models. You’ll be working on projects that involve reviewing, evaluating, and creating data or content to help AI systems become more accurate, reliable, and context-aware in your area of expertise.
+This is a great opportunity for professionals who enjoy analytical thinking, problem-solving, and working independently on flexible schedules.
+Responsibilities
+Evaluate and provide feedback on AI-generated outputs related to back-end software developmentCreate and refine text, data, or questions for AI training involving server-side logic, databases, and APIsEnsure accuracy, relevance, and clarityFollow detailed guidelines for consistency and quality
+What We’re Looking For
+Bachelor’s/Master’s in Computer Science or related field, or equivalent experienceStrong communication and analytical skillsAbility to simplify complex conceptsHigh attention to detailEnglish proficiency
+Why Join Us
+Work remotely with flexible hoursContribute to cutting-edge AI systemsOngoing projects available</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>4324495805</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4324495805/</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2025-11-27T01:35:01+00:00</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>«machine learning»: Back End Engineer - AI Training (Remote, Freelance) - Braintrust y más</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>4</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Científico de Datos Senior en BairesDev
+Estamos buscando un destacado Científico de Datos Senior para unirse al Equipo de Investigación y Desarrollo (I+D) de BairesDev. Este profesional utilizará datos y técnicas de aprendizaje automático para ayudar al negocio a automatizar y escalar la toma de decisiones, principalmente mediante la producción de informes avanzados de análisis de datos y modelos basados en datos para inferir y predecir patrones.
+Actividades Principales:
+- Ayudar a mejorar el conocimiento de los datos y el entorno analítico general en toda la empresa.- Manejar datos estructurados y no estructurados utilizando SQL y otros lenguajes de programación.- Realizar análisis avanzados de datos e informar de los resultados.- Contar la historia detrás de los datos de una manera convincente para la gente de negocios.- Crear modelos predictivos y algoritmos de aprendizaje automático.- Combinar modelos mediante el modelado de conjuntos.- Proponer soluciones y estrategias para los retos empresariales.- Ayudar a diseñar y ejecutar experimentos para la comprobación de hipótesis.- Participar activamente en las discusiones y decisiones relativas a todo el capítulo de Data Science / Data Engineer.- Colaborar con los gestores de productos de datos para crear productos de datos impresionantes.- Trabajar con la dirección para priorizar las necesidades de negocio y de información.- Ayudar a difundir una mentalidad basada en los datos y a mejorar la alfabetización de datos. Ser un evangelizador de los datos.
+¿Qué Buscamos?:
+- 3+ años de experiencia en Data Science / Data Engineer, aprendizaje automático, IA, estadística y otras áreas relacionadas.- Dominio de SQL.- Dominio de Python, R u otro lenguaje de programación importante.- Excelentes habilidades de comunicación y capacidad para colaborar y establecer relaciones con usuarios no técnicos.- Sólidos conocimientos de probabilidad y estadística, incluido el diseño experimental, el modelado predictivo, la optimización y la inferencia causal.- Experiencia práctica con el aprendizaje automático, como la clasificación por regresión, la agrupación, las redes neuronales, la selección de características, la validación cruzada, la maldición de la dimensionalidad, el equilibrio entre sesgo y varianza, la explicabilidad del modelo, la PNL, etc.
+Deseable:
+- Experiencia en análisis o crecimiento de personas.- Experiencia con herramientas de visualización de datos.- Buena comprensión de los retos de ingeniería para el despliegue de sistemas de aprendizaje automático a la producción.
+Qué ofrecemos para que tu trabajo (y tu vida) seja mais fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.- Hardware y software.- Horarios flexibles- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>4324307666</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4324307666/</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2025-11-26T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>«pytorch»: Machine Learning and Data Science Specialist - Remote Work - BairesDev LLC y más</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>1</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>WinDifferent specializes in helping businesses achieve rapid and sustainable growth through our powerful proprietary marketing system. Our data-driven solutions generate positive engagement that leads to ready-to-close opportunities, massively expanding sales pipelines and enabling companies to scale faster than the competition.
+As one of WinDifferent's best success stories, BairesDev helps us to find the best talent worldwide and invites them to explore our continually growing job opportunities.
+Machine Learning and Data Science Specialist at WinDifferent
+We are looking for a Machine Learning and Data Science Specialist to serve as the owner of the ML algorithms powering SellDifferent’s campaign segmentation and targeting system. This role is central to the product’s success, managing a massive system with millions of data points and ensuring models directly impact business outcomes. You’ll optimize, supervise, and evolve ML pipelines, driving innovation and reliability in one of the most important components of the platform.
+What You’ll Do:
+- Optimize existing machine learning algorithms to improve accuracy and performance.- Propose, design, and implement new ML features that enhance product capabilities.- Supervise and monitor machine learning performance at scale.- Define ML requirements and collaborate with engineering and product teams to bring them to life.- Handle administrative and organizational duties related to ML initiatives.
+What We Are Looking For:
+- 5+ years of experience in Machine Learning, including at least 4 years building the end-to-end model development lifecycle (requirements definition, feature discovery, model training/registration, deployment, monitoring, and MLOps).- Proficiency in SQL and Python, with strong knowledge of data and ML frameworks.- Solid fundamentals in probability and statistics.- Business-minded approach with proven stakeholder management skills — able to define your own work based on conversations with senior leaders.- Product-oriented mindset: you design ML pipelines with direct business impact and thrive in ownership-heavy environments.- Familiarity with development best practices and navigating complex production codebases.- Postgraduate degree in Machine Learning or Data Science.
+Desirable Qualifications:
+- Experience with Databricks.- Experience implementing machine learning explainability pipelines.- Experience with orchestration tools such as Airflow.- Experience applying machine learning to marketing use cases.
+How we do make your work (and your life) easier:
+- 100% remote work.- Work-from-home hardware setup.- Flexible hours - make your schedule.- PTO, parental leave, and other special leaves.- English classes.- Personal loans with 0% interest, following the company's policies.- Udemy for Business (subject to manager's approval).- An excellent compensation package — well above the market average.- You can grow at the speed of your learning curve.- An innovation-driven, diverse, and multicultural work environment that provides the support and resources for its professionals to thrive.- The chance and resources to be a game-changer for one of America's fastest-growing companies.
+Join a global team where your unique AI talents can truly thrive and make a significant impact!
+Apply Now!</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>4324536539</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4324536539/</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2025-11-26T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>«pytorch»: Machine Learning and Data Science Specialist - Remote Work - BairesDev LLC y más</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>5</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Job Description
+About the Role
+Braintrust AI is looking for individuals with a strong background in Biology (and Python) to help train and improve AI models. You’ll be working on projects that involve reviewing, evaluating, and creating data or content to help AI systems become more accurate, reliable, and context-aware in your area of expertise.
+This is a great opportunity for professionals who enjoy analytical thinking, problem-solving, and working independently on flexible schedules.
+Responsibilities
+Review AI-generated code involving biology/scientific computationsProvide corrections and best-practice technical feedbackCreate and refine Python-based biological data examplesEnsure clarity and accuracy in technical + scientific contentFollow structured guidelines
+What We’re Looking For
+Bachelor’s/Master’s in Biology, Bioinformatics, Computer Science, or related fieldStrong Python programming experienceUnderstanding of biology workflows, QA, or data analysisStrong debugging skillsAbility to communicate technical concepts clearly
+Why Join Us
+Remote flexible workOpportunity to contribute to advanced AI trainingOngoing bioinformatics and coding projects available</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>4324517225</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4324517225/</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2025-11-26T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>«pytorch»: Machine Learning and Data Science Specialist - Remote Work - BairesDev LLC y más</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>4</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Científico de Datos en BairesDev
+Como Científico de Datos en BairesDev, utilizarás técnicas de análisis de datos y machine learning para resolver problemas empresariales complejos. Transformarás datos sin procesar en insights significativos, desarrollarás e implementarás modelos predictivos, y colaborarás con equipos multifuncionales para implementar soluciones basadas en datos que generen valor comercial e impulsen la toma de decisiones estratégicas.
+Qué harás:
+- Analizar conjuntos de datos complejos para identificar patrones, tendencias e insights que aborden desafíos empresariales.- Desarrollar e implementar modelos de machine learning para resolver problemas empresariales específicos.- Colaborar con stakeholders para entender requisitos y traducirlos en soluciones de ciencia de datos.- Crear visualizaciones de datos e informes para comunicar eficazmente hallazgos a audiencias técnicas y no técnicas.- Optimizar modelos existentes y pipelines de datos para mejorar el rendimiento y la precisión.- Mantenerte actualizado con los últimos avances en ciencia de datos, machine learning y tecnologías de IA.
+Qué buscamos:
+- 3+ años de experiencia aplicando técnicas de ciencia de datos a problemas del mundo real.- Experiencia con lenguajes de programación comúnmente utilizados en ciencia de datos (Python, R, etc.).- Conocimiento de algoritmos de machine learning y análisis estadístico.- Familiaridad con herramientas y técnicas de visualización de datos.- Experiencia con SQL y consultas de bases de datos.- Capacidad para traducir conceptos técnicos complejos a stakeholders no técnicos.- Nivel avanzado de inglés.
+Qué ofrecemos para que tu trabajo (y tu vida) seja mais fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.- Hardware y software.- Horarios flexibles- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>4314184956</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4314184956/</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2025-11-26T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>«pytorch»: Machine Learning and Data Science Specialist - Remote Work - BairesDev LLC y más</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>5</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Company Description
+Experian is the world's leading global information services company, unlocking the power of data to create more opportunities for consumers, businesses and society. We are thrilled to share that FORTUNE has named Experian one of the 100 Best Companies to work for. Also, for the last five years we've been named in the 100 "World's Most Innovative Companies" by Forbes Magazine. With a focus on our employees, we have been certified for the third time as Great Place To Work (GPTW). Experian Consumer Information Services is redefining the way our clients do business within the customer credit lifecycle. Fueled by the best data and technology we help businesses make smarter decisions, identify consumers, make decisions on loans, market to prospects and collect.
+Job Description
+We’re looking for an innovative Data Scientist to join Experian Automotive and shape the future of data-driven decision-making. In this role, you’ll design and implement advanced analytics solutions, standardize and automate data processes, and develop sophisticated statistical, machine learning, and forecasting models that power business intelligence and client insights. You’ll craft next-generation algorithms, build intuitive data visualization tools, and leverage emerging technologies—including generative AI and advanced modeling techniques—to solve high-impact challenges. Collaborating across Finance, Product, Operations, and Technology teams, you’ll drive automation, optimize analytical workflows, and deliver actionable insights that influence strategic decisions. This is an opportunity to push boundaries, transform data into intelligence, and accelerate innovation across the organization.
+You'll Have Opportunity To
+Build and optimize scalable data ecosystems to power advanced analytics, predictive modeling, and intelligent decision-making.Lead forecasting and scenario modeling by integrating dynamic inputs, validating assumptions, and delivering forward-looking insights that anticipate risks and opportunities.Automate and streamline analytical workflows to accelerate speed-to-insight and reduce manual intervention.Leverage large-scale structured and unstructured data to uncover patterns, generate actionable insights, and develop predictive and prescriptive models.Design, deploy, and operationalize advanced machine learning solutions—including deep learning, graph-based models, and reinforcement learning—to solve complex business and customer challenges.Enhance and maintain model development pipelines while driving proof-of-concept initiatives and rapid experimentation.Partner with cross-functional teams to define high-impact use cases, align on priorities, and embed data science solutions into strategic decision-making.Establish scalable data and model governance practices to ensure reliability, transparency, and continuous improvement.Utilize modern analytics and cloud platforms (e.g., Python, AWS, Databricks, Tableau) to deliver cutting-edge solutions.Advance algorithmic innovation by refining data analysis techniques, expanding pattern analytics, and generalizing methods for broader data flow coverage.Develop intuitive data visualizations and interactive tools to communicate complex insights effectively and drive adoption across the organization.
+Qualifications
+Bachelor’s or Master’s degree in Computer Science, Data Science, Statistics, Mathematics, Engineering, or a related quantitative field.Strong proficiency in Python and experience with machine learning frameworks such as scikit-learn, XGBoost, or PyTorch; familiarity with SQL and statistical tools (e.g., R, SAS, MATLAB) is a plus.Hands-on experience with generative AI tools, large language models (LLMs), and advanced machine learning techniques including supervised, unsupervised, and time-series modeling.Proven ability to deploy and scale models in production using cloud platforms (AWS, GCP, Azure) and tools like Databricks; experience with AWS services such as S3, Redshift, SageMaker, EMR, Kinesis, Lambda, and EC2 is highly desirable.Data Mastery: Skilled in analyzing large, complex datasets and developing predictive models, experimental designs, and robust analytic plans to uncover insights and determine causal relationships.Statistical Acumen: Deep understanding of statistical modeling, forecasting, and performance optimization for machine learning algorithms.Collaboration &amp; Communication: Ability to translate complex technical concepts into clear, actionable insights for diverse stakeholders; strong interpersonal skills for cross-functional collaboration.Innovation &amp; Execution: Self-motivated, results-driven professional with a track record of managing projects end-to-end, delivering impactful solutions, and meeting deadlines in fast-paced environments.
+Additional Information
+Our benefits include: Medical, life and dental insurance, Asociacion Solidarista, International Share Save Plan, Flex Work/Work from home, Paid time off, Annual Performance Bonus, Education Reimbursement, Family Bonding, Bereavement Leave, Referral Program, and more.
+Experian is proud to be an Equal Opportunity and Affirmative Action employer. Innovation is a critical part of Experian's DNA and practices, and our diverse workforce drives our success. Everyone can succeed at Experian and bring their whole self to work, irrespective of their gender, ethnicity, religion, colour, sexuality, physical ability or age. If you have a disability or special need that requires accommodation, please let us know at the earliest opportunity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>4242973037</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4242973037/</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2025-11-26T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>«pytorch»: Machine Learning and Data Science Specialist - Remote Work - BairesDev LLC y más</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>1</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Caylent is a cloud native services company that helps organizations bring the best out of their people and technology using Amazon Web Services (AWS). We provide a full-range of AWS services including workload migrations and modernization, cloud native application development, DevOps, data engineering, security and compliance, and everything in between.
+At Caylent, our people always come first. We are a global company and operate fully remote with employees in Canada, the United States, and Latin America. We celebrate the culture of each of our team members and foster a community of technological curiosity. Come talk to us to learn more about what it means to be a Caylien!
+Note: This isn’t an active role right now, but we’re building a community of great talent for future opportunities at Caylent. If your background aligns with what we’re looking for, our team may reach out to learn more about you and explore potential future fits.
+The Mission
+We are seeking an exceptional Machine Learning Architect to join our growing Cloud Native Applications team. The right candidate is someone who has deep expertise in ML system design and is passionate about working with our customers, partners, and colleagues to drive innovation forward. Your mission will be to work alongside Caylent’s Engineers, Engineering Managers, and Project Managers to deliver AWS solutions across our diverse and forward-thinking customer base. You’ll work with the latest technologies and support customers looking to bring cutting-edge ideas to market.
+Your Assignment
+You will be a mission control specialist, guiding Cayliens and Customers alike through Agile ceremonies like stand-ups, retrospectives, and more.You will translate customer requirements and into a workable backlog of tickets for engineers.Delegate tickets to a team of engineers in order to complete customer projects.Lead requirements gathering, backlog grooming, and architecture discussions.Apply your understanding of DevOps pipelines, including build automation, branching strategies, CI/CD, Infrastructure as Code, security, monitoring, logging, and alerting.Troubleshoot and resolve issues in customer dev, test, and production environments.Automate software testing at multiple levels (component, configuration item, subsystem, system) and monitor results.Write production quality code, including unit and integration tests. Work with a team to deliver top-quality cloud native applications on AWS for customers.Clearly communicate and document your designs, processes, and procedures.You will demonstrate a passion to Stay Curious as you mentor peers, tackle new technologies, and learn from our word-class team of engineers.Coach and mentor less experienced teammates, coach and be mentored by world class engineers.
+Your Qualifications
+Core Consulting Qualifications
+Customer Experience 
+Confidently addresses client questions and identifies gaps in requirements with proposed next steps. Focus on delivering clear, actionable solutions that meet client goals
+Collaboration 
+Facilitates alignment across stakeholders or technical priorities and deliverables.Navigates differing perspectives with professionalism to ensure shared understanding and progress. 
+Communication 
+Breaks down complex technical concepts for non-technical audiences in a clear, concise manner. Adapts communication style based on audience and context to improve clarity and decision-making. 
+Technical Qualifications
+Experience with IaC tools (CloudFormation, CDK, Terraform).Expert level experience in Amazon SageMaker and ML libraries (TensorFlow, MXNet, PyTorch, Scikit-learn).Strong understanding of ML concepts: feature engineering, hyperparameter tuning, optimization strategies.Familiarity with MLOps tools (MLflow, Neptune, Comet).
+Benefits
+Pay in USD100% remote workGenerous holidays and flexible PTOCompetitive phantom equityPaid for exams and certificationsPeer bonus awardsState of the art laptop and toolsEquipment &amp; Office StipendIndividual professional development planAnnual stipend for Learning and DevelopmentWork with an amazing worldwide team and in an incredible corporate culture
+This role may require up to 25% travel, depending on business needs.
+NOTE: We’re unable to provide visa sponsorship now or at any time in the future.
+At Caylent, we are committed to fair, transparent, and inclusive hiring practices. As part of our recruitment process, we may use artificial intelligence (AI) tools or automated systems to assist with the screening and evaluation of applications to help match candidate qualifications with job requirements.
+These tools are designed to support — not replace — human decision-making. Final hiring decisions are always made by our trained recruitment professionals.
+If an AI or automated tool is used during your application process, it will only be in accordance with applicable laws and regulations, and your information will be handled in a secure and confidential manner.
+If you have any questions, please contact talent@caylent.com
+Caylent is a place where everyone belongs. We celebrate diversity and are committed to creating an inclusive environment for all employees. Our approach helps us to build a winning team that represents a variety of backgrounds, perspectives, and abilities. So, regardless of how your diversity expresses itself, you can find a home here at Caylent.
+We are proud to be an equal opportunity employer. We prohibit discrimination and harassment of any kind based on race, color, religion, national origin, sex (including pregnancy), sexual orientation, gender identity, gender expression, age, veteran status, genetic information, disability, or other applicable legally protected characteristics. If you would like to request an accommodation due to a disability, please contact us at hr@caylent.com.</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>4324307809</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4324307809/</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2025-11-26T23:09:14+00:00</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Machine Learning and Data Science Specialist - Remote Work - BairesDev LLC y más</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>4</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Científico de Datos en BairesDev
+Como Científico de Datos en BairesDev, utilizarás técnicas de análisis de datos y machine learning para resolver problemas empresariales complejos. Transformarás datos sin procesar en insights significativos, desarrollarás e implementarás modelos predictivos, y colaborarás con equipos multifuncionales para implementar soluciones basadas en datos que generen valor comercial e impulsen la toma de decisiones estratégicas.
+Qué harás:
+- Analizar conjuntos de datos complejos para identificar patrones, tendencias e insights que aborden desafíos empresariales.- Desarrollar e implementar modelos de machine learning para resolver problemas empresariales específicos.- Colaborar con stakeholders para entender requisitos y traducirlos en soluciones de ciencia de datos.- Crear visualizaciones de datos e informes para comunicar eficazmente hallazgos a audiencias técnicas y no técnicas.- Optimizar modelos existentes y pipelines de datos para mejorar el rendimiento y la precisión.- Mantenerte actualizado con los últimos avances en ciencia de datos, machine learning y tecnologías de IA.
+Qué buscamos:
+- 3+ años de experiencia aplicando técnicas de ciencia de datos a problemas del mundo real.- Experiencia con lenguajes de programación comúnmente utilizados en ciencia de datos (Python, R, etc.).- Conocimiento de algoritmos de machine learning y análisis estadístico.- Familiaridad con herramientas y técnicas de visualización de datos.- Experiencia con SQL y consultas de bases de datos.- Capacidad para traducir conceptos técnicos complejos a stakeholders no técnicos.- Nivel avanzado de inglés.
+Qué ofrecemos para que tu trabajo (y tu vida) seja mais fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.- Hardware y software.- Horarios flexibles- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>4324309047</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4324309047/</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2025-11-26T23:09:14+00:00</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Machine Learning and Data Science Specialist - Remote Work - BairesDev LLC y más</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>8</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Job Description
+About the Role
+We’re looking for individuals with strong coding and software development experience to help train AI models. You’ll review, evaluate, and create code examples or programming-related content to improve AI accuracy and performance.
+This role is perfect for developers, software engineers, or programmers who enjoy problem-solving and want flexible, remote work opportunities contributing to AI development.
+Responsibilities
+Evaluate and provide feedback on AI-generated outputs related to full stack software developmentCreate and refine text, data, or questions for AI training involving both front-end and back-end tasksEnsure accuracy, relevance, and clarityFollow detailed guidelines for consistency and quality
+What We’re Looking For
+Bachelor’s/Master’s in Computer Science or related field, or equivalent experienceStrong communication and analytical skillsAbility to simplify complex conceptsHigh attention to detailEnglish proficiency
+Why Join Us
+Work remotely with flexible hoursContribute to cutting-edge AI systemsOngoing projects available</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>4303697308</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4303697308/</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2025-11-26T23:09:14+00:00</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Machine Learning and Data Science Specialist - Remote Work - BairesDev LLC y más</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>2</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Senior Machine Learning Engineers at Thoughtworks build, maintain and test the architecture and infrastructure for managing machine learning applications. They are involved in supporting and contributing to the design of the end-to-end applications and products. They are responsible for building core capabilities including technical and functional machine learning systems and applications, being the anchor for functional streams of work and are accountable for timely delivery.
+As a senior machine learning engineer, you will work on the latest tools, frameworks and offerings while also being involved in enabling credible and collaborative problem solving to execute on a strategy.
+Job responsibilities
+You will contribute to design and drive the development of robust scalable architectures and infrastructure for deploying and managing machine learning (ML) applications, ensuring high availability, performance and security.You will collaborate with data scientists and engineers to translate business needs into effective and efficient ML systems and applications.You will own the development and maintenance of core functionalities within ML applications, including ML pipelines, model training and deployment, and monitoring and evaluation.You will drive the functional stream of work by providing technical expertise, handling team discussions and ensuring timely delivery of assigned tasks.You will stay ahead of the curve by actively exploring and implementing the latest tools, frameworks and offerings in the ML landscape.You will facilitate collaborative problem solving within the team by actively listening, communicating effectively and mentoring other engineers.You will contribute to the development and execution of the team's overall ML strategy, aligning technical capabilities with business objectives.You will proactively identify and address challenges related to ML systems and applications, proposing solutions and implementing improvements.
+Job Qualifications
+Technical Skills
+An advanced English level is required.You must have a strong experience with LLM and AI.You have experience in writing clean, maintainable and testable code, demonstrating attention to refactoring and readability of the code.You are proficient in scripting languages such as Python or Shell for automation and task streamlining.You have knowledge of distributed systems and scalable architectures to handle large-scale ML applications.You have experience with building, deploying, and maintaining ML systems using relevant ML techniques and platforms, i.e.: Scikit-learn, Tensorflow, MLFlow, Kubeflow, Pytorch.You have experience with building, deploying and maintaining ML systems and experience with application of MLOps principles and CI/CD to ML.You have experience in machine learning engineering and data science, are familiar with key ML concepts, algorithms and frameworks, and understand ML model lifecycles.You have experience with designing and operating the infrastructure required to run different types of ML training and serving workloads, i.e.: on-premise vs. cloud infrastructure, infrastructure as code, monitoring, etc.You have hands-on experience with on-premise and cloud services for building and deploying ML pipelines, i.e.: Azure, AWS, GCP or Databricks and associated ML managed services.
+Professional Skills
+You understand the importance of stakeholder management and can easily liaise between clients and other key stakeholders throughout projects, ensuring buy-in and gaining trust along the way.You are resilient in ambiguous situations and can adapt your role to approach challenges from multiple perspectives.You don’t shy away from risks or conflicts, instead you take them on and skillfully manage them.You are eager to coach, mentor and motivate others and you aspire to influence teammates to take positive action and accountability for their work.You enjoy influencing others and always advocate for technical excellence while being open to change when needed.
+Other things to know
+Learning &amp; Development
+There is no one-size-fits-all career path at Thoughtworks: however you want to develop your career is entirely up to you. But we also balance autonomy with the strength of our cultivation culture. This means your career is supported by interactive tools, numerous development programs and teammates who want to help you grow. We see value in helping each other be our best and that extends to empowering our employees in their career journeys.
+About Thoughtworks
+Thoughtworks is a dynamic and inclusive community of bright and supportive colleagues who are revolutionizing tech. As a leading technology consultancy, we’re pushing boundaries through our purposeful and impactful work. For 30+ years, we’ve delivered extraordinary impact together with our clients by helping them solve complex business problems with technology as the differentiator. Bring your brilliant expertise and commitment for continuous learning to Thoughtworks. Together, let’s be extraordinary.
+See here our AI policy.</t>
         </is>
       </c>
     </row>

--- a/data/cleaned_offers.xlsx
+++ b/data/cleaned_offers.xlsx
@@ -486,7 +486,9 @@
           <t>«Computer vision»: Sr. AI Engineer - Apptegy</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>Who We Are
@@ -541,7 +543,9 @@
           <t>«tensorflow»: Junior AI Engineer (LATAM) - micro1 y más</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>Job Title: Junior AI Engineer
@@ -580,7 +584,9 @@
           <t>«tensorflow»: Junior AI Engineer (LATAM) - micro1 y más</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>Work at DaCodes!
@@ -641,7 +647,9 @@
           <t>«tensorflow»: Junior AI Engineer (LATAM) - micro1 y más</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>We’re building AI-powered products, primarily leveraging off-the-shelf LLM APIs, while also partnering with our Applied Science teams to integrate custom models when needed. You’ll own end-to-end development of AI features—from prototyping to production—focused on reliability, accuracy, and scalable delivery.
@@ -697,7 +705,9 @@
           <t>«tensorflow»: Junior AI Engineer (LATAM) - micro1 y más</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>Work at DaCodes!
@@ -758,7 +768,9 @@
           <t>«tensorflow»: Junior AI Engineer (LATAM) - micro1 y más</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>Job DescriptionJob Title: Mid-level AI Engineer
@@ -797,7 +809,9 @@
           <t>«tensorflow»: Junior AI Engineer (LATAM) - micro1 y más</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>Work at DaCodes!
@@ -858,7 +872,9 @@
           <t>«LLM»: Junior AI Engineer (LATAM) - micro1 y más</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>Job Title: Junior AI Engineer
@@ -897,7 +913,9 @@
           <t>«LLM»: Junior AI Engineer (LATAM) - micro1 y más</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>This is a remote position.
@@ -950,7 +968,9 @@
           <t>«LLM»: Junior AI Engineer (LATAM) - micro1 y más</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>6</v>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>Job Title: Data Analyst (Remote)
@@ -985,7 +1005,9 @@
           <t>«LLM»: Junior AI Engineer (LATAM) - micro1 y más</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>Job DescriptionJob Title: Junior Data Science Associate Consultant
@@ -1019,7 +1041,9 @@
           <t>«LLM»: Junior AI Engineer (LATAM) - micro1 y más</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>Job Title: Freelance Software Engineer - AI Projects (Remote)
@@ -1054,7 +1078,9 @@
           <t>«LLM»: Junior AI Engineer (LATAM) - micro1 y más</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>About Turing:Turing is one of the world’s fastest-growing AI companies, accelerating the advancement and deployment of powerful AI systems.
@@ -1090,7 +1116,9 @@
           <t>«desarrollador ia»: Junior AI Engineer (LATAM) - micro1 y más</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>¡Únete a Finandina BIC! Estamos buscando una mente estratégica y analítica con pasión:
@@ -1130,7 +1158,9 @@
           <t>«desarrollador ia»: Junior AI Engineer (LATAM) - micro1 y más</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>Job DescriptionJob Title: Junior Data Science Associate Consultant
@@ -1164,7 +1194,9 @@
           <t>«desarrollador ia»: Junior AI Engineer (LATAM) - micro1 y más</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>Founded in Palo Alto by Dr. Andrew Ng and Israel Niezen, Factored helps U.S. companies build and scale world-class AI, ML, and Data teams, powered by the top 1% of LATAM talent, with a defining purpose: To empower brilliant humans, unleash their potential, and amplify their impact in the world.
@@ -1206,7 +1238,9 @@
           <t>«desarrollador ia»: Junior AI Engineer (LATAM) - micro1 y más</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>6</v>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>Software Engineer — Spanish &amp; English Proficiency (Remote)Work Arrangement: RemoteEngagement Type: Independent ContractorHours: Flexible (5–40 hours per week)
@@ -1242,7 +1276,9 @@
           <t>«machine learning»: Junior Data Science Associate Consultant - LATAM - micro1 y más</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>Job DescriptionJob Title: Mid-level Data Science Associate Consultant
@@ -1277,7 +1313,9 @@
           <t>«Scikit-learn»: Forward Deployed Engineer - Andela</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>About AndelaAndela exists to connect brilliance and opportunity. Since 2014, we have been dedicated to breaking down global barriers and accelerating the future of work for both technologists and organizations around the world. For technologists, Andela offers competitive long-term career opportunities with leading organizations, access to a global community of professionals, and educational opportunities with leading technology providers.
@@ -1319,7 +1357,9 @@
           <t>«desarrollador ia»: Data Analyst (Remote) - Work Vista y más</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>6</v>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>Job Title: Data Analyst (Remote)
@@ -1354,7 +1394,9 @@
           <t>«desarrollador ia»: Data Analyst (Remote) - Work Vista y más</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>HireLatam is a premier recruitment agency that places top Latin American talent in independent contractor roles in US companies. With a proven track record and a commitment to excellence, we're your trusted partner in the pursuit of career success. Our extensive network, personalized approach, and supportive guidance ensure that you're in the best hands to find your next job opportunity. Job Title: Remote AI Engineer (100% Work From Home) Location: Remote from Latin America Position Type: Full-time  Salary: $4,000 USD/month  Schedule: Monday-Friday, business hours in one of the major US time zones  Job Overview:We're building a pipeline of talented AI Engineers to join our portfolio of clients. This role combines cutting-edge AI/ML integration with practical software engineering to deliver production-ready solutions that automate workflows and enhance user experiences. You'll work on diverse projects ranging from document processing pipelines, transforming legacy workflows to LLM-powered personalization systems. Please keep in mind that the description below may vary depending on the specific client and role.  Responsibilities:AI/ML Development &amp; IntegrationBuild and deploy AI-driven features using LLMs and external AI APIs (OpenAI, Anthropic, Bedrock, Mistral)Design and implement backend services integrating retrieval systems, embeddings, and vector databases (pgvector, Pinecone)Develop OCR and computer vision pipelines using YOLO, AWS Textract, and ComprehendOrchestrate AI model calls with proper context management, caching, and prompt engineeringBackend EngineeringCreate Python microservices using FastAPI for ML/AI workloadsImplement and maintain Java Spring Boot microservices for enterprise integrationsBuild robust REST APIs with comprehensive integration testingDevelop connectors and adapters for vendor systems and legacy platform integrationMLOps &amp; Production EngineeringProductionize ML models with containerization (Docker), versioning, and evaluation frameworksImplement batch and async processing for scalable AI servicesSet up monitoring, logging, and fallback strategies for production AI systemsPackage and deploy models using AWS services (Lambda, SageMaker, Bedrock, Step Functions)Product DevelopmentPrototype and validate AI-powered features through rapid experimentationEvolve successful experiments into scalable, production-grade systemsCollaborate with cross-functional teams to translate product goals into robust AI featuresBuild internal tools and dashboards for model evaluation and monitoring Qualifications, Skills and Key Competencies:Technical Skills3-5 years of software engineering experience with both Java (Spring/Hibernate) and PythonStrong experience with AI frameworks, particularly LangChain or LlamaIndexHands-on experience with LLMs and RAG patterns for retrieval-based systemsProficiency with ML workflows using NumPy, Pandas, scikit-learn, or TensorFlow/KerasExperience with both SQL databases (MySQL, PostgreSQL) and NoSQL (MongoDB)Strong AWS experience (Lambda, S3, SQS/SNS, KMS, Step Functions)Proficiency with Docker, Git, and CI/CD practicesExperience with message brokers, streaming systems, and microservice patternsAI/ML Specific ExperiencePractical experience with prompt engineering and LLM optimizationFamiliarity with vector databases and embedding systemsExperience with OCR pipelines and computer vision applicationsKnowledge of MLOps practices including MLflow, DVC, model versioningNice to HaveFrontend development skills (React/Vue) for building internal toolsExperience building conversational or agentic AI systemsExperience with distributed systems and cloud-native architecturesFamiliarity with evaluation frameworks and A/B testing for AI featuresSoft SkillsStrong product mindset with ability to balance performance, reliability, and costSelf-motivated and adaptable with eagerness to embrace new challengesExcellent problem-solving and analytical thinking abilitiesStrong communication skills in written English and SpanishAbility to work effectively in cross-functional teamsExample Projects You'll Work OnVendor &amp; AI Model Integration: Execute integration projects with external AI providers to automate internal operations and customer-facing processesAI-Driven Workflow Automation: Implement LLM-powered decision-making and document processing pipelines to streamline validation and screening workflowsPersonalization Systems: Build AI features that create personalized experiences for thousands of users across multiple regionsLegacy System Modernization: Develop adapters and middleware enabling AI-enhanced services to interoperate with existing systems during migrationWhat We OfferOpportunity to work on cutting-edge AI/ML technologies in production environmentsRemote-first work environment with flexible hoursCollaboration with talented engineers and product teamsDirect impact on products serving thousands of usersContinuous learning and professional development opportunities</t>
@@ -1382,7 +1424,9 @@
           <t>«desarrollador ia»: Data Analyst (Remote) - Work Vista y más</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>At BairesDev®, we've been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
@@ -1422,7 +1466,9 @@
           <t>«desarrollador ia»: Data Analyst (Remote) - Work Vista y más</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>Job Title: Freelance Software Engineer - AI Projects (Remote)
@@ -1457,7 +1503,9 @@
           <t>«desarrollador ia»: Data Analyst (Remote) - Work Vista y más</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>At BairesDev®, we've been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
@@ -1496,7 +1544,9 @@
           <t>«desarrollador ia»: Data Analyst (Remote) - Work Vista y más</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>Please submit your resume in English and indicate your level of English proficiency.
@@ -1529,7 +1579,9 @@
           <t>«pytorch»:  Remote AI Engineer - HireLATAM y más</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>3</v>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
@@ -1567,7 +1619,9 @@
           <t>«pytorch»:  Remote AI Engineer - HireLATAM y más</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>At BairesDev®, we've been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
@@ -1606,7 +1660,9 @@
           <t>«pytorch»:  Remote AI Engineer - HireLATAM y más</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>At BairesDev®, we've been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.

--- a/data/cleaned_offers.xlsx
+++ b/data/cleaned_offers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2547,6 +2547,7428 @@
         </is>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>652f1b917960</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4343655877/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2025-12-16T19:35:21+00:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>«pytorch»:  Remote AI Engineer - HireLATAM y más</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>3</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Científico de Datos en BairesDev
+Como Científico de Datos en BairesDev, utilizarás técnicas de análisis de datos y machine learning para resolver problemas empresariales complejos. Transformarás datos sin procesar en insights significativos, desarrollarás e implementarás modelos predictivos, y colaborarás con equipos multifuncionales para implementar soluciones basadas en datos que generen valor comercial e impulsen la toma de decisiones estratégicas.
+Qué harás:
+- Analizar conjuntos de datos complejos para identificar patrones, tendencias e insights que aborden desafíos empresariales.- Desarrollar e implementar modelos de machine learning para resolver problemas empresariales específicos.- Colaborar con stakeholders para entender requisitos y traducirlos en soluciones de ciencia de datos.- Crear visualizaciones de datos e informes para comunicar eficazmente hallazgos a audiencias técnicas y no técnicas.- Optimizar modelos existentes y pipelines de datos para mejorar el rendimiento y la precisión.- Mantenerte actualizado con los últimos avances en ciencia de datos, machine learning y tecnologías de IA.
+Qué buscamos:
+- 3+ años de experiencia aplicando técnicas de ciencia de datos a problemas del mundo real.- Experiencia con lenguajes de programación comúnmente utilizados en ciencia de datos (Python, R, etc.).- Conocimiento de algoritmos de machine learning y análisis estadístico.- Familiaridad con herramientas y técnicas de visualización de datos.- Experiencia con SQL y consultas de bases de datos.- Capacidad para traducir conceptos técnicos complejos a stakeholders no técnicos.- Nivel avanzado de inglés.
+Qué ofrecemos para que tu trabajo (y tu vida) seja mais fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.- Hardware y software.- Horarios flexibles- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>898ea1fe4891</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4343705736/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2025-12-16T19:35:21+00:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>«pytorch»:  Remote AI Engineer - HireLATAM y más</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>3</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>At BairesDev®, we've been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the world's Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, you're taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Artificial Intelligence + Python Engineer at BairesDev
+We are seeking an Artificial Intelligence + Python Engineer to develop and deploy intelligent systems and machine learning solutions. You'll combine strong Python programming skills with AI expertise to build innovative applications that solve complex problems. This role offers the opportunity to work on cutting-edge AI projects while delivering scalable, production-ready solutions.
+What You'll Do:
+- Design and develop AI models and machine learning solutions using Python.- Build and train deep learning models using TensorFlow or PyTorch.- Implement AI algorithms for various applications and use cases.- Optimize model performance and ensure scalability in production environments.- Collaborate with data scientists and engineers to deploy AI solutions.- Stay current with emerging AI technologies and best practices.
+What we are looking for:
+- 3+ years of Python development experience with focus on AI/ML.- Strong knowledge of machine learning algorithms and frameworks.- Experience with TensorFlow, PyTorch, or similar deep learning frameworks.- Understanding of AI model development lifecycle.- Knowledge of data preprocessing and feature engineering.- Experience deploying AI models to production.- Advanced level of English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).- Excellent compensation in USD or your local currency if preferred- Hardware and software setup for you to work from home.- Flexible hours: create your own schedule.- Paid parental leaves, vacations, and national holidays.- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>dd8d8bfcc2c6</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4327871774/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2025-12-16T19:35:21+00:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>«pytorch»:  Remote AI Engineer - HireLATAM y más</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>3</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>At BairesDev®, we've been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the world's Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, you're taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Machine Learning Engineer at BairesDev
+The core challenge of this role is working with state-of-the-art models, optimizing inference and large-scale deployments, and making LLMs and Transformers run reliably in production with high quality, strong performance, and controlled costs. Your impact will be direct: you'll design and operate solutions that power key products, handling large datasets and demanding requirements.
+What You'll Do:
+- Design, train, and fine-tune NLP and LLM models.- Build and operate production inference services.- Implement MLOps to ensure quality and lifecycle management.
+What we are looking for:
+- 3+ years of experience delivering end-to-end NLP and LLM solutions.- Strong command of bidirectional Transformer models such as BERT, ALBERT, and RoBERTa.- Experience with fine-tuning, LoRA, quantization, distillation, and model evaluation.- Experience with LLMs in production, including prompting, structured outputs (JSON schema), RAG (FAISS/Milvus), batch and async inference, and cost/latency monitoring.- Strong experience in AWS, including SageMaker (training, endpoints), ECS (GPU instances), S3, Glue, Lambda, Step Functions, and CDK for IaC, or similar services in Azure/GCP.- Experience with PyTorch or TensorFlow, PySpark, scikit-learn, pandas, and NumPy.- Experience building production-grade APIs with FastAPI or Flask for real-time inference.- Solid experience in MLOps, including MLflow/W&amp;B, CI/CD, model registry, drift monitoring, and canary/shadow deployments.- Advanced knowledge of SQL databases, data lakes, and search engines such as OpenSearch or Elasticsearch.- Advanced proficiency in English.
+How we make your work (and your life) easier:
+- 100% remote - work from anywhere.- Excellent compensation in USD or your local currency if preferred.- Flexible hours - make your schedule.- Paid parental leave, vacation, &amp; national holidays.- Innovative and multicultural work environment.- Collaborate and learn from the global Top 1% of talent in each area.- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Join a global team where your unique talents can truly thrive and make a significant impact!
+Apply now!</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>8eb27daec96d</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4343653025/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2025-12-15T23:13:11+00:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>«NLP»: AI Engineer (Remote) - Lumenalta y más</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>At Lumenalta, we partner with forward-thinking organizations to build technology solutions that scale, delight users, and accelerate business growth. Our global teams bring curiosity, commitment, and technical excellence to every project. We value transparency, autonomy, and impact—empowering every team member to do their best work.
+We’re seeking experienced AI Engineers to join a high-growth fintech prospect focused on back-office workflow automation. This role is an opportunity to design and deploy production-grade AI systems for community banks, mortgage, and insurance institutions while shaping a flexible, modern architecture alongside an accomplished executive team.
+What You’ll Be DoingDesign, build, and deploy AI models into production (not just prototypes or wrappers).Develop and maintain backend Python services that power intelligent automation workflows.Implement enterprise-scale data pipelines for ingesting and processing financial and regulatory documents, with automated data quality checks and monitoring.Train and optimize models on banking rules, compliance standards, and regulatory datasets.Build intelligent routing systems (e.g., auto-approval for simple loans/accounts, escalation to humans for complex cases).Collaborate with engineering leadership to shape architecture, delivery models, and stack decisions.Ensure compliance-first design, embedding regulatory considerations into every product feature.
+What We’re Looking ForExperience: 3–5+ years in AI/ML engineering with a track record of deploying AI into production at scale.Technical Skills: Strong backend Python; expertise with ML frameworks (TensorFlow, PyTorch, Scikit-Learn, etc.); familiarity with modern data pipeline tools (Airflow, Spark, Kafka) and workflow orchestration frameworks such as n8n or LangGraph.Applied AI: Background in enterprise applications such as chatbots, workflow automation, RAG pipelines, or intelligent document processing.Domain Awareness: Understanding of regulated industries (financial services, insurance, or similar) with the ability to design compliance-aligned models.Collaboration: Comfortable working with a lean, high-performing team and influencing technical direction.Adaptability: Excels in startup-like environments with flexible, evolving tech stacks.
+Why Lumenalta is an amazing place to work atAt Lumenalta, you can expect that you will:Be 100% dedicated to one project at a time so that you can innovate and grow.Be a part of a team of talented and friendly senior-level developers.Work on projects that allow you to use leading tech.
+The job is 100% Remote; please ensure you have a comfortable office set at your desired work location.
+This is a fully remote position open to candidates based in Latin America (LATAM). While location is flexible, candidates must be willing to maintain at least a 6-hour overlap with core business hours, which are primarily aligned with the Pacific, Central, or Eastern U.S. time zones to ensure effective collaboration with project teams.
+This is an evergreen opening with no set deadline; we’re always excited to connect with professionals who want to help us build the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3d1313e2845e</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4312863453/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2025-12-15T23:13:11+00:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>«NLP»: AI Engineer (Remote) - Lumenalta y más</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>3</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Why Join Tech9?
+At Tech9, we are driven by a clear vision—to empower organizations with AI-centered solutions that make them more adaptable, efficient, and future-ready. As a company at the forefront of innovation, we help our clients build exceptional software that not only meets today’s needs but anticipates tomorrow's challenges. Our approach blends cutting-edge AI technology, top-tier talent acquisition, and expert project management to ensure that businesses can scale effectively and deliver high-quality, world-class software on time and within budget.
+Our partnerships speak volumes, with clients like Instructure, Young Living, Imagine Learning, Mars Corp., and many others trusting us to lead the way in software development. We are rapidly growing across our offices in the US, LATAM, and India, and we're creating an environment where talented individuals can thrive, collaborate, and have fun while building transformative solutions.
+If you're excited by the opportunity to work in a fast-paced, innovative environment where scaling and building the future of software is key, we’d love to hear from you. Join us as we work together to redefine the world of software development!
+Project Overview
+We are partnering with a pioneering client at the forefront of immersive learning and AI-powered simulations. Their platform enables professionals to practice and master complex interpersonal skills in high-stakes environments using cutting-edge technology that blends Large Language Models (LLMs), speech recognition, natural language understanding, computer vision, and real-time voice synthesis.
+What makes this project unique is its combination of human-in-the-loop orchestration with advanced multi-modal AI systems—bringing together live interactions, avatar control, and scalable LLM infrastructure to deliver incredibly lifelike and impactful training experiences. The solution goes far beyond simple chatbot interfaces or single-modal agents.
+This is a mission-driven environment backed by research in learning science, psychology, and AI. The goal is to scale this system into a production-grade platform that consistently delivers predictable, stable, and low-latency GenAI performance. If you’re passionate about building enterprise-level LLM infrastructure, working across complex AI systems, and helping shape the future of human-AI interaction—this is a rare and high-impact opportunity.
+Role Overview
+We are hiring a GenAI Engineer to help scale our LLM-powered systems from R&amp;D prototypes into stable, enterprise-ready infrastructure. This is a hands-on engineering role requiring deep technical fluency and a strong sense of ownership. You'll be designing systems that not only function reliably at scale but also handle the complexity of real-time, multi-modal interaction.
+This role is ideal for someone who started in software engineering and has transitioned into AI/LLM engineering, with a demonstrated ability to deploy and maintain robust LLM systems in production.
+What You’ll Be Doing
+Architect and scale production-grade LLM systems with a focus on reliability, latency, and predictability. Lead the design of LLM orchestration systems, including plugin APIs, prompt engineering workflows, and agent frameworks. Optimize and maintain multi-modal GenAI components, including real-time voice, NLP, and visual input modules. Build and maintain infrastructure on AWS, including tools and services such as SageMaker, Lambda, EKS/ECS, and DynamoDB. Own the stability and performance of LLM services through robust observability, monitoring, and scaling techniques. Translate experimental models into enterprise-ready, consistently performing products. Contribute to architectural decisions and roadmap planning for the AI platform. Actively share learnings, mentor others, and document practices to build a collaborative and high-ownership engineering culture. 
+What You Need to Have
+5+ years of software engineering experience, with 2+ years focused on LLM/GenAI system development and deployment. Proven experience scaling LLMs from R&amp;D environments into production, with strong attention to reliability and system behavior under load. Deep understanding of prompt operations, plugin orchestration, and agent-based frameworks for AI applications. Strong fluency in AWS infrastructure, including SageMaker, Lambda, EKS/ECS, and data services like DynamoDB. Familiarity with frameworks like LangChain, Ray, and general LLMOps tooling for orchestration, experimentation, and deployment. Experience working with multi-module systems, particularly involving real-time voice detection, TTS/STT, and multi-modal agents. Systems-thinking approach with a commitment to maintainability, performance, and observability. A mindset of ownership, collaboration, and knowledge-sharing. 
+Nice to Have
+Background in conversational AI, edtech, or simulation-based platforms. Prior contributions to open-source AI infrastructure projects or public LLM benchmarks. Familiarity with real-time simulation or gaming engines integrated with AI components. 
+Interview Process
+The process is designed to be thoughtful, efficient, and focused on both technical ability and team fit.
+10-15 minute virtual Q&amp;A session with our recruiter to clarify the role and answer any questions you may have. This is not an interview, just a conversation to ensure alignment.60-minute live technical Interview, designed to evaluate your creativity and technical problem-solving in the context of LLM architecture and system design.45-minute live client interview with one of the AI leaders on the client team.. Expect a deep dive into your hands-on experience scaling LLM systems, multi-modal systems, your architectural thinking, and your approach to building stable, performant infrastructure.60-minute session with client team, focused on technical ability, and your ability to contribute to the long-term goals of the platform.
+Total time investment: Approximately 4–5 hours.
+To ensure you've received our notifications, please whitelist the domains jazz.co, jazz.com, and applytojob.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>8ba25a98762d</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4343543345/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2025-12-15T21:35:03+00:00</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>«pytorch»: AI builder (Ingeniero IA) - Numbi y más</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>3</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Acerca de Numbi
+Vamos a construir el motor que ayude a los pequeños y medianos empresarios de América Latina a enfocarse 100% en hacer negocios, y no tener que preocuparse por finanzas, impuestos, tesorería, legal, recursos humanos… Nuestra promesa es ofrecer una plataforma que integra inteligencia artificial, automatización y supervisión experta para eliminar la complejidad contable, de impuestos y nómina, liberando tiempo valioso al empresario.
+Numbi está respaldada por los mejores inversionistas semilla de Silicon Valley, y fondos de Canadá, España y Argentina. Nuestro equipo fundador ha creado algunas de las empresas más exitosas de la región y ha implementado AI a escala en Rappi o Hopper. Entre ellos han levantado más de 1Bn de USD de capital, y están seguros de dedicar los siguientes 20 años a convertir este sector en el motor de los negocios latinoamericanos.
+Competencias RequeridasBuscamos un Builder de AI con un fuerte enfoque en el producto, que demuestre una sólida habilidad analítica y experiencia práctica en el desarrollo de software de IA en el mundo real. Nos enfocamos en lo que has creado y tu conocimiento técnico, más que en credenciales académicas.
+Formación Básica: Alguna formación en matemáticas, física o ingeniería. No se requiere un título universitario finalizado, pero sí una base sólida en principios cuantitativos.Mente Analítica: Capacidad demostrada para analizar problemas complejos, desglosarlos en componentes manejables y aplicar razonamiento lógico para encontrar soluciones eficientes.Experiencia en IA: Experiencia demostrada con prototipos y conocimiento del estado del arte. Si en 6 meses has logrado lo toma a otros años, mejor.Sesgo a la acción: capacidad demostrada para lanzar productos, encontrar soluciones así sean parciales y salir adelante de situaciones difíciles
+Que esperarDebes esperar mucho trabajo duro, muchas oportunidades de tener ideas y ejecutarlas en el mismo día y de generar impacto directo en cientos de empresas latinoamericanas. No tenemos muchas jerarquías y no nos importan los títulos, si eres excepcional vas a tener la oportunidad de crecer tu carrera sin ningún tipo de límite, muy rápido, teniendo responsabilidades que en otros lados tomarían décadas; por el otro lado esto implica que tenemos expectativas quizás irracionales de cada persona que se une a Numbi, y pediremos mucho más de lo que parece razonable…</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>b521398a3db3</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4343781032/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2025-12-15T21:35:03+00:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>«pytorch»: AI builder (Ingeniero IA) - Numbi y más</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>At Lumenalta, we partner with forward-thinking organizations to build technology solutions that scale, delight users, and accelerate business growth. Our global teams bring curiosity, commitment, and technical excellence to every project. We value transparency, autonomy, and impact—empowering every team member to do their best work.
+We’re seeking experienced AI Engineers to join a high-growth fintech prospect focused on back-office workflow automation. This role is an opportunity to design and deploy production-grade AI systems for community banks, mortgage, and insurance institutions while shaping a flexible, modern architecture alongside an accomplished executive team.
+What You’ll Be DoingDesign, build, and deploy AI models into production (not just prototypes or wrappers).Develop and maintain backend Python services that power intelligent automation workflows.Implement enterprise-scale data pipelines for ingesting and processing financial and regulatory documents, with automated data quality checks and monitoring.Train and optimize models on banking rules, compliance standards, and regulatory datasets.Build intelligent routing systems (e.g., auto-approval for simple loans/accounts, escalation to humans for complex cases).Collaborate with engineering leadership to shape architecture, delivery models, and stack decisions.Ensure compliance-first design, embedding regulatory considerations into every product feature.
+What We’re Looking ForExperience: 3–5+ years in AI/ML engineering with a track record of deploying AI into production at scale.Technical Skills: Strong backend Python; expertise with ML frameworks (TensorFlow, PyTorch, Scikit-Learn, etc.); familiarity with modern data pipeline tools (Airflow, Spark, Kafka) and workflow orchestration frameworks such as n8n or LangGraph.Applied AI: Background in enterprise applications such as chatbots, workflow automation, RAG pipelines, or intelligent document processing.Domain Awareness: Understanding of regulated industries (financial services, insurance, or similar) with the ability to design compliance-aligned models.Collaboration: Comfortable working with a lean, high-performing team and influencing technical direction.Adaptability: Excels in startup-like environments with flexible, evolving tech stacks.
+Why Lumenalta is an amazing place to work atAt Lumenalta, you can expect that you will:Be 100% dedicated to one project at a time so that you can innovate and grow.Be a part of a team of talented and friendly senior-level developers.Work on projects that allow you to use leading tech.
+The job is 100% Remote; please ensure you have a comfortable office set at your desired work location.
+This is a fully remote position open to candidates based in Latin America (LATAM). While location is flexible, candidates must be willing to maintain at least a 6-hour overlap with core business hours, which are primarily aligned with the Pacific, Central, or Eastern U.S. time zones to ensure effective collaboration with project teams.
+This is an evergreen opening with no set deadline; we’re always excited to connect with professionals who want to help us build the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>b8b0b4ece8b8</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4343714505/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2025-12-15T21:35:03+00:00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>«pytorch»: AI builder (Ingeniero IA) - Numbi y más</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>LLM - Senior Staff Engineer - Python + Machine LearningExperience - 9 - 10 yearsDuration - 3 months (Contract)
+Special Requirements:Strong background in Machine Learning, NLP, and modern deep learning architectures (Transformers, LLMs).9+ yrs of hands-on experience with frameworks such as PyTorch, TensorFlow, Hugging Face, or DeepSpeed2+ yrs of proven experience managing teams delivering ML/LLM models in production environments.
+Role Overview:We are seeking a hands-on Machine Learning Engineering Manager to lead cross-functional teams building and deploying cutting-edge LLM and ML systems. In this role, you’ll drive the full lifecycle of AI development — from research and large-scale model training to production deployment — while mentoring top engineers and collaborating closely with research and infrastructure leaders.You’ll combine technical depth in deep learning and MLOps with leadership in execution and strategy, ensuring that Turing’s AI initiatives deliver reliable, high-performance systems that translate research breakthroughs into measurable business impact.This position is ideal for leaders who are still comfortable coding, optimising large-scale training pipelines, and navigating the intersection of research, engineering, and product delivery.
+Roles &amp; Responsibilities:Lead and mentor a cross-functional team of ML engineers, data scientists, and MLOps professionals.Oversee the full lifecycle of LLM and ML projects — from data collection to training, evaluation, and deployment.Collaborate with Research, Product, and Infrastructure teams to define goals, milestones, and success metrics.Provide technical direction on large-scale model training, fine-tuning, and distributed systems design.Implement best practices in MLOps, model governance, experiment tracking, and CI/CD for ML.Manage compute resources, budgets, and ensure compliance with data security and responsible AI standards.Communicate progress, risks, and results to stakeholders and executives effectively.
+Required Skills &amp; Qualifications:9+ yrs of strong background in Machine Learning, NLP, and modern deep learning architectures (Transformers, LLMs).Hands-on experience with frameworks such as PyTorch, TensorFlow, Hugging Face, or DeepSpeed2+ yrs of proven experience managing teams delivering ML/LLM models in production environments.Knowledge of distributed training, GPU/TPU optimization, and cloud platforms (AWS, GCP, Azure).Familiarity with MLOps tools like MLflow, Kubeflow, or Vertex AI for scalable ML pipelines.Excellent leadership, communication, and cross-functional collaboration skills.Bachelor’s or Master’s in Computer Science, Engineering, or related field (PhD preferred).
+Nice to Have:Experience training or fine-tuning foundation models.Contributions to open-source ML or LLM frameworks.Understanding of Responsible AI, bias mitigation, and model interpretability.
+“We are currently considering candidates located in Europe, Latin America (LatAM), the United States, Mexico and Canada. Please note that applicants from OFAC-restricted countries, Ethiopia, Germany, and Ukraine are not eligible for this role.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>0aed7fa2303a</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4343005180/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2025-12-15T19:35:40+00:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>«machine learning»: Stradata AML - Analista de Datos - (Python &amp; Knime) Aplicado a prevención LA/FT publicado el 12/15/25</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Buscamos un(a) Analista de Datos proactivo(a) para unirse a nuestro equipo de analitica de datos. Tu rol principal será analizar desarrollar procesos para analizar grandes volúmenes de datos para identificar, investigar y reportar patrones de actividad sospechosa relacionados con el Lavado de Dinero (AML).Responsabilidades Clave:Desarrollar y mantener modelos de detección de riesgo AML.Automatizar procesos de extracción y transformación de datos (ETL).Generar reportes y visualizaciones para áreas clave.Requisitos Indispensables:Experiencia comprobada en análisis de datos enfocado en AML / PLD.Dominio avanzado de Python.Sólida experiencia en la plataforma Knime para la creación de flujos de trabajo analíticos y ETL.Conocimiento de SQL y bases de datos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>e7b9883c5fdd</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4227266884/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2025-12-15T19:35:40+00:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>«machine learning»: Stradata AML - Analista de Datos - (Python &amp; Knime) Aplicado a prevención LA/FT publicado el 12/15/25</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>3</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Requirements
+ Description and Requirements 
+No previous professional experience is required to apply to this role, however, working on this project will require you to pass the basic requirements and go through a standard assessment process. This is a part-time long-term project and your work will be subject to our standard quality assurance checks during the term of this agreement.
+Basic Requirements
+ Full Professional Proficiency in English &amp; Spanish language  Being a resident in Mexico for the last 2 consecutive years and having familiarity with current and historical business, media, sport, news, social media, and cultural affairs in Mexico  Ability to follow guidelines and conduct online research using search engines, online maps, and website information  Flexibility to work across a diverse set of task types, including maps, news, audio tasks, and relevance  Daily access to a broadband internet connection, computer, and relevant software 
+Assessment
+In order to be hired into the program, you’ll take an open book qualification exam that will determine your suitability for the position and complete ID verification. Our team will provide you with guidelines and learning materials before your qualification exam. You will be required to complete the exam in a specific timeframe but at your convenience.
+Equal Opportunity
+All qualified applicants will receive consideration for a contractual relationship without regard to race, color, religion, sex, sexual orientation, gender identity, national origin, disability, or protected veteran status. At TELUS Digital AI, we are proud to offer equal opportunities and are committed to creating a diverse and inclusive community. All aspects of selection are based on applicants’ qualifications, merits, competence, and performance without regard to any characteristic related to diversity.
+Additional Job Description
+Are you a detail-oriented individual with a passion for research and a good understanding of national and local geography? This freelance opportunity allows you to work at your own pace and from the comfort of your own home.
+A Day in the Life of an Online Data Analyst:
+ In this role, you will be working on a project aimed at enhancing the content and quality of digital maps that are used by millions of people worldwide  Completing research and evaluation tasks in a web-based environment such as verifying and comparing data, and determining the relevance and accuracy of information. 
+Join us today and be part of a dynamic and innovative team that is making a difference in the world!
+TELUS Digital AI Community
+Our global AI Community is a vibrant network of 1 million+ contributors from diverse backgrounds who help our customers collect, enhance, train, translate, and localize content to build better AI models. Become part of our growing community and make an impact supporting the machine learning models of some of the world’s largest brands. 
+EEO Statement
+At TELUS Digital, we enable customer experience innovation through spirited teamwork, agile thinking, and a caring culture that puts customers first. TELUS Digital is the global arm of TELUS Corporation, one of the largest telecommunications service providers in Canada. We deliver contact center and business process outsourcing (BPO) solutions to some of the world's largest corporations in the consumer electronics, finance, telecommunications and utilities sectors. With global call center delivery capabilities, our multi-shore, multi-language programs offer safe, secure infrastructure, value-based pricing, skills-based resources and exceptional customer service - all backed by TELUS, our multi-billion dollar telecommunications parent.
+Equal Opportunity Employer
+At TELUS Digital, we are proud to be an equal opportunity employer and are committed to creating a diverse and inclusive workplace. All aspects of employment, including the decision to hire and promote, are based on applicants’ qualifications, merits, competence and performance without regard to any characteristic related to diversity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>42ee77b6481e</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4327692917/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2025-12-15T15:36:09+00:00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: AI builder (Ingeniero IA) - Numbi y más</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>3</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Persona is the company top startups use to hire people from all around the world. Our vision is a future where each person can find the best role for them and companies can discover the world’s best talent. Founded by two Stanford University graduates, Persona works with the world’s fastest-growing technology startups. Our clients are funded by some of the world’s top investors, like Founders Fund, Sequoia Capital, and Andreessen Horowitz.
+Persona is a talent agency that recruits, trains, and staffs talented remote professionals such as yourself. This is an opportunity to work closely with the future Googles, Facebooks, and Amazons of the world—building out their organizations and helping them reach the next level of success.
+We support everyone we hire with training, mentoring, and technology resources so they are enabled to do their best and are as happy as possible in their roles. We have a large international team dedicated to supporting and taking care of new Persona team members, and our goal is to provide excellent long-term career opportunities for everyone who joins the team.
+Who’s building Persona?We are a global team of passionate problem solvers who love to build new things and make our customers happy. Our team is made up of motivated, hard-working people spanning the globe, united by a culture of learning and continuous improvement.
+What we’re looking for:We are looking for a Data Scientist who will work on building models, analyzing large datasets, and creating tools that power our investment decisions. You'll play a strategic role in leveraging data to identify high-potential startups and improve how we evaluate and support portfolio companies.
+Responsibilities—what you'll do:Build and maintain predictive models to score startups and markets.Apply machine learning techniques to extract insights from structured and unstructured data.Use historical deal flow and startup performance data to improve sourcing and screening.Design tools and internal systems that support scalable decision-making.Automate data pipelines and workflows to reduce manual work.Integrate third-party data (e.g., Crunchbase, PitchBook, LinkedIn) into internal platforms.Work with the investment team to validate insights and hypotheses using data.Provide technical support during due diligence processes.Translate complex models and insights into actionable recommendations.Help roll out native AI solutions across the firm to improve efficiency and deal quality
+Requirements:Bachelor’s or Master’s degree in Statistics, Computer Science, Data Science, Applied Mathematics, or a related field.4+ years of experience in data science, machine learning, or analytics.Prior experience in startups or venture capital firms is strongly preferred; a demonstrated interest is a plus.Experience in Python or R for data analysis and modeling.Strong SQL skills.Experience working with APIs and data scraping.Ability to work U.S. business hours (Pacific Time, Central Time, or Eastern Time)This position is for serious, career-oriented candidates
+Qualities we look for:Strong problem-solving skills and analytical thinking.Ability to explain complex concepts to non-technical audiences.Comfortable working independently and exploring messy datasets.Interest in using data to drive strategic decisions.
+What we offer:Best salaries in the industryPermanent ability to work from anywhere in the worldOpportunities for growth and advancementA fast-paced and collaborative environmentWarm and friendly company cultureFull benefits
+Benefits at Persona:Health insuranceUnlimited paid time off (paid sick and vacation leaves)Annual bonuses based on performanceMonthly tech allowanceOpportunity to be paid in your currency of choiceOthers depending on seniority
+This is a full-time and long-term role. We are looking for individuals who are ready to fully commit their time and energy to one company and grow and develop along with that company. All roles at Persona are 100% work-from-anywhere (work from home or wherever it suits you best). If this is your first time working for a U.S. company, that’s okay; we provide guidance and assistance getting set up as a remote professional. Once hired, we will carefully match you to a client company of ours that perfectly suits your career background, skills, and goals.
+Visit our website for more information: https://www.personatalent.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>bae2829dad3c</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4349906446/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2025-12-15T15:36:09+00:00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: AI builder (Ingeniero IA) - Numbi y más</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>3</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Descripción de empleo
+A leading technology company based in Germany, specializing in simplifying the way people interact with business software is lookinf for Sr. LLM Engineer. With our strong foundation in SAP and a commitment to human-centered design, we deliver intelligent, user-centered solutions that optimize business processes across numerous industries. As a long-standing SAP Gold Partner, we pride ourselves on our integrated approach, combining business, design, and technology to create impactful solutions.
+About the RoleWe are looking for a highly skilled Senior LLM Engineer to join a leading international tech team, contributing to the design, development, and deployment of large-scale language model (LLM) solutions for enterprise environments.If you're passionate about Generative AI, RAG pipelines, and building real-world intelligent systems, this role is for you.Key Responsibilities• Design and implement LLM-based solutions using LangChain, LangGraph, and LlamaIndex • Build ingestion, storage, retrieval, and evaluation pipelines • Develop agents, tools, and complex workflows for internal and client use • Integrate LLMs with backend systems using Python • Work collaboratively with international teams to build scalable cloud-based solutions
+RequirementsProven experience with LLM frameworks (LangChain, LlamaIndex, LangGraph).Real-world experience with RAG pipelines and agents.Proficiency in APIs from OpenAI, Anthropic, Google, etc.Advanced Python skills.Expertise in deployment and integration with production systems.Advanced English language proficiency.
+Why Join Us?Opportunity to work with a forward-thinking company at the forefront of AI technology.Collaborative and innovative work environment within a skilled international team.Flexible working arrangements with the possibility of remote work.Competitive compensation package in local currency.Opportunities for professional growth and continuous learning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>f73fbd1a63af</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4327226302/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2025-12-13T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>«LLM»: Remote AI Engineer - HireLATAM y más</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>3</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>HireLatam is a premier recruitment agency that places top Latin American talent in independent contractor roles in US companies. With a proven track record and a commitment to excellence, we're your trusted partner in the pursuit of career success. Our extensive network, personalized approach, and supportive guidance ensure that you're in the best hands to find your next job opportunity.
+Job Title: Remote AI Engineer (100% Work From Home) Location: Remote from Latin AmericaPosition Type: Full-timeSalary: $3,500 - 4,500 USD/month + 10% of the yearly ROI on projects delivered, shared between members involved paid via DeelSchedule: Monday to Friday, 7:00am to 3:30pm Eastern Time (with a 30min break)
+Job OverviewOur client is the leading proptech platform serving condominium and HOA communities. They streamline the resident onboarding process by digitizing applications, background checks, payments, and approvals — creating a stress-free experience for applicants and property managers alike. With their innovative, AI-driven solutions, we help communities save time, reduce risk, and deliver exceptional service.Contribute to AI-powered features and reliable Java microservices that power screening, document/OCR, and identity workflows—bringing modern ML building blocks to production while learning our proven delivery practices.ResponsibilitiesBuild small Python services for ML/OCR (FastAPI), integrate with Bedrock/OpenAI and AWS Textract/Comprehend.Experience with AI frameworks, particularly LangChain.Productionize models (basic MLOps: packaging, Docker, versioning, evals); add batch/async processing.Create and consume REST APIs; write integration tests; participate in code reviews.Implement and maintain Java (Spring Boot) microservices.
+Qualifications, Skills and Key Competencies3-5 years in software engineering with Java (Spring/Hibernate) and Python.Exposure to ML workflows (NumPy/Pandas/scikit-learn or Keras/TensorFlow).Experience with Docker, SQL (Mysql, PostgreSQL), and at least one NoSQL (MongoDB).AWS (Lambda, SQS/SNS, S3, KMS, Step Functions, SageMaker or Bedrock).ML tooling: MLflow, DVC, basic prompt engineering, vector DBs (pgvector/Pinecone).Computer vision (YOLO), OCR pipelines, evaluation dashboards.Frontend basics (Vue/React) for internal tools.Familiarity with message brokers/streams and microservice patterns.Comfortable with Git, unit/integration testing,Written English/Spanish.Soft SkillsSelf-motivated, adaptable, and eager to embrace new challenges.Strong leadership and team management abilities.Excellent problem-solving and analytical thinking.
+SHORT TERM PROJECTSVendor &amp; AI Model IntegrationExecute integration projects with external vendors and AI model providers to automate internal (operations, development workflows) and external (customer-facing) processes.Work with senior engineering lead to translate integration requirements into working solutions using Java (Spring Boot) and Python (FastAPI).Build connectors, APIs, and services that securely exchange data with vendor systems and AI inference endpoints.Develop monitoring scripts and automated tests to validate vendor integration performance and reliabilityAI-Driven Workflow AutomationImplement LLM-powered decision-making and OCR/CV pipelines (YOLO, AWS Textract, Comprehend) to streamline document validation, screening, and application processing.Package and version AI models for production deployment, including Dockerization, API hosting, and performance tuning.Collaborate with QA to evaluate AI model outputs and improve accuracy over time.Legacy System IntegrationBuild adapters and middleware that allow AI-enhanced services to interoperate with the company's legacy systems during phased migration.Document integration points and dependency chains to support future modernization.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>0cb9ad3dfcc3</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4327106573/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2025-12-13T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>«LLM»: Remote AI Engineer - HireLATAM y más</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>¿Te apasiona la tecnología y la innovación?
+Conoce nuestro ADN
+Nos adaptamos fácilmente a los cambiosCreamos valor constantementePensamos y actuamos como dueñosFanáticos de los resultados y la agilidadEl conocimiento colectivo nos vuelve poderosos
+Tu principal reto será:
+Estamos en búsqueda de un/a Ingeniero/a de Inteligencia Artificial Junior con más de 1 año y medio de experiencia profesional en el diseño, desarrollo e implementación de soluciones de software basadas en inteligencia artificial. Buscamos un/a profesional apasionado/a por la innovación tecnológica, con sólida experiencia en frameworks avanzados, automatización de procesos , herramientas especializadas en IA Generativa y flujos de trabajo con modelos avanzados
+Tendrás que:
+Desarrollar APIs RESTful y microservicios escalables utilizando Python y frameworks como Django y Flask.Diseñar soluciones innovadoras con IA Generativa y conversacional en modelos como Llama, Mixtral, GPT, BERT y sus variantes.Desarrollar sistemas con Recuperación Aumentada de Información (RAG) para integrar datos contextuales en aplicaciones basadas en IA.Crear flujos avanzados de trabajo con frameworks como LangChain para sistemas conversacionales y automatización de procesos complejos.Participar en la implementación de pipelines de datos y despliegue de modelos en entornos productivos usando Docker, Kubernetes y plataformas de nube como AWS, Azure y GCP.Desarrollar soluciones de visión por computadora para el análisis y procesamiento de imágenes y videos, utilizando técnicas avanzadasImplementar soluciones de RPA para automatizar procesos repetitivos, mejorando la eficiencia operativa y tareas empresariales clave, supervisando su rendimiento y ajustándolos según sea necesario.
+Necesitaras:
+Formación Académica:
+·Profesional en Ingeniería de Sistemas, Ingeniería de Software o áreas relacionadas.
+Experiencia Técnica:
+·Más de 1 año y medio de experiencia en el desarrollo de soluciones de inteligencia artificial.·Dominio de Python y frameworks asociados al desarrollo de software backend.·Experiencia en IA Generativa, incluyendo el uso de modelos de PLN.·Familiaridad con bases de datos vectoriales y su integración en aplicaciones.·Conocimientos en herramientas de automatización de procesos RPA como UiPath, Rocketbot o Power Automate.
+Habilidades Complementarias:
+·Pensamiento analítico y capacidad para resolver problemas técnicos complejos.·Habilidad para trabajar en equipo, con experiencia en metodologías ágiles como Scrum y Kanban.·Pasión por la actualización constante en tendencias de IA, aprendizaje automático y desarrollo de software
+Contrato a Término Indefinido + Beneficios.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>10a4391413bc</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4343521499/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2025-12-13T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>«LLM»: Remote AI Engineer - HireLATAM y más</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>3</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>I’m helping Nova Kore find a top candidate to join their team flexible for the role of Senior Data Scientist - Kaggle Grandmaster.
+You'll transform complex data into cutting-edge AI insights, shaping next-generation analytical systems.
+Compensation:USD 57 - 77/hour
+Location:Remote (anywhere)
+Mission of Nova Kore:"Connecting people and companies to create meaningful, transformative career and business opportunities."
+What makes you a strong candidate:You are proficient in scikit-learn, Statistical analysis, SQL, Python, Pandas.You have the potential to develop in Word embedding, Spark, Snowflake, BigQuery.English - Conversational
+Responsibilities and more:Looking for a highly skilled Data Scientist with a Kaggle Grandmaster profile. In this role, you will transform complex datasets into actionable insights, high-performing models, and scalable analytical workflows. You will work closely with researchers and engineers to design rigorous experiments, build advanced statistical and ML models, and develop data-driven frameworks to support product and research decisions.
+What You’ll Do
+* Analyze large, complex datasets to uncover patterns, develop insights, and inform modeling direction.* Build predictive models, statistical analyses, and machine learning pipelines across tabular, time-series, NLP, or multimodal data.* Design and implement robust validation strategies, experiment frameworks, and analytical methodologies.* Develop automated data workflows, feature pipelines, and reproducible research environments.* Conduct exploratory data analysis (EDA), hypothesis testing, and model-driven investigations to support research and product teams.* Translate modeling outcomes into clear recommendations for engineering, product, and leadership teams.* Collaborate with ML engineers to productionize models and ensure data workflows operate reliably at scale.* Present findings through well-structured dashboards, reports, and documentation.
+Qualifications
+* Kaggle Competitions Grandmaster or comparable achievement: top-tier rankings, multiple medals, or exceptional competition performance.* 3–5+ years of experience in data science or applied analytics.* Strong proficiency in Python and data tools (Pandas, NumPy, Polars, scikit-learn, etc.).* Experience building ML models end-to-end: feature engineering, training, evaluation, and deployment.* Solid understanding of statistical methods, experiment design, and causal or quasi-experimental analysis.* Familiarity with modern data stacks: SQL, distributed datasets, dashboards, and experiment tracking tools.* Excellent communication skills with the ability to clearly present analytical insights.
+Nice to Have
+* Strong contributions across multiple Kaggle tracks (Notebooks, Datasets, Discussions, Code).* Experience in an AI lab, fintech, product analytics, or ML-focused organization.* Knowledge of LLMs, embeddings, and modern ML techniques for text, images, and multimodal data.* Experience working with big data ecosystems (Spark, Ray, Snowflake, BigQuery, etc.).* Familiarity with statistical modeling frameworks such as Bayesian methods or probabilistic programming.
+Why JoinGain exposure to cutting-edge AI research workflows, collaborating closely with data scientists, ML engineers, and research leaders shaping next-generation analytical systems.Work on high-impact data science challenges while experimenting with advanced modeling strategies, new analytical methods, and competition-grade validation techniques.Collaborate with world-class AI labs and technical teams operating at the frontier of forecasting, experimentation, tabular ML, and multimodal analytics.Flexible engagement options (30–40 hrs/week or full-time) — ideal for data scientists eager to apply Kaggle-level problem-solving to real-world, production analytics.Fully remote and globally flexible work structure — optimized for deep analytical work, async collaboration, and high-output research.
+We consider all qualified applicants without regard to legally protected characteristics and provide reasonable accommodations upon request.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>adec915f9b50</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4343532281/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2025-12-13T21:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>«pytorch»: Remote AI Engineer - HireLATAM y más</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>3</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Job DescriptionSenior Data Scientist – AI Product &amp; Customer InsightsAbout the TeamAt Coderoad, we're more than just a software development company — we're your gateway to the global tech world. Whether you're looking to skill up or level up your career, we offer the challenges you’ve been searching for.We provide end-to-end software development services and give you the opportunity to work on exciting, real-world projects in a supportive environment. Whether it's staff augmentation, dedicated IT teams, or general software engineering, we have opportunities for everyone to challenge themselves and take their career to the next level.Our client’s platform is evolving from business texting and reputation management into a comprehensive Customer Experience (CX) solution for the automotive and specialty dealership markets. Integrated with major DMS and CRM systems, they’re building their next-generation Customer Data Platform (CDP 2.0) on Google Cloud Platform (GCP) with BigQuery.We’re seeking an experienced and innovative Senior Data Scientist to play a key role in unlocking the value of this new platform and driving the company’s AI strategy.Location: LATAMTime Zone: Team operates on U.S. East/West Coast hoursHow You’ll Make an ImpactUncover deep customer insights by developing advanced segmentation models using clustering and ML techniques on CDP data (transactions, communications, demographics, sentiment).Build predictive models for Customer Lifetime Value (CLV) and churn propensity to support proactive retention strategies.Design and implement Retrieval-Augmented Generation (RAG) systems using dealership-specific data for more context-aware AI agents.Evaluate and recommend the best Large Language Models (LLMs) based on performance, cost, and fine-tuning potential.Optimize prompts and AI workflows to deliver sophisticated, integrated AI features.Develop predictive models to forecast the success of messaging and marketing campaigns across dealership goals (sales, service, reviews, NPS).Apply NLP techniques to analyze message content and linguistic patterns tied to successful outcomes.Conduct A/B/n testing to identify key engagement and conversion drivers.Analyze dealership data (anonymized and aggregated) to identify improvement opportunities and actionable business insights.Collaborate with Product and Engineering teams to build dashboards and reports highlighting:Operational efficiency (staffing, communication patterns)Process optimization (e.g., service follow-up bottlenecks)Marketing strategy performance and industry benchmarksPartner with Product, Engineering, and Data Platform teams to translate insights into new product features.Serve as a key user and advocate for the new GCP / Iceberg / BigQuery Data Platform, ensuring data readiness for analytics and ML applications.Support deployment, monitoring, and continuous improvement of ML models in production.
+What We’re Looking ForMust-HavesMS or PhD in Computer Science, Statistics, Machine Learning, or a related field (or equivalent experience).5+ years of experience building and deploying ML models in commercial environments.Strong proficiency in Python and core libraries (Pandas, NumPy, Scikit-learn, TensorFlow/PyTorch).Proven experience in NLP and working with LLMs, including RAG-based systems.Strong understanding of ML theory, statistical modeling, and A/B testing.Proficiency in SQL and experience with large datasets and data warehouses (BigQuery, Spark).Experience with cloud platforms, preferably GCP.Excellent communication skills — able to translate technical insights to both technical and business audiences.Nice-to-HavesExperience with Apache Iceberg or similar lakehouse formats.Hands-on experience implementing RAG architectures and using vector databases.Familiarity with BigQuery ML or Vertex AI.Knowledge of MLOps tools and best practices.Experience fine-tuning LLMs or developing customer-facing analytics.Background in SaaS or familiarity with the automotive/dealership industry.What You’ll LoveUSA Contractor100% RemoteHolidays OffPaid Time OffHealth Insurance Assistance ProgramCompetitive Pay (USD)Excellent teamwork and work environmentTraining opportunitiesHigh-impact role shaping the company’s AI and data strategyWork with a modern tech stack and newly formed Data Platform TeamA collaborative, innovative, and data-driven culture</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>0f3cccac41c0</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4338300150/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2025-12-13T21:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>«pytorch»: Remote AI Engineer - HireLATAM y más</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>3</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Join Our Team
+Oowlish, one of Latin America's rapidly expanding software development companies, is seeking experienced technology professionals to enhance our diverse and vibrant team.
+As a valued member of Oowlish, you will collaborate with premier clients from the United States and Europe, contributing to pioneering digital solutions. Our commitment to creating a nurturing work environment is recognized by our certification as a Great Place to Work, where you will have opportunities for professional development, growth, and a chance to make a significant international impact.
+We offer the convenience of remote work, allowing you to craft a work-life balance that suits your personal and professional needs. We're looking for candidates who are passionate about technology, proficient in English, and excited to engage in remote collaboration for a worldwide presence.
+About the Role:
+We are searching for an AI + Python Engineer to design and deploy advanced generative AI solutions across text, image, and video modalities. In this role, you’ll work at the intersection of engineering and AI product development, building scalable pipelines, integrating state-of-the-art models, and optimizing performance and cost in production environments. You will collaborate closely with product, engineering, and design teams to bring creative and technically complex ideas to life.
+This position offers the opportunity to work with cutting-edge tools—including LLMs, diffusion models, AWS Bedrock, and Anthropic Claude—while contributing to high-impact projects in the technology and education sectors. If you enjoy solving modern AI challenges, deploying production-ready models, and experimenting with the latest advancements in multimodal generation, this is an ideal role with strong growth potential.
+Responsibilities:
+Design and develop pipelines for multimodal AI generation (text, audio, image, video)Integrate generative AI models into production systems using AWS servicesCollaborate with product and design teams to translate requirements into functional featuresMonitor model performance, quality, and cost efficiency in productionMaintain continuous improvements and update models as new capabilities emerge
+Must Have:
+Hands-on experience with generative AI models (LLMs, Stable Diffusion, etc.)Strong proficiency in Python, including PyTorch/TensorFlow and API integrationsExperience with AWS (Bedrock, SageMaker, Lambda, S3)Familiarity working with Anthropic Claude, GPT, or similar LLMsAbility to work independently and deliver production-ready code
+Nice to have:
+Experience building multimodal (image/video) generation pipelinesExposure to ML optimization, fine-tuning, or cost-reduction techniques
+Benefits &amp; Perks:
+Home office;
+Competitive compensation based on experience;
+Career plans to allow for extensive growth in the company;
+International Projects;
+Oowlish English Program (Technical and Conversational);
+Oowlish Fitness with Total Pass;
+Games and Competitions;
+You can also apply here:
+Website: https://www.oowlish.com/work-with-us/
+LinkedIn: https://www.linkedin.com/company/oowlish/jobs/
+Instagram: https://www.instagram.com/oowlishtechnology/
+We may use artificial intelligence (AI) tools to support parts of the hiring process, such as reviewing applications, analyzing resumes, or assessing responses. These tools assist our recruitment team but do not replace human judgment. Final hiring decisions are ultimately made by humans. If you would like more information about how your data is processed, please contact us.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>5c2a92790c8c</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4338260266/</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2025-12-13T21:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>«pytorch»: Remote AI Engineer - HireLATAM y más</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Join Our Team
+Oowlish, one of Latin America's rapidly expanding software development companies, is seeking experienced technology professionals to enhance our diverse and vibrant team.
+As a valued member of Oowlish, you will collaborate with premier clients from the United States and Europe, contributing to pioneering digital solutions. Our commitment to creating a nurturing work environment is recognized by our certification as a Great Place to Work, where you will have opportunities for professional development, growth, and a chance to make a significant international impact.
+We offer the convenience of remote work, allowing you to craft a work-life balance that suits your personal and professional needs. We're looking for candidates who are passionate about technology, proficient in English, and excited to engage in remote collaboration for a worldwide presence.
+About the Role:
+We are searching for an AI + Python Engineer to design and deploy advanced generative AI solutions across text, image, and video modalities. In this role, you’ll work at the intersection of engineering and AI product development, building scalable pipelines, integrating state-of-the-art models, and optimizing performance and cost in production environments. You will collaborate closely with product, engineering, and design teams to bring creative and technically complex ideas to life.
+This position offers the opportunity to work with cutting-edge tools—including LLMs, diffusion models, AWS Bedrock, and Anthropic Claude—while contributing to high-impact projects in the technology and education sectors. If you enjoy solving modern AI challenges, deploying production-ready models, and experimenting with the latest advancements in multimodal generation, this is an ideal role with strong growth potential.
+Responsibilities:
+Design and develop pipelines for multimodal AI generation (text, audio, image, video)Integrate generative AI models into production systems using AWS servicesCollaborate with product and design teams to translate requirements into functional featuresMonitor model performance, quality, and cost efficiency in productionMaintain continuous improvements and update models as new capabilities emerge
+Must Have:
+Hands-on experience with generative AI models (LLMs, Stable Diffusion, etc.)Strong proficiency in Python, including PyTorch/TensorFlow and API integrationsExperience with AWS (Bedrock, SageMaker, Lambda, S3)Familiarity working with Anthropic Claude, GPT, or similar LLMsAbility to work independently and deliver production-ready code
+Nice to have:
+Experience building multimodal (image/video) generation pipelinesExposure to ML optimization, fine-tuning, or cost-reduction techniques
+Benefits &amp; Perks:
+Home office;
+Competitive compensation based on experience;
+Career plans to allow for extensive growth in the company;
+International Projects;
+Oowlish English Program (Technical and Conversational);
+Oowlish Fitness with Total Pass;
+Games and Competitions;
+You can also apply here:
+Website: https://www.oowlish.com/work-with-us/
+LinkedIn: https://www.linkedin.com/company/oowlish/jobs/
+Instagram: https://www.instagram.com/oowlishtechnology/
+We may use artificial intelligence (AI) tools to support parts of the hiring process, such as reviewing applications, analyzing resumes, or assessing responses. These tools assist our recruitment team but do not replace human judgment. Final hiring decisions are ultimately made by humans. If you would like more information about how your data is processed, please contact us.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>099edaf7654e</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4291659031/</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2025-12-13T19:35:02+00:00</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Remote AI Engineer - HireLATAM y más</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>3</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>EPAM is a leading global provider of digital platform engineering and development services. We are committed to having a positive impact on our customers, our employees, and our communities. We embrace a dynamic and inclusive culture. Here you will collaborate with multi-national teams, contribute to a myriad of innovative projects that deliver the most creative and cutting-edge solutions, and have an opportunity to continuously learn and grow. No matter where you are located, you will join a dedicated, creative, and diverse community that will help you discover your fullest potential.  We are looking for a remote Senior Machine Learning Engineer to join our team.As a Senior Machine Learning Engineer, you will be responsible for leading and driving innovative projects related to automatic structuring and understanding of unstructured content for our projects. You will be tasked with refactoring, extending, and improving Contaminant ID's model, algorithms, and MLOps so as to follow best practices and increase its autonomy as a product. Responsibilities Lead and drive innovative projects related to automatic structuring and understanding of unstructured content for our projects Design efficient deep learning-based solutions and ensure high-quality deliverables Refactor, extend, and improve Contaminant ID's model, algorithms, and MLOps so as to follow best practices and increase its autonomy as a product Update dependencies and replace OSS libraries that cannot be commercialized, containerize the solution, and help set up CI/CD pipelines Improve NFR aspects of the solution, such as security and modularity, and consult with the original developers of the prototype solution to productize it Requirements At least 3 years of industry experience as a Machine Learning Engineer with a focus on scientific research, experimentation, and optimal design Strong proficiency in TensorFlow/Python servers, JavaScript for web portal, Tableau for reporting, MariaDB for data storage, Filesystem for video storage, and Docker/Kubernetes for deployment Proven experience in refactoring or rewriting parts of existing Python/TensorFlow code, updating dependencies and replacing OSS libraries that cannot be commercialized, containerizing the solution, and setting up CI/CD pipelines Familiarity with NFR aspects of a solution, such as security and modularity, and ability to improve them Ability to document the new code design and comment on the implementationB2+ English level Nice to have Familiarity with AWS, Terraform, and Ansible Experience with GPU acceleration and parallel computing Familiarity with Natural Language Processing (NLP) techniques We offerInternational projects with top brandsWork with global teams of highly skilled, diverse peersHealthcare benefitsEmployee financial programsPaid time off and sick leaveUpskilling, reskilling and certification coursesUnlimited access to the LinkedIn Learning library and 22,000+ coursesGlobal career opportunitiesVolunteer and community involvement opportunitiesEPAM Employee GroupsAward-winning culture recognized by Glassdoor, Newsweek and LinkedIn</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>27d10ebb6300</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4343326779/</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2025-12-13T15:35:28+00:00</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>«Computer vision»: Remote AI Engineer - HireLATAM y más</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>3</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>En Baufest, nuestra misión es mejorar la vida con tecnología, generando un impacto positivo en la sociedad. Por ello, buscamos un/a Sr Data Engineer para sumarse a nuestro equipo de profesionales.
+ResponsabilidadesLiderar el desarrollo de la práctica Applied AI, diseñando e implementando soluciones tecnológicas basadas en inteligencia artificial que aporten valor al negocio, y trabajando en un entorno multidisciplinario en un entorno ágil.Generar propuestas de valor para clientes y prospectos.Desarrollar y mantener actualizada la oferta de la práctica de AI.Generar una red de contactos que permita acelerar el crecimiento de la práctica.Coordinar y asistir al equipo de AI.Colaborar en el posicionamiento de la unidad AI en nuestros clientes y en el mercado.Implementar indicadores (KPI), seguimiento y análisis de las métricas y objetivos definidos para la prácticaLiderar el análisis Económico-Financiero de los proyectos del área
+RequisitosInglés conversacional (C1).+5 años de experiencia previa en roles como AI Leader, AI Architect o afines.Conocimientos técnicos en IA, Computer Vision, LLM, Python.Estar graduado/a de las carreras: Lic. Sistemas o afines / Económicas (con experiencia en el área de sistemas).
+Te ofrecemosBAU LUNCH: Recibirás un cupón de Pedidos Ya cada viernes del mesBAU COMPENSATIONS: 100% modalidad planilla. Evaluación anual de desempeño y revisión de categorizaciónBAU ANTI-TRAFFIC: En caso de que tu contratación sea en modalidad Híbrida, tendrás opción de elegir tu rango de horario laboral mientras lo avale el proyectoBAU UTILITIES: ¡Luego de trabajar 4 años con la misma notebook en Baufest, será tuya! BAU FAMILY: Maternidad y Paternidad. Softlanding para las madres baufesianas y Paternidad (10 días hábiles de licencia) . Flexibilidad horaria planificada;BAU HEALTH: EPS plan Base; Reintegro trimestrales por actividad deportivaBAU DAYs: Día de cumpleaños LibreBAU ACADEMY: Clases de Inglés in-company; Certificaciones y capacitaciones a cargo de Baufest; Pro Profes (días extra de estudios, premios para estudiantes Universitarios/Terciarios/Posgrados)BAU HOME: Luego de 2 años en Baufest, si tienes que cambiar tu residencia y mudarte recibirás una orden de compra para acompañarte en este gran pasoBAU REFERIDOS: Participa por interesantes premios al referir a tus colegas
+¡Postúlate y sé parte de un equipo inclusivo donde todo pueden crecer!
+Baufest promueve la igualdad de oportunidades y no discrimina por razones de Nacionalidad, género, edad, religión, orientación sexual, discapacidad, ni por ninguna otra característica protegida por la ley.
+¡Te esperamos!
+Baufest protege sus datos personales conforme a las leyes locales de protección de datos aplicables en cada país y siguiendo buenas prácticas de seguridad de la información alineadas con la norma ISO 27001. Su información será tratada con estricta confidencialidad y utilizada únicamente para fines de evaluación y selección.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>39ba0a88dac6</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4338290130/</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2025-12-13T15:35:28+00:00</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>«Computer vision»: Remote AI Engineer - HireLATAM y más</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>3</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Join Our Team
+Oowlish, one of Latin America's rapidly expanding software development companies, is seeking experienced technology professionals to enhance our diverse and vibrant team.
+As a valued member of Oowlish, you will collaborate with premier clients from the United States and Europe, contributing to pioneering digital solutions. Our commitment to creating a nurturing work environment is recognized by our certification as a Great Place to Work, where you will have opportunities for professional development, growth, and a chance to make a significant international impact.
+We offer the convenience of remote work, allowing you to craft a work-life balance that suits your personal and professional needs. We're looking for candidates who are passionate about technology, proficient in English, and excited to engage in remote collaboration for a worldwide presence.
+About the Role:
+We are searching for an AI + Python Engineer to design and deploy advanced generative AI solutions across text, image, and video modalities. In this role, you’ll work at the intersection of engineering and AI product development, building scalable pipelines, integrating state-of-the-art models, and optimizing performance and cost in production environments. You will collaborate closely with product, engineering, and design teams to bring creative and technically complex ideas to life.
+This position offers the opportunity to work with cutting-edge tools—including LLMs, diffusion models, AWS Bedrock, and Anthropic Claude—while contributing to high-impact projects in the technology and education sectors. If you enjoy solving modern AI challenges, deploying production-ready models, and experimenting with the latest advancements in multimodal generation, this is an ideal role with strong growth potential.
+Responsibilities:
+Design and develop pipelines for multimodal AI generation (text, audio, image, video)Integrate generative AI models into production systems using AWS servicesCollaborate with product and design teams to translate requirements into functional featuresMonitor model performance, quality, and cost efficiency in productionMaintain continuous improvements and update models as new capabilities emerge
+Must Have:
+Hands-on experience with generative AI models (LLMs, Stable Diffusion, etc.)Strong proficiency in Python, including PyTorch/TensorFlow and API integrationsExperience with AWS (Bedrock, SageMaker, Lambda, S3)Familiarity working with Anthropic Claude, GPT, or similar LLMsAbility to work independently and deliver production-ready code
+Nice to have:
+Experience building multimodal (image/video) generation pipelinesExposure to ML optimization, fine-tuning, or cost-reduction techniques
+Benefits &amp; Perks:
+Home office;
+Competitive compensation based on experience;
+Career plans to allow for extensive growth in the company;
+International Projects;
+Oowlish English Program (Technical and Conversational);
+Oowlish Fitness with Total Pass;
+Games and Competitions;
+You can also apply here:
+Website: https://www.oowlish.com/work-with-us/
+LinkedIn: https://www.linkedin.com/company/oowlish/jobs/
+Instagram: https://www.instagram.com/oowlishtechnology/
+We may use artificial intelligence (AI) tools to support parts of the hiring process, such as reviewing applications, analyzing resumes, or assessing responses. These tools assist our recruitment team but do not replace human judgment. Final hiring decisions are ultimately made by humans. If you would like more information about how your data is processed, please contact us.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>59a5718b151d</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326922356/</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2025-12-12T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Data Science Expert (Python &amp; SQL) - AI Trainer (Freelance, Remote) - Braintrust y más</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>3</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Role: Data ScientistHours: 9am - 6pm Eastern Time (Remote)USD Salary: negotiable based on experience
+The Data Scientist will be responsible for collecting, analyzing, and interpreting large datasets to generate actionable insights for marketing, operations, and product strategy. This role involves developing predictive models, automating reporting pipelines, and partnering with cross-functional teams to improve customer retention, optimize ad spend, and streamline operations.The ideal candidate is passionate about data-driven growth, skilled in statistical analysis and machine learning, and experienced in working with eCommerce datasets
+.
+ResponsibilitiesAnalyze large datasets to identify trends, patterns, and actionable business insights.Develop predictive and forecasting models for sales, demand, and customer behavior.Partner with marketing, operations, and finance teams to support data-driven decision-making.Design and implement A/B tests to evaluate marketing campaigns, product changes, or pricing strategies.Create and maintain data dashboards and automated reports to track business KPIs.Build and maintain ETL processes to collect and clean data from multiple sources (e.g., Shopify, Google Analytics, CRM, etc.).Apply machine learning and statistical techniques to solve complex business problems.Work with engineers and analysts to ensure data accuracy, consistency, and reliability.Communicate findings and recommendations to stakeholders in clear, actionable ways.Stay up to date with emerging data science tools, technologies, and methodologie
+s.
+RequirementsBachelor’s or Master’s degree in Data Science, Statistics, Computer Science, Mathematics, or a related field.2–5 years of experience as a Data Scientist, Data Analyst, or similar role (preferably in eCommerce, retail, or consumer analytics).Strong proficiency in Python or R for data analysis and modeling.Experience with SQL and data manipulation in relational databases.Hands-on experience with machine learning frameworks (scikit-learn, TensorFlow, PyTorch, etc.).Knowledge of data visualization tools (Power BI, Tableau, or Looker Studio).Solid understanding of statistics, hypothesis testing, and regression modeling.Excellent analytical and problem-solving skills with a business-oriented mindset.Strong communication skills and ability to translate data insights into strategic recommendatio
+ns.
+Preferred Skills (Nice to Have)Experience with eCommerce platforms (Shopify, Magento, Amazon Seller Central, etc.).Familiarity with customer segmentation, LTV prediction, and churn modeling.Understanding of digital marketing analytics (Meta Ads, Google Ads, GA4, attribution modeling)Experience with cloud data tools (BigQuery, Snowflake, AWS Redshift).Exposure to A/B testing tools and experimentation framewo
+rks.
+BenefitsRemote Work: Work from anywhere—our team is global, and we value work-life balance.Growth Opportunities: As a key player i you’ll have the chance to shape your role and grow with us.Innovative Culture: Join a team that is passionate about leveraging data to solve challenges and drive success in a rapidly evolving ma
+rket.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>9806982ce11e</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326874573/</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2025-12-12T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Data Science Expert (Python &amp; SQL) - AI Trainer (Freelance, Remote) - Braintrust y más</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>3</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>At BairesDev®, we've been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the world's Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, you're taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Machine Learning Engineer at BairesDev
+We are looking for an outstanding Machine Learning Engineer to join our team. This professional will use data and machine learning techniques to help the business automate and scale decision-making, mainly by producing advanced data analysis reports and data-based models to infer and predict patterns.
+What You Will Do:
+- Help to improve data literacy and the overall analytical environment across the company.- Handle both structured and unstructured data using SQL and other programming languages.- Perform advanced data analysis and report results.- Tell the story behind data in a compelling manner for business people.- Build predictive models and machine-learning algorithms.- Combine models through ensemble modeling.- Propose solutions and strategies to business challenges.- Help to design and execute experiments for hypothesis testing.- Participate actively in discussions and decisions regarding the whole Machile Learning / Data Science chapter.- Collaborate with data product managers to build awesome data products.- Work with management to prioritize business and information needs.- Help to spread a data-driven mindset and to improve data literacy. Be a data evangelist.
+Here’s what we are looking for:
+- 3+ years of experience with Machine Learning, data science, IA, statistical, and other related areas.- Proficiency with MySQL.- Proficiency in Python, R, or another major programming language.- Excellent communication skills, and capacity to collaborate and build relationships with non-technical users.- Strong knowledge of probability and statistics, including experimental design, predictive modeling, optimization, and causal inference.- Hands-on experience with machine learning, like regression classification, clustering, neural networks, feature selection, cross-validation, the curse of dimensionality, bias-variance tradeoff, model explainability, NLP, etc.
+Desirable:- Experience with people analytics or growth.- Experience with data visualization tools.- Good understanding of the engineering challenges to deploying machine learning systems to production.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).- Excellent compensation in USD or your local currency if preferred- Hardware and software setup for you to work from home.- Flexible hours: create your own schedule.- Paid parental leaves, vacations, and national holidays.- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>f8e623625059</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4349636105/</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2025-12-12T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Data Science Expert (Python &amp; SQL) - AI Trainer (Freelance, Remote) - Braintrust y más</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>3</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>CloudGeometry is a Silicon Valley-based cloud-native system integrator with deep expertise in AWS, CNCF, and modern SaaS product development. We are an AI-driven engineering partner, working at the intersection of cloud infrastructure, data, and machine learning. Our distributed teams collaborate with enterprise clients and fast-growing startups across the US, Europe, and Latin America to design and build scalable platforms and solutions powered by cutting-edge technology.
+About the RoleWe are expanding our AI Team and looking for a Middle AI Developer to help build production-grade AI agents, NLQ workflows, and ML/LLM pipelines on Databricks. You will work with Python, LangChain/LangGraph, and MLFlow, focusing on reliability, data workflows, and MLOps best practices.
+ResponsibilitiesDevelop AI agents and NLQ workflows using LangChain &amp; LangGraph.Build and optimize pipelines in Databricks (PySpark, Unity Catalog).Implement MLOps with MLFlow (tracking, versioning, deployments).Write unit tests and contribute to improving the reliability of AI components.Apply guardrails and safety mechanisms for LLM outputs.Collaborate with engineering teams and maintain clear documentation.
+Requirements
+Must-HaveStrong Python skills; experience with Databricks (PySpark, Notebooks, Unity Catalog).Practical experience with LangChain &amp; LangGraph.Hands-on MLFlow experience (training, tracking, endpoints).Good SQL knowledge (MySQL and Databricks SQL).Understanding of LLM guardrails and multi-agent systems.Speaking and writing in English (B2)Nice-to-HaveExperience evaluating or fine-tuning LLMs (Llama, GPT, Gemini).Familiarity with NLQ systems, AI Assistants, and Marketing Mix Modelling.Knowledge of vector databases, NestJS/Prisma, or mixed-model architectures.Experience reducing AI/ML technical debt or working with Copilot/Gemini-in-IDE.Experience writing tests and using GitHub workflows (CI/CD).
+Personal SkillsProactive, fast-learning, detail-oriented.Strong analytical and problem-solving skills.Ability to work independently and in distributed teams.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>172e195d1950</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326797764/</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2025-12-12T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Data Science Expert (Python &amp; SQL) - AI Trainer (Freelance, Remote) - Braintrust y más</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>3</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Científico de Datos Senior en BairesDev
+Estamos buscando un destacado Científico de Datos Senior para unirse al Equipo de Investigación y Desarrollo (I+D) de BairesDev. Este profesional utilizará datos y técnicas de aprendizaje automático para ayudar al negocio a automatizar y escalar la toma de decisiones, principalmente mediante la producción de informes avanzados de análisis de datos y modelos basados en datos para inferir y predecir patrones.
+Actividades Principales:
+- Ayudar a mejorar el conocimiento de los datos y el entorno analítico general en toda la empresa.- Manejar datos estructurados y no estructurados utilizando SQL y otros lenguajes de programación.- Realizar análisis avanzados de datos e informar de los resultados.- Contar la historia detrás de los datos de una manera convincente para la gente de negocios.- Crear modelos predictivos y algoritmos de aprendizaje automático.- Combinar modelos mediante el modelado de conjuntos.- Proponer soluciones y estrategias para los retos empresariales.- Ayudar a diseñar y ejecutar experimentos para la comprobación de hipótesis.- Participar activamente en las discusiones y decisiones relativas a todo el capítulo de Data Science / Data Engineer.- Colaborar con los gestores de productos de datos para crear productos de datos impresionantes.- Trabajar con la dirección para priorizar las necesidades de negocio y de información.- Ayudar a difundir una mentalidad basada en los datos y a mejorar la alfabetización de datos. Ser un evangelizador de los datos.
+¿Qué Buscamos?:
+- 3+ años de experiencia en Data Science / Data Engineer, aprendizaje automático, IA, estadística y otras áreas relacionadas.- Dominio de SQL.- Dominio de Python, R u otro lenguaje de programación importante.- Excelentes habilidades de comunicación y capacidad para colaborar y establecer relaciones con usuarios no técnicos.- Sólidos conocimientos de probabilidad y estadística, incluido el diseño experimental, el modelado predictivo, la optimización y la inferencia causal.- Experiencia práctica con el aprendizaje automático, como la clasificación por regresión, la agrupación, las redes neuronales, la selección de características, la validación cruzada, la maldición de la dimensionalidad, el equilibrio entre sesgo y varianza, la explicabilidad del modelo, la PNL, etc.
+Deseable:
+- Experiencia en análisis o crecimiento de personas.- Experiencia con herramientas de visualización de datos.- Buena comprensión de los retos de ingeniería para el despliegue de sistemas de aprendizaje automático a la producción.
+Qué ofrecemos para que tu trabajo (y tu vida) seja mais fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.- Hardware y software.- Horarios flexibles- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>e69ae1b651ba</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326758867/</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2025-12-12T23:09:12+00:00</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>«pytorch»: Data Science Expert (Python &amp; SQL) - AI Trainer (Freelance, Remote) - Braintrust y más</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>3</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Científico de Datos Senior en BairesDev
+Estamos buscando un destacado Científico de Datos Senior para unirse al Equipo de Investigación y Desarrollo (I+D) de BairesDev. Este profesional utilizará datos y técnicas de aprendizaje automático para ayudar al negocio a automatizar y escalar la toma de decisiones, principalmente mediante la producción de informes avanzados de análisis de datos y modelos basados en datos para inferir y predecir patrones.
+Actividades Principales:
+- Ayudar a mejorar el conocimiento de los datos y el entorno analítico general en toda la empresa.- Manejar datos estructurados y no estructurados utilizando SQL y otros lenguajes de programación.- Realizar análisis avanzados de datos e informar de los resultados.- Contar la historia detrás de los datos de una manera convincente para la gente de negocios.- Crear modelos predictivos y algoritmos de aprendizaje automático.- Combinar modelos mediante el modelado de conjuntos.- Proponer soluciones y estrategias para los retos empresariales.- Ayudar a diseñar y ejecutar experimentos para la comprobación de hipótesis.- Participar activamente en las discusiones y decisiones relativas a todo el capítulo de Data Science / Data Engineer.- Colaborar con los gestores de productos de datos para crear productos de datos impresionantes.- Trabajar con la dirección para priorizar las necesidades de negocio y de información.- Ayudar a difundir una mentalidad basada en los datos y a mejorar la alfabetización de datos. Ser un evangelizador de los datos.
+¿Qué Buscamos?:
+- 3+ años de experiencia en Data Science / Data Engineer, aprendizaje automático, IA, estadística y otras áreas relacionadas.- Dominio de SQL.- Dominio de Python, R u otro lenguaje de programación importante.- Excelentes habilidades de comunicación y capacidad para colaborar y establecer relaciones con usuarios no técnicos.- Sólidos conocimientos de probabilidad y estadística, incluido el diseño experimental, el modelado predictivo, la optimización y la inferencia causal.- Experiencia práctica con el aprendizaje automático, como la clasificación por regresión, la agrupación, las redes neuronales, la selección de características, la validación cruzada, la maldición de la dimensionalidad, el equilibrio entre sesgo y varianza, la explicabilidad del modelo, la PNL, etc.
+Deseable:
+- Experiencia en análisis o crecimiento de personas.- Experiencia con herramientas de visualización de datos.- Buena comprensión de los retos de ingeniería para el despliegue de sistemas de aprendizaje automático a la producción.
+Qué ofrecemos para que tu trabajo (y tu vida) seja mais fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.- Hardware y software.- Horarios flexibles- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>7cab685b564a</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326826116/</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2025-12-12T21:35:02+00:00</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>«LLM»: Data Science Expert (Python &amp; SQL) - AI Trainer (Freelance, Remote) - Braintrust y más</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>2</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Job Description
+Job description
+Please submit your resume in English and indicate your level of English.
+At Mindrift, innovation meets opportunity. We believe in using the power of collective intelligence to ethically shape the future of AI.
+What We Do
+The Mindrift platform connects specialists with AI projects from major tech innovators. Our mission is to unlock the potential of Generative AI by tapping into real-world expertise from across the globe.
+About The Role
+GenAI models are improving very quickly, and one of our goals is to make them capable of addressing specialized questions and achieving complex reasoning skills. If you join the platform as an AI Tutor in Electrical Engineering, you’ll have the opportunity to collaborate on these projects.
+Although every project is unique, you might typically:
+Generate prompts that challenge AI.Define comprehensive scoring criteria to evaluate the accuracy of the AI’s answers.Correct the model’s responses based on your domain-specific knowledge.
+Requirements
+Bachelor's degree in a relevant field PLUS at least 1 years of relevant work experience, OR Master's degree or PhD in a relevant fieldlevel of English is advanced (C1)Proficiency in PythonStrong ability to design creative and diverse problems, particularly those that are computationally intensive and go beyond simple parameter modifications.You are ready to learn new methods, able to switch between tasks and topics quickly and sometimes work with challenging, complex guidelines.Our freelance role is fully remote so, you just need a laptop, internet connection, time available and enthusiasm to take on a challenge.
+Benefits
+Why this freelance opportunity might be a great fit for you?
+Take part in a part-time, remote, freelance project that fits around your primary professional or academic commitments.Work on advanced AI projects and gain valuable experience that enhances your portfolio.Influence how future AI models understand and communicate in your field of expertise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>5c8675b78c15</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326862496/</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2025-12-12T13:35:24+00:00</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Data Science Expert (Python &amp; SQL) - AI Trainer (Freelance, Remote) - Braintrust y más</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>2</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>This is a remote position.Especialista en datos  
+Descripción de la posición  
+En Echez, empoderamos a nuestros clientes a triunfar en el mundo digital a través de la gestión del sistema comercial, protección de marca, análisis del mercado, inteligencia de mercado y generación de demanda en la búsqueda del desarrollo de su negocio digital. 
+Tu función principal es la recopilación, procesamiento y gestión de datos relevantes para la empresa o clientes, encargándote de su análisis estadístico y obteniendo de esa manera reportes con información útil para el seguimiento, control y toma de decisiones.
+Requirements
+Requerimientos:   
+Para postularte debes estar en cualquier parte de #Colombia y requieres ser profesional en Telecomunicaciones, sistemas, área industrial o electrónica, o carreras afines y tener experiencia de al menos 2 años trabajando en proyectos de tecnología y cargos con funciones similares o en los cuales se requiera manejo de datos, análisis estadísticos de información o inteligencia de negocios.
+· Programación en Python orientada a manipulación de datos (Pandas, PySpark, Scikit, Numpy, visualizaciones, EDA, Selenium, BS4, Scrapy, Request, manejo de API, entre otros). 
+· Experiencia y conocimientos sólidos en manejo de SQL (DML, DDL, TCL). Conceptos de administración de SQL y MDX deseable. 
+· Experiencia con MER u ORM con un lenguaje de programación. 
+· Conocimiento y/o experiencia en IA (desarrollo, evaluación, implementación). 
+· Conocimientos básicos de IaaS como Azure (de preferencia), AWS o GCP. 
+· Excel intermedio. 
+· Inglés nivel intermedio. 
+· Manejo de herramientas de control de versiones como Git (requerido) y de gestión de proyectos de desarrollo de software como Azure DevOps (Deseable). 
+Benefits
+¡Te ofrecemos!:  
+· Contrato indefinido 
+· Salario fijo + variable 
+· Modalidad de teletrabajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>3bfa28604679</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4349592039/</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2025-12-11T17:35:31+00:00</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>«pytorch»: Pesonal Executive Assistant - AI &amp; Automation (Remote) - Paired</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Paired is a global staffing and recruiting agency that specializes in pairing remote work with top-tier talent. We admire the importance of innovative social media strategies and are committed to connecting talented individuals with great companies that need their unique skills. Our mission is to provide great jobs to talented people, no matter where they are located.We are looking for an Executive Assistant with strong AI and automation skills to support both personal and professional initiatives. This role combines executive support, project assistance, AI-driven problem solving, and workflow automation. You will work closely with an executive leading Digital Transformation in the energy industry, helping bring structure, clarity, and efficiency to a wide range of tasks.The role covers two areas:
+Personal: Helping integrate AI into day-to-day life, decision-making, planning, and productivity.Professional: Supporting the executive's work as Head of Digital Transformation, including research, documentation, automation, and structured execution.
+This is a full-time but flexible position (around 30 hours/week), with potential to grow. Mexico is strongly preferred, but LatAm candidates will also be considered.
+Key Responsibilities
+ Use AI tools to explore ideas, create drafts, summaries, insights, and research outputs.  Support the creation and development of AI-driven projects for personal and professional use.  Build workflows and automations using tools like Make, n8n, or Zapier.  Assist with data tasks such as organizing information, basic analysis, and AI-assisted reporting in Sheets/Excel.  Create structure through well-organized notes, dashboards, SOPs, docs, and templates.  Prepare talking points, meeting briefs, follow-ups, and documentation.  Manage tasks proactively, take ownership, and present clear recommendations.  Help streamline personal and professional systems using a combination of AI tools and automation.
+Requirements
+Experience as an Executive Assistant, Project Assistant, or similar support role. Experience with AI tools (ChatGPT, Claude, Gemini, etc.). Ability to build automations using Make, n8n, Zapier, or similar tools. Excellent written communication skills in English. Proactive thinker who can improve AI-generated ideas and validate outputs. Ability to learn complex topics quickly (no energy industry experience required). Strong organization, documentation, and information-structuring skills. Comfortable working independently and handling tasks with minimal direction. Based in Mexico preferred; LatAm acceptable. Bonus: Experience with Notion, Sheets/Excel, prompt engineering, or AI agents.
+Benefits
+USD Salary.Full-time but flexible role (around 30 hours per week) with potential to grow.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ef14d89559c8</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342979083/</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2025-12-11T15:36:38+00:00</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>«machine learning»: TELUS Digital - Online Data Analyst - Argentina publicado el 12/10/25</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>3</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Are you a detail-oriented individual with a passion for research and a good understanding of national and local geography? This freelance opportunity allows you to work at your own pace and from the comfort of your own home.
+A Day in the Life of an Online Data Analyst:In this role, you will be working on a project aimed at enhancing the content and quality of digital maps that are used by millions of people worldwideCompleting research and evaluation tasks in a web-based environment such as verifying and comparing data, and determining the relevance and accuracy of information.
+Join us today and be part of a dynamic and innovative team that is making a difference in the world!
+TELUS Digital AI CommunityOur global AI Community is a vibrant network of 1 million+ contributors from diverse backgrounds who help our customers collect, enhance, train, translate, and localize content to build better AI models. Become part of our growing community and make an impact supporting the machine learning models of some of the world’s largest brands.
+Qualification path
+No previous professional experience is required to apply to this role, however, working on this project will require you to pass the basic requirements and go through a standard assessment process. This is a part-time long-term project and your work will be subject to our standard quality assurance checks during the term of this agreement.
+Basic RequirementsFull Professional Proficiency in English &amp; Spanish languageBeing a resident in Argentina for the last 2 consecutive years and having familiarity with current and historical business, media, sport, news, social media, and cultural affairs in ArgentinaAbility to follow guidelines and conduct online research using search engines, online maps, and website informationFlexibility to work across a diverse set of task types, including maps, news, audio tasks, and relevanceDaily access to a broadband internet connection, computer, and relevant software
+AssessmentIn order to be hired into the program, you’ll take an open book qualification exam that will determine your suitability for the position and complete ID verification. Our team will provide you with guidelines and learning materials before your qualification exam. You will be required to complete the exam in a specific timeframe but at your convenience.
+Equal OpportunityAll qualified applicants will receive consideration for a contractual relationship without regard to race, color, religion, sex, sexual orientation, gender identity, national origin, disability, or protected veteran status. At TELUS Digital AI, we are proud to offer equal opportunities and are committed to creating a diverse and inclusive community. All aspects of selection are based on applicants’ qualifications, merits, competence, and performance without regard to any characteristic related to diversity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>18a5f8e393dc</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342939106/</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2025-12-11T15:36:38+00:00</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>«machine learning»: TELUS Digital - Online Data Analyst - Argentina publicado el 12/10/25</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Are you a detail-oriented individual with a passion for research and a good understanding of national and local geography? This freelance opportunity allows you to work at your own pace and from the comfort of your own home.
+A Day in the Life of an Online Data Analyst:In this role, you will be working on a project aimed at enhancing the content and quality of digital maps that are used by millions of people worldwideCompleting research and evaluation tasks in a web-based environment such as verifying and comparing data, and determining the relevance and accuracy of information.
+Join us today and be part of a dynamic and innovative team that is making a difference in the world!
+TELUS Digital AI CommunityOur global AI Community is a vibrant network of 1 million+ contributors from diverse backgrounds who help our customers collect, enhance, train, translate, and localize content to build better AI models. Become part of our growing community and make an impact supporting the machine learning models of some of the world’s largest brands.
+Qualification pathNo previous professional experience is required to apply to this role, however, working on this project will require you to pass the basic requirements and go through a standard assessment process. This is a part-time long-term project and your work will be subject to our standard quality assurance checks during the term of this agreement.
+Basic RequirementsFull Professional Proficiency in Spanish &amp; English languageBeing a resident in Chile for the last 2 consecutive years and having familiarity with current and historical business, media, sport, news, social media, and cultural affairs in ChileAbility to follow guidelines and conduct online research using search engines, online maps, and website informationFlexibility to work across a diverse set of task types, including maps, news, audio tasks, and relevanceDaily access to a broadband internet connection, computer, and relevant software
+AssessmentIn order to be hired into the program, you’ll take an open book qualification exam that will determine your suitability for the position and complete ID verification. Our team will provide you with guidelines and learning materials before your qualification exam. You will be required to complete the exam in a specific timeframe but at your convenience.
+Equal OpportunityAll qualified applicants will receive consideration for a contractual relationship without regard to race, color, religion, sex, sexual orientation, gender identity, national origin, disability, or protected veteran status. At TELUS Digital AI, we are proud to offer equal opportunities and are committed to creating a diverse and inclusive community. All aspects of selection are based on applicants’ qualifications, merits, competence, and performance without regard to any characteristic related to diversity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>bf903650b1e0</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4343045951/</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2025-12-11T15:36:38+00:00</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>«machine learning»: TELUS Digital - Online Data Analyst - Argentina publicado el 12/10/25</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>We are hiring freelance English &amp; Spanish speaking Online Data Analyst’s for a project aimed at improving the content and quality of digital maps, which are used by millions of users globally. The job would suit someone who is detail-oriented, likes doing research and has a good knowledge of national and local geography.
+This is a freelance position on a flexible schedule - you can work in your own time whenever work is available. You will be completing research and evaluation tasks in a web-based environment, eg verifying and comparing data, determining the relevance and accuracy of information. You will be provided with guidelines for each task, which need to be followed. The project offers a variety of tasks, and work is paid per task.
+RequirementsFull Professional Proficiency in English &amp; SpanishYou must be living in Mexico the last 2 consecutive yearsAbility to follow guidelines and do research online using search engines, online maps and website informationYou must have familiarity with current and historical business, media, sport, news, social media and cultural affairs in MexicoBeing open to work across a diverse set of Task Types (e.g. Maps, News, Audio tasks, Relevance)Applicants must be 18 years or over.
+Working on this project will require you to go through a standard recruitment process (including passing an open book assessment). This is a long-term project and your work will occasionally be subject to quality assurance checks.
+Why Join the TELUS International AI Community?Earn additional income with flexible hours to fit your lifestyleBetter work-life balanceBe your own bossComplimentary Well-Being package encompassing a wealth of well-being resources.Be part of an online community
+If you have any questions about the position, please contact our team at sourcingteam22@telusinternational.ai</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>fbd10d0becda</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4343055590/</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2025-12-11T15:36:38+00:00</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>«machine learning»: TELUS Digital - Online Data Analyst - Argentina publicado el 12/10/25</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>We are hiring freelance English &amp; Spanish speaking Online Data Analyst’s for a project aimed at improving the content and quality of digital maps, which are used by millions of users globally. The job would suit someone who is detail-oriented, likes doing research and has a good knowledge of national and local geography.
+This is a freelance position on a flexible schedule - you can work in your own time whenever work is available. You will be completing research and evaluation tasks in a web-based environment, eg verifying and comparing data, determining the relevance and accuracy of information. You will be provided with guidelines for each task, which need to be followed. The project offers a variety of tasks, and work is paid per task.
+RequirementsFull Professional Proficiency in English &amp; SpanishYou must be living in Mexico the last 2 consecutive yearsAbility to follow guidelines and do research online using search engines, online maps and website informationYou must have familiarity with current and historical business, media, sport, news, social media and cultural affairs in MexicoBeing open to work across a diverse set of Task Types (e.g. Maps, News, Audio tasks, Relevance)Applicants must be 18 years or over.
+Working on this project will require you to go through a standard recruitment process (including passing an open book assessment). This is a long-term project and your work will occasionally be subject to quality assurance checks.
+Why Join the TELUS International AI Community?Earn additional income with flexible hours to fit your lifestyleBetter work-life balanceBe your own bossComplimentary Well-Being package encompassing a wealth of well-being resources.Be part of an online community
+If you have any questions about the position, please contact our team at sourcingteam14@telusinternational.ai</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>84c983383abf</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4343215021/</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2025-12-11T15:36:38+00:00</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>«machine learning»: TELUS Digital - Online Data Analyst - Argentina publicado el 12/10/25</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Are you a detail-oriented individual with a passion for research and a good understanding of national and local geography? This freelance opportunity allows you to work at your own pace and from the comfort of your own home.A Day in the Life of an Online Data Analyst:In this role, you will be working on a project aimed at enhancing the content and quality of digital maps that are used by millions of people worldwideCompleting research and evaluation tasks in a web-based environment such as verifying and comparing data, and determining the relevance and accuracy of information.Join us today and be part of a dynamic and innovative team that is making a difference in the world!TELUS Digital AI CommunityOur global AI Community is a vibrant network of 1 million+ contributors from diverse backgrounds who help our customers collect, enhance, train, translate, and localize content to build better AI models. Become part of our growing community and make an impact supporting the machine learning models of some of the world’s largest brands.Qualification Path:No previous professional experience is required to apply to this role, however, working on this project will require you to pass the basic requirements and go through a standard assessment process. This is a part-time long-term project and your work will be subject to our standard quality assurance checks during the term of this agreement.Basic RequirementsFull Professional Proficiency in English &amp; SpanishBeing a resident in Mexico for the last 2 consecutive years and having familiarity with current and historical business, media, sport, news, social media, and cultural affairs in MexicoAbility to follow guidelines and conduct online research using search engines, online maps, and website informationFlexibility to work across a diverse set of task types, including maps, news, audio tasks, and relevanceDaily access to a broadband internet connection, computer, and relevant softwareAssessmentIn order to be hired into the program, you’ll take an open book qualification exam that will determine your suitability for the position and complete ID verification. Our team will provide you with guidelines and learning materials before your qualification exam. You will be required to complete the exam in a specific timeframe but at your convenience.Equal OpportunityAll qualified applicants will receive consideration for a contractual relationship without regard to race, color, religion, sex, sexual orientation, gender identity, national origin, disability, or protected veteran status. At TELUS Digital AI, we are proud to offer equal opportunities and are committed to creating a diverse and inclusive community. All aspects of selection are based on applicants’ qualifications, merits, competence, and performance without regard to any characteristic related to diversity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>d1d01e2b4842</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4343204869/</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2025-12-11T15:36:38+00:00</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>«machine learning»: TELUS Digital - Online Data Analyst - Argentina publicado el 12/10/25</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Are you a detail-oriented individual with a passion for research and a good understanding of national and local geography? This freelance opportunity allows you to work at your own pace and from the comfort of your own home.A Day in the Life of an Online Data Analyst:In this role, you will be working on a project aimed at enhancing the content and quality of digital maps that are used by millions of people worldwideCompleting research and evaluation tasks in a web-based environment such as verifying and comparing data, and determining the relevance and accuracy of information.Join us today and be part of a dynamic and innovative team that is making a difference in the world!TELUS Digital AI CommunityOur global AI Community is a vibrant network of 1 million+ contributors from diverse backgrounds who help our customers collect, enhance, train, translate, and localize content to build better AI models. Become part of our growing community and make an impact supporting the machine learning models of some of the world’s largest brands.Qualification Path:No previous professional experience is required to apply to this role, however, working on this project will require you to pass the basic requirements and go through a standard assessment process. This is a part-time long-term project and your work will be subject to our standard quality assurance checks during the term of this agreement.Basic RequirementsFull Professional Proficiency in English &amp; SpanishBeing a resident in Mexico for the last 2 consecutive years and having familiarity with current and historical business, media, sport, news, social media, and cultural affairs in MexicoAbility to follow guidelines and conduct online research using search engines, online maps, and website informationFlexibility to work across a diverse set of task types, including maps, news, audio tasks, and relevanceDaily access to a broadband internet connection, computer, and relevant softwareAssessmentIn order to be hired into the program, you’ll take an open book qualification exam that will determine your suitability for the position and complete ID verification. Our team will provide you with guidelines and learning materials before your qualification exam. You will be required to complete the exam in a specific timeframe but at your convenience.Equal OpportunityAll qualified applicants will receive consideration for a contractual relationship without regard to race, color, religion, sex, sexual orientation, gender identity, national origin, disability, or protected veteran status. At TELUS Digital AI, we are proud to offer equal opportunities and are committed to creating a diverse and inclusive community. All aspects of selection are based on applicants’ qualifications, merits, competence, and performance without regard to any characteristic related to diversity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>8afcffda5a6f</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326312462/</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2025-12-10T21:34:59+00:00</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>«NLP»: EVT - Cientista de Dados Júnior (56381) publicado el 12/9/25</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>9</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Há mais de 20 anos, a EVT é referência em soluções corporativas de TI, promovendo a transformação digital de seus parceiros e clientes. Com uma equipe altamente qualificada, atuamos tanto no desenvolvimento de soluções quanto na alocação de profissionais especializados dentro dos nossos clientes.
+Atendemos grandes empresas dos mais diversos segmentos, sempre com foco em oferecer tecnologia de ponta, contato próximo e resultados que geram valor real para os negócios. 🤝💙
+Na EVT, vivemos nossos valores no dia a dia: Respeito, Parceria, Eficiência, Inovação e Resultados. É isso que garante entregas de qualidade e relações duradouras com nossos clientes e colaboradores. ✨
+Se você busca um ambiente colaborativo, cheio de desafios que impulsionam sua carreira, venha fazer parte de uma equipe que valoriza o talento e a dedicação de cada profissional!
+Informações Da Oportunidade
+Atuação: Remota | Part time
+Período: indeterminado
+Modelo de trabalho: Prestador de serviço (PJ)
+Responsabilidades
+Estamos em busca de um(a) Cientista de Dados Júnior para apoiar análises, preparação de dados e geração de insights que contribuam para a tomada de decisão. Buscamos alguém com boa base em Python, manipulação de dados (Pandas/SQL), noções de estatística e interesse em evoluir em técnicas analíticas. Conhecimentos básicos de machine learning serão considerados um diferencial.
+Requisitos
+Conhecimento em Python para análise e tratamento de dados.Experiência com Pandas e consultas SQL.Noções de estatística básica (médias, desvio padrão, correlação, probabilidades simples).Capacidade de organizar, limpar e preparar dados
+Desejáveis 
+Noções iniciais de machine learning (regressão, classificação, métricas básicas).Experiência com notebooks (Jupyter/Colab).Familiaridade com ferramentas de BI (Power BI, Tableau ou similares).Noções de versionamento com Git.Inglês intermediário/Avançado 
+Benefícios
+Programas de incentivo a aprendizados (udemy) ;Aulas de inglês corporativo com valores acessivos .
+Etapas Do Processo
+CadastroEntrevista RHEntrevista Cliente/TécnicaContrato
+Vamos juntos? 🚀💙</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ff498eb5c107</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342642975/</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2025-12-10T19:37:53+00:00</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Research Assistant (Remote) - Quik Hire Staffing y más</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>About the Role:Join the top 1% of experts worldwide to help shape the future of artificial intelligence. Work remotely, earn $500 - $900 USD/week, and enjoy a flexible schedule (5–40 hours/week)
+Key Responsibilities:Create and refine challenging prompts and problem solutionsDevelop scoring rubrics and evaluate AI model outputsAnalyse and review model performance with clear feedbackCollaborate with international experts and AI teams
+Qualifications:Master’s or PhD (or currently enrolled) in a relevant fieldDemonstrated subject matter expertiseStrong analytical, problem-solving, and communication skillsExcellent written EnglishValid permanent ID from the country of work
+You are eligible if you are from one of the fields mentioned below.EcologyPhysicsChemistryMathematicsChemical EngineeringEnvironmental Studies
+If you are from one of the locations, you can apply:EUUSUKArgentinaAustraliaCanadaMexicoPuerto Rico
+Ready to join a truly global community of experts and shape tomorrow’s AI? Apply now!</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>cc89a802ad20</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4348786929/</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2025-12-10T19:37:53+00:00</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Research Assistant (Remote) - Quik Hire Staffing y más</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>4</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Ingeniero(a) de Machine Learning – KosmetikOn (Colombia)📄 Sobre KosmetikOn / Labify®KosmetikOn es una empresa tecnológica especializada en soluciones de IA y PLM (Product Lifecycle Management) para la industria cosmética, de fragancias y productos de cuidado personal. A través de nuestra plataforma Labify®, apoyamos a laboratorios, marcas y fabricantes en sus procesos de formulación, producción, control de calidad y cumplimiento regulatorio. Trabajamos con equipos internacionales y multidisciplinarios, con un entorno dinámico, innovador y orientado al crecimiento.🎯 Descripción del cargoBuscamos un Ingeniero(a) de Machine Learning para unirse al equipo de Data &amp; AI en Colombia (modalidad remota o híbrida). La misión del rol es diseñar, construir, desplegar y mantener modelos y sistemas de IA/ML que ayuden a optimizar procesos de I+D, formulación y analítica en la industria cosmética.✅ Responsabilidades principalesDiseñar, entrenar y mantener modelos de machine learning (predicción, recomendación, optimización, clasificación, etc.).Construir y gestionar pipelines de datos: recolección, limpieza, transformación y preparación para entrenamiento.Desplegar modelos en producción, integrarlos con aplicaciones existentes y asegurar su estabilidad y rendimiento.Colaborar con los equipos de desarrollo, data science y producto para definir requisitos y métricas.Monitorear el desempeño de modelos, automatizar retraining y gestionar versiones del modelo.Producir documentación técnica clara sobre los modelos, procesos y decisiones.Implementar buenas prácticas de MLOps: CI/CD, monitoreo, pruebas, reproducibilidad y versionamiento.🎓 Requisitos del cargoPregrado en Ingeniería de Sistemas, Computación, Ciencia de Datos, Matemáticas, Estadística o áreas afines.Dominio de Python y librerías comunes de ML/DL (NumPy, pandas, scikit-learn, TensorFlow o PyTorch).Experiencia práctica construyendo y desplegando modelos de machine learning.Conocimientos de SQL y manejo de bases de datos.Experiencia con limpieza, preparación y manejo de datos (ETL/ELT).Comprensión de buenas prácticas de ingeniería: Git, documentación, código limpio.Capacidad analítica, atención al detalle y habilidades para la resolución de problemas.Inglés B1/B2 o superior para documentación y comunicación con equipos internacionales (deseable).🌟 Plus / DeseableExperiencia previa con datos o procesos de formulación, cosmética, química o manufactura.Experiencia en sistemas de recomendación, modelos predictivos o analítica aplicada a negocios.Conocimiento de plataformas cloud (AWS, GCP o Azure).Familiaridad con Docker, orquestación de servicios y CI/CD.Interés por IA aplicada a PLM, innovación y desarrollo de productos.💼 BeneficiosEntorno de trabajo dinámico, innovador y colaborativo.Oportunidad de crecimiento profesional dentro de un equipo internacional.Trabajo remoto o híbrido según acuerdo.Participación en proyectos de impacto dentro de la industria cosmética global.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2d2f38cc1226</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4348853962/</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2025-12-10T19:37:53+00:00</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Research Assistant (Remote) - Quik Hire Staffing y más</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>4</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Data Science &amp; AI Consultant  [Part-Time and Full-Time | Senior and Junior roles]  Are you looking for the next step in your technical career? Do you want to work on AI or data/analytics projects with cutting-edge technology? Do you want the flexibility to work remotely while continuing to grow professionally? Do you thrive in entrepreneurial environments where your contributions make a difference?  At Proactive Intelligence, you’ll contribute to a variety of challenging, modern AI/ML, data engineering, and analytics initiatives across multiple clients and industries. You’ll have the freedom to do your best work with a team that values excellence, integrity, collaboration, and innovation.  Position Summary The Data Science &amp; AI Consultant is a client-facing, hands-on consulting and engineering role responsible for designing, building, and delivering end-to-end AI, machine learning, and data analytics solutions.  This position blends deep technical expertise, practical engineering skills, and business acumen to create impactful solutions across: Classical ML and statistical modeling Generative AI, LLMs, RAG pipelines, and agentic systems Data engineering, data modeling, and cloud data ecosystems Business intelligence, analytics, and decision-support solutions Production-grade AI/ML deployment and lifecycle management  We offer both part-time and full-time consulting roles. Consultants may work on a single client engagement or across multiple projects depending on availability and interest. The work is remote, flexible, and structured around clear scopes, deliverables, and client needs. Projects range from research and proof-of-concepts, to MVPs and production-ready systems.  We have opportunities for both senior and junior professionals. Whether you have been working in data science for 7+ years or are early in your journey, we’re looking for individuals who are eager to learn, willing to work hard toward that goal, and able to demonstrate the curiosity, problem-solving ability, and rapid-learning skills needed to grow into a data science expert at an accelerated pace.  Success in this flexible role requires exceptional collaboration and teamwork. You will work closely with project leaders, subject matter experts, architects, peer developers/engineers, and other specialists to deliver outcomes aligned with each agile sprint or project phase. The role demands adaptability, strong communication skills, and the ability to thrive in fast-moving environments.  This role is ideal for someone who values flexibility, is energized by variety, pursues continuous learning, and takes personal ownership of outcomes. The strongest candidates excel in client-focused consulting environments and move seamlessly between research, prototyping, engineering, delivery, and hands-on collaboration with stakeholders.  What You’ll DoActivities may vary from project to project, but in general, you will be responsible for one or multiple major deliverables or components of the project and perform a variety of tasks such as:Engage directly with client stakeholders to understand business objectives, challenges, requirements, and data context, translating them into clear solution approaches. Architect end-to-end solutions that combine analytics, BI, data engineering, machine learning, and AI in ways that deliver real business value. Design and implement AI/ML/BI solutions that combine traditional analytical methods with modern GenAI and automation capabilities, delivering measurable business value. Build and optimize data workflows, ELT/ETL pipelines, semantic layers, feature stores, and analytics-ready datasets. Develop and deploy AI-powered applications, chatbots, agentic workflows, and document-processing solutions. Support BI and analytics initiatives by creating dashboards, KPI frameworks, semantic structures, and automated insights that drive decision-making. Ensure high standards of quality, performance, and responsible AI across all deliverables, and alignment with security, privacy, and compliance standards. Produce clear documentation and handoffs; support client teams during deployment and transition to ensure long-term maintainability. Work collaboratively with architects, engineers, analysts, and project managers to deliver high-value outcomes. Operate with autonomy and accountability—owning assigned workstreams and delivering timely while contributing to a culture of excellence, learning, and trust.  Why This Role Is Unique Flexible Schedule: part-time or full-time, subject to your availability. Variety: Take on diverse challenges across a variety of project types, platforms, and industries. Modern Stack: Build with cutting-edge technologies and best practices in generative AI, LLMs, cloud data platforms, and modern AI engineering. Hands-On Impact: See your talent directly drive innovation, measurable results, and client success. Entrepreneurial Environment: Join a team that values innovation, ownership, personal accountability, continuous learning, and excellence.  Required Qualifications – Junior Roles Education in Computer Science, Data Science, Engineering, Statistics, Mathematics, or a related field. 1–3 years of experience applying data science, analytics, machine learning, or AI. (Experience in data engineering or software development is a plus.) Advanced proficiency in SQL and Python, with hands-on use in data pipelines, analytics, or data science projects. (Knowledge of additional programming languages or BI tools is a plus.) Solid understanding of statistics, machine learning, and foundational AI concepts. Experience prompting commercial LLMs or AI agents (e.g., ChatGPT, Claude) to enhance productivity. Demonstrated ability to learn rapidly and apply new techniques in real-world, complex projects. Strong desire to learn and develop the full skill set required for the Senior role. Excellent analytical and quantitative reasoning skills. Strong communication skills and a willingness to collaborate, ask questions, and contribute effectively to team delivery. Curiosity, accountability, and a genuine passion for growing into a strong data science and AI professional.  Required Qualifications – Senior Roles Bachelor’s or master’s degree in computer science, Data Science, Engineering, Statistics, Mathematics, or a related field. 7+ years of professional experience working with data and technology 5+ years hands-on experience in machine learning or advanced data science roles 1+ years hands-on experience in generative AI solutions (AI Agents, Agentic Workflows, RAG Pipelines, LLM-powered applications, etc.) Strong proficiency in Python and SQL, including experience with the broader data/AI ecosystem: analytical libraries (Pandas, NumPy, SciPy, Statsmodels), classical ML frameworks (Scikit-learn, XGBoost, LightGBM, CatBoost), deep learning frameworks (PyTorch, TensorFlow, Keras), NLP/LLM libraries (SpaCy, Hugging Face Transformers), vector and embedding tools, and GenAI orchestration frameworks (LangChain, LangGraph, LlamaIndex, or similar.) Solid understanding of machine learning, statistical analysis, predictive modeling, and model performance evaluation techniques. Hands-on experience working with structured, semi-structured, and unstructured data across diverse data sources. Experience designing or maintaining data pipelines, transformation workflows, and analytical data models. Experience with databases, data warehouses, and data lakes, such as Snowflake, BigQuery, Redshift, Synapse, or Databricks Lakehouse. Knowledge of modern cloud platforms such as Azure, AWS, or GCP, including cloud-native data and AI/ML services. Competence building dashboards, reports, or analytics solutions using Power BI, Tableau, or similar BI tools. Strong problem-solving skills with the ability to break down complex issues and design effective analytical or AI solutions. Understanding of AI safety, responsible AI principles, and evaluation techniques to ensure that AI systems meet expected standards of correctness, relevance, robustness, consistency, and alignment with business, ethical, and safety requirements. Excellent verbal and written communication skills in English, including the ability to present findings to both technical and non-technical audiences. Ability to work independently and collaboratively in fast-moving, client-facing consulting environments.  Additional Nice-to-Have Skills Experience working in consulting environments Dbt or modern data transformation frameworks. Enterprise AI platforms and model-serving ecosystems (AWS Bedrock, Azure AI Foundry, GCP Vertex AI, or similar). Non-SQL databases, including NoSQL, document stores, or key-value stores (e.g., MongoDB, DynamoDB, CosmosDB). Vector databases, retrieval/reranking pipelines, and enterprise RAG or LLM orchestration frameworks. Graph databases (e.g., Neo4j, Neptune) for relationship-based analytics or entity linkage problems. Feature stores, metrics layers, or semantic modeling frameworks. MDM (Master Data Management) or entity resolution workflows. Optimization techniques (operations research, linear/nonlinear optimization, heuristic methods) to support prescriptive analytics. Hands-on experience implementing DevOps, DataOps, MLOps, or AIOps (CI/CD, monitoring, observability, versioning, model lifecycle management). Knowledge of APIs, microservices, cloud integrations, or embedding BI/AI/ML into applications or automation workflows. Strong skills in secondary programming languages (e.g., JavaScript/TypeScript, C#, Java) and experience applying them in application development, integration work, or building production-grade backend and frontend services. Prior experience mentoring or supporting junior team members.  Application - If you want to learn more and to apply, please contact careers@proactiveintelligence.com  About Proactive Intelligence - Learn more about Proactive Intelligence (a.k.a. Proactive Ingredient) in https://proactiveintelligence.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>95a0ddc9e8e2</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342733532/</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2025-12-10T19:37:53+00:00</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Research Assistant (Remote) - Quik Hire Staffing y más</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>We're hiring Coding Experts (Spanish Proficiency) Earn Up to $5,000/Month as a Coding Expert (Remote/Flexible)
+Location: Open to professionals based in Mexico, Brazil, Colombia, Argentina, Chile, Peru, Guatemala, Honduras, Puerto Rico, and the Dominican Republic.
+About the RoleOutsmart Artificial Intelligence with your expertise. Join a global community of coding professionals to shape the future of AI. As part of our contributor network, you will help train and refine large language models by solving programming problems, reviewing AI-generated code, and providing feedback to improve system performance.
+This is a remote freelance opportunity that offers flexibility, competitive pay, and the chance to work on cutting-edge AI projects.
+Key ResponsibilitiesCreate and answer computer science-related questions to train AI models.Review, analyze, and evaluate AI-generated code for accuracy, efficiency, and reliability.Provide constructive feedback to improve AI responses.Explain complex programming concepts clearly in both Spanish and English.Collaborate on multiple projects depending on your skills and experience.
+What We’re Looking ForBachelor’s degree or higher in Computer Science (from a selective institution) or currently pursuing.Proficiency in at least one of the following programming languages: Python, Java, JavaScript, or C++.Strong ability to articulate technical concepts in written and spoken Spanish and English.Excellent attention to detail, problem-solving skills, and clear technical writing ability.Preferred: 1+ years of experience as a Software Engineer, Back-End Developer, or Full Stack Developer.
+Compensation and BenefitsEarn $15 – $32 USD per hour, paid weekly (via PayPal or AirTM).Rates vary based on expertise, accuracy, and project complexity.Flexible schedule: work 5–10 hours per week, up to 40 hours.Remote, work-from-home setup.Free access to the Model Playground to interact with and test large language models.Join a global network of experts contributing to advancements in AI technology.
+Why join us?Total Flexibility: Work anytime, anywhere - no contracts, no restrictions.Lucrative Pay: Earn up to $5,000/month, with weekly payouts via PayPal or AirTM.Global Impact: Help develop smarter, safer AI tools for millions of users.
+Fluent Spanish is a must, as you'll need to explain complex programming concepts clearly in Spanish.
+🚀 Ready to revolutionise AI with your coding expertise? Apply now and be part of the transformation!</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>84aaa61dc58e</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326069835/</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2025-12-10T19:37:53+00:00</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Research Assistant (Remote) - Quik Hire Staffing y más</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>3</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>At BairesDev®, we've been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the world's Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, you're taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Artificial Intelligence + Python Engineer at BairesDev
+We are seeking an Artificial Intelligence + Python Engineer to develop and deploy intelligent systems and machine learning solutions. You'll combine strong Python programming skills with AI expertise to build innovative applications that solve complex problems. This role offers the opportunity to work on cutting-edge AI projects while delivering scalable, production-ready solutions.
+What You'll Do:
+- Design and develop AI models and machine learning solutions using Python.- Build and train deep learning models using TensorFlow or PyTorch.- Implement AI algorithms for various applications and use cases.- Optimize model performance and ensure scalability in production environments.- Collaborate with data scientists and engineers to deploy AI solutions.- Stay current with emerging AI technologies and best practices.
+What we are looking for:
+- 3+ years of Python development experience with focus on AI/ML.- Strong knowledge of machine learning algorithms and frameworks.- Experience with TensorFlow, PyTorch, or similar deep learning frameworks.- Understanding of AI model development lifecycle.- Knowledge of data preprocessing and feature engineering.- Experience deploying AI models to production.- Advanced level of English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).- Excellent compensation in USD or your local currency if preferred- Hardware and software setup for you to work from home.- Flexible hours: create your own schedule.- Paid parental leaves, vacations, and national holidays.- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>25e3710d1057</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342613986/</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2025-12-10T15:36:34+00:00</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>«machine learning»: Quik Hire Staffing - Research Assistant (Remote) publicado el 12/8/25</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>About the Role:Join the top 1% of experts worldwide as a Research Assistant to help shape the future of artificial intelligence. Work remotely, earn $500 - $1000 USD/week, and enjoy a flexible schedule (5–40 hours/week)
+You are eligible if you belong to the Earth Sciences field.
+If you are from one of the locations, you can apply:AR, AU, BE, BR, CA, CO, DE, ES, IR, IT, LU, MX, NL, NZ, FR, PR, UK, US
+Key Responsibilities:Create and refine challenging prompts and problem solutionsDevelop scoring rubrics and evaluate AI model outputsAnalyse and review model performance with clear feedbackCollaborate with international experts and AI teams
+Qualifications:Master’s or PhD (or currently enrolled) in a relevant fieldDemonstrated subject matter expertiseStrong analytical, problem-solving, and communication skillsExcellent written English
+Ready to join a truly global community of experts and shape tomorrow’s AI?</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>4768753ad155</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342683771/</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2025-12-10T15:36:34+00:00</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>«machine learning»: Quik Hire Staffing - Research Assistant (Remote) publicado el 12/8/25</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>We're hiring a Data Analyst (Spanish Proficiency)Earn Up to $5,000/Month as a Coding Expert (Remote/Flexible)
+Location: Mexico, Brazil, Colombia, Argentina, Chile, Peru, Guatemala, Honduras, Puerto Rico, and the Dominican Republic.
+About the RoleJoin a global community of coding professionals shaping the next generation of Artificial Intelligence. As a Coding Expert, you’ll use your technical knowledge to train, evaluate, and refine AI systems, helping them better understand and generate high-quality code.This is a remote, flexible opportunity that lets you work on impactful projects while earning up to $32/hour, paid weekly.
+What You’ll DoCreate and answer computer science–related questions to train AI models.Review, test, and evaluate AI-generated code for correctness, clarity, and efficiency.Provide structured, detailed feedback to enhance AI model reasoning and output.Collaborate across diverse technical domains and languages.
+What We’re Looking ForEducation: Bachelor’s degree (or higher) in Computer Science or a related field.Technical Skills: Strong proficiency in Python, Java, JavaScript, or C++.Language Skills: Fluent in Spanish (required) and English (preferred).Writing Skills: Ability to explain programming concepts clearly in Spanish.Experience (Preferred): 1+ year as a Software Engineer, Backend Developer, or Full Stack Developer.
+Compensation &amp; BenefitsSchedule: Flexible, choose your own hours (typically 5–10 hours/week, up to 40).Perks:Free access to the Model Playground to interact with leading AI models.Join a global network of experts contributing to world-class AI systems.No contracts or fixed hours, complete flexibility and remote freedom.
+Fluent Spanish is a must, as you'll need to explain complex programming concepts clearly in Spanish.
+🚀 Ready to revolutionise AI with your coding expertise? Apply now and be part of the transformation!</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>990879c69b10</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342643783/</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2025-12-10T15:36:34+00:00</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>«machine learning»: Quik Hire Staffing - Research Assistant (Remote) publicado el 12/8/25</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>About the Role:Join the top 1% of experts worldwide as a Research Assistant to help shape the future of artificial intelligence. Work remotely, earn $500 - $1000 USD/week, and enjoy a flexible schedule (5–40 hours/week)
+You are eligible if you belong to the Earth Sciences field.
+If you are from one of the locations, you can apply:AR, AU, BE, BR, CA, CO, DE, ES, IR, IT, LU, MX, NL, NZ, FR, PR, UK, US
+Key Responsibilities:Create and refine challenging prompts and problem solutionsDevelop scoring rubrics and evaluate AI model outputsAnalyse and review model performance with clear feedbackCollaborate with international experts and AI teams
+Qualifications:Master’s or PhD (or currently enrolled) in a relevant fieldDemonstrated subject matter expertiseStrong analytical, problem-solving, and communication skillsExcellent written English
+Ready to join a truly global community of experts and shape tomorrow’s AI?</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>752b2b246e06</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326380541/</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2025-12-10T13:39:51+00:00</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Machine Learning and Data Science Specialist - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>3</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>WinDifferent specializes in helping businesses achieve rapid and sustainable growth through our powerful proprietary marketing system. Our data-driven solutions generate positive engagement that leads to ready-to-close opportunities, massively expanding sales pipelines and enabling companies to scale faster than the competition.
+As one of WinDifferent's best success stories, BairesDev helps us to find the best talent worldwide and invites them to explore our continually growing job opportunities.
+Machine Learning and Data Science Specialist at WinDifferent
+We are looking for a Machine Learning and Data Science Specialist to serve as the owner of the ML algorithms powering SellDifferent’s campaign segmentation and targeting system. This role is central to the product’s success, managing a massive system with millions of data points and ensuring models directly impact business outcomes. You’ll optimize, supervise, and evolve ML pipelines, driving innovation and reliability in one of the most important components of the platform.
+What You’ll Do:
+- Optimize existing machine learning algorithms to improve accuracy and performance.- Propose, design, and implement new ML features that enhance product capabilities.- Supervise and monitor machine learning performance at scale.- Define ML requirements and collaborate with engineering and product teams to bring them to life.- Handle administrative and organizational duties related to ML initiatives.
+What We Are Looking For:
+- 5+ years of experience in Machine Learning, including at least 4 years building the end-to-end model development lifecycle (requirements definition, feature discovery, model training/registration, deployment, monitoring, and MLOps).- Proficiency in SQL and Python, with strong knowledge of data and ML frameworks.- Solid fundamentals in probability and statistics.- Business-minded approach with proven stakeholder management skills — able to define your own work based on conversations with senior leaders.- Product-oriented mindset: you design ML pipelines with direct business impact and thrive in ownership-heavy environments.- Familiarity with development best practices and navigating complex production codebases.- Postgraduate degree in Machine Learning or Data Science.
+Desirable Qualifications:
+- Experience with Databricks.- Experience implementing machine learning explainability pipelines.- Experience with orchestration tools such as Airflow.- Experience applying machine learning to marketing use cases.
+How we do make your work (and your life) easier:
+- 100% remote work.- Work-from-home hardware setup.- Flexible hours - make your schedule.- PTO, parental leave, and other special leaves.- English classes.- Personal loans with 0% interest, following the company's policies.- Udemy for Business (subject to manager's approval).- An excellent compensation package — well above the market average.- You can grow at the speed of your learning curve.- An innovation-driven, diverse, and multicultural work environment that provides the support and resources for its professionals to thrive.- The chance and resources to be a game-changer for one of America's fastest-growing companies.
+Join a global team where your unique AI talents can truly thrive and make a significant impact!
+Apply Now!</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>dad5bd6fa353</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326119765/</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2025-12-10T13:39:51+00:00</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Machine Learning and Data Science Specialist - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>3</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Persona is the company top startups use to hire people from all around the world. Our vision is a future where each person can find the best role for them and companies can discover the world’s best talent. Founded by two Stanford University graduates, Persona works with the world’s fastest-growing technology startups. Our clients are funded by some of the world’s top investors, like Founders Fund, Sequoia Capital, and Andreessen Horowitz.
+Persona is a talent agency that recruits, trains, and staffs talented remote professionals such as yourself. This is an opportunity to work closely with the future Googles, Facebooks, and Amazons of the world—building out their organizations and helping them reach the next level of success.
+We support everyone we hire with training, mentoring, and technology resources so they are enabled to do their best and are as happy as possible in their roles. We have a large international team dedicated to supporting and taking care of new Persona team members, and our goal is to provide excellent long-term career opportunities for everyone who joins the team.
+Who’s building Persona?We are a global team of passionate problem solvers who love to build new things and make our customers happy. Our team is made up of motivated, hard-working people spanning the globe, united by a culture of learning and continuous improvement.
+What we’re looking for:We are looking for a Data Scientist who will work on building models, analyzing large datasets, and creating tools that power our investment decisions. You'll play a strategic role in leveraging data to identify high-potential startups and improve how we evaluate and support portfolio companies.
+Responsibilities—what you'll do:Build and maintain predictive models to score startups and markets.Apply machine learning techniques to extract insights from structured and unstructured data.Use historical deal flow and startup performance data to improve sourcing and screening.Design tools and internal systems that support scalable decision-making.Automate data pipelines and workflows to reduce manual work.Integrate third-party data (e.g., Crunchbase, PitchBook, LinkedIn) into internal platforms.Work with the investment team to validate insights and hypotheses using data.Provide technical support during due diligence processes.Translate complex models and insights into actionable recommendations.Help roll out native AI solutions across the firm to improve efficiency and deal quality
+Requirements:Bachelor’s or Master’s degree in Statistics, Computer Science, Data Science, Applied Mathematics, or a related field.4+ years of experience in data science, machine learning, or analytics.Prior experience in startups or venture capital firms is strongly preferred; a demonstrated interest is a plus.Experience in Python or R for data analysis and modeling.Strong SQL skills.Experience working with APIs and data scraping.Ability to work U.S. business hours (Pacific Time, Central Time, or Eastern Time)This position is for serious, career-oriented candidates
+Qualities we look for:Strong problem-solving skills and analytical thinking.Ability to explain complex concepts to non-technical audiences.Comfortable working independently and exploring messy datasets.Interest in using data to drive strategic decisions.
+What we offer:Best salaries in the industryPermanent ability to work from anywhere in the worldOpportunities for growth and advancementA fast-paced and collaborative environmentWarm and friendly company cultureFull benefits
+Benefits at Persona:Health insuranceUnlimited paid time off (paid sick and vacation leaves)Annual bonuses based on performanceMonthly tech allowanceOpportunity to be paid in your currency of choiceOthers depending on seniority
+This is a full-time and long-term role. We are looking for individuals who are ready to fully commit their time and energy to one company and grow and develop along with that company. All roles at Persona are 100% work-from-anywhere (work from home or wherever it suits you best). If this is your first time working for a U.S. company, that’s okay; we provide guidance and assistance getting set up as a remote professional. Once hired, we will carefully match you to a client company of ours that perfectly suits your career background, skills, and goals.
+Visit our website for more information: https://www.personatalent.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>a664de9bad6f</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326256699/</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2025-12-10T13:39:51+00:00</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Machine Learning and Data Science Specialist - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>3</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>This is a remote position to work from LATAM collaborating with US clients. 
+We offer:100% Remote Work$35-$40 USD per hour
+Title: Senior Applied Scientist (AI/ML)
+The Senior Applied Scientist owns the development and deployment of machine learning solutions and influences the technical direction of their team. They will work closely with Product and Engineering partners in the development of the solution.
+Lead the development and deployment of Machine Learning solutions to solve business problems.Develop and maintain clean, efficient, and scalable code that meets industrystandardsAnalyze large datasets to extract actionable insights and make informed decisions.Employ state-of-the-art Machine Learning methodologies and frameworks to develop robust and scalable models.
+Required Qualifications:5+ years of industry experience in applied Machine Learning Masters Degree or PhD in CS / ML, statistics, operation research or related field 3+ years experience in building, deploying, and managing machine learning and deep learning models in production environments at scale Deep understanding of ML best practices (A/B testing, training/serving pipelines, feature engineering etc), algorithms/techniques (gradient boosting, deep neural networks, transformers, optimization, regularization), and experiment design Experience in Computer Vision. Additional experience in Causal Inference is highly desirable.Extensive experience in scientific libraries in Python (numpy, pandas, polars) and Machine Learning tools and frameworks (PyTorch, Tensorflow, Keras, Scikit-Learn)</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>751757542e3b</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326391471/</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2025-12-09T19:35:06+00:00</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>«Computer vision»: Freelance Software Engineer - AI Projects (Remote) - Quik Hire Staffing y más</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>This is a remote position to work from LATAM collaborating with US clients. 
+We offer:100% Remote Work$35-$40 USD per hour
+Title: Senior Machine Learning Engineer
+The Senior Applied Scientist owns the development and deployment of machine learning solutions and influences the technical direction of their team. They will work closely with Product and Engineering partners in the development of the solution.
+Lead the development and deployment of Machine Learning solutions to solve business problems.Develop and maintain clean, efficient, and scalable code that meets industrystandardsAnalyze large datasets to extract actionable insights and make informed decisions.Employ state-of-the-art Machine Learning methodologies and frameworks to develop robust and scalable models.
+Required Qualifications:5+ years of industry experience in applied Machine LearningMasters Degree or PhD in CS / ML, statistics, operation research or related field3+ years experience in building, deploying, and managing machine learning and deep learning models in production environments at scaleDeep understanding of ML best practices (A/B testing, training/serving pipelines, feature engineering etc), algorithms/techniques (gradient boosting, deep neural networks, transformers, optimization, regularization), and experiment designExperience in Computer Vision. Additional experience in Causal Inference is highly desirable.Extensive experience in scientific libraries in Python (numpy, pandas, polars) and Machine Learning tools and frameworks (PyTorch, Tensorflow, Keras, Scikit-Learn)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>6c2205de117d</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326188014/</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2025-12-09T19:35:06+00:00</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>«Computer vision»: Freelance Software Engineer - AI Projects (Remote) - Quik Hire Staffing y más</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>3</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Científico de Datos en BairesDev
+Como Científico de Datos en BairesDev, utilizarás técnicas de análisis de datos y machine learning para resolver problemas empresariales complejos. Transformarás datos sin procesar en insights significativos, desarrollarás e implementarás modelos predictivos, y colaborarás con equipos multifuncionales para implementar soluciones basadas en datos que generen valor comercial e impulsen la toma de decisiones estratégicas.
+Qué harás:
+- Analizar conjuntos de datos complejos para identificar patrones, tendencias e insights que aborden desafíos empresariales.- Desarrollar e implementar modelos de machine learning para resolver problemas empresariales específicos.- Colaborar con stakeholders para entender requisitos y traducirlos en soluciones de ciencia de datos.- Crear visualizaciones de datos e informes para comunicar eficazmente hallazgos a audiencias técnicas y no técnicas.- Optimizar modelos existentes y pipelines de datos para mejorar el rendimiento y la precisión.- Mantenerte actualizado con los últimos avances en ciencia de datos, machine learning y tecnologías de IA.
+Qué buscamos:
+- 3+ años de experiencia aplicando técnicas de ciencia de datos a problemas del mundo real.- Experiencia con lenguajes de programación comúnmente utilizados en ciencia de datos (Python, R, etc.).- Conocimiento de algoritmos de machine learning y análisis estadístico.- Familiaridad con herramientas y técnicas de visualización de datos.- Experiencia con SQL y consultas de bases de datos.- Capacidad para traducir conceptos técnicos complejos a stakeholders no técnicos.- Nivel avanzado de inglés.
+Qué ofrecemos para que tu trabajo (y tu vida) seja mais fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.- Hardware y software.- Horarios flexibles- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>bf6d64191607</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326149446/</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2025-12-09T19:35:06+00:00</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>«Computer vision»: Freelance Software Engineer - AI Projects (Remote) - Quik Hire Staffing y más</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>3</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Científico de Datos en BairesDev
+Como Científico de Datos en BairesDev, utilizarás técnicas de análisis de datos y machine learning para resolver problemas empresariales complejos. Transformarás datos sin procesar en insights significativos, desarrollarás e implementarás modelos predictivos, y colaborarás con equipos multifuncionales para implementar soluciones basadas en datos que generen valor comercial e impulsen la toma de decisiones estratégicas.
+Qué harás:
+- Analizar conjuntos de datos complejos para identificar patrones, tendencias e insights que aborden desafíos empresariales.- Desarrollar e implementar modelos de machine learning para resolver problemas empresariales específicos.- Colaborar con stakeholders para entender requisitos y traducirlos en soluciones de ciencia de datos.- Crear visualizaciones de datos e informes para comunicar eficazmente hallazgos a audiencias técnicas y no técnicas.- Optimizar modelos existentes y pipelines de datos para mejorar el rendimiento y la precisión.- Mantenerte actualizado con los últimos avances en ciencia de datos, machine learning y tecnologías de IA.
+Qué buscamos:
+- 3+ años de experiencia aplicando técnicas de ciencia de datos a problemas del mundo real.- Experiencia con lenguajes de programación comúnmente utilizados en ciencia de datos (Python, R, etc.).- Conocimiento de algoritmos de machine learning y análisis estadístico.- Familiaridad con herramientas y técnicas de visualización de datos.- Experiencia con SQL y consultas de bases de datos.- Capacidad para traducir conceptos técnicos complejos a stakeholders no técnicos.- Nivel avanzado de inglés.
+Qué ofrecemos para que tu trabajo (y tu vida) seja mais fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.- Hardware y software.- Horarios flexibles- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>be47686f8434</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342187433/</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2025-12-09T17:36:46+00:00</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>«pytorch»: Machine Learning and Data Science Specialist - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>3</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>This position is posted by Jobgether on behalf of a partner company. We are currently looking for a Senior Applied Scientist (AI/ML - Pricing) in Latin America.
+In this role, you will lead the development and deployment of advanced machine learning solutions focused on pricing optimization. You will translate complex business and operational constraints into mathematical models and scalable algorithms, enabling data-driven pricing strategies across diverse markets. The position requires ownership of the entire ML lifecycle, from data ingestion and analysis to model deployment and performance monitoring. You will work closely with cross-functional teams, influence technical direction, and contribute to thought leadership in AI/ML applied to real-world business challenges. This role is ideal for someone who thrives in a fast-paced, entrepreneurial environment, enjoys solving complex problems, and has a passion for high-impact data-driven solutions.
+Accountabilities
+Research, develop, and implement machine learning and statistical models to solve pricing challenges.Analyze large, complex datasets to extract insights that guide pricing strategies.Apply state-of-the-art ML techniques and frameworks to create robust, scalable models.Develop clean, efficient, and maintainable code following industry best practices.Communicate technical concepts and results clearly to both technical and non-technical stakeholders.Collaborate with teams to deploy data-driven products and solutions in production.Mentor junior team members, supporting the growth of team expertise.Contribute to intellectual property, publications, and technical leadership in AI/ML.
+Requirements
+PhD or Master’s degree in Computer Science, Machine Learning, Statistics, Operations Research, or a related field.5+ years of industry experience in applied ML; 3+ years in production deployment of ML and deep learning models at scale.Strong knowledge of ML best practices (A/B testing, feature engineering, training/serving pipelines) and algorithms (gradient boosting, neural networks, optimization).Proficiency in Python (numpy, pandas, polars) and ML frameworks (Scikit-Learn, TensorFlow, Keras, PyTorch).Experience with large-scale datasets and big data tools (Apache Beam, Kafka, Spark).Familiarity with cloud platforms such as AWS, GCP, or Azure.Strong SQL and data engineering skills.Preferred: experience applying ML to retail pricing, familiarity with MLOps pipelines, and demonstrated leadership experience.
+Benefits
+Competitive salary and performance-based incentives.Fully remote work within Latin America.Opportunities for career growth and leadership in high-impact projects.Collaboration with cross-functional, high-performing teams.Access to cutting-edge AI/ML tools and technologies.Learning and development opportunities to enhance technical expertise.
+Why Apply Through Jobgether?
+We use an AI-powered matching process to ensure your application is reviewed quickly, objectively, and fairly against the role's core requirements. Our system identifies the top-fitting candidates, and this shortlist is then shared directly with the hiring company. The final decision and next steps (interviews, assessments) are managed by their internal team.
+We appreciate your interest and wish you the best!
+Why Apply Through Jobgether?
+Data Privacy Notice: By submitting your application, you acknowledge that Jobgether will process your personal data to evaluate your candidacy and share relevant information with the hiring employer. This processing is based on legitimate interest and pre-contractual measures under applicable data protection laws (including GDPR). You may exercise your rights (access, rectification, erasure, objection) at any time.
+We may use artificial intelligence (AI) tools to support parts of the hiring process, such as reviewing applications, analyzing resumes, or assessing responses. These tools assist our recruitment team but do not replace human judgment. Final hiring decisions are ultimately made by humans. If you would like more information about how your data is processed, please contact us.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>c6cbc881deae</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326341745/</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2025-12-09T17:36:46+00:00</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>«pytorch»: Machine Learning and Data Science Specialist - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>3</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>This is a remote position to work from LATAM collaborating with US clients.
+We offer:100% Remote Work$35-$40 USD per hour
+Title: Senior Applied Scientist (AI/ML)
+The Senior Applied Scientist owns the development and deployment of machine learning solutions and influences the technical direction of their team. They will work closely with Product and Engineering partners in the development of the solution.
+Lead the development and deployment of Machine Learning solutions to solve business problems.Develop and maintain clean, efficient, and scalable code that meets industrystandardsAnalyze large datasets to extract actionable insights and make informed decisions.Employ state-of-the-art Machine Learning methodologies and frameworks to develop robust and scalable models.
+Required Qualifications:5+ years of industry experience in applied Machine LearningMasters Degree or PhD in CS / ML, statistics, operation research or related field3+ years experience in building, deploying, and managing machine learning and deep learning models in production environments at scaleDeep understanding of ML best practices (A/B testing, training/serving pipelines, feature engineering etc), algorithms/techniques (gradient boosting, deep neural networks, transformers, optimization, regularization), and experiment designExperience in Computer Vision. Additional experience in Causal Inference is highly desirable.Extensive experience in scientific libraries in Python (numpy, pandas, polars) and Machine Learning tools and frameworks (PyTorch, Tensorflow, Keras, Scikit-Learn)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>a46941b29ba9</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326360562/</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2025-12-09T17:36:46+00:00</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>«pytorch»: Machine Learning and Data Science Specialist - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>3</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>WinDifferent specializes in helping businesses achieve rapid and sustainable growth through our powerful proprietary marketing system. Our data-driven solutions generate positive engagement that leads to ready-to-close opportunities, massively expanding sales pipelines and enabling companies to scale faster than the competition.
+As one of WinDifferent's best success stories, BairesDev helps us to find the best talent worldwide and invites them to explore our continually growing job opportunities.
+Machine Learning and Data Science Specialist at WinDifferent
+We are looking for a Machine Learning and Data Science Specialist to serve as the owner of the ML algorithms powering SellDifferent’s campaign segmentation and targeting system. This role is central to the product’s success, managing a massive system with millions of data points and ensuring models directly impact business outcomes. You’ll optimize, supervise, and evolve ML pipelines, driving innovation and reliability in one of the most important components of the platform.
+What You’ll Do:
+- Optimize existing machine learning algorithms to improve accuracy and performance.- Propose, design, and implement new ML features that enhance product capabilities.- Supervise and monitor machine learning performance at scale.- Define ML requirements and collaborate with engineering and product teams to bring them to life.- Handle administrative and organizational duties related to ML initiatives.
+What We Are Looking For:
+- 5+ years of experience in Machine Learning, including at least 4 years building the end-to-end model development lifecycle (requirements definition, feature discovery, model training/registration, deployment, monitoring, and MLOps).- Proficiency in SQL and Python, with strong knowledge of data and ML frameworks.- Solid fundamentals in probability and statistics.- Business-minded approach with proven stakeholder management skills — able to define your own work based on conversations with senior leaders.- Product-oriented mindset: you design ML pipelines with direct business impact and thrive in ownership-heavy environments.- Familiarity with development best practices and navigating complex production codebases.- Postgraduate degree in Machine Learning or Data Science.
+Desirable Qualifications:
+- Experience with Databricks.- Experience implementing machine learning explainability pipelines.- Experience with orchestration tools such as Airflow.- Experience applying machine learning to marketing use cases.
+How we do make your work (and your life) easier:
+- 100% remote work.- Work-from-home hardware setup.- Flexible hours - make your schedule.- PTO, parental leave, and other special leaves.- English classes.- Personal loans with 0% interest, following the company's policies.- Udemy for Business (subject to manager's approval).- An excellent compensation package — well above the market average.- You can grow at the speed of your learning curve.- An innovation-driven, diverse, and multicultural work environment that provides the support and resources for its professionals to thrive.- The chance and resources to be a game-changer for one of America's fastest-growing companies.
+Join a global team where your unique AI talents can truly thrive and make a significant impact!
+Apply Now!</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>eb840fdfff7d</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326209017/</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2025-12-09T17:36:46+00:00</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>«pytorch»: Machine Learning and Data Science Specialist - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>3</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>WinDifferent specializes in helping businesses achieve rapid and sustainable growth through our powerful proprietary marketing system. Our data-driven solutions generate positive engagement that leads to ready-to-close opportunities, massively expanding sales pipelines and enabling companies to scale faster than the competition.
+As one of WinDifferent's best success stories, BairesDev helps us to find the best talent worldwide and invites them to explore our continually growing job opportunities.
+Machine Learning and Data Science Specialist at WinDifferent
+We are looking for a Machine Learning and Data Science Specialist to serve as the owner of the ML algorithms powering SellDifferent’s campaign segmentation and targeting system. This role is central to the product’s success, managing a massive system with millions of data points and ensuring models directly impact business outcomes. You’ll optimize, supervise, and evolve ML pipelines, driving innovation and reliability in one of the most important components of the platform.
+What You’ll Do:
+- Optimize existing machine learning algorithms to improve accuracy and performance.- Propose, design, and implement new ML features that enhance product capabilities.- Supervise and monitor machine learning performance at scale.- Define ML requirements and collaborate with engineering and product teams to bring them to life.- Handle administrative and organizational duties related to ML initiatives.
+What We Are Looking For:
+- 5+ years of experience in Machine Learning, including at least 4 years building the end-to-end model development lifecycle (requirements definition, feature discovery, model training/registration, deployment, monitoring, and MLOps).- Proficiency in SQL and Python, with strong knowledge of data and ML frameworks.- Solid fundamentals in probability and statistics.- Business-minded approach with proven stakeholder management skills — able to define your own work based on conversations with senior leaders.- Product-oriented mindset: you design ML pipelines with direct business impact and thrive in ownership-heavy environments.- Familiarity with development best practices and navigating complex production codebases.- Postgraduate degree in Machine Learning or Data Science.
+Desirable Qualifications:
+- Experience with Databricks.- Experience implementing machine learning explainability pipelines.- Experience with orchestration tools such as Airflow.- Experience applying machine learning to marketing use cases.
+How we do make your work (and your life) easier:
+- 100% remote work.- Work-from-home hardware setup.- Flexible hours - make your schedule.- PTO, parental leave, and other special leaves.- English classes.- Personal loans with 0% interest, following the company's policies.- Udemy for Business (subject to manager's approval).- An excellent compensation package — well above the market average.- You can grow at the speed of your learning curve.- An innovation-driven, diverse, and multicultural work environment that provides the support and resources for its professionals to thrive.- The chance and resources to be a game-changer for one of America's fastest-growing companies.
+Join a global team where your unique AI talents can truly thrive and make a significant impact!
+Apply Now!</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>6c75e4996787</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4326380804/</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2025-12-09T13:41:18+00:00</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Machine Learning and Data Science Specialist - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>3</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>WinDifferent specializes in helping businesses achieve rapid and sustainable growth through our powerful proprietary marketing system. Our data-driven solutions generate positive engagement that leads to ready-to-close opportunities, massively expanding sales pipelines and enabling companies to scale faster than the competition.
+As one of WinDifferent's best success stories, BairesDev helps us to find the best talent worldwide and invites them to explore our continually growing job opportunities.
+Machine Learning and Data Science Specialist at WinDifferent
+We are looking for a Machine Learning and Data Science Specialist to serve as the owner of the ML algorithms powering SellDifferent’s campaign segmentation and targeting system. This role is central to the product’s success, managing a massive system with millions of data points and ensuring models directly impact business outcomes. You’ll optimize, supervise, and evolve ML pipelines, driving innovation and reliability in one of the most important components of the platform.
+What You’ll Do:
+- Optimize existing machine learning algorithms to improve accuracy and performance.- Propose, design, and implement new ML features that enhance product capabilities.- Supervise and monitor machine learning performance at scale.- Define ML requirements and collaborate with engineering and product teams to bring them to life.- Handle administrative and organizational duties related to ML initiatives.
+What We Are Looking For:
+- 5+ years of experience in Machine Learning, including at least 4 years building the end-to-end model development lifecycle (requirements definition, feature discovery, model training/registration, deployment, monitoring, and MLOps).- Proficiency in SQL and Python, with strong knowledge of data and ML frameworks.- Solid fundamentals in probability and statistics.- Business-minded approach with proven stakeholder management skills — able to define your own work based on conversations with senior leaders.- Product-oriented mindset: you design ML pipelines with direct business impact and thrive in ownership-heavy environments.- Familiarity with development best practices and navigating complex production codebases.- Postgraduate degree in Machine Learning or Data Science.
+Desirable Qualifications:
+- Experience with Databricks.- Experience implementing machine learning explainability pipelines.- Experience with orchestration tools such as Airflow.- Experience applying machine learning to marketing use cases.
+How we do make your work (and your life) easier:
+- 100% remote work.- Work-from-home hardware setup.- Flexible hours - make your schedule.- PTO, parental leave, and other special leaves.- English classes.- Personal loans with 0% interest, following the company's policies.- Udemy for Business (subject to manager's approval).- An excellent compensation package — well above the market average.- You can grow at the speed of your learning curve.- An innovation-driven, diverse, and multicultural work environment that provides the support and resources for its professionals to thrive.- The chance and resources to be a game-changer for one of America's fastest-growing companies.
+Join a global team where your unique AI talents can truly thrive and make a significant impact!
+Apply Now!</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ad73f5755e9c</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342509859/</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2025-12-08T15:35:19+00:00</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>«NLP»: Senior Applied Scientist (AI/ML - Pricing) - Jobgether y más</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>3</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>At Lumenalta, we partner with forward-thinking organizations to build technology solutions that scale, delight users, and accelerate business growth. Our global teams bring curiosity, commitment, and technical excellence to every project. We value transparency, autonomy, and impact—empowering every team member to do their best work.
+We’re seeking experienced AI Engineers to join a high-growth fintech prospect focused on back-office workflow automation. This role is an opportunity to design and deploy production-grade AI systems for community banks, mortgage, and insurance institutions while shaping a flexible, modern architecture alongside an accomplished executive team.
+What You’ll Be DoingDesign, build, and deploy AI models into production (not just prototypes or wrappers).Develop and maintain backend Python services that power intelligent automation workflows.Implement enterprise-scale data pipelines for ingesting and processing financial and regulatory documents, with automated data quality checks and monitoring.Train and optimize models on banking rules, compliance standards, and regulatory datasets.Build intelligent routing systems (e.g., auto-approval for simple loans/accounts, escalation to humans for complex cases).Collaborate with engineering leadership to shape architecture, delivery models, and stack decisions.Ensure compliance-first design, embedding regulatory considerations into every product feature.
+What We’re Looking ForExperience: 3–5+ years in AI/ML engineering with a track record of deploying AI into production at scale.Technical Skills: Strong backend Python; expertise with ML frameworks (TensorFlow, PyTorch, Scikit-Learn, etc.); familiarity with modern data pipeline tools (Airflow, Spark, Kafka) and workflow orchestration frameworks such as n8n or LangGraph.Applied AI: Background in enterprise applications such as chatbots, workflow automation, RAG pipelines, or intelligent document processing.Domain Awareness: Understanding of regulated industries (financial services, insurance, or similar) with the ability to design compliance-aligned models.Collaboration: Comfortable working with a lean, high-performing team and influencing technical direction.Adaptability: Excels in startup-like environments with flexible, evolving tech stacks.
+Why Lumenalta is an amazing place to work atAt Lumenalta, you can expect that you will:Be 100% dedicated to one project at a time so that you can innovate and grow.Be a part of a team of talented and friendly senior-level developers.Work on projects that allow you to use leading tech.
+The job is 100% Remote; please ensure you have a comfortable office set at your desired work location.
+This is a fully remote position open to candidates based in Latin America (LATAM). While location is flexible, candidates must be willing to maintain at least a 6-hour overlap with core business hours, which are primarily aligned with the Pacific, Central, or Eastern U.S. time zones to ensure effective collaboration with project teams.
+This is an evergreen opening with no set deadline; we’re always excited to connect with professionals who want to help us build the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>9c9583a35f0f</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342560533/</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2025-12-08T15:35:19+00:00</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>«NLP»: Senior Applied Scientist (AI/ML - Pricing) - Jobgether y más</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>3</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>At Lumenalta, we partner with forward-thinking organizations to build technology solutions that scale, delight users, and accelerate business growth. Our global teams bring curiosity, commitment, and technical excellence to every project. We value transparency, autonomy, and impact—empowering every team member to do their best work.
+We’re seeking experienced AI Engineers to join a high-growth fintech prospect focused on back-office workflow automation. This role is an opportunity to design and deploy production-grade AI systems for community banks, mortgage, and insurance institutions while shaping a flexible, modern architecture alongside an accomplished executive team.
+What You’ll Be DoingDesign, build, and deploy AI models into production (not just prototypes or wrappers).Develop and maintain backend Python services that power intelligent automation workflows.Implement enterprise-scale data pipelines for ingesting and processing financial and regulatory documents, with automated data quality checks and monitoring.Train and optimize models on banking rules, compliance standards, and regulatory datasets.Build intelligent routing systems (e.g., auto-approval for simple loans/accounts, escalation to humans for complex cases).Collaborate with engineering leadership to shape architecture, delivery models, and stack decisions.Ensure compliance-first design, embedding regulatory considerations into every product feature.
+What We’re Looking ForExperience: 3–5+ years in AI/ML engineering with a track record of deploying AI into production at scale.Technical Skills: Strong backend Python; expertise with ML frameworks (TensorFlow, PyTorch, Scikit-Learn, etc.); familiarity with modern data pipeline tools (Airflow, Spark, Kafka) and workflow orchestration frameworks such as n8n or LangGraph.Applied AI: Background in enterprise applications such as chatbots, workflow automation, RAG pipelines, or intelligent document processing.Domain Awareness: Understanding of regulated industries (financial services, insurance, or similar) with the ability to design compliance-aligned models.Collaboration: Comfortable working with a lean, high-performing team and influencing technical direction.Adaptability: Excels in startup-like environments with flexible, evolving tech stacks.
+Why Lumenalta is an amazing place to work atAt Lumenalta, you can expect that you will:Be 100% dedicated to one project at a time so that you can innovate and grow.Be a part of a team of talented and friendly senior-level developers.Work on projects that allow you to use leading tech.
+The job is 100% Remote; please ensure you have a comfortable office set at your desired work location.
+This is a fully remote position open to candidates based in Latin America (LATAM). While location is flexible, candidates must be willing to maintain at least a 6-hour overlap with core business hours, which are primarily aligned with the Pacific, Central, or Eastern U.S. time zones to ensure effective collaboration with project teams.
+This is an evergreen opening with no set deadline; we’re always excited to connect with professionals who want to help us build the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>c2c5c466efc1</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-asesor-de-ventas-diurno-en-caracas-F0429FFA2F03CEB661373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2025-12-18T14:02:41+00:00</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Nuevas vacantes listas para dar tu próximo paso</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+130,00 $ (Mensual) + Comisiones
+Otro tipo de contrato
+Tiempo Completo
+Te apasiona el mundo del Turismo, y buscas libertad financiera?
+Solicitamos personal con:
+Proactivo.
+Experiencia en ventas.
+Con excelente capacidad de comunicacion.
+Requerimientos
+Educación mínima: Educación Técnico/Profesional
+1 año de experiencia
+Edad: entre 25 y 55 años
+Conocimientos: Microsoft excel
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>61e596829467</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-ejecutivo-comercial-remoto-en-caracas-1C19EA8C3E3512E961373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2025-12-18T14:02:41+00:00</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Nuevas vacantes listas para dar tu próximo paso</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+4.000.000,00 $ (Mensual)
+Otro tipo de contrato
+Tiempo Completo
+Remoto
+En Sellectia estamos en búsqueda de un/a Ejecutivo/a Comercial con experiencia en ventas B2B de servicios, entornos técnicos y herramientas digitales.
+Buscamos un perfil estratégico, comunicativo y orientado a resultados, que impulse el desarrollo comercial de la empresa y la captación de nuevos clientes para nuestros servicios de talento remoto, selección y soluciones de RRHH.
+Principales responsabilidades
+- Identificar y prospectar empresas potenciales en LATAM y Europa interesadas en talento remoto y servicios de selección.
+- Gestionar el ciclo comercial completo: prospección, contacto inicial, reuniones de diagnóstico, presentación de propuestas, negociación y cierre.
+- Realizar prospección activa mediante LinkedIn, email, llamadas en frío y otros canales digitales.
+- Elaborar propuestas comerciales y presentaciones alineadas a las necesidades del cliente.
+- Coordinar con el equipo de selección la definición de perfiles, prioridades y tiempos de entrega.
+- Mantener actualizado el CRM, el pipeline comercial y los reportes de actividad y resultados.
+- Identificar oportunidades de crecimiento dentro de las cuentas activas (upselling y cross selling).
+Requisitos del perfil
+- Residencia en LATAM.
+- Formación universitaria en Administración, Marketing, Comercio, Negocios, RRHH o carreras afines.
+- Experiencia comprobada en ventas B2B de servicios (RRHH, talento remoto, outsourcing, seguros, consultoría u otros servicios profesionales).
+- Experiencia trabajando con objetivos claros de facturación, apertura de cuentas y desarrollo de negocio.
+- Dominio de herramientas digitales: Google Workspace, CRM, correo electrónico y LinkedIn.
+- Excelente capacidad de comunicación, negociación y cierre.
+- Deseable: inglés conversacional intermedio-alto y experiencia previa vendiendo servicios a clientes internacionales.
+Habilidades valoradas
+- Pensamiento estratégico y orientación comercial.
+- Autonomía, organización y capacidad de priorizar.
+- Fuerte orientación a resultados y a la consecución de objetivos mensuales.
+- Capacidad para relacionarse con decisores (dirección, founders, responsables de RRHH).
+- Mentalidad de aprendizaje continuo en entornos de servicios y talento remoto.
+Qué ofrecemos
+- Honorarios profesionales desde 900 USD netos mensuales + esquema atractivo de comisiones por resultados.
+- Modalidad 100 % remota desde LATAM.
+- Contratación por tiempo indefinido bajo esquema de honorarios.
+- Jornada de 8 horas diarias, en horario aproximado 12:00–21:00 (GMT+2), de lunes a viernes.
+- Participación en proyectos reales de selección y talento remoto con enfoque técnico-comercial.
+- Cultura colaborativa, digital y orientada al alto desempeño.
+¡En Sellectia conectamos talentos con proyectos globales!
+Requerimientos
+Educación mínima: Educación Técnico/Profesional
+5 años de experiencia
+Idiomas: Inglés
+Edad: entre 25 y 60 años
+Conocimientos: Gestión de ventas
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>d8951eec72c3</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-especialista-indicadores-de-gestion-en-caracas-C3B4460FE1844A0261373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2025-11-25T09:04:45+00:00</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>🔎 Descubre las oportunidades que Dominos Pizza ca tiene para ti</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+400,00 $ (Mensual)
+Contrato por tiempo indefinido
+Tiempo Completo
+Resumen del Cargo
+El Especialista en Indicadores de Gestión es un rol crucial para la toma de decisiones informadas. Este profesional es responsable de la recopilación, el análisis y la proyección de datos clave para monitorear el desempeño del negocio, impulsar el crecimiento y optimizar los resultados.
+Perfil Profesional y Académico
+•	Formación Académica: TSU o Universitario en carreras administrativas, de ingeniería o áreas afines.
+•	Experiencia Laboral: Mínimo de 2 años de experiencia en roles similares, con un historial comprobable en el uso de bases de datos, creación de proyecciones y análisis de indicadores de rendimiento (KPIs).
+•	Competencias Clave:
+o	Pensamiento Analítico y Detallista: Habilidad para trabajar con grandes volúmenes de datos, identificar patrones, detectar errores y analizar desviaciones con precisión.
+o	Proactividad y Organización: Capacidad para planificar y ejecutar tareas de manera autónoma, cumpliendo con los plazos establecidos para la entrega de reportes y análisis estratégicos.
+o	Comunicación Interpersonal: Habilidad para interactuar y colaborar eficazmente con diferentes áreas de la organización, presentando información compleja de manera clara y concisa a audiencias no técnicas.
+o	Desarrollo Estratégico: Capacidad para transformar los datos en planes de acción y propuestas que generen valor para el negocio.
+Funciones y Responsabilidades
+•	Generación de Reportes e Insights: Generar reportes mensuales y periódicos, incluyendo cuadros estadísticos y análisis de la data relevante para el negocio, traduciendo los datos en información valiosa.
+•	Monitoreo y Optimización de Indicadores: Llevar el control y seguimiento del nivel de desempeño de los indicadores clave de negocio (KPIs), identificando tendencias, detectando desviaciones y proponiendo mejoras.
+•	Gestión de Presupuesto: Participar en la elaboración y el control del presupuesto anual y sus revisiones, incluyendo proyecciones de ingresos y costos.
+•	Proyecciones Financieras: Realizar proyecciones de ingresos y costos basadas en el análisis de datos históricos y tendencias del mercado.
+•	Procesamiento de Datos: Recopilar, procesar y preparar la data comercial relevante para el análisis, garantizando la integridad y confiabilidad de la información.
+•	Detección de Errores y Desviaciones: Identificar de manera proactiva los errores y desviaciones en los datos y los resultados financieros, investigando las causas y desarrollando estrategias para su corrección.
+Requerimientos
+Educación mínima: Educación Técnico/Profesional
+3 años de experiencia
+Idiomas: Español
+Edad: entre 30 y 49 años
+Conocimientos: Microsoft excel, Administración de sistemas
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>faf7d51a0766</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-especialista-de-reparto-integral-motorizado-en-caracas-CDE31AD804DFDA1361373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2025-11-25T09:04:45+00:00</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>🔎 Descubre las oportunidades que Dominos Pizza ca tiene para ti</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+A convenir
+Contrato por tiempo indefinido
+Tiempo Completo
+¡Dominos Pizza, importante empresa de comida rápida, N° 1 en el mundo y en todas nuestras zonas de reparto! Nos encontramos en la búsqueda de colaboradores, que inspiren a través de sus acciones, para ocupar el cargo de Especialista de Reparto integral.
+Perfil:
+Bachiller culminado y/o estudiante universitario.
+Edad a partir de 21 años.
+Residenciado en la ciudad de Caracas.
+Disponibilidad de laborar fines de semanas, feriados, horario rotativo, diurno y nocturno (indispensable).
+Experiencia mínima de 3 años como conductor de motocicleta.
+Experiencia en uso de GPS.
+Licencia vigente de segundo grado, vigente (excluyente).
+Certificado médico vial, vigente (excluyente).
+Conocimientos básicos en mecánica.
+Responsabilidades principales:
+Proporcionar un servicio al cliente excepcional, tomando pedidos en persona, por teléfono o a través de la aplicación.
+Resolver consultas y problemas de los clientes de manera amable y profesional.
+Asegurar la satisfacción del cliente en todo momento.
+Elaborar pizzas y otros productos siguiendo las recetas y estándares de calidad de Dominos.
+Mantener el área de preparación de alimentos limpia y ordenada.
+Cumplir con las normas de seguridad alimentaria y manipulación de alimentos.
+Procesar pagos de manera precisa.
+Asegurar que el dinero en la caja registradora esté correctamente contado y registrado.
+Manejar devoluciones y reembolsos de acuerdo a la política de la tienda.
+Mantener la tienda y las áreas de trabajo limpias y ordenadas.
+Realizar tareas de limpieza diarias y semanales según los procedimientos establecidos.
+Reportar cualquier problema o necesidad de reparación al supervisor.
+Trabajar en conjunto con otros miembros del equipo para asegurar que todas las operaciones de la tienda se realicen sin contratiempos.
+Asistir a reuniones y capacitaciones según sea necesario.
+Ayudar en la recepción y almacenamiento de suministros y productos.
+Llevar un control del inventario y reportar faltantes o sobrantes al supervisor.
+Participar en la realización de inventarios periódicos.
+Seguir todas las políticas y procedimientos de la empresa.
+Competencias:
+Actitud positiva y proactiva
+Puntualidad y confiabilidad.
+Habilidad para trabajar en un entorno dinámico.
+Atención al detalle.
+Capacidad para adaptarse rápidamente a situaciones cambiantes.
+Trabajo en equipo.
+Orientación hacia el cliente.
+Requerimientos
+Educación mínima: Bachillerato / Educación Media
+3 años de experiencia
+Edad: entre 21 y 55 años
+Palabras clave: specialist, especialista, delivery
+Ayer (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>6f777a9f9da3</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-asesora-comercial-senior-en-caracas-9B2C19B22D44892B61373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2025-11-25T09:04:45+00:00</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>🔎 Descubre las oportunidades que Dominos Pizza ca tiene para ti</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+A convenir
+Contrato por tiempo indefinido
+Tiempo Completo
+Buscamos a profesionales que provengan de entornos rigurosos como la Banca o el Retail y que busquen estabilidad y crecimiento.
+Diseñar e implementar estrategias para la Captación de nuevos prospectos del sector privado (PYMES y Corporativos) y para el Incremento del volumen de negocio mediante Crosselling y Upselling a clientes actuales.
+Manejar la relación comercial de inicio a fin, desde el perfilamiento hasta el cierre y la post-venta.
+Elaborar la planificación semanal de ventas y registrar todas las actividades diarias en el sistema CRM, garantizando la calidad y la trazabilidad de la gestión.
+Liderar negociaciones complejas con tomadores de decisión para asegurar el cumplimiento de las metas de captación y crecimiento.
+Requerimientos
+Educación mínima: Universidad
+5 años de experiencia
+Edad: entre 28 y 35 años
+Conocimientos: Orientación al logro, Crm, Gestión de ventas, Atención al cliente
+Disponibilidad de viajar: Si
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>0458c33c0ac3</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-especialista-de-reparto-integral-motorizado-en-chacao-5670A9E35A28A6B761373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2025-11-25T09:04:45+00:00</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>🔎 Descubre las oportunidades que Dominos Pizza ca tiene para ti</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>1</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+A convenir
+Contrato por tiempo indefinido
+Tiempo Completo
+¡Dominos Pizza, importante empresa de comida rápida, N° 1 en el mundo y en todas nuestras zonas de reparto! Nos encontramos en la búsqueda de colaboradores, que inspiren a través de sus acciones, para ocupar el cargo de Especialista de Reparto integral.
+Perfil:
+Bachiller culminado y/o estudiante universitario.
+Edad a partir de 21 años.
+Residenciado en la ciudad de Caracas.
+Disponibilidad de laborar fines de semanas, feriados, horario rotativo, diurno y nocturno (indispensable).
+Experiencia mínima de 3 años como conductor de motocicleta.
+Experiencia en uso de GPS.
+Licencia vigente de segundo grado, vigente (excluyente).
+Certificado médico vial, vigente (excluyente).
+Conocimientos básicos en mecánica.
+Responsabilidades principales:
+Proporcionar un servicio al cliente excepcional, tomando pedidos en persona, por teléfono o a través de la aplicación.
+Resolver consultas y problemas de los clientes de manera amable y profesional.
+Asegurar la satisfacción del cliente en todo momento.
+Elaborar pizzas y otros productos siguiendo las recetas y estándares de calidad de Dominos.
+Mantener el área de preparación de alimentos limpia y ordenada.
+Cumplir con las normas de seguridad alimentaria y manipulación de alimentos.
+Procesar pagos de manera precisa.
+Asegurar que el dinero en la caja registradora esté correctamente contado y registrado.
+Manejar devoluciones y reembolsos de acuerdo a la política de la tienda.
+Mantener la tienda y las áreas de trabajo limpias y ordenadas.
+Realizar tareas de limpieza diarias y semanales según los procedimientos establecidos.
+Reportar cualquier problema o necesidad de reparación al supervisor.
+Trabajar en conjunto con otros miembros del equipo para asegurar que todas las operaciones de la tienda se realicen sin contratiempos.
+Asistir a reuniones y capacitaciones según sea necesario.
+Ayudar en la recepción y almacenamiento de suministros y productos.
+Llevar un control del inventario y reportar faltantes o sobrantes al supervisor.
+Participar en la realización de inventarios periódicos.
+Seguir todas las políticas y procedimientos de la empresa.
+Competencias:
+Actitud positiva y proactiva
+Puntualidad y confiabilidad.
+Habilidad para trabajar en un entorno dinámico.
+Atención al detalle.
+Capacidad para adaptarse rápidamente a situaciones cambiantes.
+Trabajo en equipo.
+Orientación hacia el cliente.
+Requerimientos
+Educación mínima: Bachillerato / Educación Media
+3 años de experiencia
+Edad: entre 21 y 55 años
+Palabras clave: specialist, especialista, delivery
+Ayer (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>4f707d666134</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-subgerente-de-tienda-para-las-zonas-de-baruta-la-trinidad-y-el-hatillo-en-caracas-0EB874074873EFD561373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2025-11-22T09:04:56+00:00</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Se buscan Asistente de ventas en Distrito Capital ¡Postula ahora!</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+A convenir
+Contrato por tiempo determinado
+Tiempo Completo
+¡Somos una importante empresa de comida rápida, N° 1 en el mundo y en todas nuestras zonas de reparto!.
+Actualmente no encontramos en la búsqueda de un Sub Gerente de Tienda dinámico, orientado a resultados y con enfoque en servicio al cliente.
+En esta posición, serás responsable de supervisar las operaciones diarias, gestionar al equipo de trabajo y asegurar que los estándares de calidad de Dominos sean mantenidos en todo momento. Tu rol implicará la supervisión de las operaciones de la tienda, desde la preparación de pizzas hasta la atención al cliente; así como la resolución de problemas de manera efectiva y la toma de decisiones rápidas, para mantener un flujo eficiente en la tienda.
+Responsabilidades:
+Supervisar la operación diaria del local: inventarios, caja, ventas y personal.
+Liderar al equipo de colaboradores, motivando el cumplimiento de metas comerciales.
+Asegurar una excelente experiencia del cliente y resolución oportuna de incidencias.
+Gestionar el cumplimiento de estándares de imagen, orden y seguridad.
+Elaborar reportes de ventas e indicadores de gestión.
+Coordinar con áreas de apoyo logísticas, promociones y abastecimiento.
+Requisitos:
+Mayor de 24 años.
+Residenciado en Caracas, de preferencia en zonas aledañas.
+T.S.U o estudiante universitario en carreras administrativas o afines.
+Mínimo 2 años en posiciones similares.
+Conocimiento de indicadores comerciales, control de stock y manejo de caja.
+Disponibilidad para horarios rotativos, feriados y fines de semana.
+Competencias:
+Habilidades de liderazgo, comunicación y orientación al cliente.
+Habilidades de comunicación asertiva y actitud proactiva para motivar y guiar al equipo.
+Capacidad para trabajar bajo presión y adaptabilidad a los cambios.
+Únete a nuestro equipo y contribuye a hacer de cada visita a Dominos, una experiencia inolvidable para nuestros clientes.
+Requerimientos
+Educación mínima: Educación Técnico/Profesional
+años de experiencia
+Edad: entre 24 y 50 años
+Palabras clave: residente, encargado, supervisor, subgerente, responsable, coordinador, gestor, capitan, boutique, tienda, store, establecimiento, bazar, bazzar
+Hace  4  días (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>1760cb049e94</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-gana-hasta-400-al-mes-como-asesor-de-ventas-call-center-en-caracas-C2910F8F1F14115D61373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2025-11-22T09:04:56+00:00</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Se buscan Asistente de ventas en Distrito Capital ¡Postula ahora!</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+200,00 $ (Mensual) + Comisiones
+Contrato por tiempo indefinido
+Tiempo Completo
+¡Estamos contratando!
+¿Tienes habilidades para vender y te apasiona hablar con clientes? Únete a
+nuestro equipo de Call Center en Ventas y comienza a generar ingresos desde el
+primer mes.
+Vacantes disponibles: Gestor de Ventas Telefónicas
+Modalidad: Presencial – Ubicación en los Ruices – Caracas
+Horario: Múltiples horarios disponibles para Ti
+Que beneficios ofrecemos?
+• Sueldo base + atractivas comisiones tus habilidades y desempeño
+hablarán por TI.
+• Obtendrás bonos por tus metas de ventas realizadas.
+• ¡También te brindamos Premios en electrodomésticos por tus ventas semanales!
+• Ofrecemos oportunidades reales de crecimiento apoyamos el talento
+nacional del país.
+• Bienestar Garantizado: Tu salud es nuestra prioridad. Contarás con un servicio
+de Telemedicina 24/7, para que tú tengas acceso a atención médica en
+cualquier momento y lugar.
+Requisitos:
+• Mayor de 18 años
+• Buena dicción y actitud proactiva
+• Experiencia en ventas (deseable, no excluyente)
+Postúlate y pronto te estaremos contactando!
+Requerimientos
+Educación mínima: Bachillerato / Educación Media
+Menos de 1 año de experiencia
+Edad: entre 18 y 50 años
+Palabras clave: advisor, asesor, cambaceo, sales, callcenter, teleoperador, telefonista, telephonist, telefonico
+Hace  4  días (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>c742a18c8d57</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-vendedor-asesor-de-ventas-en-chacao-C1BFEA673FAF3EE561373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2025-11-22T09:04:56+00:00</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Se buscan Asistente de ventas en Distrito Capital ¡Postula ahora!</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+130,00 $ (Mensual) + Comisiones
+Contrato por tiempo indefinido
+Tiempo Completo
+Se requiere asesor de ventas que cumpla con el siguiente perfil:
+- Ingeniero Mecánico o Industrial (recién graduados) o personal con experiencia en el ramo en el ramo de ventas de Refrigeración domestica, comercial e industrial
+Edad comprendida entre 25 y 30 años
+Sexo Masculino
+Para formar y crecer en nuestra empresa en el área comercial
+Puntual, Ordenado, Proactiva, Dinámico, Responsable, orientado al logo de los objetivos
+Conocimientos en Excel Básico
+Manejo de ventas en Redes Sociales, WhatsApp
+Disponibilidad inmediata
+Requerimientos
+Educación mínima: Educación Técnico/Profesional
+1 año de experiencia
+Edad: entre 25 y 30 años
+Disponibilidad de viajar: Si
+Palabras clave: salesman, saleswoman, seller, vendedor, comercial, salesperson, advisor, asesor, cambaceo, sales
+12 de diciembre (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>514ef7ec27f7</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-promotora-vendedor-vendedor-en-caroni-74677E5E0B2078B761373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2025-11-18T23:03:00+00:00</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Empresas líderes en Bolívar buscan cubrir estas posiciones</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+200,00 $ (Mensual) + Comisiones
+Contrato por tiempo determinado
+Tiempo Completo
+Presencial y remoto
+Presentar y promocionar productos, establecer relaciones con los clientes, y alcanzar los objetivos de ventas establecidos. Además, asume un rol de asesoría, dando seguimiento a las necesidades del cliente y gestionando incidencias para maximizar la satisfacción.
+Requerimientos
+Educación mínima: Educación Técnico/Profesional
+10 años de experiencia
+Edad: entre 30 y 45 años
+Conocimientos: Negociación, Resolución de problemas, Trabajo en equipo, Análisis de costes, Gestión de ventas, Marketing, Ventas
+Licencias de conducir: automóviles / carros
+Disponibilidad de viajar: Si
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>b75e34d563d9</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-representante-de-ventas-turno-diurno-en-sucre-D5847FDE7D83B16E61373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2025-11-18T23:03:00+00:00</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Empresas líderes en Bolívar buscan cubrir estas posiciones</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+15.000,00 $ (Mensual) + Comisiones
+Contrato por tiempo determinado
+Tiempo Completo
+Se busca personal para Representante de Ventas en empresa
+Se encargará de captar clientes, registrar su información, ofrecer productos y concretar ventas.
+Debe conocer a profundidad los productos y servicios que ofrece la empresa
+Turno de Lunes a Viernes de 8:00am a 5:00pm
+Modalidad: PRESENCIAL
+Disponibilidad completa del Horario
+Requerimientos
+Educación mínima: Bachillerato / Educación Media
+1 año de experiencia
+Edad: entre 20 y 35 años
+Conocimientos: Autoconfianza, Gestión del tiempo, Negociación, Orientación al logro, Resolución de conflictos, Resolución de problemas, Trabajo en equipo, Calidad, Facturación, Gestión de ventas, Investigación, Libreoffice, Microsoft excel, Microsoft word, Organización, Planificación, Redacción, Relaciones públicas, Ventas, Iniciativa, Atención al cliente
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>0f8dfa7b7075</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-asistente-ejecutiva-comercial-remota-ventas-consultivas-formacion-empresarial-360-en-caracas-DB9EC741D4E81FC761373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2025-11-18T23:03:00+00:00</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Empresas líderes en Bolívar buscan cubrir estas posiciones</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+4.000.000,00 $ (Mensual) + Comisiones
+Contrato por tiempo determinado
+Tiempo Completo
+Remoto
+Descripción del Puesto
+Empresa líder en programas de capacitación y certificaciones empresariales desde 2003, busca incorporar a su equipo una Asistente Ejecutiva Comercial Remota, orientada a resultados, proactiva y con habilidades en ventas consultivas.
+Su principal misión será contactar y agendar reuniones efectivas con tomadores de decisiones en empresas (Gerentes de Capacitación, Desarrollo Humano, Gestión Humana o Gerentes Generales) para presentar el Programa de Formación Empresarial 360, el modelo más innovador de formación corporativa en Latinoamérica.
+Funciones Principales
+- Prospectar empresas a través de LinkedIn, WhatsApp, correo corporativo y bases de datos.
+- Contactar y agendar reuniones efectivas con tomadores de decisiones.
+- Presentar el Programa de Formación Empresarial 360, explicando sus beneficios y estructura.
+- Registrar y actualizar información de contactos en CRM o planilla de control.
+- Dar seguimiento a empresas contactadas y confirmar asistencia a reuniones virtuales.
+- Cumplir con los objetivos semanales y mensuales de citas y cierres.
+- Mantener una comunicación profesional que represente la imagen de empresa.
+Requisitos
+- Técnico o profesional en Administración, Negocios, Mercadeo o Psicología Organizacional.
+- Experiencia mínima de 1 año en ventas remotas, call center o asistencia comercial.
+- Experiencia en prospección B2B o contacto con áreas de Recursos Humanos (deseable).
+- Manejo de herramientas digitales: LinkedIn, WhatsApp Business, Zoom y Google Meet.
+- Conocimientos básicos de CRM (HubSpot), Word y Excel.
+- Español nativo / Inglés intermedio (deseable).
+Competencias Clave
+- Comunicación empática y persuasiva.
+- Capacidad de organización y seguimiento.
+- Orientación a resultados y cumplimiento de metas.
+- Autogestión y disciplina en modalidad remota.
+- Habilidad para identificar tomadores de decisiones y generar oportunidades comerciales.
+Condiciones y Beneficios
+- Modalidad 100 % remota (trabajo desde casa).
+- Pago por resultado:
+- US$ 5 por cada cita efectiva agendada.
+- 5 % de comisión sobre cada venta cerrada (mínimo de referencia: US$ 540 por venta).
+- Bonos por desempeño y metas alcanzadas.
+- Capacitación inicial sobre el Programa Formación Empresarial 360.
+Horario flexible y posibilidad de crecimiento dentro del área comercial (recomdable de 8:00 am a 5:00 pm).
+Requerimientos
+Educación mínima: Universidad
+2 años de experiencia
+Edad: entre 25 y 50 años
+Palabras clave: ayudante, asistente, auxiliar, aux, auxiliary, assistant, helper, aide, salesman, saleswoman, seller, vendedor, comercial, salesperson, cambaceo, sales, training, capacitacion, capacitador, corporate, empresarial, corporativo
+Ayer (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>38779cbea2db</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-promotor-de-ventas-en-caracas-4BD65DF1629A19F661373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2025-11-18T23:03:00+00:00</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Empresas líderes en Bolívar buscan cubrir estas posiciones</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>1</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+A convenir
+Contrato por tiempo determinado
+Tiempo Completo
+Importante empresa distribuidora de tecnología en Caracas, se encuentra en la búsqueda de talento para desempeñarse bajo la figura de Promotor de Ventas para diferentes estados CARACAS, BARQUISIMETO, CARABOBO, ACARIGUA , BARINAS Y ARAGUA.
+Horario: Lunes a sábado, 9:00 a.m.  6:00 p.m.
+Objetivo: Incrementar las ventas y la presencia de la marca de celulares en puntos de venta mediante la promoción, asesoramiento y demostración del producto, asegurando la satisfacción del cliente y fortaleciendo la imagen de la marca.
+Perfil:
+Bachiller graduado (indispensable) o TSU en áreas afines
+2+ años como promotor o asesor de ventas en tecnología
+Conocimiento en productos, competencia, atención al cliente, técnicas de venta y exhibición, material POP, y herramientas promocionales
+Manejo básico de Office y programas administrativos (deseable)
+Funciones clave:
+Asesorar clientes sobre productos
+Promover ventajas de la marca
+Atender inquietudes y realizar demostraciones
+Mantener inventario y exhibición
+Alcanzar metas de ventas y reportes
+Difundir promociones y beneficios
+Asegurar atención postventa
+Recoger feedback de clientes
+Cumplir con políticas de marca y tienda
+Requisitos y Competencias
+Disponibilidad inmediata y para trabajar en las zonas indicadas
+Empatía, resolución de conflictos, comunicación asertiva
+Ética, discreción, trabajo en equipo y orientación a resultados
+Requerimientos
+Educación mínima: Universidad
+2 años de experiencia
+Edad: entre 20 y 35 años
+Palabras clave: promoter, promotor, cambaceo, sales
+Ayer (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>4ebf55d0b431</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-asistente-piso-de-venta-la-guaira-en-vargas-3C6EF670EFEA359F61373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2025-11-18T23:03:00+00:00</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Empresas líderes en Bolívar buscan cubrir estas posiciones</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>1</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+A convenir
+Contrato por tiempo determinado
+Tiempo Completo
+¿Quieres ser parte de la cadena 1 de farmacias en Venezuela?
+¡Actualmente nos encontramos en la búsqueda de Asistente Piso de Venta para trabajar en nuestra tienda de Coro
+Si eres bachiller, estudiante universitario o graduado, mayor de edad, con alta orientación al cliente y disponibilidad para trabajar en horarios rotativos y/o fines de semana, ¡postúlate!
+Requerimientos
+Educación mínima: Bachillerato / Educación Media
+años de experiencia
+Edad: entre 18 y 25 años
+Palabras clave: ayudante, asistente, auxiliar, aux, auxiliary, assistant, helper, aide, vivienda, inmobiliario, inmueble, condominio, edificio, planta, floor
+Hace  2  días (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>00fd0819f997</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-vendedoras-ventas-on-linea-fisca-vivo-live-shopping-en-caracas-78FB836103E1957D61373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2025-11-18T22:02:58+00:00</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Santiago, esta empresa en Distrito Capital está interesada en ti</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>1</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+30.940,00 $ (Mensual) + Comisiones
+Contrato por tiempo determinado
+Tiempo Completo
+Vendedora Online: Dominio de plataformas de e-commerce y gestión de pedidos online.
+Vendedoras Físicas: Habilidad para alcanzar metas de venta y excelente trato con el cliente en tienda.
+Auxiliares de Venta: Proactiva, organizada y con capacidad para apoyar en inventario y exhibición.
+Cajera Manejo de puntos de venta (POS) y cuadre de caja diario con precisión.
+Lo que Buscamos en TODOS los Perfiles:
+Experiencia mínima de 1 año en el área de postulación.
+Pasión por el sector retail y la moda.
+Compromiso, responsabilidad y orientación a resultados.
+Requerimientos
+Educación mínima: Educación Técnico/Profesional
+1 año de experiencia
+Idiomas: Inglés
+Edad: entre 20 y 30 años
+Conocimientos: Gestión del tiempo, Negociación, Orientación al logro, Trabajo en equipo, Gestión de ventas, Ventas
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>7bb8c35e5882</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-asistente-administrativo-en-caracas-9ED77374CDAD34DE61373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2025-11-18T22:02:58+00:00</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Santiago, esta empresa en Distrito Capital está interesada en ti</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>1</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+A convenir
+Contrato por tiempo determinado
+Tiempo Completo
+Requisitos:
+T.S.U. o Licenciado en administración o carrera afín
+Edad comprendida entre 25 y 32 años
+Genero: Indistinto.
+Conocimientos en facturación, Retenciones de IVA, ISLR.
+Dominio de Paquete Office
+Disponibilidad inmediata.
+Excelente capacidad de gestión y resolución de problemas.
+Responsabilidades Principales:
+Control de Caja
+Registro de Facturación en el sistema
+Conocimiento de Parafiscales, cartelera fiscal.
+Elaborar, archivar y organizar documentos.
+Manejo de Inventario de Materiales de Oficina
+Habilidades de redacción y ortografía impecable.
+Competencias Deseables:
+Proactividad para resolver problemas
+Discreción al manejar información confidencial
+Habilidad de comunicación para interactuar con las diferentes áreas de la empresa
+Requerimientos
+Educación mínima: Educación Técnico/Profesional
+2 años de experiencia
+Edad: entre 23 y 35 años
+Conocimientos: Trabajo en equipo
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>f198a532f3c5</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-asistente-administrativo-en-caracas-7504C5B25A017CDF61373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2025-11-18T22:02:58+00:00</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Santiago, esta empresa en Distrito Capital está interesada en ti</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>1</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+380,00 $ (Mensual)
+Contrato por tiempo determinado
+Tiempo Completo
+Se requiere profesional (TSU o Licenciada en Contaduría o Administración de empresas) comprometida y meticulosa para para integrarse al equipo de auditoría. El rol implica revisión de procesos, control interno, análisis interno y elaboración de informes para contribuir a la mejora continua de la organización.
+Requisito:
+Manejo de herramientas word y excel básico.
+Capacidad para trabajar con tiempos ajustados y múltiples tareas.
+Pensamiento analítico, ética profesional y atención al detalle.
+Requerimientos
+Educación mínima: Educación Técnico/Profesional
+3 años de experiencia
+Palabras clave: ayudante, asistente, auxiliar, aux, auxiliary, assistant, helper, aide, administrative
+Hace más de 30 días
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>a949f131ea93</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-asistente-administrativo-en-baruta-7E62FE81BA9BB61861373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2025-11-18T22:02:58+00:00</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Santiago, esta empresa en Distrito Capital está interesada en ti</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>1</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+10.000,00 $ (Mensual)
+Contrato por tiempo indefinido
+Tiempo Completo
+Se requiere de un profesional para el registro de transacciones financieras diarias, gestionar la facturación, realizar el control de cobros y pagos, mantener actualizados los registros contables y archivos,  y apoyar en la preparación de informes financieros y cumplimiento tributario. Además, será responsable de tareas administrativas generales como la gestión de la correspondencia, la atención al público y el mantenimiento de la caja chica.
+Requerimientos
+Educación mínima: Educación Técnico/Profesional
+3 años de experiencia
+Edad: entre 24 y 32 años
+Palabras clave: ayudante, asistente, auxiliar, aux, auxiliary, assistant, helper, aide, administrative
+12 de diciembre (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>a2272de106fa</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-gerenteasistenteatencion-al-cliente-manipulador-de-alimentos-operador-de-tienda-residenciados-en-baruta-en-baruta-19D1C7AA28F2C2D261373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2025-11-18T22:02:58+00:00</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Santiago, esta empresa en Distrito Capital está interesada en ti</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>1</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+A convenir
+Contrato por tiempo indefinido
+Tiempo Completo
+Buscamos un Gerente/Asistente/Atención al cliente, Manipulador de alimentos, operador de tienda para nuestro local Cafe Roll C.A. (CinnaRolls).
+Si tienes experiencia en el sector de la alimentación y te apasiona el servicio al cliente, esta oportunidad es para ti.
+En CinnaRolls valoramos el compromiso, la pasión y la dedicación de nuestros empleados.
+Como parte de nuestro equipo, serás responsable de gestionar las operaciones diarias de la tienda, atender a los clientes con amabilidad y profesionalismo, y asegurarte de que cada cliente tenga una experiencia satisfactoria.
+Además, serás el encargado de supervisar la preparación y manipulación de alimentos, garantizando siempre los más altos estándares de calidad e higiene.
+Requisitos mínimos: experiencia previa en atención al cliente y manipulación de alimentos.
+Debes ser una persona comunicativa, con habilidades de liderazgo y una actitud proactiva.
+Buscamos alguien que disfrute trabajando en un ambiente dinámico y que esté dispuesto a aprender y crecer con nosotros.
+Si te identificas con estos perfiles y buscas un entorno laboral donde puedas desarrollarte profesionalmente, ¡no dudes en unirte a nuestro equipo en CinnaRolls! Ofrecemos un ambiente de trabajo positivo y oportunidades de crecimiento profesional.
+Aporta tu talento y tu pasión a CinnaRolls y forma parte de una empresa que se preocupa por sus empleados y por ofrecer siempre lo mejor a nuestros clientes.
+Requerimientos
+Educación mínima: Bachillerato / Educación Media
+1 año de experiencia
+Edad: entre 20 y 35 años
+Palabras clave: costumer, cliente, handler, operator, operario, operator, boutique, tienda, store, establecimiento, bazar, bazzar
+Hace  7  días (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>99c76f54df3e</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-programador-net-c-con-xamarin-en-caracas-9C8E6465F87C833861373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2025-11-18T21:02:19+00:00</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Santiago, postúlate hoy a 1 vacantes de Analista programador en
+ Distrito Capital</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>1</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+A convenir
+Contrato por tiempo indefinido
+Tiempo Completo
+Presencial y remoto
+Estamos en búsqueda de un Programador .NET con experiencia en C# y Xamarin para impulsar el desarrollo de nuestras aplicaciones móviles de última generación. Si eres un apasionado de la tecnología, te encanta resolver problemas complejos y quieres dejar tu huella en proyectos desafiantes, ¡queremos conocerte!
+¿Qué esperamos de ti?
+Responsabilidades Principales:
+Diseñar, desarrollar y mantener aplicaciones móviles multiplataforma utilizando Xamarin.Forms y Xamarin.Native.
+Participar en todo el ciclo de vida del desarrollo: desde el análisis y diseño hasta la implementación, testing y despliegue.
+Escribir código limpio, eficiente y bien documentado en C#.
+Colaborar estrechamente con equipos multidisciplinares (diseñadores UX/UI, product managers y otros desarrolladores).
+Integrar APIs y servicios web (REST, JSON) para conectar las aplicaciones con sistemas backend.
+Optimizar el rendimiento de las aplicaciones para ofrecer una experiencia de usuario excepcional.
+Realizar debugging, troubleshooting y corregir incidencias.
+Requisitos Imprescindibles (Must Have):
+Experiencia demostrable de al menos [2-3] años programando en C# y .NET.
+Conocimientos sólidos y experiencia en el desarrollo de aplicaciones con Xamarin (Forms o Native).
+Familiaridad con Visual Studio y el ecosistema .NET.
+Conocimientos de patrones de diseño (MVVM, MVC) y principios SOLID.
+Experiencia en el consumo de APIs RESTful.
+Control de versiones con Git.
+Se valorará positivamente (Nice to Have):
+Experiencia con .NET MAUI (Migración desde Xamarin).
+Conocimientos en Azure DevOps o CI/CD para entornos móviles.
+Conocimientos de bases de datos SQL (SQL Server) o NoSQL.
+Experiencia en desarrollo nativo (Android/iOS) o Swift/Kotlin.
+Requerimientos
+Educación mínima: Universidad
+2 años de experiencia
+Conocimientos: Asp.net, C#
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>f54f7249d363</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-coordinador-de-comida-rapida-en-caracas-7511886FC777691D61373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2025-11-18T17:05:07+00:00</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Santiago, tienes nuevas ofertas de empleo esperándote</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+130,00 $ (Mensual)
+Contrato por tiempo indefinido
+Tiempo Completo
+COORDINADOR DE COMIDA RAPIDA
+REQUISITOS
+MASCULINO (LIMITANTE) entre 25 a 35 años (LIMITANTE)
+Experiencia demostrable como DEMICHEF (LIMITANTE)
+Disponibilidad para trabajar en turnos rotativos incluyendo turnos nocturnos
+Buena organización y capacidad de multitarea
+Habilidades de liderazgo y supervisión para dirigir a los miembros del equipo
+Capacidad de trabajar bajo presión y adaptarse a situaciones cambiantes
+FUNCIONES:
+Registrar de productos en el inventario, entradas y salidas
+Generar reportes de actividades realizadas e incidencias
+Realizar requisiciones de productos e insumos del departamento
+Garantizar la seguridad alimentaria y el cumplimiento normativo
+Manejar discrepancias entre inventario físico y registrado sin afectar el servicio
+Priorizar tareas (productos, elaboraciones, requisiciones)
+Identificar productos con baja rotación.
+Confirmar y cuidar los tiempos de entrega y condiciones de los productos
+Velar y mantener el stock de artículos críticos.
+Requerimientos
+Educación mínima: Bachillerato / Educación Media
+2 años de experiencia
+Idiomas: Español
+Edad: entre 24 y 30 años
+Palabras clave: residente, encargado, supervisor, subgerente, responsable, coordinador, gestor, capitan
+Hace  4  días (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>b8925ec98fd7</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-programador-low-code-make--en-carrizal-FEF6E0FD92D7403261373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2025-11-18T12:03:34+00:00</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Urgente: Empresas en Distrito Capital necesitan Analista programador</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>1</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+400,00 $ (Mensual)
+Contrato por tiempo indefinido
+Tiempo Completo
+Buscamos Programador con experiencia low code
+Para mantenimiento y nuevos desarrollos para nuestro sistema de publicaciones y ventas directas y sitios Web
+Experiencia previa en automatizaciones con Mercadolibre, N8N, Shopify, Intagram, ….., ..
+Requerimientos
+Educación mínima: Educación Técnico/Profesional
+3 años de experiencia
+Edad: A partir de 23 años
+Palabras clave: developer, desarrollador
+Hace más de 30 días
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>46b8401434a6</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-analista-programador-iii-con-experiencia-en-erp-en-caracas-79372197E4C8704961373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2025-11-18T12:03:34+00:00</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Urgente: Empresas en Distrito Capital necesitan Analista programador</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+130,00 $ (Mensual)
+Contrato por tiempo determinado
+Tiempo Completo
+Diseñar y desarrollar soluciones en procesos críticos de baja y mediana complejidad, innovación e impacto para las mejoras y correcciones del Producto Profit Plus, aplicadas con alta eficiencia, mínimo de errores y dentro de la planificación establecida, interpretando eficazmente el requerimiento asignado; bajo los estándares, especificaciones técnicas y funcionales establecidas por la Gerencia de Tecnología, apoyando continuamente al equipo de programadores como referente experto y facilitador, e influyendo decisivamente en las mejores prácticas y resultados efectivos en la gestión de la Unidad.
+Requerimientos
+Educación mínima: Universidad
+4 años de experiencia
+Edad: entre 25 y 45 años
+Conocimientos: C#, Desarrollo de producto, Erp, Php, Sql server, Windows
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>1badf495d6bc</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-analista-de-sistemas-altamira-chacao-en-caracas-FDFCC24C9B7D079461373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2025-11-18T12:03:34+00:00</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Urgente: Empresas en Distrito Capital necesitan Analista programador</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>1</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+400.000,00 $ (Mensual)
+Contrato por tiempo determinado
+Tiempo Completo
+Importante empresa del sector de Alimentos se encuentra en la búsqueda de  Analista de sistema con conocimiento en manejo de internet Redes, Instalaciones de cámaras, programación, Software, manejo del todo el paquete office.
+1.	Instalar, configurar y mantener sistemas operativos y aplicaciones de software y Windows.
+2.	Diagnosticar y resolver problemas de hardware y software.
+3.	Administrar y supervisar las redes, incluidos los servidores y el ancho de banda.
+4.	Implementar y mantener medidas de seguridad de red y soluciones de backup.
+5.	Proporcionar soporte técnico a los usuarios, tanto en persona como de forma remota.
+6.	Participar en proyectos especiales según sea necesario.
+7.	Cableado estructurado, configuración de redes en equipos Mikrotic, Ubiquiti Unifi Configuración e instalación de sistemas de CCTV, control de acceso, preferiblemente en la marca Hikvision
+8.	Conocimiento en sistema de administracion de Sistema POS para Restaurantes preferiblemente Xetux.
+9.	Habilidades técnicas: Conocimientos en programación, bases de datos, sistemas operativos y redes, etc.
+10.	Habilidades analíticas: Capacidad para identificar problemas, analizarlos y proponer soluciones eficientes.
+11.	Habilidades de comunicación: Comunicarse de manera efectiva tanto en forma oral como escrita con otros profesionales de TI y usuarios finales.
+12.	Habilidades de trabajo en equipo: Colaborar con otros profesionales de TI para alcanzar objetivos comunes.
+13.	Habilidades de gestión del tiempo y priorización: Administrar múltiples tareas y proyectos de manera eficiente.
+Requisitos:
+1.  3 años de experiencia como analista de redes y soporte técnico.
+2. Amplio conocimiento de Linux y Windows.
+3. Experiencia en la administración de redes y sistemas.
+4. Capacidad para trabajar de forma independiente y en equipo.
+5. Excelentes habilidades de resolución de problemas y comunicación.
+6. Disponibilidad para trabajar en horario flexible..
+Edad: 25-40 años.
+T.S.U
+Experiencia mínima 3años.
+Requerimientos
+Educación mínima: Educación Técnico/Profesional
+3 años de experiencia
+Edad: entre 25 y 40 años
+Palabras clave: analyst, system
+Hace  6  días (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>373c45f74d6d</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-analista-de-datos-en-caracas-EB068B569C94668D61373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2025-11-18T12:03:34+00:00</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Urgente: Empresas en Distrito Capital necesitan Analista programador</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+40.000,00 $ (Mensual)
+Otro tipo de contrato
+Tiempo Completo
+¡Oportunidad de empleo!
+Analista de Datos (Presencial)
+Conocimientos :
+-Manejo de paquete office (Excel, Power Point, Word, Visio y Proyecto), Microsoft Power BI.
+-Google Drive, Google Sheets, BigQuery, Google Analytics, Tensorflow, Keras, Google Cloud Plataforma, AWS.
+-Capacidad para crear modelos de Machine Learning para predecir valores clave.
+-Habilidades para estructurar y organizar datos a través del diseño e implementación de ETL y modelos abstractos.
+Miranda-Venezuela. Av. Principal de Los Ruices.
+¡Si cumples con el perfil, no dudes en postularte!
+Requerimientos
+Educación mínima: Educación Técnico/Profesional
+1 año de experiencia
+Palabras clave: analyst, data
+12 de diciembre (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>162f53897593</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-desarrollador-de-sistemas-en-caracas-FC5B606C2B65961B61373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2025-11-18T12:03:34+00:00</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Urgente: Empresas en Distrito Capital necesitan Analista programador</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>1</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+A convenir
+Contrato por tiempo indefinido
+Tiempo Completo
+Se busca Desarrollador de Sistemas para unirse al equipo de Dominos.
+En este rol, serás responsable de diseñar, desarrollar y mantener sistemas informáticos que apoyen las operaciones de la empresa. Tus responsabilidades incluirán el análisis de requisitos, la programación de software, la gestión de bases de datos y la supervisión de sistemas. Deberás colaborar con otros equipos para asegurar que los sistemas se integren bien con los procesos de la empresa.
+Requisitos:
+Experiencia mínima de 3 años como desarrollador.
+Dominio avanzado de Python: desarrollo backend, automatización, y manejo de librerías modernas.
+Experiencia sólida en SQL: diseño de esquemas, optimización de consultas, y manejo de bases de datos relacionales.
+Conocimientos avanzados en JavaScript y CSS: desarrollo frontend, interacción dinámica, y diseño responsivo.
+Manejo de frameworks y librerías modernas: como Flask, Django, React, Vue.js o similares.
+Diseño y administración de bases de datos: PostgreSQL, MySQL, SQLite o SQL Server.
+Conocimientos en redes (networking): protocolos TCP/IP, HTTP/HTTPS, DNS, VPN, firewalls, y seguridad básica.
+Manejo de control de versiones (Git): flujos de trabajo colaborativos, revisión de código y gestión de ramas.
+Buenas prácticas de seguridad: gestión de tokens, autenticación, autorización, y protección contra vulnerabilidades comunes (XSS, CSRF, SQL Injection).
+Comunicación efectiva: con stakeholders técnicos y no técnicos.
+Dominio del inglés técnico y conversacional: capacidad para leer documentación, participar en reuniones internacionales y colaborar con equipos globales.
+Habilidades de comunicación efectiva.
+Capacidad para trabajar en un entorno de equipo dinámico.
+Habilidades analíticas, de resolución de problemas y atención al detalle.
+Dominos ofrece un ambiente de trabajo desafiante y colaborativo, donde tu contribución será valorada y tendrá un impacto directo en la satisfacción del cliente.
+Únete a nosotros y forma parte de un equipo comprometido con la excelencia en la industria de la entrega de pizzas.
+Requerimientos
+Educación mínima: Universidad
+3 años de experiencia
+Idiomas: Español ,Inglés
+Edad: entre 25 y 50 años
+Palabras clave: developer, programador, system
+Ayer (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>0b08d511c2cd</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-desarrollador-programador-ionic-framework-full-stack-con-experiencia-en-caracas-7BFAB3893ED597D161373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2025-11-18T11:02:07+00:00</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>✅️ Tu perfil encaja perfectamente en ALPHAS.TECHNOLOGY</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+80.000,00 $ (Mensual)
+Contrato por tiempo indefinido
+Tiempo Completo
+Remoto
+Estamos en la busqueda de un programador con experiencia comprobada con Ionic Framework OOP/Web Full Stack capaz de, realizar paginas Web o sistemas orientados a objeto desde el principio hasta el final. El candidato debe de tener conocimiento y experiencia en: HTML CCS BOOSTRAP VUE .JS Ionic (Framework) (Pasar imagenes PSD a HTML y que dicho codigo sea responsivo) Capaz de editar imagenes de ser necesario y tiempo prudente al momento de hacer Mockups. Es decir el candidato debe tener un buen desempeño en lo que es Front End al igual que en Back End. Experiencia de 3 años maqueteando (Mockups) y de Full Stack Experiencia con herramientas de diseño grafico (Photoshop o Ilustrator) Manejo de base de datos El desempeño de esta posicion es de manera remota, por lo tanto el candidato debe de poseer un telefono movil funcional/operativo, un computador confiable y coneccion a internet con buena velocidad y servico electrico sin interrucciones continuas. Preferiblemente Ingeniero en Sistemas o Computacion
+Conocimeinto de haciendo aplicaciones movil con Ionic Framework es indispensable.
+Requerimientos
+Educación mínima: Universidad
+3 años de experiencia
+Hace  3  días (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>fda9ef5fadc8</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-desarrollador-java-con-experiencia-minima-de-2-anos-en-caracas-95177A0670F7A1C261373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2025-11-18T11:02:07+00:00</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>✅️ Tu perfil encaja perfectamente en ALPHAS.TECHNOLOGY</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+A convenir
+Contrato por tiempo indefinido
+Tiempo Completo
+Con experiencia Java, Java script, HTML, CCS, GIT Tener más de 2 años de experiencia.
+Tener experiencia en el desarrollo de software.
+Tener habilidades técnicas avanzadas.
+Estar al día con las últimas tecnologías y tendencias.
+Tener habilidades blandas, como comunicación, pensamiento crítico y liderazgo técnico.
+Tener la capacidad de trabajar en equipo
+Requerimientos
+Educación mínima: Educación Técnico/Profesional
+2 años de experiencia
+Palabras clave: developer, programador
+Hace  5  días (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>8c8cc224725d</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-analista-rca-con-experiencia-minima-de-3-anos-en-caracas-2E1A600535C048EC61373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2025-11-18T10:01:19+00:00</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Estas empresas necesitan Analista en Distrito Capital</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>1</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+A convenir
+Contrato por tiempo indefinido
+Tiempo Completo
+•	Experiencia de entre 3 y 5 años en gestión de riesgos tecnológicos y desarrollo de software.
+•	Manejo de bases de datos, data analytics.
+•	Manejo de Drive.
+•	Manejo de paquete Office.
+•	Conocimientos en operativa bancaria y gestión de productos bancarios.
+•	Conocimientos de la Ley Orgánica del Sistema Financiero Nacional; Normas Relativas a la Administración de Riesgos Relacionados con los Delitos de Legitimación de Capitales y Financiamiento al Terrorismo; Protección de los Usuarios y Usuarias de los Servicios Financieros, Normativa de Tecnología de la Información, Servicios Financieros desmaterializados, Banca Electrónica, Virtual y en Línea para los Entes Sometidos al Control, Regulación y Supervisión de la Superintendencia de Bancos y Otras Instituciones Financieras, Resolución-641-10-Banca-Electrónica,  así como otras Leyes y Normas que regulen el Sector Financiero .
+•	 Conocimiento en Normas de Seguridad Internacionales ISO17799 y COBIT.
+Requerimientos
+Educación mínima: Educación Técnico/Profesional
+3 años de experiencia
+Palabras clave: analyst
+Hace  6  días (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>f2a32f389212</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-aliado-comercial-gestion-rotativa-de-zonas-en-caracas-52E4CB449551969861373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2025-11-18T10:01:19+00:00</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Estas empresas necesitan Analista en Distrito Capital</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>1</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+A convenir
+Otro tipo de contrato
+Tiempo Completo
+Presencial y remoto
+Lograr el crecimiento sostenido de la base de clientes de Telecomunicaciones Silverdata, mediante la captación activa en zonas de cobertura.
+Dentro de las responsabilidades claves están:
+1. Busqueda activa (puerta a puerta / Vía telefónica) de potenciales clientes.
+2. Presentación de nuestros productos y de sus ventajas (Fibra Optica / RF)
+3. Negociación y cierre de contratos.
+4. Seguimiento de la instalación hasta la activación.
+CUALIFICACIONES Y REQUERIMIENTOS:
+	Bachiller o Profesional Universitario.
+	Manejo de computadoras bajo ambiente Windows.
+	Manejo de Office:
+•	Word
+•	Excel (indispensable)
+•	PowerPoint.
+	Capacidad de trabajo en equipo.
+	Buena Comunicación oral y escrita.
+	Responsable.
+	Analítico (a)/ Lógico (a)
+	Capacidad de trabajar bajo presión.
+	Habilidades para la excelente atención al cliente.
+	Buena presencia y manejo de relaciones públicas.
+Ofrecemos;
+- Ingresos mensuales por metas.
+- Cero Inversion, todo el material POP lo proporciona la empresa.
+- Entrenamiento presencial y acompañamientos por WhatsApp.
+. Ganancias Mensuales por Ventas
+. Capacitacion rápida + Apoyo de la marca.
+Ubicación; Caracas y Charallave
+Requerimientos
+Educación mínima: Bachillerato / Educación Media
+2 años de experiencia
+Edad: entre 22 y 40 años
+Conocimientos: Gestión de ventas
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2a879728aef5</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-analista-presencial-y-con-1-a-2-ano-de-experiencia-en-caracas-14D44FBB78B4732061373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2025-11-18T10:01:19+00:00</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Estas empresas necesitan Analista en Distrito Capital</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>1</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+400.000,00 $ (Mensual)
+Contrato por tiempo indefinido
+Tiempo Completo
+Gestionar cobranzas, análisis de cliente y proveedores, Montar  pagos , Registro de Cobranzas de Clientes y Documentos Fiscales (N/C y N/D)
+Realizar las Reconciliaciones de las CXC y CXP necesarias. Elaboración de Estados de Cuenta Retenciones (IVA - ISLR)
+Requerimientos
+Educación mínima: Educación Técnico/Profesional
+2 años de experiencia
+Idiomas: Español
+Edad: entre 25 y 40 años
+Palabras clave: analyst
+Hace más de 30 días
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>fa25e3253421</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-especialista-en-planificacion-financiera-en-caracas-7FEB24D7F9EEF48A61373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2025-11-18T10:01:19+00:00</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Estas empresas necesitan Analista en Distrito Capital</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>1</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+40.000,00 $ (Mensual)
+Contrato por tiempo determinado
+Tiempo Completo
+Empresa líder en el ramo Óptico, esta en la búsqueda de un/a Especialista en Planificación y Análisis Financiero, con talento para fortalecer nuestro equipo.
+Si te apasiona la planificación financiera y estás listo/a para un nuevo desafío, ¡queremos conocerte!
+Profesional en Administración, Finanzas, Contaduría o carrera afín.
+Mínimo 3 años de experiencia comprobable en roles administrativos, con un fuerte énfasis en planificación y análisis financiero.
+Sólidos conocimientos en la elaboración y seguimiento de presupuestos, proyecciones financieras y análisis de rentabilidad.
+Experiencia en la gestión de flujos de efectivo y optimización de recursos.
+Habilidad para interpretar datos financieros y transformarlos en información útil para la toma de decisiones.
+Dominio avanzado de Microsoft Excel, conocimientos sólidos en PowerBI y herramientas de gestión financiera.
+Proactividad, capacidad analítica, atención al detalle y excelentes habilidades de comunicación
+Ofrecemos paquete integral
+Salario Base + Cesta tickets por encima de Ley + Beneficios complementarios por desempeño y cumplimiento de resultados.
+Requerimientos
+Educación mínima: Educación Técnico/Profesional
+3 años de experiencia
+Edad: entre 25 y 45 años
+Palabras clave: specialist, especialista, planning, planeacion, financial, afianzadora, credito, credit, financiera
+Ayer (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>b2f49af82526</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-promotora-asesor-de-venta-captacion-especial-en-caracas-10CA89B4E932629061373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2025-11-18T01:03:59+00:00</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Tu experiencia como Asistente de ventas es clave en GRUPO ACUARIO</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>1</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+A convenir
+Contrato por tiempo determinado
+Tiempo Completo
+ventas telefonicas, asesoramiento a cartera de clientes, manejo de correo electronico, manejo de word y excel basico, ganas de superacion, trabajo en equipo
+Requerimientos
+Educación mínima: Educación Básica Secundaria
+años de experiencia
+Idiomas: Español
+Edad: entre 18 y 50 años
+Ayer (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>eae4ea662651</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-subgerentea-de-tienda-en-caracas-D85940095B56EB6F61373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2025-11-18T01:03:59+00:00</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Tu experiencia como Asistente de ventas es clave en GRUPO ACUARIO</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+500,00 $ (Mensual) + Comisiones
+Contrato por tiempo indefinido
+Tiempo Completo
+Subgerente de tienda / liderazgo / supervision de personal/ gestion de ventas / atencion al cliente / apoyo gerente de tienda / inventaios  de mercancias / experiencia tiendas de ropa
+Requerimientos
+Educación mínima: Educación Técnico/Profesional
+2 años de experiencia
+Edad: A partir de 25 años
+Conocimientos: Liderazgo, Gestión de ventas
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>eeb36e08a060</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-asistente-piso-de-venta-senior-caracas-en-caracas-1D3289582F8F016D61373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2025-11-18T01:03:59+00:00</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Tu experiencia como Asistente de ventas es clave en GRUPO ACUARIO</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>1</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+A convenir
+Contrato por tiempo indefinido
+Tiempo Completo
+¿Quieres ser parte de nuestro equipo Farmatodo?
+Somos una empresa con más de 100 años de historia, presentes en países como Venezuela, Colombia y Argentina.
+Si eres de los que se atreven a ir más allá, estamos en la búsqueda de un Asistente Piso de Venta Senior.
+Perfil requerido:
+- Alta orientación al cliente.
+- Mayor de edad.
+- Profesional universitario.
+- Disponibilidad de horarios rotativos y fines de semana.
+Principales funciones:
+- Atención al cliente.
+- Inventario, surtido, etiquetado.
+- Recepción de proveedores internos y externos.
+- Labores de orden, limpieza y mantenimiento de la tienda.
+- Supervisión de personal
+Te ofrecemos:
+- Oportunidad de crecimiento.
+- Formación profesional.
+- Aprendizaje continuo.
+Farmatodo es un lugar que te demuestra que las posibilidades son infinitas cuando te atreves a más.
+¡Esperamos tu postulación!
+Requerimientos
+Educación mínima: Universidad
+1 año de experiencia
+Edad: A partir de 18 años
+Palabras clave: ayudante, asistente, auxiliar, aux, auxiliary, assistant, helper, aide, vivienda, inmobiliario, inmueble, condominio, edificio, planta, floor, senior, sr
+Ayer (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>e85a5055f392</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-asistente-piso-de-venta-temporal-puerto-ordaz--en-caroni-8E16EA5E0F0CF8E861373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2025-11-18T01:03:59+00:00</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Tu experiencia como Asistente de ventas es clave en GRUPO ACUARIO</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>1</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+A convenir
+Contrato por tiempo determinado
+Tiempo Completo
+¿Quieres ser parte de la cadena 1 de farmacias en Venezuela?
+¡Actualmente nos encontramos en la búsqueda de Asistente Piso de Venta para trabajar en nuestra tienda de Coro
+Si eres bachiller, estudiante universitario o graduado, mayor de edad, con alta orientación al cliente y disponibilidad para trabajar en horarios rotativos y/o fines de semana, ¡postúlate!
+Requerimientos
+Educación mínima: Bachillerato / Educación Media
+años de experiencia
+Edad: entre 18 y 25 años
+Palabras clave: ayudante, asistente, auxiliar, aux, auxiliary, assistant, helper, aide, vivienda, inmobiliario, inmueble, condominio, edificio, planta, floor
+Hace  3  días (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>594a80e23f82</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-ejecutiva-ventas-tiempo-completo-en-caracas-0070A6BAD03E9C8561373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2025-11-17T23:00:19+00:00</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Trabajo en Inversiones Victory Logistic, no lo dejes pasar</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>1</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+200,00 $ (Mensual) + Comisiones
+Contrato por tiempo indefinido
+Tiempo Completo
+•	Brindar asesoramiento y asistencia a los clientes para maximizar la probabilidad de una venta.
+•	Enviar información y tomar pedidos vía telefónica.
+•	Controlar el inventario en las estanterías y sacar nuevos productos cuando sea necesario
+•	Organizar la mercancía en los exhibidores.
+•	Mantener un entorno limpio y ordenado en la tienda.
+Requerimientos
+Educación mínima: Educación Básica Secundaria
+años de experiencia
+Edad: entre 18 y 35 años
+Palabras clave: cambaceo, sales
+Hace más de 30 días
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>acc9ccc9b80a</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-asesora-de-ventas-de-seguros-20-a-24-anos-gana-lo-que-vales-lunes-a-viernes-en-caracas-2953BEA1A9BAD5AC61373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2025-11-17T23:00:19+00:00</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Trabajo en Inversiones Victory Logistic, no lo dejes pasar</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>1</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+A convenir
+Contrato por tiempo determinado
+Tiempo Completo
+¡Si tu esfuerzo vale más que un sueldo fijo, esta es tu oportunidad!
+Buscamos un profesional de ventas que prospere en un entorno orientado a resultados. Tu rol es generar negocios; tu recompensa es directamente proporcional a tu éxito.
+Ingresos Excepcionales:
+Sueldo Base  (Fijo garantizado).	Asegura un piso mínimo.
+Comisiones Variables alta:  (por desempeño). Modelo agresivo para alto potencial.
+Bonificaciones diarias, semanales y mensuales. ¡Tu ambición define tus ganancias!
+Este modelo es ideal para vendedores con total confianza en su capacidad de generar ingresos por encima del promedio.
+REQUISITOS CLAVE:
+Experiencia comprobada en ciclos de venta.
+Confortable con compensación donde el 80% es variable.
+Ambición y autogestión superior.
+Crecimiento Profesional Acelerado: Un plan de carrera real en una empresa líder, con desarrollo constante y oportunidades de ascenso.
+Formación de Élite: Te capacitaremos para ser el mejor en ventas de seguros de salud.
+Estabilidad y Ambiente Top: Trabaja de manera presencial de  lunes a viernes (8 AM - 5 PM) en un equipo dinámico, colaborativo y con excelentes beneficios.
+¿Estás listo(a) para pagarte tu propio salario?
+Aplica ahora y comienza a ganar lo que realmente vales.
+Requerimientos
+Educación mínima: Bachillerato / Educación Media
+años de experiencia
+Edad: entre 20 y 24 años
+Conocimientos: Negociación, Trabajo en equipo, Asesoría comercial, Calidad, Dirección de ventas, Gestión de ventas, Ventas, Atención al cliente
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>5050abf08c33</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-profesionales-instructores-de-jovenes-en-chacao-9FE26BF8405C7DB361373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2025-11-17T21:02:49+00:00</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>✨ 3 nuevas oportunidades laborales en Distrito Capital</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>1</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+45.000,00 $ (Mensual)
+Otro tipo de contrato
+Por Horas
+Buscamos Profesionales de las áreas de docencia, administración de empresa, idiomas, informática y afines;  con experiencia  comprobada y ajustada al campo laboral actual  para la formación y capacitación requerida de jóvenes, que serán la próxima generación de líderes y trabajadores de nuestro país.
+Habilidades Claves:
+Liderazgo Efectivo. Capacidad para inspirar, guiar y mantener el control del aula.
+Excelente presencia. Dicción. Ética profesional.
+Responsabilidad. Honestidad. Proactividad.
+Documentos  requeridos:
+Resumen Curricular  actualizado, con sus soportes.
+C.I.  y RIF  ( vigentes ).
+Certificados de:  Salud, Salud Mental y Foniátrico
+Requerimientos
+Educación mínima: Universidad
+3 años de experiencia
+Idiomas: Español
+Edad: entre 24 y 46 años
+Hace más de 30 días
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>7fba8b7eee20</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-desarrollador-odoo-especialista-en-odoo-en-girardot-5620CA32EEF7D94D61373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2025-11-17T21:02:49+00:00</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>✨ 3 nuevas oportunidades laborales en Distrito Capital</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>1</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+A convenir
+Contrato por tiempo indefinido
+Tiempo Completo
+Importante empresa del sector automotriz se encuentra en la búsqueda de un desarrollador Odoo con experiencia comprobable en desarrollo de módulos personalizados, creación y modificación de reportaría, experiencia en ecommerce, conocimientos en servidores AWS.
+Requerimientos
+Educación mínima: Universidad
+5 años de experiencia
+Idiomas: Inglés
+Edad: entre 25 y 50 años
+Conocimientos: Análisis, Linux, Mysql, Python
+Disponibilidad de viajar: Si
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2c3913057ea7</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-asesor-de-ventas-en-caracas-383C8668F68E78AE61373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2025-11-17T20:06:45+00:00</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>✅️ Encontramos oportunidades para ti en CORPORACION MAXIMUS ,C.A</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>1</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+A convenir
+Contrato por tiempo indefinido
+Tiempo Completo
+Estamos en busca de un Asesor de Ventas con experiencia para unirse a nuestro equipo.
+Si tienes un talento natural para las ventas y buscas un entorno dinámico donde puedas aplicar tus habilidades, esta oportunidad es para ti.
+Como Asesor de Ventas, serás responsable de desarrollar y mantener relaciones con clientes, identificar oportunidades de venta y cerrar acuerdos que beneficien a nuestra empresa.
+Tu capacidad para entender las necesidades de los clientes y ofrecer soluciones personalizadas será clave para el éxito en este rol.
+Se requiere experiencia previa en ventas, con un enfoque en la construcción de relaciones a largo plazo.
+Debes tener una actitud proactiva y una capacidad demostrada para alcanzar objetivos de ventas.
+Además, habilidades de comunicación efectiva y una mentalidad orientada al servicio serán esenciales para este puesto.
+El trabajo será de tipo presencial, por lo que es importante que puedas asistir regularmente a nuestras instalaciones.
+Si tienes un enfoque estratégico para las ventas y estás dispuesto a trabajar duro para alcanzar tus metas, podrías ser el candidato ideal para nosotros.
+No dudes en aplicar si crees que tienes lo que se necesita para destacar en este rol.
+Tu contribución puede hacer una gran diferencia en nuestro equipo.
+Requerimientos
+Educación mínima: Bachillerato / Educación Media
+2 años de experiencia
+Conocimientos: Ventas
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>110120ad7ad0</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-ejecutivo-de-ventas-en-caracas-5B81EE38B8885EE061373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2025-11-17T20:06:45+00:00</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>✅️ Encontramos oportunidades para ti en CORPORACION MAXIMUS ,C.A</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>1</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+A convenir
+Contrato por tiempo indefinido
+Tiempo Completo
+Buscamos un profesional universitario, con formación y experiencia en el área comercial (ventas) en rubros como electrodomésticos, tecnología o visitador medico.
+Requisitos:
+Experiencia mayor a 3 años en cargos similares.
+Buena presencia y facilidad de expresión.
+Conocimiento y manejo de cartera de clientes, levantamiento de rutas y ventas de campo.
+El candidato debe contar con vehículo propio.
+Requerimientos
+Educación mínima: Educación Técnico/Profesional
+3 años de experiencia
+Licencias de conducir: automóviles / carros
+Disponibilidad de viajar: Si
+Palabras clave: directivo, mando, gobierno, regencia, executive, managing, ejecutivo, cambaceo, sales
+Ayer (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>ac36c265adf4</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-asesor-de-ventas-caracas-distrito-capital-en-caracas-77F679FD4A0FBF9A61373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2025-11-17T20:06:45+00:00</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>✅️ Encontramos oportunidades para ti en CORPORACION MAXIMUS ,C.A</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>1</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+A convenir
+Contrato por tiempo determinado
+Tiempo Completo
+¡Estas interesado en trabajar en horarios rotativos!. Con disponibilidad para trabajar en Centros Comerciales de Caracas.
+Nos encontramos en la búsqueda de ASESORES DE VENTAS para tiendas deportivas.
+Importante estar residenciado
+Requisitos:
+Edad: Entre 20 a 25 años.
+Rif actualizado
+Cuenta bancaria propia
+Sexo: Femenino/Masculino.
+Contextura atlética.
+Estudios: T.S.U o Bachiller.
+Experiencia: Mínima de 2 años.
+Disponibilidad para trabajar feriados y fines de semanas en horarios rotativos y extendidos.
+Funciones:
+Venta directa al cliente, ofreciendo asesoría en la calidad de nuestros productos.
+Brindar en todo momento un trato cortes y amable.
+Recepción de la mercancía.
+Mantener en completo orden y limpieza el lugar de trabajo.
+Requerimientos
+Educación mínima: Bachillerato / Educación Media
+2 años de experiencia
+Edad: entre 20 y 25 años
+Palabras clave: advisor, asesor, cambaceo, sales
+Ayer (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>e836990aa39b</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-representante-de-ventas-consumo-masivo-experiencia-en-calle-y-conocimiento-de-ruta-caracas-en-caracas-324C1DE494A49DC061373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2025-11-17T20:06:45+00:00</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>✅️ Encontramos oportunidades para ti en CORPORACION MAXIMUS ,C.A</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>1</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+44.444,00 $ (Mensual) + Comisiones
+Contrato por tiempo determinado
+Tiempo Completo
+Empresa líder en distribución de productos de consumo masivo se encuentra en la búsqueda de Representantes de Ventas en calle con experiencia comprobable y dominio de rutas comerciales específicas en Miranda y Caracas. Responsabilidades: Realizar visitas diarias a la ruta asignada para atención y toma de pedidos. Gestionar la cartera de clientes asignada con enfoque en cumplimiento de metas. Promover el portafolio de productos y asegurar su correcta exhibición. Alcanzar los objetivos comerciales definidos mensualmente. Informar sobre novedades del mercado, competencia y cobros cuando aplique. Zonas de cobertura disponibles: Petare I, Petare II, Chacao, Guatire, Guarenas, Sabana Grande, Hatillo, Baruta, Caracas Centro, Los Teques, entre otras.
+Requisitos:
+•	Mínimo 2 años de experiencia como vendedor en calle
+•	Experiencia comprobable en ventas de consumo masivo
+•	Conocimiento de rutas comerciales en Caracas y/o Miranda
+•	Bachiller o técnico medio (mínimo requerido)
+•	Buen manejo de relaciones interpersonales y orientación a resultados
+•	Vehículo o moto propia dependiendo de la ruta
+Requerimientos
+Educación mínima: Educación Técnico/Profesional
+5 años de experiencia
+Edad: entre 30 y 40 años
+Licencias de conducir: motocicletas ,automóviles / carros
+Palabras clave: demostrador, feriante, viajante, agent, representative, agente, representante, cambaceo, sales
+Ayer (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>10a365dc4d1c</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-asesor-de-ventas-empresariales-en-caracas-8815E06EEFA3A4B961373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2025-11-17T19:02:58+00:00</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Santiago, encontramos empleos ideales para ti en Distrito Capital</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>1</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+A convenir
+Otro tipo de contrato
+Tiempo Completo
+Importante empresa del sector farmaceutico se encuentra en busqueda de un Asesor de Ventas Empresariales:
+FUNCION PRINCIPAL:
+Es el responsable de impulsar el crecimiento de las ventas a largo plazo mediante la identificación, negociación y cierre de convenios y contratos estratégicos con otras empresas (B2B).
+Función especifica:
+Construir y mantener relaciones comerciales sólidas a nivel ejecutivo para asegurar la recurrencia de ingresos y la expansión continua del negocio a través de acuerdos mutuamente beneficiosos. Este rol requiere un fuerte enfoque en la negociación estratégica y la gestión de relaciones de alto nivel.
+Requerimientos
+Educación mínima: Universidad
+años de experiencia
+Palabras clave: advisor, asesor, cambaceo, sales
+12 de diciembre (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>5b76143786da</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-asesores-de-ventas-presenciales-lunes-a-viernes-en-caracas-87803FC67E1B08DF61373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2025-11-17T19:02:58+00:00</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Santiago, encontramos empleos ideales para ti en Distrito Capital</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>1</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+350,00 $ (Mensual) + Comisiones
+Contrato por tiempo indefinido
+Tiempo Completo
+Únete a nuestro equipo como Asesor de Ventas en Calle!
+¿Eres una persona dinámica, proactiva y con pasión por las ventas? ¡Esta oportunidad es para ti!
+Campaña HUNTERS busca Asesores de Ventas en Calle para impulsar nuestras promociones y brindar la mejor atención a nuestros clientes.
+¿Qué buscamos?
+Personas con excelente actitud y habilidades comunicativas
+Motivados por alcanzar metas y superar desafíos
+Disponibilidad para trabajar en calle en horarios flexibles
+Experiencia en ventas (deseable, no indispensable)
+Ofrecemos:
+Ingresos competitivos + comisiones por resultados
+Capacitación constante y apoyo de nuestro equipo
+Oportunidad de crecimiento y desarrollo profesional
+Ambiente de trabajo dinámico y motivador
+Si quieres formar parte de una campaña innovadora y desafiante, ¡postúlate ahora!
+¡Únete a los Hunters y sé el mejor en ventas de calle!
+Requerimientos
+Educación mínima: Bachillerato / Educación Media
+Menos de 1 año de experiencia
+Edad: entre 18 y 50 años
+Palabras clave: cambaceo, sales
+Hace  4  días (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>c855469f012c</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-analista-de-service-desk-ii-turno-de-noche-residenciado-en-caracas-en-caracas-F149666030F1849261373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2025-11-17T18:01:55+00:00</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Última hora: 7 nuevas vacantes en Distrito Capital</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>1</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+600,00 $ (Mensual)
+Contrato por tiempo determinado
+Tiempo Completo
+Remoto
+En Soporte SPI, C.A. estamos en búsqueda de nuevos colaboradores que deseen unirse a nuestro excelente equipo de trabajo.
+Somos una empresa dedicada al Service Desk con 30 años de exitoso funcionamiento y evolución, en el sector de servicios de Tecnología de la Información y solicitamos un profesional para ocupar nuestra vacante de Analista Service Desk II
+Requisitos:
+1- Conocimientos en Informática
+2- Residenciado en Caracas (indispensable)
+3- Disponibilidad turno nocturno.
+4- Buena comunicación oral - dicción - atención al cliente
+5- Análisis y resolución de problemas
+6- Enfoque de servicio al cliente
+7-Facilidad para integrarse a equipos de trabajo
+8- Edad: 24 años a 30 años
+Descripción del trabajo a realizar:
+1- Atender vía correo, telefónica o remota a los usuarios con la finalidad de satisfacer sus requerimientos de forma rápida y oportuna.
+2- Registrar todos los incidentes y/o solicitudes de servicio, realizar seguimiento de las mismas, con un manejo oportuno, documentando el impacto para el cliente y/o usuario mediante la asignación de prioridades y tiempos de resolución oportunos.
+3- Llevar a cabo el diagnostico inicial mediante procedimientos documentados y herramientas disponibles de acuerdo al cliente/ proyecto en el que este asignado, Registro de toda la información necesaria y relevante para la atención del incidente y/o solicitud  de servicio en el momento oportuno.
+Requerimientos
+Educación mínima: Educación Básica Secundaria
+2 años de experiencia
+Edad: entre 18 y 35 años
+Palabras clave: analyst, servicio, service, mostrador, desk, expositor, exhibitor, night, nighttime, nocturno
+Hace  4  días (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>3a38160a8323</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-impulsadora-con-experiencia-en-caracas-D80FBF42AECC3C8961373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2025-11-17T17:04:52+00:00</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Hemos encontrado empleos perfectos para ti en Distrito Capital</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>1</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+130,00 $ (Mensual)
+Contrato por tiempo indefinido
+Tiempo Completo
+Requerimos Bachiller o T.S.U. en Mercadotecnia o carrera afin de buena presencia, dicción, con experiencia en manejo de mercadeo de producto del área de alimentos, dinámica, proactiva
+Requerimientos
+Educación mínima: Bachillerato / Educación Media
+1 año de experiencia
+Edad: entre 18 y 30 años
+Conocimientos: Gestión de ventas
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>f4221f1d7e6e</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-asistente-piso-de-venta-upata-en-piar-17F7E9C1FEB1AF5E61373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2025-11-17T17:04:52+00:00</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Hemos encontrado empleos perfectos para ti en Distrito Capital</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+A convenir
+Contrato por tiempo determinado
+Tiempo Completo
+¿Quieres ser parte de la cadena 1 de farmacias en Venezuela?
+¡Actualmente nos encontramos en la búsqueda de Asistente Piso de Venta para trabajar en nuestra tienda de Coro
+Si eres bachiller, estudiante universitario o graduado, mayor de edad, con alta orientación al cliente y disponibilidad para trabajar en horarios rotativos y/o fines de semana, ¡postúlate!
+Requerimientos
+Educación mínima: Bachillerato / Educación Media
+años de experiencia
+Edad: entre 18 y 25 años
+Palabras clave: ayudante, asistente, auxiliar, aux, auxiliary, assistant, helper, aide, vivienda, inmobiliario, inmueble, condominio, edificio, planta, floor
+Hace  3  días (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>926b33e42b68</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-analista-de-ventas-region-capital-caracas-en-caracas-ED9F53B97FD1025161373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2025-11-17T11:03:27+00:00</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Las mejores ofertas para Analista en Distrito Capital</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>1</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+A convenir
+Contrato por tiempo determinado
+Tiempo Completo
+- Recibir diariamente los pedidos de los clientes, según procedimientos establecidos internamente, en términos de cantidad requerida por producto y fecha prevista de entrega de mercancía, previa verificación y consideración de los niveles de inventario de producto terminado y planes de producción, para tramitar los pedidos.
+-  Emitir las cotizaciones de productos a través de los procedimientos establecidos, conforme sea solicitado por los clientes (Concesionarios, Distribuidores. etc) para fijar por escrito la asignación de la mercancía y montos a cancelar por el cliente.
+- Realizar las gestiones, según procedimientos establecidos, para la inclusión de nuevos clientes, así como la actualización diaria de los clientes existentes para mantener un registro actual de los mismos cada vez que sea necesario.
+Requerimientos
+Educación mínima: Educación Técnico/Profesional
+1 año de experiencia
+Edad: entre 20 y 35 años
+Licencias de conducir: automóviles / carros
+Palabras clave: analyst, cambaceo, sales, regional, region, demarcacion, localidad
+12 de diciembre (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>7d64720783cd</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4335936675/</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2025-12-06T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>«LLM»: Artificial Intelligence Intern (Remote) - Talent Orbit y más</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>1</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Who We Are
+At Twilio, we’re shaping the future of communications, all from the comfort of our homes. We deliver innovative solutions to hundreds of thousands of businesses and empower millions of developers worldwide to craft personalized customer experiences.
+Our dedication to remote-first work, and strong culture of connection and global inclusion means that no matter your location, you’re part of a vibrant team with diverse experiences making a global impact each day. As we continue to revolutionize how the world interacts, we’re acquiring new skills and experiences that make work feel truly rewarding. Your career at Twilio is in your hands.
+We use Artificial Intelligence (AI) technologies to maintain an efficient, fair and transparent hiring process. Our hiring process is never completely automated, and uses AI in conjunction with our recruiting professionals.
+See yourself at Twilio
+Join the team as Twilio’s next AI Application Analyst.
+About The Job
+This position is a key member of the People Data Solutions and AI (PDS) team, needed to design and develop AI agents and assistants focused on enhancing People Team operations through expert prompt engineering and AI instruction development. This role involves scoping, designing, building, and launching AI agents and assistants to support the People Team’s highest priority needs. You will apply your expertise in prompt engineering and AI instruction writing to develop effective AI solutions that improve team operations and productivity. Working closely with various teams, you will contribute to scaling AI capabilities in a practical and impactful way within a dynamic work environment.
+Responsibilities
+In this role, you’ll:
+Drive outcomes with stakeholders from requirement gathering and problem identification to build, test, launch, and enable automation solutions. Design and development of AI agents and assistants by crafting clear, precise prompts and detailed AI instructions tailored to People Team needs.Build and deliver AI related enablement and training to end users.Continuously design, test and refine prompt structures and instruction sets to optimize AI response accuracy, relevance, and usability.Drive evaluation, testing, and integration and enablement of new enterprise AI tools (ie Gemini) for the People team specificallyAnalyze AI agent interactions and performance data to identify areas for improvement and implement iterative enhancements.Create comprehensive documentation of prompt engineering methods and AI instruction guidelines to support team adoption and future projects.Participate as a member of the People Data Solutions (PDS) and AI team to help shape and drive team strategy and roadmaps, as well as design, test, and help launch broader PDS products.
+Qualifications
+Twilio values diverse experiences from all kinds of industries, and we encourage everyone who meets the required qualifications to apply. If your career is just starting or hasn't followed a traditional path, don't let that stop you from considering Twilio. We are always looking for people who will bring something new to the table!
+Required:Proven experience in prompt engineering and developing AI instructions for conversational agents or assistants.Strong understanding of AI language models and natural language processing concepts.Ability to write clear, concise, and effective AI instructions to guide model behavior.Experience collaborating with cross-functional teams to translate business needs into AI solutions.Ability to work independently while also collaborating effectively with team members.Familiarity with Python is a plus but not mandatory.Excellent communication skills, with attention to detail and quality in AI content creation.Demonstrated problem-solving skills and ability to work in a fast-paced, evolving environment.
+Desired
+Experience with AI platforms such as OpenAI, Gemini, Claude, Hugging Face, or similar.Familiarity with prompt tuning and fine-tuning techniques for language models.Knowledge of Python programming and scripting for AI applications.Background in human-computer interaction or UX design related to AI assistants.Understanding of data privacy and security considerations in AI deployments.Ability to analyze user feedback and usage data to improve AI performance.Passion for innovation and staying current with advances in AI and NLP technologies.
+Location
+This role will be remote, and based in Colombia.
+Travel 
+We prioritize connection and opportunities to build relationships with our customers and each other. For this role, you may be required to travel occasionally to participate in project or team in-person meetings.
+What We Offer
+Working at Twilio offers many benefits, including competitive pay, generous time off, ample parental and wellness leave, healthcare, a retirement savings program, and much more. Offerings vary by location.
+Twilio thinks big. Do you?
+We like to solve problems, take initiative, pitch in when needed, and are always up for trying new things. That's why we seek out colleagues who embody our values — something we call Twilio Magic. Additionally, we empower employees to build positive change in their communities by supporting their volunteering and donation efforts.
+So, if you're ready to unleash your full potential, do your best work, and be the best version of yourself, apply now! If this role isn't what you're looking for, please consider other open positions.
+Twilio is proud to be an equal opportunity employer. We do not discriminate based upon race, religion, color, national origin, sex (including pregnancy, childbirth, reproductive health decisions, or related medical conditions), sexual orientation, gender identity, gender expression, age, status as a protected veteran, status as an individual with a disability, genetic information, political views or activity, or other applicable legally protected characteristics. We also consider qualified applicants with criminal histories, consistent with applicable federal, state and local law. Qualified applicants with arrest or conviction records will be considered for employment in accordance with the Los Angeles County Fair Chance Ordinance for Employers and the California Fair Chance Act. Additionally, Twilio participates in the E-Verify program in certain locations, as required by law.</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>996302abccb8</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342443632/</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2025-12-06T23:09:00+00:00</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>«Computer vision»: Artificial Intelligence Intern (Remote) - Talent Orbit y más</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>1</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>About Truelogic
+At Truelogic we are a leading provider of nearshore staff augmentation services headquartered in New York. For over two decades, we’ve been delivering top-tier technology solutions to companies of all sizes, from innovative startups to industry leaders, helping them achieve their digital transformation goals.
+Our team of 600+ highly skilled tech professionals, based in Latin America, drives digital disruption by partnering with U.S. companies on their most impactful projects. Whether collaborating with Fortune 500 giants or scaling startups, we deliver results that make a difference.
+By applying for this position, you’re taking the first step in joining a dynamic team that values your expertise and aspirations. We aim to align your skills with opportunities that foster exceptional career growth and success while contributing to transformative projects that shape the future.
+Our Client
+A global digital innovation agency with a 50/50 balance of engineering and creative talent. The organization partners with major enterprises to solve complex problems across emerging technologies, AI, and evolving consumer behavior while delivering end-to-end experiences across the full customer lifecycle.
+Job Summary
+You will lead the design, development, and deployment of advanced generative AI and multimodal systems. The role focuses on building production-ready pipelines, architecting next-generation models, and guiding a team of engineers in pushing the boundaries of multimodal AI across text, image, audio, and video.
+Responsibilities
+Architect, develop, and deploy multimodal generative AI systems (text-to-image, image-to-text, text-to-video, audio-visual models). Lead implementation of vision architectures including diffusion models, vision transformers, and multimodal embedding frameworks. Design and optimize systems integrating LLMs with visual and audio modalities. Build scalable multimodal retrieval systems using vector databases and similarity search. Develop end-to-end pipelines for text generation, image synthesis, video generation, and audio/speech synthesis. Mentor and lead ML engineers and data scientists. Collaborate with cross-functional teams to translate complex requirements into scalable AI solutions. Build and maintain Python libraries and internal ML tooling. Communicate multimodal AI concepts effectively to technical and non-technical audiences. 
+Qualifications And Job Requirements
+7+ years of ML engineering experience. 2+ years specializing in generative AI or multimodal systems. Proven experience deploying multimodal generative AI systems to production. Strong expertise in diffusion models, vision transformers, and multimodal embeddings. Hands-on experience with LLMs and integration with visual/audio modalities. Experience building multimodal retrieval systems and working with vector databases. Production experience across multiple generative modalities (text, image, video, audio/speech). Leadership experience mentoring ML engineers/Data Scientists. Advanced proficiency in PyTorch and HuggingFace (Transformers, Diffusers). Experience with libraries such as Stable Diffusion, CLIP, timm, torchaudio, torchvision. Strong Python engineering skills for ML tooling. Excellent communication skills. 
+What we offer
+100% Remote Work: Enjoy the freedom to work from the location that helps you thrive. All it takes is a laptop and a reliable internet connection. Highly Competitive USD Pay: Earn an excellent, market-leading compensation in USD, that goes beyond typical market offerings. Paid Time Off: We value your well-being. Our paid time off policies ensure you have the chance to unwind and recharge when needed. Work with Autonomy: Enjoy the freedom to manage your time as long as the work gets done. Focus on results, not the clock. Work with Top American Companies: Grow your expertise working on innovative, high-impact projects with Industry-Leading U.S. Companies. 
+Why You’ll Like Working Here
+A Culture That Values You: We prioritize well-being and work-life balance, offering engagement activities and fostering dynamic teams to ensure you thrive both personally and professionally. Diverse, Global Network: Connect with over 600 professionals in 25+ countries, expand your network, and collaborate with a multicultural team from Latin America. Team Up with Skilled Professionals: Join forces with senior talent. All of our team members are seasoned experts, ensuring you're working with the best in your field. 
+Apply now!</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2dda23620344</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342144324/</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2025-12-05T19:36:02+00:00</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Entry-Level Developer (100% remoto) - Simple Business Group y más</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>1</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Estamos contratando: Entry-Level Developer (100% remoto)
+En SimpleBG transformamos la manera en que empresas de Estados Unidos y Latinoamérica utilizan la Inteligencia Artificial para escalar su servicio al cliente y automatizar procesos críticos. Desarrollamos sistemas avanzados de IA conversacional, infraestructura para agentes de voz, y también soluciones especializadas para Enterprise y entidades gubernamentales.
+Estamos buscando un/a Entry-Level Developer, con ganas reales de aprender y crecer, para integrarse a nuestro equipo de tecnología y colaborar en la construcción e implementación de nuestras soluciones de IA.
+En este rol vas a:
+- Asistir en el desarrollo y mantenimiento de sistemas de IA, APIs y automatizaciones internas.- Trabajar en la creación de interfaces, integraciones y microservicios usando Node.js, React y Typescript.- Documentar procesos técnicos y mantener código limpio y entendible.- Apoyar a nuestro equipo senior en la construcción de infraestructura de IA y flujo de datos.- Aprender sobre prompt engineering, manejo de modelos LLM y buenas prácticas de desarrollo en IA.- Colaborar con equipos de producto y operaciones para mejorar continuamente nuestras soluciones.
+Buscamos a alguien que sea:
+- Proactivo/a, curioso/a y con alta disposición para aprender tecnologías nuevas.- Resiliente y capaz de adaptarse a entornos cambiantes.- Comunicativo/a, organizado/a y con capacidad de recibir retroalimentación constructiva.- Con mentalidad analítica para resolver problemas de manera creativa.- Dispuesto/a a trabajar en equipo y dejarse guiar por desarrolladores más senior.
+Requisitos técnicos (básicos):
+No buscamos expertos, pero sí buscamos potencial. Aun así, valoramos conocimientos fundamentales en:
+- Node.js- React- Typescript / JavaScript- APIs REST- Manipulación de JSON- Nociones de prompt engineering- Experiencia creando o entendiendo documentación técnica- Inglés intermedio/avanzado (necesario para documentación y herramientas técnicas)
+Ofrecemos:
+- Rol 100% remoto.- Salario competitivo + bonos.- Certificaciones pagadas en IA y tecnologías clave.- Crecimiento acompañado por nuestro equipo senior.- Oportunidad de trabajar en proyectos internacionales con tecnologías emergentes.
+Si crees que tienes el potencial para aportar a nuestro equipo de desarrollo, queremos conocerte.
+Envíanos tu CV + portfolio/GitHub.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>4648b65ae132</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342266702/</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2025-12-05T19:36:02+00:00</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Entry-Level Developer (100% remoto) - Simple Business Group y más</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>2</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>About Huzzle
+At Huzzle, we connect high-performing B2B sales professionals with global companies across the UK, US, Canada, Europe, and Australia. Our clients include startups, digital agencies, and tech platforms in industries like SaaS, MarTech, FinTech, and EdTech. We match top sales talent to full-time remote roles where they're hired directly into client teams and provided ongoing support by Huzzle.
+Role Type: Full-time
+Engagement: Independent Contractor
+UK Timezone
+About The Company
+Join a fast-growing travel-tech company redefining how people plan and experience travel through AI. The team is composed of young, fast-paced engineers and tech enthusiasts united by a mission to use technology for positive global impact. Their cutting-edge AI-driven travel chat interface helps users plan trips effortlessly using conversational intelligence.
+Key Responsibilities
+Optimise and enhance the underlying agentic AI setup for the chat interface. Improve performance of individual nodes through model selection, prompt refinement, and fine-tuning. Design and implement specialised AI agents to improve multi-agent collaboration and system efficiency. Integrate and orchestrate workflows using LangChain and n8n. Leverage AWS (including Bedrock) for model hosting, scalability, and deployment. Collaborate with leadership to define and execute the company's AI product roadmap. Evaluate, benchmark, and iterate on AI model performance across various tasks
+Requirements
+Strong proficiency in Python and FastAPI for scalable backend and AI integrations. Experience with LangChain, n8n, and AWS (especially Bedrock). Deep understanding of prompt engineering, agentic setups, and AI model evaluation. Demonstrated ability to fine-tune models for specific tasks or data domains. Excellent problem-solving skills and a data-driven mindset. Fluent in English, both written and spoken. Experience working in a fast-paced startup or tech-driven environment is a plus
+Benefits
+💰 Competitive salary: £1050 - £1750 GBP/month (based on experience and qualifications)
+🌎 Fully remote role and a results-driven culture
+🚀 Work alongside top engineers and innovators in the AI and travel-tech space
+💡 High-impact role: directly shape the performance of a global AI travel assistant
+📈 Growth opportunities within a rapidly scaling company led by visionary founders
+🎯 Collaborative and mission-driven culture focused on making a positive global impact</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>f23347852361</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342256747/</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2025-12-05T19:36:02+00:00</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Entry-Level Developer (100% remoto) - Simple Business Group y más</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>2</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>About Huzzle
+At Huzzle, we connect high-performing B2B sales professionals with global companies across the UK, US, Canada, Europe, and Australia. Our clients include startups, digital agencies, and tech platforms in industries like SaaS, MarTech, FinTech, and EdTech. We match top sales talent to full-time remote roles where they're hired directly into client teams and provided ongoing support by Huzzle.
+Role Type: Full-time
+Engagement: Independent Contractor
+UK Timezone
+About The Company
+Join a fast-growing travel-tech company redefining how people plan and experience travel through AI. The team is composed of young, fast-paced engineers and tech enthusiasts united by a mission to use technology for positive global impact. Their cutting-edge AI-driven travel chat interface helps users plan trips effortlessly using conversational intelligence.
+Key Responsibilities
+Optimise and enhance the underlying agentic AI setup for the chat interface. Improve performance of individual nodes through model selection, prompt refinement, and fine-tuning. Design and implement specialised AI agents to improve multi-agent collaboration and system efficiency. Integrate and orchestrate workflows using LangChain and n8n. Leverage AWS (including Bedrock) for model hosting, scalability, and deployment. Collaborate with leadership to define and execute the company's AI product roadmap. Evaluate, benchmark, and iterate on AI model performance across various tasks
+Requirements
+Strong proficiency in Python and FastAPI for scalable backend and AI integrations. Experience with LangChain, n8n, and AWS (especially Bedrock). Deep understanding of prompt engineering, agentic setups, and AI model evaluation. Demonstrated ability to fine-tune models for specific tasks or data domains. Excellent problem-solving skills and a data-driven mindset. Fluent in English, both written and spoken. Experience working in a fast-paced startup or tech-driven environment is a plus
+Benefits
+💰 Competitive salary: £1050 - £1750 GBP/month (based on experience and qualifications)
+🌎 Fully remote role and a results-driven culture
+🚀 Work alongside top engineers and innovators in the AI and travel-tech space
+💡 High-impact role: directly shape the performance of a global AI travel assistant
+📈 Growth opportunities within a rapidly scaling company led by visionary founders
+🎯 Collaborative and mission-driven culture focused on making a positive global impact</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ee5b5858e3cb</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325842603/</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2025-12-05T17:35:17+00:00</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>«tensorflow»: 3D Computer Vision Engineer - Scale Army Careers y más</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>1</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>💻 We’re Hiring: 3D Computer Vision Engineer 💻
+Location: Fully Remote (Work from Home) | 9 AM – 5 PM PST
+About the roleOur client is an AI infrastructure startup building cutting-edge models for the fashion industry. They are redefining how fashion is experienced through advanced computer vision and AI, operating at a pre-revenue, pre-Alpha stage while assembling a foundational technical team.
+They’re looking for a 3D Computer Vision Engineer to serve as the first computer vision hire and lead the development of the body measurement and 3D reconstruction pipeline. This role is central to shipping their Alpha prototype and establishing the technical backbone of the product.
+What You’ll DoDesign and build computer vision models for smartphone-based body measurement.Develop the 2D-to-3D reconstruction pipeline and optimize it for real-time mobile deployment.Build infrastructure for data collection, validation, and testing to support model training.Ship the Alpha prototype within 4–6 weeks and iterate quickly based on feedback.Lead all technical efforts related to 3D reconstruction and drive architectural decisions.
+What You BringMid to senior-level experience in computer vision, including shipped products.Strong background in 3D reconstruction, point clouds, or human mesh estimation.Experience deploying ML models to mobile or edge environments.Proficiency with Python and frameworks like PyTorch or TensorFlow.Ability to lead technical decisions, optimize real-time systems, and work in fast-paced environments.
+OpportunityThis is a rare chance to join a high-potential AI startup at the earliest stage and shape the product's technical foundation. You’ll influence the roadmap, build core architecture, and play a key role as the company scales.
+If you’re driven, innovative, and excited to build real-time 3D computer vision systems from the ground up. Apply today!</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>1b185b5ab900</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342240474/</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2025-12-05T15:35:10+00:00</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>«machine learning»: TELUS Digital AI Data Solutions - Online Data Analyst | WFH Spanish Speakers publicado el 12/4/25</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>1</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Are you a detail-oriented individual with a passion for research and a good understanding of national and local geography? This freelance opportunity allows you to work at your own pace and from the comfort of your own home.
+A Day in the Life of an Online Data Analyst:In this role, you will be working on a project aimed at enhancing the content and quality of digital maps that are used by millions of people worldwideCompleting research and evaluation tasks in a web-based environment such as verifying and comparing data, and determining the relevance and accuracy of information.
+Join us today and be part of a dynamic and innovative team that is making a difference in the world!
+TELUS Digital AI CommunityOur global AI Community is a vibrant network of 1 million+ contributors from diverse backgrounds who help our customers collect, enhance, train, translate, and localize content to build better AI models. Become part of our growing community and make an impact supporting the machine learning models of some of the world’s largest brands.
+Qualification path
+No previous professional experience is required to apply to this role, however, working on this project will require you to pass the basic requirements and go through a standard assessment process. This is a part-time long-term project and your work will be subject to our standard quality assurance checks during the term of this agreement.
+Basic RequirementsFull Professional Proficiency in English &amp; Spanish languageBeing a resident in Mexico for the last 2 consecutive years and having familiarity with current and historical business, media, sport, news, social media, and cultural affairs in MexicoAbility to follow guidelines and conduct online research using search engines, online maps, and website informationFlexibility to work across a diverse set of task types, including maps, news, audio tasks, and relevanceDaily access to a broadband internet connection, computer, and relevant software
+AssessmentIn order to be hired into the program, you’ll take an open book qualification exam that will determine your suitability for the position and complete ID verification. Our team will provide you with guidelines and learning materials before your qualification exam. You will be required to complete the exam in a specific timeframe but at your convenience.
+Equal OpportunityAll qualified applicants will receive consideration for a contractual relationship without regard to race, color, religion, sex, sexual orientation, gender identity, national origin, disability, or protected veteran status. At TELUS Digital AI, we are proud to offer equal opportunities and are committed to creating a diverse and inclusive community. All aspects of selection are based on applicants’ qualifications, merits, competence, and performance without regard to any characteristic related to diversity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>ee60097d8904</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342230539/</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2025-12-05T15:35:10+00:00</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>«machine learning»: TELUS Digital AI Data Solutions - Online Data Analyst | WFH Spanish Speakers publicado el 12/4/25</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>1</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Are you a detail-oriented individual with a passion for research and a good understanding of national and local geography? This freelance opportunity allows you to work at your own pace and from the comfort of your own home.
+A Day in the Life of an Online Data Analyst:In this role, you will be working on a project aimed at enhancing the content and quality of digital maps that are used by millions of people worldwideCompleting research and evaluation tasks in a web-based environment such as verifying and comparing data, and determining the relevance and accuracy of information.
+Join us today and be part of a dynamic and innovative team that is making a difference in the world!
+TELUS Digital AI CommunityOur global AI Community is a vibrant network of 1 million+ contributors from diverse backgrounds who help our customers collect, enhance, train, translate, and localize content to build better AI models. Become part of our growing community and make an impact supporting the machine learning models of some of the world’s largest brands.
+Qualification path
+No previous professional experience is required to apply to this role, however, working on this project will require you to pass the basic requirements and go through a standard assessment process. This is a part-time long-term project and your work will be subject to our standard quality assurance checks during the term of this agreement.
+Basic RequirementsFull Professional Proficiency in English &amp; Spanish languageBeing a resident in Mexico for the last 2 consecutive years and having familiarity with current and historical business, media, sport, news, social media, and cultural affairs in MexicoAbility to follow guidelines and conduct online research using search engines, online maps, and website informationFlexibility to work across a diverse set of task types, including maps, news, audio tasks, and relevanceDaily access to a broadband internet connection, computer, and relevant software
+AssessmentIn order to be hired into the program, you’ll take an open book qualification exam that will determine your suitability for the position and complete ID verification. Our team will provide you with guidelines and learning materials before your qualification exam. You will be required to complete the exam in a specific timeframe but at your convenience.
+Equal OpportunityAll qualified applicants will receive consideration for a contractual relationship without regard to race, color, religion, sex, sexual orientation, gender identity, national origin, disability, or protected veteran status. At TELUS Digital AI, we are proud to offer equal opportunities and are committed to creating a diverse and inclusive community. All aspects of selection are based on applicants’ qualifications, merits, competence, and performance without regard to any characteristic related to diversity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>be1d30faf2c0</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342210599/</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2025-12-05T15:35:10+00:00</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>«machine learning»: TELUS Digital AI Data Solutions - Online Data Analyst | WFH Spanish Speakers publicado el 12/4/25</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>1</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Are you a detail-oriented individual with a passion for research and a good understanding of national and local geography? This freelance opportunity allows you to work at your own pace and from the comfort of your own home.
+A Day in the Life of an Online Data Analyst:In this role, you will be working on a project aimed at enhancing the content and quality of digital maps that are used by millions of people worldwideCompleting research and evaluation tasks in a web-based environment such as verifying and comparing data, and determining the relevance and accuracy of information.
+Join us today and be part of a dynamic and innovative team that is making a difference in the world!
+TELUS Digital AI CommunityOur global AI Community is a vibrant network of 1 million+ contributors from diverse backgrounds who help our customers collect, enhance, train, translate, and localize content to build better AI models. Become part of our growing community and make an impact supporting the machine learning models of some of the world’s largest brands.
+Qualification path
+No previous professional experience is required to apply to this role, however, working on this project will require you to pass the basic requirements and go through a standard assessment process. This is a part-time long-term project and your work will be subject to our standard quality assurance checks during the term of this agreement.
+Basic RequirementsFull Professional Proficiency in English &amp; Spanish languageBeing a resident in Mexico for the last 2 consecutive years and having familiarity with current and historical business, media, sport, news, social media, and cultural affairs in MexicoAbility to follow guidelines and conduct online research using search engines, online maps, and website informationFlexibility to work across a diverse set of task types, including maps, news, audio tasks, and relevanceDaily access to a broadband internet connection, computer, and relevant software
+AssessmentIn order to be hired into the program, you’ll take an open book qualification exam that will determine your suitability for the position and complete ID verification. Our team will provide you with guidelines and learning materials before your qualification exam. You will be required to complete the exam in a specific timeframe but at your convenience.
+Equal OpportunityAll qualified applicants will receive consideration for a contractual relationship without regard to race, color, religion, sex, sexual orientation, gender identity, national origin, disability, or protected veteran status. At TELUS Digital AI, we are proud to offer equal opportunities and are committed to creating a diverse and inclusive community. All aspects of selection are based on applicants’ qualifications, merits, competence, and performance without regard to any characteristic related to diversity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>e352922a3406</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342140947/</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2025-12-05T15:35:10+00:00</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>«machine learning»: TELUS Digital AI Data Solutions - Online Data Analyst | WFH Spanish Speakers publicado el 12/4/25</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>1</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Are you a detail-oriented individual with a passion for research and a good understanding of national and local geography? This freelance opportunity allows you to work at your own pace and from the comfort of your own home.
+A Day in the Life of an Online Data Analyst:In this role, you will be working on a project aimed at enhancing the content and quality of digital maps that are used by millions of people worldwideCompleting research and evaluation tasks in a web-based environment such as verifying and comparing data, and determining the relevance and accuracy of information.
+Join us today and be part of a dynamic and innovative team that is making a difference in the world!
+TELUS Digital AI CommunityOur global AI Community is a vibrant network of 1 million+ contributors from diverse backgrounds who help our customers collect, enhance, train, translate, and localize content to build better AI models. Become part of our growing community and make an impact supporting the machine learning models of some of the world’s largest brands.
+Qualification path
+No previous professional experience is required to apply to this role, however, working on this project will require you to pass the basic requirements and go through a standard assessment process. This is a part-time long-term project and your work will be subject to our standard quality assurance checks during the term of this agreement.
+Basic RequirementsFull Professional Proficiency in English &amp; Spanish languageBeing a resident in Mexico for the last 2 consecutive years and having familiarity with current and historical business, media, sport, news, social media, and cultural affairs in MexicoAbility to follow guidelines and conduct online research using search engines, online maps, and website informationFlexibility to work across a diverse set of task types, including maps, news, audio tasks, and relevanceDaily access to a broadband internet connection, computer, and relevant software
+AssessmentIn order to be hired into the program, you’ll take an open book qualification exam that will determine your suitability for the position and complete ID verification. Our team will provide you with guidelines and learning materials before your qualification exam. You will be required to complete the exam in a specific timeframe but at your convenience.
+Equal OpportunityAll qualified applicants will receive consideration for a contractual relationship without regard to race, color, religion, sex, sexual orientation, gender identity, national origin, disability, or protected veteran status. At TELUS Digital AI, we are proud to offer equal opportunities and are committed to creating a diverse and inclusive community. All aspects of selection are based on applicants’ qualifications, merits, competence, and performance without regard to any characteristic related to diversity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>8848a87692a5</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4341554036/</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2025-12-04T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>«Scikit-learn»: Spatial AI Intern - EON Reality</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>3</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Position: InternshipDuration: 1–3 to 6 monthsTime: Part-TimeCompensation: Variable – See program details below.Location: RemoteStart Date: January 12th, 2026Reimbursement: Non-Paid (see details on paid advancement opportunities)
+EON Reality – Spatial AI Internship ProgramAre you ready to step into the future? Join EON Reality’s newly relaunched Spatial AI Internship Program—a unique opportunity for bold graduates, ambitious students, and driven creators eager to make their mark in the AI era.
+What You'll ExperienceGain real-world skills and hands-on experience with cutting-edge AI and XR tools, learning directly on live projects.Explore roles in Marketing, Sales, Software Development, and more—choose one focus, or experience a few to discover your passion!Learn essential business tools, grow in project management, and see how different departments work together every day.Program Structure
+Month 1: Discover &amp; LearnAttend the Spatial AI Internship &amp; Entrepreneur School.Work on hands-on projects while mastering AI and XR, Marketing, Sales, and Software Development tools.Complete your first month and earn an official Certificate of Completion.This initial month is unpaid, designed to equip everyone with key foundational skills.Advanced Opportunities: 2–5 MonthsAfter the first month, top performers will be chosen to continue in the program.Selected interns receive department-specific training based on strengths and interests, with even deeper hands-on experience.This period is tuition-based ($500/month), plus potential bonuses for outstanding achievement.Training covers CRM systems, advanced marketing, AI for business, HR practices, R&amp;D for startups, and more.Your OutcomeEarn an official program completion certificate and a personalized reference letter to highlight your new skills.Elite performers may receive immediate job offers!Join the network of future leaders—this isn’t just a program, it’s your launchpad from learning to earning to leading.Ready to Shine?This opportunity is for the bold—those who want more than just another job.Apply with your CV and any materials that demonstrate your passion (including intro videos if you wish).Selected applicants will be invited for interviews.
+Apply today and start your journey towards a career built on innovation, skills, and real impact!</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>b1409fbdf749</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4341583458/</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2025-12-04T23:09:03+00:00</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>«machine learning»: Spatial AI Intern - EON Reality y más</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>3</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Job DescriptionJob Title: Junior Data Science Associate Consultant
+Job Type: Full-tim
+e
+Location: Remote in LAT
+AM
+Job SummaryZS's Insights &amp; Analytics group partners with clients to design and deliver solutions to help them tackle a broad range of business challenges. Our teams work on multiple projects simultaneously, leveraging advanced data analytics and problem-solving techniques. Our recommendations and solutions are based on rigorous research and analysis underpinned by deep expertise and thought leadersh
+ip.
+Key ResponsibilitiesSupport the development and testing of analytical and statistical models under senior guidance.Apply hypothesis testing, regression, and simple machine learning methods to solve structured data problems.Clean, transform, and visualize datasets using Python and basic BI tools.Assist in feature engineering, model validation, and documentation of analytical workflows.Collaborate with senior consultants to prepare reports and dashboards for client presentations.Explore and document emerging data sources and technologies relevant to ongoing proje
+cts.
+Required Skills and QualificationsBachelor’s or Master’s in Computer Science, Statistics, Data Science, or a related quantitative field.1–2 years of experience in data analytics or applied statistics.Proficiency in Python or R for data processing and visualization.Understanding of machine learning fundamentals, data wrangling, and exploratory analysis.Familiarity with SQL and basic data pipelines.Exposure to cloud environments (AWS or Azure) and Git version control.Strong analytical thinking and eagerness to learn from senior men
+tors.
+Preferred QualificationsExperience fine-tuning generative models and integrating classic AI techniques.Prior leadership experience and a record of mentoring junior colleagues.Domain expertise in healthcare, transportation, technology, insurance, or related se
+ctors.
+Our interview process is streamlined with a single step: an AI interview. If you perform well, our hiring managers will review your AI interview recording and may extend an offer directly based on that
+ review</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>f9c3c99117f9</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4342013049/</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2025-12-04T23:09:03+00:00</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>«machine learning»: Spatial AI Intern - EON Reality y más</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>1</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Job DescriptionJob Title: Mid-level Data Science Associate Consultant
+Job Type: Full-time
+Location: Remote - LATAM
+Job Summary:ZS's Insights &amp; Analytics group partners with clients to design and deliver solutions to help them tackle a broad range of business challenges. Our teams work on multiple projects simultaneously, leveraging advanced data analytics and problem-solving techniques. Our recommendations and solutions are based on rigorous research and analysis underpinned by deep expertise and thought leadership.
+Key Responsibilities:Design and implement advanced analytical and ML models to solve complex business challenges.Apply data mining, predictive modeling, and NLP techniques to extract insights from structured and unstructured data.Develop scalable analytical workflows using Python and integrate results into client systems.Build and maintain data pipelines; optimize data ingestion and transformation processes.Collaborate with cross-functional teams to interpret findings and influence data-driven decision-making.Develop reusable analytical assets and contribute to platform scalability initiatives.Mentor junior analysts and ensure best practices in data science workflows.
+Required Skills and Qualifications:Master’s in Computer Science, Statistics, Data Science, or related field with 2–4 years of experience.Proficiency in Python (pandas, NumPy, scikit-learn) or R for model building and analysis.Experience with machine learning pipelines, feature selection, and model evaluation.Hands-on knowledge of big data tools (Spark, Hadoop) and cloud platforms (AWS, Azure).Familiarity with SQL and NoSQL data stores.Ability to translate technical results into actionable business recommendations.Experience working in agile environments and leading small-scale analytical projects.
+Preferred Qualifications:Experience fine-tuning generative models and integrating classic AI techniques.Prior leadership experience and a record of mentoring junior colleagues.Domain expertise in healthcare, transportation, technology, insurance, or related sectors.
+Our interview process is streamlined with a single step: an AI interview. If you perform well, our hiring managers will review your AI interview recording and may extend an offer directly based on that review</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>58821497d872</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-gerente-tienda-en-caracas-F217EA108BCE898061373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2025-11-16T16:05:24+00:00</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Estas empresas necesitan Coordinación en Distrito Capital</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>1</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+A convenir
+Contrato por tiempo indefinido
+Tiempo Completo
+Te consideras una persona apasiona en liderar equipos y garantizar una experiencia excepcional para los clientes, Estamos en búsqueda de una Gerente de Tienda dinámica proactiva que se una a nuestro equipo; como Gerente de Tienda, serás responsable de la operación diaria de la tienda, asegurando que todos los clientes se lleven una excelente experiencia.
+- Profesional Universitario Graduado en carreras afines al negocio, Administración.                                                                         Edad entre 25 a 35 años                                                                                                                                                                                                  Sexo Femenino                                                                                                                                                                                                                Experiencia en manejo de tiendas grandes.                                                                                                                                                              - Experiencia previa en gestión de tiendas o puestos similares.
+- Experiencia previa en gestión de tiendas Grandes. (excluyente)
+- Excelentes habilidades de liderazgo y comunicación.
+- Orientación al cliente y habilidades para resolver problemas.
+- Capacidad para trabajar en un entorno dinámico.
+- Conocimientos en manejo de inventarios y control de stock.
+- Disponibilidad para trabajar en horarios rotativos                                                                                                                                                         - Garantizar una experiencia de servicio diferenciadora para los clientes que nos visitan.
+- Liderar y motivar al equipo para alcanzar los objetivos o KPIs.
+- Asegurar el cumplimiento de las políticas y procedimientos de la empresa.
+- Gestionar el inventario y garantizar la disponibilidad de productos.
+Si cumples con el perfil postúlate, te estamos esperando.
+Requerimientos
+Educación mínima: Universidad
+1 año de experiencia
+Idiomas: Español ,Inglés
+Edad: entre 25 y 30 años
+Palabras clave: lider, jefe, gerente, manager, director, chief, lead, jefatura, regente, boutique, tienda, store, establecimiento, bazar, bazzar
+Hace  6  días (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>14bc9372500e</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-gerente-general-para-hipermercado-en-caracas-48858773353B768261373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2025-11-16T16:05:24+00:00</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Estas empresas necesitan Coordinación en Distrito Capital</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>1</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+800,00 $ (Mensual)
+Contrato por tiempo determinado
+Tiempo Completo
+Para Hipermercado ubicado en Petare, buscamos un Gerente General con visión comercial y capacidad operativa para dirigir un supermercado integral (venta minorista), que incluye carnicería, charcutería, farmacia y restaurante. El candidato liderará la operación diaria, mejorará la rentabilidad y garantizará la calidad de servicio y cumplimiento normativo en todas las áreas.
+Responsabilidades clave:
+Liderar la operación diaria del supermercado y sus áreas especializadas (carnicería, charcutería, farmacia y restaurante).
+Definir y ejecutar la estrategia comercial: surtido, precios, promociones y planificación de inventario.
+Gestionar equipos: contratación, formación, evaluación y desarrollo del personal de todas las áreas.
+Asegurar cumplimiento normativo en salud, seguridad alimentaria, manejo de medicamentos y licencias municipales.
+Controlar resultados financieros: presupuesto, costos, márgenes, flujo de caja y reportes a la propiedad.
+Optimizar procesos operativos (recepción, almacenamiento, rotación, reducción de mermas y control de desperdicios).
+Supervisar la experiencia del cliente y resolver incidencias para mantener altos estándares de servicio.
+Coordinar mantenimiento y condiciones de infraestructura para garantizar seguridad e higiene.
+Desarrollar alianzas locales (proveedores, productores, servicios).
+Requisitos mínimos:
+Formación: Profesional en Administración de Empresas, Ingeniería Industrial, Economía, Gestión Comercial o afines. Estudios en Retail o Gestión de Alimentos son un plus.
+Experiencia: Mínimo 5 años en roles de dirección en supermercados, retail o empresas de alimentos; experiencia gestionando carnicería/charcutería, farmacia o restaurantes será valorada.
+Conocimientos técnicos: Gestión de inventarios, costos, KPIs de retail, normas sanitarias para alimentos, control de calidad y seguridad alimentaria.
+Habilidades: Altísima capacidad de liderazgo y manejo de equipos multidisciplinarios; capacidad analítica y orientada a resultados; toma de decisiones bajo presión; habilidades comerciales y de negociación.
+Disponibilidad: Para trabajo en horario comercial y fines de semana según operación.
+Requerimientos
+Educación mínima: Universidad
+años de experiencia
+Conocimientos: Gestión de equipos, Gestión del tiempo, Liderazgo, Calidad, Gestión de inventarios, Gestión de ventas
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>fa853700652c</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4345590161/</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2025-12-20T15:36:39+00:00</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>«machine learning»: Científico de datos - ACL y más</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>3</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Job DescriptionJob Title: Mid-level Data Science Associate Consultant
+Job Type: Full-time
+Location: Remote - LATAM
+Job Summary:ZS's Insights &amp; Analytics group partners with clients to design and deliver solutions to help them tackle a broad range of business challenges. Our teams work on multiple projects simultaneously, leveraging advanced data analytics and problem-solving techniques. Our recommendations and solutions are based on rigorous research and analysis underpinned by deep expertise and thought leadership.
+Key Responsibilities:Design and implement advanced analytical and ML models to solve complex business challenges.Apply data mining, predictive modeling, and NLP techniques to extract insights from structured and unstructured data.Develop scalable analytical workflows using Python and integrate results into client systems.Build and maintain data pipelines; optimize data ingestion and transformation processes.Collaborate with cross-functional teams to interpret findings and influence data-driven decision-making.Develop reusable analytical assets and contribute to platform scalability initiatives.Mentor junior analysts and ensure best practices in data science workflows.
+Required Skills and Qualifications:Master’s in Computer Science, Statistics, Data Science, or related field with 2–4 years of experience.Proficiency in Python (pandas, NumPy, scikit-learn) or R for model building and analysis.Experience with machine learning pipelines, feature selection, and model evaluation.Hands-on knowledge of big data tools (Spark, Hadoop) and cloud platforms (AWS, Azure).Familiarity with SQL and NoSQL data stores.Ability to translate technical results into actionable business recommendations.Experience working in agile environments and leading small-scale analytical projects.
+Preferred Qualifications:Experience fine-tuning generative models and integrating classic AI techniques.Prior leadership experience and a record of mentoring junior colleagues.Domain expertise in healthcare, transportation, technology, insurance, or related sectors.
+Our interview process is streamlined with a single step: an AI interview. If you perform well, our hiring managers will review your AI interview recording and may extend an offer directly based on that review</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>5e67603750ef</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4341733201/</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2025-12-04T21:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>«NLP»: Junior AI Engineer (LATAM) - micro1 y más</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>4</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Job Title: Junior AI Engineer
+Job Type: Full-time
+Location: LATAM (Remote)
+Experience: 1-2 Years of Relevant Experience
+Job Summary:Join our team as a Junior AI Engineer and help us push the boundaries of Generative AI applications. You’ll collaborate with passionate colleagues to design, build, and scale advanced GenAI systems that power innovative solutions. This is an exciting opportunity for a hands-on engineer eager to grow their skills while building impactful, production-grade AI features.
+Responsibilities:
+Contribute to the development of GenAI applications such as answering engines, entity extraction tools, and summarization systems.Assist in building and debugging REST APIs using Python frameworks like FastAPI or Flask.Support RAG (Retrieval-Augmented Generation) pipelines through tasks like data ingestion, embedding creation, and prompt testing.Work with vector databases (e.g., Pinecone, FAISS) for data storage and retrieval.Experiment with prompt templates and LLMs (OpenAI, Mistral, etc.) under guidance from senior engineers.Collaborate with cross-functional teams to integrate GenAI modules into products.Learn cloud deployment basics using AWS or Azure and assist in model or API deployment.Stay curious about LangChain, LangGraph, and emerging AI frameworks.
+Must-have Skills:
+Python: Proficient with the language. Able to write, test, and debug code.API Development: Experience with FastAPI, Flask, or equivalent.GenAI Basics: Exposure to LLMs, prompt engineering, and simple RAG use cases.Cloud/DevOps: Familiarity with one major cloud platform (AWS or Azure).Version Control: Git fundamentals and collaborative development.
+Good-to-have Skills:
+Familiarity with LangChain or LangGraph.Experience working with embeddings and vector databases.Basic understanding of CI/CD pipelines and containerization (Docker).Curiosity about agents and autonomous AI systems.
+Our interview process is streamlined with a single step: an AI interview. If you perform well, our hiring managers will review your AI interview recording and may extend an offer directly based on that review.</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>1438f4c5b019</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325628188/</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2025-12-04T21:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>«NLP»: Junior AI Engineer (LATAM) - micro1 y más</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>4</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Please submit your resume in English and indicate your level of English.
+Mindrift is looking for highly skilled Vibecode specialists to join the Tendem project (https://tendem.ai/) and shape the future of hybrid agents—where human expertise and AI-driven automation work together seamlessly to deliver exceptional results for real clients.In this role, you'll work alongside Tendem Agent that handle repetitive and time-consuming tasks, while you provide the critical thinking, domain expertise, and quality control needed to produce accurate, reliable, and actionable outputs.You'll be solving complex, real-world challenges across multiple domains—from data analysis to web scraping, data processing, and research synthesis.This flexible, part-time remote opportunity is ideal for professionals with technical expertise and hands-on experience in scripting, automation, or AI-driven tools.
+What we doThe Mindrift platform connects specialists with AI projects from major tech innovators. Our mission is to unlock the potential of Generative AI by tapping into real-world expertise from across the globe.
+About the RoleAs a Vibe Code specialist, you'll handle research, data extraction, and analysis tasks requiring technical precision and strategic problem-solving.Conduct advanced web research and data mining using multiple tools to locate and extract information from official sources. Use LLMs and advanced prompts to refine search strategies and validate data accuracy by cross-referencing authoritative sources.Perform web scraping and data extraction by navigating complex website structures and multi-level pages (regions → companies → detailed pages). Handle dynamic content, archived pages, and various HTML formats, and organize extracted data into clean, well-formatted CSV files.Write and optimize Python scripts for data processing and analysis using libraries such as pandas, BeautifulSoup, Selenium, and matplotlib. Transform raw data into structured formats (CSV, JSON, tables) and create visualizations when required.Carry out data processing and quality assurance by cleaning, validating, and structuring datasets. Ensure data integrity across multiple sources, apply formatting specifications, and run verification steps to maintain high output quality.Apply strong problem-solving and task execution skills to break down complex workflows, troubleshoot technical issues independently, and adapt quickly between different domains and task types with minimal supervision.Produce clear documentation and high-quality outputs that follow exact requirements for file formats, naming conventions, and data structure. Maintain reproducible workflows and well-organized code.
+How to get startedSimply apply to this post, qualify, and get the chance to contribute to projects that match your technical skills, on your own schedule. From coding and automation to fine-tuning AI outputs, you’ll play a key role in advancing AI capabilities and real-world applications.RequirementsAt least 1 year of relevant experience in data analysis, AI automation, data engineering, or software development is desirable.Bachelor's or Master’s Degree in Engineering, Applied Mathematics, Computer Science, or related technical fields is a plus.Python proficiency: Demonstrated ability to write functional scripts for data analysis, web scraping, and visualization.Web scraping expertise: Experience extracting structured data from websites using tools like BeautifulSoup, Scrapy, Selenium, or similar.Data manipulation: Strong skills in cleaning, transforming, and organizing datasets using pandas or equivalent libraries.Research capabilities: Ability to locate authoritative sources, official databases, and government datasets.Data visualization: Experience creating charts and graphs using matplotlib, seaborn, or similar libraries.Hands-on experience with LLMs and AI frameworks to enhance automation and problem-solving.Advanced web research skills with ability to find specific, credible data sources.Strong attention to detail and commitment to data accuracy.Ability to follow complex, multi-step instructions precisely.Comfortable working with CSV files, structured data formats, and file specifications.Self-directed work ethic with ability to troubleshoot independently.English proficiency: Upper-intermediate (B2) or above (required).Fully remote role: laptop, stable internet connection, and time availability required.Flexibility to switch between tasks and adapt to new methods quickly.Willingness to work with detailed, sometimes challenging guidelines.
+Why this freelance opportunity might be a great fit for you?Get paid for your expertise, with rates that can go up to $9/hour depending on your skills, experience, location and project needs.Work fully remote on your own schedule with just a laptop and stable internet connection.Gain hands-on experience in a unique hybrid environment where human expertise and AI agents collaborate seamlessly—a distinctive skill set in a rapidly growing field.Exceptional performers advance to quality assurance roles or higher-priority project lines with increased compensation. Your performance directly impacts your earning potential.Participate in performance-based bonus programs that reward high-quality work and consistent delivery.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>74d8f169db21</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325518486/</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2025-12-04T21:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>«NLP»: Junior AI Engineer (LATAM) - micro1 y más</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>3</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>At Mindrift, innovation meets opportunity. We believe in using the power of collective human intelligence to ethically shape the future of AI.The Mindrift platform, launched and powered by Toloka, connects domain experts with cutting-edge AI projects from innovative tech clients. Our mission is to unlock the potential of GenAI by tapping into real-world expertise from across the globe.
+Who we're looking for:We’re looking for curious and intellectually proactive contributors, the kind of person who double-checks assumptions and plays devil’s advocate.Are you comfortable with ambiguity and complexity? Does an async, remote, flexible opportunity sound exciting? Would you like to learn how modern AI systems are tested and evaluated?This is a flexible, project-based opportunity well-suited for:Analysts, researchers, or consultants with strong critical thinking skills.Students (senior undergrads / grad students) looking for an intellectually interesting gig.People open to a part-time and non-permanent opportunity.
+About the project:We’re on the hunt for QAs for autonomous AI agents for a new project focused on validating and improving complex task structures, policy logic, and agent evaluation frameworks. Throughout the project, you’ll have to balance quality assurance, research, and logical problem-solving. This project opportunity is ideal for people who enjoy looking at systems holistically and thinking through scenarios, implications, and edge cases.You do not need a coding background, but you must be curious, intellectually rigorous, and capable of evaluating the soundness and consistency of complex setups. If you’ve ever excelled in things like consulting, CHGK, Olympiads, case solving, or systems thinking — you might be a great fit.What you’ll be doing:Reviewing evaluation tasks and scenarios for logic, completeness, and realism.Identifying inconsistencies, missing assumptions, or unclear decision points.Helping define clear expected behaviors (gold standards) for AI agents.Annotating cause-effect relationships, reasoning paths, and plausible alternatives.Thinking through complex systems and policies as a human would to ensure agents are tested properly.Working closely with QA, writers, or developers to suggest refinements or edge case coverage.
+How to get started:Apply to this post, qualify, and get the chance to contribute to a project aligned with your skills, on your own schedule. Shape the future of AI while building tools that benefit everyone.RequirementsExcellent analytical thinking: Can reason about complex systems, scenarios, and logical implications.Strong attention to detail: Can spot contradictions, ambiguities, and vague requirements.Familiarity with structured data formats: Can read, not necessarily write JSON/YAML.Can assess scenarios holistically: What's missing, what’s unrealistic, what might break?Good communication and clear writing (in English) to document your findings.We also value applicants who have:Experience with policy evaluation, logic puzzles, case studies, or structured scenario design.Background in consulting, academia, olympiads (e.g. logic/math/informatics), or research.Exposure to LLMs, prompt engineering, or AI-generated content.Familiarity with QA or test-case thinking (edge cases, failure modes, “what could go wrong”).Some understanding of how scoring or evaluation works in agent testing (precision, coverage, etc.).
+Benefits:Take part in a flexible, remote, freelance project that fits around your primary professional or academic commitments.Participate in an advanced AI project and gain valuable experience to enhance your portfolio.Influence how future AI models understand and communicate in your field of expertise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>be84ec38a090</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4341763163/</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2025-12-04T19:36:03+00:00</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>«pytorch»: Spatial AI Intern - EON Reality y más</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>3</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Job DescriptionJob Title: Mid-level AI Engineer
+Job Type: Full-time
+Location: LATAM (Remote)
+Experience: 2-4 Years of Relevant Experience
+Job Summary:Join our team as a Mid-level AI Engineer and help drive the next generation of GenAI-powered applications. You will architect robust solutions, collaborating closely with fellow engineers, product managers, and designers to turn cutting-edge research into real-world impact. If you thrive in a fast-paced, innovation-driven environment and are passionate about clear communication, this is the opportunity for you.
+Responsibilities:
+Build GenAI applications such as question-answering systems, content generation tools, and extraction pipelines.Design, implement, and optimize RAG pipelines end-to-end: ingestion, chunking, embedding, prompt templating, evaluation, and deployment.Develop robust APIs using Python frameworks (FastAPI preferred).Work with multiple LLMs (OpenAI, Mistral, Anthropic, etc.) and evaluate model performance for different use cases.Use LangChain, LangGraph, or LangSmith to orchestrate and monitor GenAI workflows.Deploy applications on AWS or Azure and implement CI/CD for continuous improvement.Collaborate with data engineers and product managers to translate technical designs into scalable solutions.Participate in system design discussions, contributing ideas for performance and maintainability.
+Must-have Skills:
+Python: Strong experience with the language. Able to design clean, modular, production-grade code.API Development: Proven experience building and maintaining APIs (FastAPI/Flask).GenAI Stack: LangChain, LangGraph, LangSmith; multiple LLM APIs (OpenAI, Mistral, etc.).RAG Lifecycle: Data ingestion, prompt templating (Jinja), evaluation/re-ranking, deployment.Cloud/DevOps: Hands-on with AWS or Azure (deployments, monitoring).
+Good-to-have Skills:
+Understanding of distributed systems and scaling strategies.Experience with containerization (Docker) and orchestration (Kubernetes).Familiarity with Guardrails AI or Responsible AI frameworks.Basic UI integration knowledge (React, optional).
+Our interview process is streamlined with a single step: an AI interview. If you perform well, our hiring managers will review your AI interview recording and may extend an offer directly based on that review.</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>f516d05c0a50</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4341738827/</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2025-12-04T19:36:03+00:00</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>«pytorch»: Spatial AI Intern - EON Reality y más</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>3</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>This position is posted by Jobgether on behalf of a partner company. We are currently looking for a Senior AI Consultant in Latin America.
+We are seeking a highly skilled AI consultant to lead innovative AI initiatives across diverse industries. This role blends client-facing engagement with technical leadership, internal product development, and thought leadership. You will design, prototype, and implement AI solutions while guiding engineering teams and shaping best practices. The position offers the chance to work with cutting-edge AI frameworks, LLMs, and vector databases in a fully remote, collaborative environment. Ideal candidates are entrepreneurial, enjoy solving complex problems, and are motivated to contribute to both client success and internal innovation programs.
+Accountabilities
+Lead AI discovery sessions and technical assessments with clients, developing prototypes and proof-of-concepts for real-world applications.Provide technical leadership across multiple client engagements, creating detailed specifications for engineering teams.Guide internal AI product development, evaluating and integrating emerging tools and frameworks into delivery methodologies.Mentor AI engineers, establish technical best practices, and contribute to the development of AI innovation frameworks.Author technical content such as white papers, case studies, and blog posts, and deliver presentations at conferences or webinars.Support business development efforts by creating compelling demos, contributing to proposals, and providing technical expertise during sales meetings.Coordinate with distributed engineering teams to ensure successful project delivery and knowledge transfer.
+Requirements
+Proven experience designing, building, and deploying AI/ML solutions in production environments.Proficiency in rapid prototyping using modern AI development tools (Claude Code, Cursor, Gemini, etc.) and LLM frameworks (LangChain, LlamaIndex).Strong programming skills in Python; familiarity with vector databases, RAG implementations, and prompt engineering.Solid understanding of AI/ML fundamentals and the ability to select appropriate approaches for business problems.Excellent communication skills with the ability to present technical concepts to both technical and non-technical audiences.Experience translating business requirements into technical specifications and managing ambiguous, fast-paced projects.Flexibility to coordinate with global teams across time zones.Preferred: previous experience in consulting, professional services, or sales engineering; domain expertise in healthcare, finance, or enterprise software; track record of AI project delivery; experience managing distributed teams; published work or contributions to AI/ML communities.
+Benefits
+Competitive salary and equity opportunities.Fully remote role with flexible work hours and autonomy.Opportunity to work on cutting-edge AI projects across multiple industries.Career development through mentorship, technical leadership, and exposure to client engagements.Access to modern AI tools, LLM frameworks, and development environments.Collaborative and inclusive remote-first culture with global teams.
+Why Apply Through Jobgether?
+We use an AI-powered matching process to ensure your application is reviewed quickly, objectively, and fairly against the role's core requirements. Our system identifies the top-fitting candidates, and this shortlist is then shared directly with the hiring company. The final decision and next steps (interviews, assessments) are managed by their internal team.
+We appreciate your interest and wish you the best!
+Why Apply Through Jobgether?
+Data Privacy Notice: By submitting your application, you acknowledge that Jobgether will process your personal data to evaluate your candidacy and share relevant information with the hiring employer. This processing is based on legitimate interest and pre-contractual measures under applicable data protection laws (including GDPR). You may exercise your rights (access, rectification, erasure, objection) at any time.
+We may use artificial intelligence (AI) tools to support parts of the hiring process, such as reviewing applications, analyzing resumes, or assessing responses. These tools assist our recruitment team but do not replace human judgment. Final hiring decisions are ultimately made by humans. If you would like more information about how your data is processed, please contact us.</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>1b1abeb13f8b</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4341792705/</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2025-12-04T17:35:07+00:00</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>«LLM»: Spatial AI Intern - EON Reality y más</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>3</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>*Native/Bilingual English is required for this role (read/written/spoken)
+Please upload your CV Resume in English.
+Monthly salary: $2,000 - $3,500 USD
+Along with our partner, we're looking for a talented ML Engineer who will be the main touchpoint for our partner's client. You will have to leverage technical knowledge, soft skills, and strong problem-solving skills to deliver great experiences to clients.
+Key Responsibilities:Guide new users through onboarding, setup, and best practices Document technical learnings, common patterns, and solutions derived from real customer interactions Transform lessons learned into clear, actionable knowledge for both internal teams and external users Create and maintain documentation, tutorials, and sample projects Provide technical support via Slack, email, and meetings, helping users troubleshoot and resolve issues quickly Collaborate with engineering to debug production issues and prioritize fixes Help users architect scalable and efficient deployments using FriendliAI Lead customer-facing technical sessions, demos, and Q&amp;As 
+Qualifications:1+ years of hands-on experience with deploying &amp; debugging LLMs on GPUs for production1+ years in a developer-facing or technical support role (Customer Success, Solutions Engineering, etc.) Bachelor’s or Master's degree in Computer Science, Computer Engineering, Electrical Engineering, or equivalent Have deep knowledge of how LLMs and related technologies/features workFamiliarity with Kubernetes and cloud infrastructureExcellent written and verbal communication skills Proficient in Python and familiar with LLM ecosystems (e.g., Hugging Face, LangChain) Experience working with APIs, CLI tools, and deployment workflows Ability to explain complex technical concepts clearly and concisely 
+Preferred Experience:Strong technical writing skills with experience authoring user-facing or internal technical content.Experience working with open-source model inference in production.Experience writing developer documentation or educational content.Prior experience working with enterprise customers or managing technical escalations.Contributions to developer communities or open source.Familiarity with model serving platforms and inference workflows.Hands-on experience building with agentic or autonomous AI frameworks.
+Work Schedule: rotating through Monday - Sunday, 6 AM - 6 PM PST.
+Commitment: 180 hours per month
+Benefits:A fully remote position with a structured schedule that supports work-life balance.The opportunity to work with our partner at the cutting edge of generative AI infrastructure and model serving.Two weeks of paid vacation per year.10 paid days for local holidays.
+*Please note our partner is only looking for full-time dedicated team members who are eager to fully integrate within their team.</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>f64d03d42501</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4348422585/</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2025-12-04T17:35:07+00:00</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>«LLM»: Spatial AI Intern - EON Reality y más</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>3</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Título: Freelancer en Automatización e Inteligencia Artificial para Pymes (Remoto, Latam)
+Sobre Nitida AI Nitida AI ayuda a pequeñas y medianas empresas a aprovechar la inteligencia artificial para vender más, atender mejor a sus clientes y reducir trabajo manual. Trabajamos principalmente con pymes en Colombia y Latinoamérica, construyendo soluciones prácticas como asistentes de WhatsApp, automatización de documentos y tableros de negocio.Estamos buscando freelancers en automatización e IA que se encarguen de la implementación técnica de los proyectos que diseñamos con nuestros clientes.
+ResponsabilidadesComo freelancer en Nitida AI, te encargarás de:Construir y configurar chatbots y asistentes con IA (WhatsApp, web u otros canales).Diseñar automatizaciones usando herramientas como Zapier, Make, n8n u otras.Integrar APIs y webhooks entre diferentes sistemas (por ejemplo: formulario → CRM → WhatsApp).Trabajar con herramientas de LLM (OpenAI / ChatGPT u otras) para:Generar y transformar texto.Clasificar mensajes o tickets.Extraer información de documentos y conversaciones.Apoyar la creación de tableros e informes usando datos del cliente (Google Sheets, Looker Studio, Power BI, etc.).Colaborar de cerca con la fundadora, proponiendo soluciones simples y robustas a partir de las necesidades del negocio.
+RequisitosExperiencia demostrable en:Automatización de procesos y flujos.Integraciones con APIs y webhooks.Manejo práctico de al menos algunas herramientas como:Zapier, Make, n8n u otras plataformas de automatización.Plataformas de chatbots (Dialogflow, ManyChat, Botpress, bots a medida, etc.).Herramientas de IA / LLMs (OpenAI, Claude, etc.).Buen dominio de al menos un lenguaje de programación (idealmente Python o JavaScript).Capacidad para leer y entender documentación técnica.Español fluido (clientes principalmente en Colombia y Latam).Comunicación clara y capacidad de explicar lo técnico en lenguaje sencillo.
+Plus / Valoramos tambiénExperiencia previa trabajando con pymes.Experiencia con:Automatización sobre Google Sheets / Excel.Visualización de datos (Looker Studio, Power BI, Tableau, etc.).Procesamiento de documentos (facturas, contratos, PDFs).Interés genuino en inteligencia artificial aplicada a negocios reales.
+Qué ofrecemosColaboración freelance por proyecto, 100% remota.Horario flexible y trabajo orientado a resultados.Alcances de proyecto claros y comunicación directa.Oportunidad de trabajar en casos reales de pymes y ver impacto directo.Posibilidad de colaboración a largo plazo si hay buen encaje.
+Cómo postularPor favor envía un mensaje o aplica adjuntando:Tu experiencia con automatización, APIs, chatbots e IA (herramientas que dominas).Enlaces a proyectos anteriores / portafolio / GitHub / LinkedIn.Tu tarifa por hora o rango típico por proyecto.</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>c36766b541dc</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4338520321/</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2025-12-04T15:35:22+00:00</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Spatial AI Intern - EON Reality y más</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>3</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>At DevSavant, we are a trusted technology partner specializing in Software Development, Data Engineering, AI/Machine Learning, Cloud Solutions, Automation Testing, and UI/UX Design. We deliver innovative, high-quality solutions with a focus on excellence and results. Our people are at the heart of everything we do, fostering a culture of growth and well-being. Join us and thrive in a supportive, success-driven environment.
+We're looking for a talented Data Scientist with expert Python skills and experience in processing large amounts of data to join our client's team. You'll be a key player in designing, building, and making our main data pipelines and ML systems (that power our advanced analytics and machine learning models) able to handle more. You'll work closely with data scientists and engineers to create strong, efficient, and scalable systems. If you love solving complex technical problems, building production-ready data systems, and want to make a big impact on a data-driven company, this job is for you!
+Antenna, our client, is a remote-first company, and we are looking for candidates who can work during US business hours. You will report to the Data Science Lead.
+What You’ll Do
+Design, develop, test, and maintain strong and scalable data pipelines using Python and tools for large-scale data processing (like Spark, Dask, or similar on GCP).Design and take ownership of key parts of our ML systems, making sure they are reliable, efficient, and can grow.Set up and manage MLOps practices, including automatic updates for machine learning models (CI/CD), model monitoring, and automated launch plans.Improve and manage data processing jobs on cloud platforms (GCP: Dataproc, BigQuery, Cloud Run, Cloud Build).Work with data scientists to get machine learning models ready for production and connect them to our data systems.Write detailed documents for the system designs, code, and systems you create and manage.Fix complex technical problems in data systems that run on many computers and in ML pipelines.
+Who You Are
+You have 3-5+ years of work experience in software engineering, with a strong focus on data engineering, ML engineering, or building applications that use a lot of data.You are an expert in Python, with a strong understanding of object-oriented design, software system design, and experience building high-quality, testable code for production.You have strong, hands-on experience with tools for handling large amounts of data like Apache Spark (PySpark), Dask, or similar.You have solid experience with cloud platforms (GCP is highly preferred). This includes putting services live, managing them, making them handle more users (e.g., Docker, Cloud Run, GKE), and working with large data systems (e.g., Dataproc, BigQuery).You have strong SQL skills and experience working with large, complex datasets.You have a deep understanding of machine learning ideas, the full process of creating a model, and MLOps principles.You are an excellent problem-solver, good at fixing complex issues in systems that run on many computers, and making them perform better and handle more data.You explain complex technical ideas and system design decisions clearly and effectively in English.Advanced English proficiency (B2-C1); Excellent communication, teamwork, and consulting skills.You are passionate about building strong, scalable systems and are eager to guide and work with a team.You care deeply about code quality, system reliability, and writing good documentation.
+Bonus
+Experience in or passion for the Subscription Economy, especially in media and entertainment.Deep knowledge of specific GCP services like Dataproc, Dataflow, Cloud Composer, Vertex AI, or Kubernetes Engine.Experience building and maintaining Python code (libraries) used by many, or contributions to open-source projects.Advanced knowledge of MLOps tools and ways to manage workflows (e.g. Cloudbuild, CloudRun).
+Tech Stack 
+Languages: Python (expert), SQL (strong)Large-Scale Data Processing: Apache Spark/PySpark (or similar like Dask)Cloud Platform: Google Cloud (Dataproc, BigQuery, Cloud Storage, Cloud Run, Cloud Build, GKE - strong experience expected)Version Control: Git (expert)MLOps &amp; Orchestration: Familiar with tools like Airflow, Kubeflow, Vertex AI PipelinesContainerization: Docker, KubernetesData Analysis Libraries: Pandas, NumPy (very good with these)Machine Learning: scikit-learn, TensorFlow/PyTorch (understand how to get them to production)AI Tools: Claude, Gemini, OpenAI offerings</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>c6684453a2a6</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325624780/</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2025-12-04T15:35:22+00:00</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Spatial AI Intern - EON Reality y más</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>3</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>💻 We’re Hiring: 3D Computer Vision Engineer 💻
+Location: Fully Remote (Work from Home) | 9 AM – 5 PM EST
+About the roleOur client is an AI infrastructure startup building cutting-edge models for the fashion industry. They are redefining how fashion is experienced through advanced computer vision and AI, operating at a pre-revenue, pre-Alpha stage while assembling a foundational technical team.
+They’re looking for a 3D Computer Vision Engineer to serve as the first computer vision hire and lead the development of the body measurement and 3D reconstruction pipeline. This role is central to shipping their Alpha prototype and establishing the technical backbone of the product.
+What You’ll DoDesign and build computer vision models for smartphone-based body measurement.Develop the 2D-to-3D reconstruction pipeline and optimize it for real-time mobile deployment.Build infrastructure for data collection, validation, and testing to support model training.Ship the Alpha prototype within 4–6 weeks and iterate quickly based on feedback.Lead all technical efforts related to 3D reconstruction and drive architectural decisions.
+What You BringMid to senior-level experience in computer vision, including shipped products.Strong background in 3D reconstruction, point clouds, or human mesh estimation.Experience deploying ML models to mobile or edge environments.Proficiency with Python and frameworks like PyTorch or TensorFlow.Ability to lead technical decisions, optimize real-time systems, and work in fast-paced environments.
+OpportunityThis is a rare chance to join a high-potential AI startup at the earliest stage and shape the product's technical foundation. You’ll influence the roadmap, build core architecture, and play a key role as the company scales.
+If you’re driven, innovative, and excited to build real-time 3D computer vision systems from the ground up. Apply today!</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>7e8f2e08fb95</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4341214486/</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2025-12-04T01:35:09+00:00</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>«LLM»: Machine Learning Engineer - Ai Jobs y más</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>3</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Machine Learning, Data &amp; AI Talent Pool
+Location: LATAM (Remote)Work Type: Full-time / Contract (varies by role)
+We are building a curated Talent Pool of experienced professionals across Machine Learning, Data Engineering, Data Science, MLOps, and Applied AI. By joining our pipeline, you’ll be considered for multiple opportunities with our technology clients—ranging from startups to enterprise-level companies—based on your expertise, seniority, and industry focus.
+About the Talent PoolWe are looking to connect with strong technical talent who have hands-on experience designing, developing, and deploying data-driven and AI-powered solutions. If you specialize in any area of the Data &amp; AI ecosystem, we’d love to learn more about your background and match you with upcoming projects or full-time roles.
+Key Areas of Expertise We’re Looking For
+1. Machine Learning &amp; Applied AIBuilding and deploying ML models (supervised, unsupervised, NLP, CV, deep learning).Experience with ML frameworks: TensorFlow, PyTorch, Scikit-learn, XGBoost, Hugging Face.Model evaluation, experimentation, fine-tuning, and optimization.Experience with GenAI, LLMs, embeddings, RAG, prompt engineering, or agentic workflows is a plus.2. Data EngineeringBuilding scalable data pipelines and ETL/ELT workflows.Strong SQL and Python.Cloud-native data stack: AWS, Azure, GCP, Snowflake, BigQuery, Databricks, Redshift, or similar.Stream processing or distributed systems (Kafka, Spark, Flink).3. MLOps / DataOpsModel deployment, monitoring, CI/CD for ML, model registries, feature stores.Experience with tools like MLflow, Kubeflow, SageMaker, Vertex AI, Databricks ML.Strong understanding of production ML lifecycle.4. Data Science &amp; AnalyticsStatistical modeling, experimentation (A/B testing), forecasting, segmentation.BI tools and data visualization (Tableau, Power BI, Looker).Experience translating business problems into analytical solutions.
+General Requirements5+ years of experience in one or more ML/Data/AI tracks.Strong Python skills.Cloud experience (AWS, Azure, or GCP).Solid understanding of data modeling, pipelines, and best practices in production environments.Ability to work remotely, communicate clearly, and collaborate asynchronously.English proficiency (written and spoken).
+Nice-to-Have SkillsExperience with LLMs in production environments.Familiarity with RAG, vector databases, or agent frameworks.Experience working in startups, fast-paced environments, or distributed teams.Exposure to data governance, security, compliance, or responsible AI.
+How to Join the Talent PoolIf you're interested, apply through this posting and complete the short questionnaire. Your details will help us understand your profile, tech stack, and project preferences so we can match you with the most relevant.
+Why Join Us?
+We offer a supportive and rewarding work environment with a range of benefits designed to help you thrive:Full-Time Position: Stability and growth in a dedicated role.Competitive Compensation: Get paid in US dollars, ensuring a strong and stable income.100% Remote Work: Enjoy the flexibility of working from anywhere.Paid Time Off: Receive 12 PTO days per year to recharge and unwind.Local Holidays: Celebrate your country's holidays with paid time off.Birthday Off: Take your special day off, on us!Career Growth: Access clear career paths and opportunities for advancement.Recognition Program: Be celebrated for your achievements and contributions.Paid Leaves: Enjoy peace of mind with fully paid leaves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>057b758471d9</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325457932/</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2025-12-04T01:35:09+00:00</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>«LLM»: Machine Learning Engineer - Ai Jobs y más</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>3</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>At BairesDev®, we've been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the world's Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, you're taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Machine Learning Engineer at BairesDev
+We are looking for an outstanding Machine Learning Engineer to join our team. This professional will use data and machine learning techniques to help the business automate and scale decision-making, mainly by producing advanced data analysis reports and data-based models to infer and predict patterns.
+What You Will Do:
+- Help to improve data literacy and the overall analytical environment across the company.- Handle both structured and unstructured data using SQL and other programming languages.- Perform advanced data analysis and report results.- Tell the story behind data in a compelling manner for business people.- Build predictive models and machine-learning algorithms.- Combine models through ensemble modeling.- Propose solutions and strategies to business challenges.- Help to design and execute experiments for hypothesis testing.- Participate actively in discussions and decisions regarding the whole Machile Learning / Data Science chapter.- Collaborate with data product managers to build awesome data products.- Work with management to prioritize business and information needs.- Help to spread a data-driven mindset and to improve data literacy. Be a data evangelist.
+Here’s what we are looking for:
+- 3+ years of experience with Machine Learning, data science, IA, statistical, and other related areas.- Proficiency with MySQL.- Proficiency in Python, R, or another major programming language.- Excellent communication skills, and capacity to collaborate and build relationships with non-technical users.- Strong knowledge of probability and statistics, including experimental design, predictive modeling, optimization, and causal inference.- Hands-on experience with machine learning, like regression classification, clustering, neural networks, feature selection, cross-validation, the curse of dimensionality, bias-variance tradeoff, model explainability, NLP, etc.
+Desirable:- Experience with people analytics or growth.- Experience with data visualization tools.- Good understanding of the engineering challenges to deploying machine learning systems to production.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).- Excellent compensation in USD or your local currency if preferred- Hardware and software setup for you to work from home.- Flexible hours: create your own schedule.- Paid parental leaves, vacations, and national holidays.- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>e1e637ba83c1</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325347383/</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>2025-12-04T01:35:09+00:00</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>«LLM»: Machine Learning Engineer - Ai Jobs y más</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>3</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>WinDifferent specializes in helping businesses achieve rapid and sustainable growth through our powerful proprietary marketing system. Our data-driven solutions generate positive engagement that leads to ready-to-close opportunities, massively expanding sales pipelines and enabling companies to scale faster than the competition.
+As one of WinDifferent's best success stories, BairesDev helps us to find the best talent worldwide and invites them to explore our continually growing job opportunities.
+Machine Learning and Data Science Specialist at WinDifferent
+We are looking for a Machine Learning and Data Science Specialist to serve as the owner of the ML algorithms powering SellDifferent’s campaign segmentation and targeting system. This role is central to the product’s success, managing a massive system with millions of data points and ensuring models directly impact business outcomes. You’ll optimize, supervise, and evolve ML pipelines, driving innovation and reliability in one of the most important components of the platform.
+What You’ll Do:
+- Optimize existing machine learning algorithms to improve accuracy and performance.- Propose, design, and implement new ML features that enhance product capabilities.- Supervise and monitor machine learning performance at scale.- Define ML requirements and collaborate with engineering and product teams to bring them to life.- Handle administrative and organizational duties related to ML initiatives.
+What We Are Looking For:
+- 5+ years of experience in Machine Learning, including at least 4 years building the end-to-end model development lifecycle (requirements definition, feature discovery, model training/registration, deployment, monitoring, and MLOps).- Proficiency in SQL and Python, with strong knowledge of data and ML frameworks.- Solid fundamentals in probability and statistics.- Business-minded approach with proven stakeholder management skills — able to define your own work based on conversations with senior leaders.- Product-oriented mindset: you design ML pipelines with direct business impact and thrive in ownership-heavy environments.- Familiarity with development best practices and navigating complex production codebases.- Postgraduate degree in Machine Learning or Data Science.
+Desirable Qualifications:
+- Experience with Databricks.- Experience implementing machine learning explainability pipelines.- Experience with orchestration tools such as Airflow.- Experience applying machine learning to marketing use cases.
+How we do make your work (and your life) easier:
+- 100% remote work.- Work-from-home hardware setup.- Flexible hours - make your schedule.- PTO, parental leave, and other special leaves.- English classes.- Personal loans with 0% interest, following the company's policies.- Udemy for Business (subject to manager's approval).- An excellent compensation package — well above the market average.- You can grow at the speed of your learning curve.- An innovation-driven, diverse, and multicultural work environment that provides the support and resources for its professionals to thrive.- The chance and resources to be a game-changer for one of America's fastest-growing companies.
+Join a global team where your unique AI talents can truly thrive and make a significant impact!
+Apply Now!</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>ca6081552cce</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325447364/</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2025-12-04T01:35:09+00:00</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>«LLM»: Machine Learning Engineer - Ai Jobs y más</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>3</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>WinDifferent specializes in helping businesses achieve rapid and sustainable growth through our powerful proprietary marketing system. Our data-driven solutions generate positive engagement that leads to ready-to-close opportunities, massively expanding sales pipelines and enabling companies to scale faster than the competition.
+As one of WinDifferent's best success stories, BairesDev helps us to find the best talent worldwide and invites them to explore our continually growing job opportunities.
+Machine Learning and Data Science Specialist at WinDifferent
+We are looking for a Machine Learning and Data Science Specialist to serve as the owner of the ML algorithms powering SellDifferent’s campaign segmentation and targeting system. This role is central to the product’s success, managing a massive system with millions of data points and ensuring models directly impact business outcomes. You’ll optimize, supervise, and evolve ML pipelines, driving innovation and reliability in one of the most important components of the platform.
+What You’ll Do:
+- Optimize existing machine learning algorithms to improve accuracy and performance.- Propose, design, and implement new ML features that enhance product capabilities.- Supervise and monitor machine learning performance at scale.- Define ML requirements and collaborate with engineering and product teams to bring them to life.- Handle administrative and organizational duties related to ML initiatives.
+What We Are Looking For:
+- 5+ years of experience in Machine Learning, including at least 4 years building the end-to-end model development lifecycle (requirements definition, feature discovery, model training/registration, deployment, monitoring, and MLOps).- Proficiency in SQL and Python, with strong knowledge of data and ML frameworks.- Solid fundamentals in probability and statistics.- Business-minded approach with proven stakeholder management skills — able to define your own work based on conversations with senior leaders.- Product-oriented mindset: you design ML pipelines with direct business impact and thrive in ownership-heavy environments.- Familiarity with development best practices and navigating complex production codebases.- Postgraduate degree in Machine Learning or Data Science.
+Desirable Qualifications:
+- Experience with Databricks.- Experience implementing machine learning explainability pipelines.- Experience with orchestration tools such as Airflow.- Experience applying machine learning to marketing use cases.
+How we do make your work (and your life) easier:
+- 100% remote work.- Work-from-home hardware setup.- Flexible hours - make your schedule.- PTO, parental leave, and other special leaves.- English classes.- Personal loans with 0% interest, following the company's policies.- Udemy for Business (subject to manager's approval).- An excellent compensation package — well above the market average.- You can grow at the speed of your learning curve.- An innovation-driven, diverse, and multicultural work environment that provides the support and resources for its professionals to thrive.- The chance and resources to be a game-changer for one of America's fastest-growing companies.
+Join a global team where your unique AI talents can truly thrive and make a significant impact!
+Apply Now!</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>ea8db007fb4c</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325235622/</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2025-12-03T23:36:33+00:00</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Machine Learning Engineer - Ai Jobs y más</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>3</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Role: AI EngineerLocation: LatAmInvestors:Goldman Sachs Asset ManagementFinTech CollectiveCometa
+Company Overview
+Created in 2019, Simetrik is a robust B2B platform powered by no code and generative AI. It empowers financial and operational teams by allowing them to automate all reconciliations from start to finish, and anticipate and manage risks all on a single, intuitive, and robust interface inspired by spreadsheets.
+Simetrik has established itself as a market leader in Latin America, handling two-thirds of the region’s transactions. Its clientele includes prominent institutions such as PayU, Mercado Libre, Rappi, PagSeguro, Falabella, Oxxo, Itaú, and Nubank, and partnerships with leading firms like Deloitte. Expanding its international reach, Simetrik has also successfully penetrated key Asian markets, serving clients in India and Singapore. The company's global footprint spans over 35 countries, monitoring over 200 million records daily.
+Executive TeamAlejandro Casas Caro Co-Founder &amp; CEOSantiago Gómez Co-Founder &amp; COOFelipe PardoCFOSebastián BezzoVP of Revenue | Latam
+About the role
+At Simetrik we are building the foundation of an AI-powered ecosystem where agents transform financial operations. As an AI Engineer you will join the AI Agent team to design, build, and deploy production ready AI agents that deliver tangible client value. The role blends software engineering rigor with data science depth. We want builders who thrive in ambiguity, move fast from concept to production, and are motivated by creating the first generation of scalable AI agents at Simetrik.
+What does success look like in this role?
+Your work reaches production with measurable outcomes such as agents deployed, client adoption, and user satisfaction. You balance speed and quality, communicate clearly, and adapt to changing priorities without losing execution momentum.
+What is the impact and the scope of this position?
+This team sits at the core of Simetrik’s future. The agents you ship can become a new business line larger than today’s company. You will be among the pioneers defining what the future looks like, moving agents from experiments to revenue.
+What results do we expect in the first 3 to 6 months?
+You deliver at least six functional agents ready for production. You validate use cases with product and operations, measure value, and establish lightweight engineering practices that let pods replicate and scale delivery.
+In this role you will
+Design, build, and deploy AI agents tailored to real customer problems.Work end to end from data preparation and model experimentation to backend integration and cloud deployment.Collaborate with product, data, and operations to identify high-value opportunities and iterate based on feedback.Ensure production readiness through testing, monitoring, and performance evaluation.Contribute reusable components and frameworks that speed up future agent development.Continuously explore state-of-the-art AI technologies and assess their production viability.Build functional agents aligned with business needs and client expectations.Maintain robust Python codebases using sound engineering practices.Integrate machine learning and large language models into scalable systems.Deploy and operate services in cloud environments with maintainability in mind.Partner with cross-functional pods to validate, iterate, and improve outcomes.
+Responsibilities
+Design, build, and deploy LLM-powered agents with capabilities for reasoning, memory, and tool use.Adapt foundation models through prompting, RAG, fine-tuning, or hybrid approaches as required.Build evaluation pipelines to measure accuracy, consistency, safety, and alignment with business goals.Implement caching, model routing, and guardrails to optimize performance and ensure safe outputs.Develop scalable APIs and services that expose LLM and agent capabilities.Collaborate with product and engineering teams to integrate agents into real-world applications.Monitor, retrain, and refine agents using user feedback loops for long-term reliability.Document system architectures, data flows, and AI workflows for reproducibility and maintainability.
+Must Have
+Hands-on experience with API development and model serving (FastAPI, Flask, or Django).Hands-on experience with LLMs (e.g., OpenAI, Anthropic, Hugging Face, Cohere).Practical experience with LLM frameworks (ADK, LangChain, LlamaIndex, CrewAI, Autogen, or similar).Experience designing and building LLM Agents, applying techniques such as RAG, tool-use, and behavioral customizations (Swarm, MagenticOne, etc.).Familiarity with multi-agent communication standards and tooling (MCP – Model Context Protocol, A2A protocols).Familiarity with prompt engineering, RAG pipelines, and fine-tuning workflows.Knowledge of experiment tracking and evaluation frameworks (MLflow, Weights &amp; Biases, or custom setups).Experience with containerized applications (Docker) and CI/CD pipelines. * Experience working with relational and non-relational databases.Comfortable collaborating in cross-functional, remote teams
+Nice to Have
+Familiarity with vector databases and retrieval systems (Pinecone, Weaviate, FAISS, Milvus).Proficiency in cloud services (AWS Lambda, S3, SageMaker, ECS, or similar).Experience with data versioning and dataset management (DVC, Delta Lake).Knowledge of caching strategies, model routing, and latency optimization for AI systems.Experience designing evaluation pipelines aligned with product and user metrics.Understanding of responsible AI principles: fairness, privacy, security, explainability.Fluency in written and spoken English and Spanish. * Startup experience is a plus.
+Qualifications
+Degree in Computer Science, Engineering, Mathematics, or a related field. Advanced degrees are a plus but not required.Three or more years of experience across data science, machine learning, or software engineering.Hybrid profiles are strongly valued.Professional proficiency in English and Spanish, Portuguese is a plus.Location in LATAM preferred. Remote friendly with distributed pods.
+Benefits
+Well-funded and proven startup with large ambitions and competitive salaries.Entrepreneurial culture where pushing limits, creating and collaborating is everyday business.Open communication with management and company leadership.Small, dynamic teams = massive impact.100% Remote Work (You choose where to work from).500USD a year for you to invest in learning.
+Simetrik considers qualified applicants for employment without regard to race, gender, age, color, religion, national origin, marital status, disability, sexual orientation, gender identity/expression, protected military/veteran status, or any other legally protected factor.
+I authorize Simetrik to be the data controller and, as such, it may collect, store and use for the purposes of my possible hiring, under the conditions described in this document. I also give my consent to Simetrik to treat my personal data information in accordance with the Personal Data Treatment Policy available at https://simetrik.com/, which was made known to me before collecting my personal data.
+Join a team of incredibly talented people that build things, are free to create, and love collaborating!</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>36bdacecb2dd</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325267378/</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2025-12-03T23:36:33+00:00</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Machine Learning Engineer - Ai Jobs y más</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>3</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>WinDifferent specializes in helping businesses achieve rapid and sustainable growth through our powerful proprietary marketing system. Our data-driven solutions generate positive engagement that leads to ready-to-close opportunities, massively expanding sales pipelines and enabling companies to scale faster than the competition.
+As one of WinDifferent's best success stories, BairesDev helps us to find the best talent worldwide and invites them to explore our continually growing job opportunities.
+Machine Learning and Data Science Specialist at WinDifferent
+We are looking for a Machine Learning and Data Science Specialist to serve as the owner of the ML algorithms powering SellDifferent’s campaign segmentation and targeting system. This role is central to the product’s success, managing a massive system with millions of data points and ensuring models directly impact business outcomes. You’ll optimize, supervise, and evolve ML pipelines, driving innovation and reliability in one of the most important components of the platform.
+What You’ll Do:
+- Optimize existing machine learning algorithms to improve accuracy and performance.- Propose, design, and implement new ML features that enhance product capabilities.- Supervise and monitor machine learning performance at scale.- Define ML requirements and collaborate with engineering and product teams to bring them to life.- Handle administrative and organizational duties related to ML initiatives.
+What We Are Looking For:
+- 5+ years of experience in Machine Learning, including at least 4 years building the end-to-end model development lifecycle (requirements definition, feature discovery, model training/registration, deployment, monitoring, and MLOps).- Proficiency in SQL and Python, with strong knowledge of data and ML frameworks.- Solid fundamentals in probability and statistics.- Business-minded approach with proven stakeholder management skills — able to define your own work based on conversations with senior leaders.- Product-oriented mindset: you design ML pipelines with direct business impact and thrive in ownership-heavy environments.- Familiarity with development best practices and navigating complex production codebases.- Postgraduate degree in Machine Learning or Data Science.
+Desirable Qualifications:
+- Experience with Databricks.- Experience implementing machine learning explainability pipelines.- Experience with orchestration tools such as Airflow.- Experience applying machine learning to marketing use cases.
+How we do make your work (and your life) easier:
+- 100% remote work.- Work-from-home hardware setup.- Flexible hours - make your schedule.- PTO, parental leave, and other special leaves.- English classes.- Personal loans with 0% interest, following the company's policies.- Udemy for Business (subject to manager's approval).- An excellent compensation package — well above the market average.- You can grow at the speed of your learning curve.- An innovation-driven, diverse, and multicultural work environment that provides the support and resources for its professionals to thrive.- The chance and resources to be a game-changer for one of America's fastest-growing companies.
+Join a global team where your unique AI talents can truly thrive and make a significant impact!
+Apply Now!</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>c62d13386797</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325319913/</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>2025-12-03T23:36:33+00:00</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>«tensorflow»: Machine Learning Engineer - Ai Jobs y más</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>1</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Te invitamos a formar parte del equipo regional de especialistas de tecnología y agilidad, con habilidades de abordar distintos desafíos en las iniciativas de innovación tecnológica, permitiéndonos responder a las necesidades en cada uno de nuestros clientes.En nuestra empresa puedes poner a prueba tus aptitudes y generar valor con una mentalidad de aprendizaje continuo.Estamos en constante contacto con nuevas tecnologías, múltiples proyectos eindustrias, acompañado de profesionales expertos, académicos y PhDs con una amplia experiencia en el mundo de TI y de negocio.En Practia Global 🔴 nos encontramos en la búsqueda de un Data Engineer en Perú.
+-Funciones:✅ Desplegar e integrar modelos de machine learning en la infraestructura de AWS.✅ Garantizar el mantenimiento y la mejora continua de los modelos analíticos, asegurando el cumplimiento de los lineamientos de la empresa.✅ Supervisar y optimizar los pipelines de datos en AWS, asegurando su correcto funcionamiento end-to-end, mejorando interfaces existentes e impulsando la generación de valor.
+-Requisitos:✅ Tecnico / Universitario Egresado Ingeniería de sistemas o informática.✅ De 03 años de experiencia en roles similares.✅ Conocimiento en AWS SageMaker.✅ Conocimiento en AWS S3/Glue/Athena/DynamoDB✅ Experiencia en Ciclo de vida de modelos ML✅ Experiencia en Desarrollo de pipeline de modelos.✅ Conocimiento en Terraform (deseable)
+-Te ofrecemos:🔆 Salario a convenir competitivo en el mercado.🔆 Estabilidad laboral.🔆 Plan de carrera.🔆 Somos una empresa con proyección de crecimiento a nivel LATAM.🔆 Flexibilidad Laboral y de vestimenta.</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>b2c966abf4b5</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325267389/</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2025-12-03T19:35:01+00:00</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Machine Learning Engineer - Ai Jobs y más</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>3</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>WinDifferent specializes in helping businesses achieve rapid and sustainable growth through our powerful proprietary marketing system. Our data-driven solutions generate positive engagement that leads to ready-to-close opportunities, massively expanding sales pipelines and enabling companies to scale faster than the competition.
+As one of WinDifferent's best success stories, BairesDev helps us to find the best talent worldwide and invites them to explore our continually growing job opportunities.
+Machine Learning and Data Science Specialist at WinDifferent
+We are looking for a Machine Learning and Data Science Specialist to serve as the owner of the ML algorithms powering SellDifferent’s campaign segmentation and targeting system. This role is central to the product’s success, managing a massive system with millions of data points and ensuring models directly impact business outcomes. You’ll optimize, supervise, and evolve ML pipelines, driving innovation and reliability in one of the most important components of the platform.
+What You’ll Do:
+- Optimize existing machine learning algorithms to improve accuracy and performance.- Propose, design, and implement new ML features that enhance product capabilities.- Supervise and monitor machine learning performance at scale.- Define ML requirements and collaborate with engineering and product teams to bring them to life.- Handle administrative and organizational duties related to ML initiatives.
+What We Are Looking For:
+- 5+ years of experience in Machine Learning, including at least 4 years building the end-to-end model development lifecycle (requirements definition, feature discovery, model training/registration, deployment, monitoring, and MLOps).- Proficiency in SQL and Python, with strong knowledge of data and ML frameworks.- Solid fundamentals in probability and statistics.- Business-minded approach with proven stakeholder management skills — able to define your own work based on conversations with senior leaders.- Product-oriented mindset: you design ML pipelines with direct business impact and thrive in ownership-heavy environments.- Familiarity with development best practices and navigating complex production codebases.- Postgraduate degree in Machine Learning or Data Science.
+Desirable Qualifications:
+- Experience with Databricks.- Experience implementing machine learning explainability pipelines.- Experience with orchestration tools such as Airflow.- Experience applying machine learning to marketing use cases.
+How we do make your work (and your life) easier:
+- 100% remote work.- Work-from-home hardware setup.- Flexible hours - make your schedule.- PTO, parental leave, and other special leaves.- English classes.- Personal loans with 0% interest, following the company's policies.- Udemy for Business (subject to manager's approval).- An excellent compensation package — well above the market average.- You can grow at the speed of your learning curve.- An innovation-driven, diverse, and multicultural work environment that provides the support and resources for its professionals to thrive.- The chance and resources to be a game-changer for one of America's fastest-growing companies.
+Join a global team where your unique AI talents can truly thrive and make a significant impact!
+Apply Now!</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>fd79b7d40aaa</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325264421/</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>2025-12-03T17:36:35+00:00</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>«pytorch»: AI Engineer - Simetrik y más</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>3</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>At BairesDev®, we've been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the world's Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, you're taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Senior AI Engineer at BairesDev
+We are looking for a Senior AI Engineer to join our innovative team and lead the development of impactful AI-driven solutions. This role will involve creating, deploying, and optimizing cutting-edge AI and machine learning models to solve complex problems and drive innovation.
+What You’ll Do:
+- Lead the design, development, and deployment of AI models and machine learning systems.- Collaborate with cross-functional teams to create scalable AI-driven solutions tailored to client needs.- Perform data analysis, preprocessing, feature engineering, and model optimization.- Research and implement the latest advancements in AI and machine learning to enhance solutions.- Mentor junior team members, conducting code reviews and fostering best practices.
+What we are looking for:
+- 4+ years of experience in AI, machine learning, or related fields.- Proficiency in Python and popular ML frameworks such as TensorFlow, PyTorch, or scikit-learn.- Strong experience in data preprocessing, model development, and optimization techniques.- Deep understanding of natural language processing (NLP) and related technologies (preferred).- Proven ability to design and implement scalable AI solutions.- Advanced analytical, problem-solving, and leadership skills.- Advanced English proficiency.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).- Excellent compensation in USD or your local currency if preferred- Hardware and software setup for you to work from home.- Flexible hours: create your own schedule.- Paid parental leaves, vacations, and national holidays.- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>c0f206c2f8ec</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4324978911/</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2025-12-03T01:35:01+00:00</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>«Computer vision»: AI Engineer - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>3</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>At BairesDev®, we've been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the world's Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, you're taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+AI Engineer at BairesDev
+As an AI Engineer, you'll contribute to developing and implementing artificial intelligence solutions that solve business challenges. You'll work with machine learning models, collaborate with data teams, and help deploy AI systems while continuously improving their performance and reliability.
+What You'll Do:
+- Develop and implement machine learning models and AI solutions.- Collaborate with teams to integrate AI capabilities into applications.- Process and prepare data for model training and evaluation.- Optimize model performance and conduct testing.- Participate in deploying AI solutions to production environments.- Document technical approaches and maintain AI systems.
+What we are looking for:
+- 3+ years of experience in AI/ML engineering or related roles.- Knowledge of machine learning frameworks and libraries.- Proficiency in Python or other programming languages for AI development.- Experience with data processing and model training pipelines.- Understanding of AI/ML concepts and algorithms.- Advanced level of English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).- Excellent compensation in USD or your local currency if preferred- Hardware and software setup for you to work from home.- Flexible hours: create your own schedule.- Paid parental leaves, vacations, and national holidays.- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>5a89d8271683</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4340736689/</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2025-12-03T01:35:01+00:00</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>«Computer vision»: AI Engineer - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>3</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Gramian Consultancy is a boutique consultancy specializing in IT professional services and engineering talent solutions. With a strong background in software engineering and leadership, we help companies build high-performing teams by matching them with professionals who truly fit their needs.
+Role Overview
+We are looking for Solution Engineers to partner directly with customers and lead the end-to-end delivery of high-impact technical solutions. Successful candidates will need to be able to work with customer teams, translating real-world challenges into production-ready systems that leverage Generative AI, Computer Vision, and Machine Learning. This role is a blend of software engineering, ML engineering, architecture, and consulting. Engineers will design and deploy solutions, integrate models, build custom workflows, and guide customers through successful implementation.
+Commitments Required: 8 hours per day with an overlap of 4 hours with PST. 
+Employment type: Contractor assignment (no medical/paid leave); 100% REMOTE
+Duration of contract: 5+ months with the possibility of transitioning into a full-time role upon successful delivery.
+Locations: LATAM
+Interview: Technical Assessment, Technical Interview, Cultural Interview
+Responsibilities
+You will lead the backend and AI components of a new, HIPAA-compliant clinical intelligence platform in the urology domain. The product ingests data from Electronic Health Records, performs advanced semantic search over structured and unstructured clinical content, and supports workflow automation for medical teams. This is a greenfield build, offering the rare chance to architect foundational systems from scratch alongside the founder.
+Engage directly with enterprise and strategic customers to understand their workflows, data, and technical requirementsArchitect, build, and deploy custom solutions leveraging GenAI, LLMs, Machine Learning and Vision models, and customer data sourcesLead full project lifecycles: scoping, solution design, development, implementation, testing, deployment, and iterationIntegrate and optimize AI/ML pipelines, including data preprocessing, prompt engineering, model selection, and evaluationBuild reliable, scalable software integrations using APIs, cloud services, and containerized systemsTroubleshoot complex technical issues across the stack—applications, models, data pipelines, infrastructure, and integrationsAct as the customer's trusted technical advisor, enabling adoption of new product capabilities and AI featuresPartner closely with internal product and engineering teams to communicate customer feedback and shape roadmap directionProduce high-quality documentation, architecture diagrams, runbooks, and technical assets for customer teamsMentor junior engineers and contribute to internal best practices for FDE delivery
+Requirements
+5-10+ years in engineering roles such as Forward Deployed Engineer, ML Engineer, Software Engineer, Solutions Engineer, Technical Consultant, or similarStrong proficiency in Python, JavaScript/TypeScript, Go, or similar production-oriented languagesHands-on experience with Machine Learning, including training, fine-tuning, evaluating, or deploying modelsDirect experience with Generative AI (LLMs, multimodal models, vector databased, or RAG) and applying them to real-world problemsExposure to Computer Vision techniques (detection, segmentation, OCR, embeddings, multimodal pipelines)Strong knowledge of ML frameworks (PyTorch, TensorFlow, OpenCV, etc.)Experience with cloud infrastructure (AWS, GCP, Azure) and containerization (Docker, Kubernetes)Excellent communication skills with both technical and non-technical audiencesComfort leading customer-facing engagements and guiding stakeholders through ambiguityWillingness and ability to travel frequentlyPrior experience in consulting, technical solutions, professional services, or customer-embedded technical rolesExperience with vector databases, embedding pipelines, or retrieval-augmented generation (RAG)Experience building APIs, microservices, or distributed systemsFamiliarity with MLOps tools (Docker, Kubernetes, model registries, CI/CD for ML)Background in deploying or fine-tuning CV models (YOLO, SAM, CLIP, DETR, etc.)Experience in startup or high-growth environments</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>d52ce431d44f</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325097202/</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2025-12-03T01:35:01+00:00</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>«Computer vision»: AI Engineer - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>3</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Científico de Datos Senior en BairesDev
+Estamos buscando un destacado Científico de Datos Senior para unirse al Equipo de Investigación y Desarrollo (I+D) de BairesDev. Este profesional utilizará datos y técnicas de aprendizaje automático para ayudar al negocio a automatizar y escalar la toma de decisiones, principalmente mediante la producción de informes avanzados de análisis de datos y modelos basados en datos para inferir y predecir patrones.
+Actividades Principales:
+- Ayudar a mejorar el conocimiento de los datos y el entorno analítico general en toda la empresa.- Manejar datos estructurados y no estructurados utilizando SQL y otros lenguajes de programación.- Realizar análisis avanzados de datos e informar de los resultados.- Contar la historia detrás de los datos de una manera convincente para la gente de negocios.- Crear modelos predictivos y algoritmos de aprendizaje automático.- Combinar modelos mediante el modelado de conjuntos.- Proponer soluciones y estrategias para los retos empresariales.- Ayudar a diseñar y ejecutar experimentos para la comprobación de hipótesis.- Participar activamente en las discusiones y decisiones relativas a todo el capítulo de Data Science / Data Engineer.- Colaborar con los gestores de productos de datos para crear productos de datos impresionantes.- Trabajar con la dirección para priorizar las necesidades de negocio y de información.- Ayudar a difundir una mentalidad basada en los datos y a mejorar la alfabetización de datos. Ser un evangelizador de los datos.
+¿Qué Buscamos?:
+- 3+ años de experiencia en Data Science / Data Engineer, aprendizaje automático, IA, estadística y otras áreas relacionadas.- Dominio de SQL.- Dominio de Python, R u otro lenguaje de programación importante.- Excelentes habilidades de comunicación y capacidad para colaborar y establecer relaciones con usuarios no técnicos.- Sólidos conocimientos de probabilidad y estadística, incluido el diseño experimental, el modelado predictivo, la optimización y la inferencia causal.- Experiencia práctica con el aprendizaje automático, como la clasificación por regresión, la agrupación, las redes neuronales, la selección de características, la validación cruzada, la maldición de la dimensionalidad, el equilibrio entre sesgo y varianza, la explicabilidad del modelo, la PNL, etc.
+Deseable:
+- Experiencia en análisis o crecimiento de personas.- Experiencia con herramientas de visualización de datos.- Buena comprensión de los retos de ingeniería para el despliegue de sistemas de aprendizaje automático a la producción.
+Qué ofrecemos para que tu trabajo (y tu vida) seja mais fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.- Hardware y software.- Horarios flexibles- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>72c94182229a</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325098708/</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>2025-12-03T01:35:01+00:00</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>«Computer vision»: AI Engineer - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>3</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>WE ARE
+SoftServe is a global digital solutions company, headquartered in Austin, Texas, and founded in 1993. With 2,000+ active projects across the USA, Europe, APAC, and LATAM, we deliver meaningful outcomes through bold thinking and deep expertise. Our people create impactful solutions, drive innovation, and genuinely enjoy what they do.
+The AI and Data Science Center of Excellence (CoE) is SoftServe’s premier AI/ML hub, primarily based in Europe. With 130+ experts, including data scientists, research analysts, MLOps engineers, ML and LLM architects, we cover the full AI lifecycle, from problem framing to deployment.
+In 2024, we delivered 150+ AI projects, including over 100 focused on Generative AI, combining scale with measurable impact. We are a 2024 NVIDIA Service Delivery Partner and maintain strong collaborations 8with Google Cloud, Amazon, and Microsoft, ensuring our teams always work with cutting-edge tools and technologies.
+We also lead Gen AI Lab, our internal innovation engine focused on applied research and cross-functional collaboration in Generative AI. In 2025, a key area of innovation is Agentic AI, where we design and deploy autonomous, collaborative agent systems capable of addressing complex, real-world challenges at scale for our clients and internally.
+IF YOU ARE
+Qualified with a Ph.D. or master’s degree in Computer Science or a related fieldExperienced (3+ years) in building and deploying real-world applications with C#, Java, or NodeJSSkilled in developing, packaging, and integrating ML services into real applicationsProficient in the AI project lifecycle, from development to operationalization and cloud deployment with cloud-based AI/ML services (AWS, GCP, or Azure)Strong in working with GenAI tools, prompt design, and generative workflowsInterested in autonomous AI systems, and familiar with decision-making algorithms, planning frameworks, or agentic tools like LangGraph, CrewAI, or similarFamiliar with CI/CD/CT practices for machine learning systemsPossessing strong interpersonal, analytical, and problem-solving skillsFluent in English at an upper-intermediate level or aboveSkilled in Python for automation and data processing and the core data science and machine learning ecosystem (preferable)Knowledgeable in workflow orchestration tools such as Kubeflow, Airflow, or similar (as a perk)Working with LLMs (Claude, GPT, and others) and code generation tools like Cloude, WindSurf, GitHub CoPilot (as a win)Skilled in developing, packaging, and integrating applications in end-to-end cycle of development (nice to have)Experienced with vector DBs (as an advantage)
+AND YOU WANT TO
+Build LLMOps pipelines to enable model observability, reproducibility, and prompt versioningDevelop and manage AI-driven workflows (agentic pipelines) for code generation, using agents to produce functional code artifacts aligned with business and technical requirementsWork on cutting-edge ML applications involving NLP, RAG systems, and multi-modal models (text and image)Take part in productionizing large language models (LLMs) and other advanced AI modelsCollaborate closely with clients to understand use cases, gather requirements, and translate them into production-ready ML solutionsAct as the human-in-the-loop to ensure outputs meet quality, compliance, and contextual standardsHelp scale the team's discovery process by capturing reusable prompt patterns, templates, and playbooks
+TOGETHER WE WILL
+Be part of a team that's shaping the future of AI and data science through innovation and shared growthAdvance the frontier of Agentic AI by shaping intelligent multi-agent ecosystems that drive autonomy, scalability, and measurable business valueHave access to world-class training, cutting-edge research, and collaborate with top industry partnersMaintain a synergy of Data Scientists, DevOps team, and ML Engineers to build infrastructure, set up processes, productize machine learning pipelines, and integrate them into existing business environmentsCommunicate with the world-leading companies from our logos portfolioEnjoy the opportunity to work with the latest modern tools and technologies on various projectsParticipate in international events and get certifications in cutting-edge technologiesHave access to powerful educational and mentorship programsRevolutionize the software industry and drive innovation in adaptive self-learning technologies by leveraging multidisciplinary expertise
+SoftServe is an Equal Opportunity Employer. All qualified applicants will receive consideration for employment regardless of race, color, religion, age, sex, nationality, disability, sexual orientation, gender identity and expression, veteran status, and other protected characteristics under applicable law. Let’s put your talents and experience in motion with SoftServe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>df9f4ae0a3df</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325087276/</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>2025-12-03T01:35:01+00:00</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>«Computer vision»: AI Engineer - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>3</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>At BairesDev®, we've been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.
+Our diverse 4,000+ team, composed of the world's Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.
+When you apply for this position, you're taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.
+Artificial Intelligence + Python Engineer at BairesDev
+We are seeking an Artificial Intelligence + Python Engineer to develop and deploy intelligent systems and machine learning solutions. You'll combine strong Python programming skills with AI expertise to build innovative applications that solve complex problems. This role offers the opportunity to work on cutting-edge AI projects while delivering scalable, production-ready solutions.
+What You'll Do:
+- Design and develop AI models and machine learning solutions using Python.- Build and train deep learning models using TensorFlow or PyTorch.- Implement AI algorithms for various applications and use cases.- Optimize model performance and ensure scalability in production environments.- Collaborate with data scientists and engineers to deploy AI solutions.- Stay current with emerging AI technologies and best practices.
+What we are looking for:
+- 3+ years of Python development experience with focus on AI/ML.- Strong knowledge of machine learning algorithms and frameworks.- Experience with TensorFlow, PyTorch, or similar deep learning frameworks.- Understanding of AI model development lifecycle.- Knowledge of data preprocessing and feature engineering.- Experience deploying AI models to production.- Advanced level of English.
+How we do make your work (and your life) easier:
+- 100% remote work (from anywhere).- Excellent compensation in USD or your local currency if preferred- Hardware and software setup for you to work from home.- Flexible hours: create your own schedule.- Paid parental leaves, vacations, and national holidays.- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.
+Apply now and become part of a global team where your unique talents can truly thrive!</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>c077abe9a2c3</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325214884/</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>2025-12-03T01:35:01+00:00</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>«Computer vision»: AI Engineer - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>3</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Científico de Datos Senior en BairesDev
+Estamos buscando un destacado Científico de Datos Senior para unirse al Equipo de Investigación y Desarrollo (I+D) de BairesDev. Este profesional utilizará datos y técnicas de aprendizaje automático para ayudar al negocio a automatizar y escalar la toma de decisiones, principalmente mediante la producción de informes avanzados de análisis de datos y modelos basados en datos para inferir y predecir patrones.
+Actividades Principales:
+- Ayudar a mejorar el conocimiento de los datos y el entorno analítico general en toda la empresa.- Manejar datos estructurados y no estructurados utilizando SQL y otros lenguajes de programación.- Realizar análisis avanzados de datos e informar de los resultados.- Contar la historia detrás de los datos de una manera convincente para la gente de negocios.- Crear modelos predictivos y algoritmos de aprendizaje automático.- Combinar modelos mediante el modelado de conjuntos.- Proponer soluciones y estrategias para los retos empresariales.- Ayudar a diseñar y ejecutar experimentos para la comprobación de hipótesis.- Participar activamente en las discusiones y decisiones relativas a todo el capítulo de Data Science / Data Engineer.- Colaborar con los gestores de productos de datos para crear productos de datos impresionantes.- Trabajar con la dirección para priorizar las necesidades de negocio y de información.- Ayudar a difundir una mentalidad basada en los datos y a mejorar la alfabetización de datos. Ser un evangelizador de los datos.
+¿Qué Buscamos?:
+- 3+ años de experiencia en Data Science / Data Engineer, aprendizaje automático, IA, estadística y otras áreas relacionadas.- Dominio de SQL.- Dominio de Python, R u otro lenguaje de programación importante.- Excelentes habilidades de comunicación y capacidad para colaborar y establecer relaciones con usuarios no técnicos.- Sólidos conocimientos de probabilidad y estadística, incluido el diseño experimental, el modelado predictivo, la optimización y la inferencia causal.- Experiencia práctica con el aprendizaje automático, como la clasificación por regresión, la agrupación, las redes neuronales, la selección de características, la validación cruzada, la maldición de la dimensionalidad, el equilibrio entre sesgo y varianza, la explicabilidad del modelo, la PNL, etc.
+Deseable:
+- Experiencia en análisis o crecimiento de personas.- Experiencia con herramientas de visualización de datos.- Buena comprensión de los retos de ingeniería para el despliegue de sistemas de aprendizaje automático a la producción.
+Qué ofrecemos para que tu trabajo (y tu vida) seja mais fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.- Hardware y software.- Horarios flexibles- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>377da381b117</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4324949099/</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>2025-12-02T23:35:03+00:00</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>«pytorch»: Científico de Datos para Agentes (Colombia) - Echez Group y más</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>1</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>This is a remote position.Científico de Datos para Agentes (Colombia) 
+ Descripción del Puesto  
+En Echez, empoderamos a nuestros clientes para triunfar en el mundo digital mediante la gestión de sistemas comerciales, protección de marca, análisis de mercado, inteligencia de mercado y generación de demanda, con el objetivo de desarrollar su negocio digital. 
+Tu función principal es liderar todo el ciclo de vida de los agentes de IA: desde el diseño y la preparación de datos hasta el despliegue, monitoreo y mejora continua. 
+Requirements
+ Requisitos
+  Para postularte, debes estar ubicado en cualquier parte de Colombia y contar con un título profesional en ingeniería industrial, matemáticas, estadística,ingeniería de sistemas o áreas afines. Debes tener experiencia de al menos 5 años trabajando en proyectos de tecnología y roles que requiera Inteligencia Artificial o Machine Learning, gestión de datos y análisis estadístico de información. 
+Es importante contar con: 
+  Frameworks de orquestación de agentes de IA  – AnythingLLM, LangChain, AutoGen/CrewAI, n8n; ingeniería de prompts, abstracción de herramientas, patrones de Recuperación Aumentada por Generación (RAG). 
+  Fundamentos de Aprendizaje Automático  – aprendizaje automático clásico, aprendizaje profundo, ajuste fino de transformadores, modelos de embeddings, métricas de evaluación. 
+  Ingeniería de software en Python  – arquitectura limpia, tipado, REST, pytest, FastAPI, I/O asíncrono, API REST y gRPC. 
+  Pipelines de ingeniería de datos –  modelado de datos relacional, ETL por lotes. Airflow/Prefect, procesamiento en streaming, Kafka. 
+  Operaciones y versionado de ML –  Git, Docker, DVC. MLflow, CI/CD, Kubernetes, registro de modelos, seguimiento de experimentos. 
+  Conocimiento de IaaS  como Azure, AWS o GCP. 
+  Excel Intermedio  
+  Dominio del inglés intermedio a avanzado  . (B2 conversacional – C1) 
+  Cloud y DevOps –  despliegue en Azure ML y servicios sin servidor o basados en contenedores; infraestructura como código (Terraform/ARM) y monitoreo básico. 
+  Bases de datos vectoriales y búsqueda semántica –  conocimiento práctico de un almacén vectorial moderno (Pinecone, pgvector, Milvus) y capacidad para ajustar índices. 
+Benefits
+Te ofrecemos: 
+· Contrato indefinido 
+· Salario fijo y variable 
+· Teletrabajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>f2f429a94afd</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4340366580/</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>2025-12-02T23:35:03+00:00</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>«pytorch»: Científico de Datos para Agentes (Colombia) - Echez Group y más</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>¡Haz parte de la transformación #AnaliticaDatos #CientificoDatos!Únete a nuestro equipo, trabaja en los proyectos tecnológicos más impactantes y con las empresas más grandes del mundo.
+Queremos que hagas parte de la #FamiliaCeiba en el rol de Científico de Datos.Buscamos a una persona apasionada con recorrido en el mundo de analítica de datos que desee asumir el reto de aplicar métodos estadísticos avanzados e inteligencia artificial para construir soluciones basadas en datos que permita a la empresa y clientes tomar mejores decisiones basados en datos históricos y predicciones.Si te encanta encontrar patrones en los datos y transformar hallazgos en soluciones de negocio, ¡este reto es para ti!
+Responsabilidades:Entendimiento del Negocio y Datos: Traducir los retos de negocio del cliente en preguntas y experimentos de ciencia de datos. Realizar análisis exploratorios profundos para entender la estructura y calidad de los datos.  Desarrollo de Modelos (ML/IA): Diseñar, entrenar, validar y optimizar modelos de Machine Learning utilizando las mejores prácticas, herramientas, frameworks y metodologías.
+Experimentación e Innovación: Investigar y aplicar nuevas técnicas, algoritmos y herramientas de IA para resolver problemas de negocio de formas novedosas. 
+Validación y Comunicación: Definir métricas de éxito y realizar validaciones estadísticas rigurosas de los modelos. Comunicar los resultados, supuestos y limitaciones de los modelos a stakeholders técnicos y no técnicos. Colaboración (MLOps): Trabajar de cerca con los Ingenieros ML para asegurar que los modelos desarrollados sean reproducibles, eficientes y desplegables en entornos productivos.  Nos interesa que tengas:
+Experiencia en manejo en análisis exploratorio, prospección de diversas fuentes de información (datos estructurados y no estructurados) y problemas de calidad de datos.Experiencia en manejo de técnicas tradicionales y avanzadas en modelamiento estadístico y machine learning.Experiencia en Python.Experiencia en crear aplicaciones a partir de LLMs y framework/arquitectura RAG.Experiencia en desarrollo de soluciones en nube (Azure Machine Learning, Azure OpenAI, Amazon SageMaker,Amazon Bedrock, Vertex AI)Conocimientos básicos en SQL para extracción y manipulación de datos.Conocimientos en marcos de trabajo ágil/CRISP-DMNivel mínimo de educación: Universitario en Estadística, Matemáticas, Física, Ingeniería de Sistemas o áreas con fuerte componente estadístico.Sería un plus si cuentas con: Dominio de inglés conversacional B2+**Aplica sólo en Colombia. Si vive en Medellín mejor aún. Pero puede ser remoto.</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>64f2c8e79b04</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4324948895/</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>2025-12-02T23:35:03+00:00</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>«pytorch»: Científico de Datos para Agentes (Colombia) - Echez Group y más</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>3</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Científico de Datos en BairesDev
+Como Científico de Datos en BairesDev, utilizarás técnicas de análisis de datos y machine learning para resolver problemas empresariales complejos. Transformarás datos sin procesar en insights significativos, desarrollarás e implementarás modelos predictivos, y colaborarás con equipos multifuncionales para implementar soluciones basadas en datos que generen valor comercial e impulsen la toma de decisiones estratégicas.
+Qué harás:
+- Analizar conjuntos de datos complejos para identificar patrones, tendencias e insights que aborden desafíos empresariales.- Desarrollar e implementar modelos de machine learning para resolver problemas empresariales específicos.- Colaborar con stakeholders para entender requisitos y traducirlos en soluciones de ciencia de datos.- Crear visualizaciones de datos e informes para comunicar eficazmente hallazgos a audiencias técnicas y no técnicas.- Optimizar modelos existentes y pipelines de datos para mejorar el rendimiento y la precisión.- Mantenerte actualizado con los últimos avances en ciencia de datos, machine learning y tecnologías de IA.
+Qué buscamos:
+- 3+ años de experiencia aplicando técnicas de ciencia de datos a problemas del mundo real.- Experiencia con lenguajes de programación comúnmente utilizados en ciencia de datos (Python, R, etc.).- Conocimiento de algoritmos de machine learning y análisis estadístico.- Familiaridad con herramientas y técnicas de visualización de datos.- Experiencia con SQL y consultas de bases de datos.- Capacidad para traducir conceptos técnicos complejos a stakeholders no técnicos.- Nivel avanzado de inglés.
+Qué ofrecemos para que tu trabajo (y tu vida) seja mais fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.- Hardware y software.- Horarios flexibles- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>e4ad3f05535e</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4314301536/</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>2025-12-02T23:35:03+00:00</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>«pytorch»: Científico de Datos para Agentes (Colombia) - Echez Group y más</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>1</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Job Description
+Senior AI Developer 
+Location: Mexico (REMOTE)
+About the Role:
+Are you early in your career and passionate about artificial intelligence, machine learning, and building impactful real-world applications? Join the Oracle Applications Labs (OAL) team as a Senior AI/ML Developer, where you’ll work alongside experienced engineers to design, build, and deploy cutting-edge AI solutions across Oracle’s enterprise applications.
+This is a growth-oriented role designed to give you practical experience in AI/ML development, hands-on exposure to production systems, and an opportunity to contribute to solutions that matter — all while learning from a supportive and collaborative team.
+What You’ll Do:
+Build and Contribute to AI-Powered Applications
+Help design and develop features in AI-driven applications, primarily using Python or similar languages.Collaborate with cross-functional teams to deliver scalable and reliable solutions.
+Work with Data
+Support data preparation efforts, including feature selection, basic ETL processes, and data quality checks.Assist in analyzing datasets for training and evaluating machine learning models.
+Learn and Grow in MLOps &amp; LLMs
+Get hands-on experience with tools and practices in MLOps: model deployment, monitoring, and versioning.Explore foundational concepts in large language models (LLMs), including prompting techniques and task automation.Learn to implement basic agentic workflows using tools like LangGraph or similar frameworks.
+Experiment and Evaluate
+Run model experiments under guidance, using metrics to measure performance and reliability.Begin learning how to debug and improve AI systems through iterative testing.
+Understand Responsible AI
+Develop awareness of AI ethics, privacy, fairness, and secure coding practices in real-world AI development.
+Contribute to Oracle Fusion and Conversational UX
+Support the integration of AI features into Oracle business applications.Participate in designing intuitive, user-centric conversational interfaces.
+Who You Are:
+A degree (or equivalent experience) in Computer Science, Engineering, Mathematics, Physics, Statistics, or a related field.Familiar with at least one programming language — Python preferred.Basic understanding of software engineering principles, data structures, and algorithms.Interest or introductory experience in AI/ML through coursework, self-study, personal projects, or internships.Curious, motivated to learn, and eager to contribute to meaningful projects.Comfortable working in a team environment, with strong communication and organization skills.
+Preferred Qualifications:
+2+ years’ experience with ML tools or libraries (e.g., Scikit-learn, TensorFlow, PyTorch).Participation in AI/ML hackathons, open-source contributions, or passion projects.Exposure to cloud platforms like Oracle Cloud, AWS, GCP, or Azure.Understanding of tech ethics, data privacy, or basic security principles.
+Why Join Us?
+Start your AI career with real impact — your code and ideas will contribute to solutions used by businesses worldwide.Learn from experts — work closely with experienced engineers, data scientists, and product teams.Grow your skills — we’ll support your development in AI/ML, MLOps, cloud technologies, and more.Work on diverse projects — from conversational interfaces to enterprise-scale integrations.Be yourself — we value diversity, inclusion, and creating a safe space for all team members to grow and thrive.
+Your Growth Path Could Include:
+Advancing your Python and data engineering skills.Moving into LLM engineering, platform/MLOps, or applied AI science.Gaining certifications or deeper knowledge in cloud, AI ethics, or enterprise systems.Taking on increased responsibility as a mid-level or senior AI engineer.
+Qualifications
+Career Level - IC3
+About Us
+As a world leader in cloud solutions, Oracle uses tomorrow’s technology to tackle today’s challenges. We’ve partnered with industry-leaders in almost every sector—and continue to thrive after 40+ years of change by operating with integrity.
+We know that true innovation starts when everyone is empowered to contribute. That’s why we’re committed to growing an inclusive workforce that promotes opportunities for all.
+Oracle careers open the door to global opportunities where work-life balance flourishes. We offer competitive benefits based on parity and consistency and support our people with flexible medical, life insurance, and retirement options. We also encourage employees to give back to their communities through our volunteer programs.
+We’re committed to including people with disabilities at all stages of the employment process. If you require accessibility assistance or accommodation for a disability at any point, let us know by emailing accommodation-request_mb@oracle.com or by calling +1 888 404 2494 in the United States.
+Oracle is an Equal Employment Opportunity Employer. All qualified applicants will receive consideration for employment without regard to race, color, religion, sex, national origin, sexual orientation, gender identity, disability and protected veterans’ status, or any other characteristic protected by law. Oracle will consider for employment qualified applicants with arrest and conviction records pursuant to applicable law.</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>c309eabcd667</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4324550720/</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>2025-12-02T21:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>«tensorflow»: AI Engineer - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>3</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Alpha Anywhere delivers a proven 2-Hour Learning model: students complete their core academic work in two concentrated hours, then spend afternoons producing podcasts, creating art, or training for athletics. As Lead Data Scientist, you will maintain and advance the AI infrastructure that powers this system.
+Operating remotely from anywhere with reliable internet, you will convert large volumes of AI-generated academic metrics into precise, actionable interventions that drive each learner toward 90% mastery and higher. When learners encounter obstacles, you will join live coaching sessions to identify and resolve issues in real time, restoring momentum and confidence. In parallel, you will analyze deep student performance datasets to identify emerging patterns that reveal untapped potential, then architect next-generation AI solutions capable of accelerating learning velocity.
+Families see rising self-efficacy, learners achieve 2× speed gains, and you witness the measurable outcomes of every analysis you perform, every automated workflow you build, and every inquiry you pursue. If you are ready to convert data into accelerant for young learners, read on.
+What You Will Be Doing
+Producing high-precision Academic Data Reports and executing systematic reviews to detect issues, identify outliers, and initiate corrective actions within 48 hoursFacilitating urgent intervention calls and delivering post-assessment coaching to clear obstacles, distinguish knowledge deficits from execution errors, and sustain learner motivationAssessing and integrating emerging educational applications and content while prototyping AI and LLM solutions to advance learning methodologies and address targeted challengesCollaborating with leadership to refine dashboards, analytical tools, and mastery benchmarks as the AI tutor platform advances
+What You Won’t Be Doing
+Attending marathon meetings or producing generic presentations disconnected from tangible resultsScoring assignments, drafting curricula, or administering conventional educational programs—AI and innovation are the core driversWorking in abstract strategy without execution or remaining confined to repetitive tasks—this position demands hands-on engagement and agility
+Lead Data Scientist Key Responsibilities
+Accelerate student learning outcomes via AI-powered analysis and real-time academic intelligence, evidenced by improved indicators including 2× learning velocity, application engagement, lesson mastery, answer precision, and diminished negative learning behaviors throughout the Alpha Anywhere network.
+Basic Requirements
+Proven experience in data science or comparable position, education, EdTech, or student-support capacity combining analytical rigor with interpersonal capabilitySkilled use of Google Sheets for data analysis (lookups, pivot tables, filtering)Strong emotional intelligence, effective communication abilities, and a coaching approach suitable for childrenTrack record building workflows and automations leveraging AI
+Nice-to-have Requirements
+Foundation in learning science, pedagogical theory, or documented success enhancing outcomes via data-informed methodsFamiliarity with Generative AI, prompt engineering, and introductory coding proficiency (Python, JavaScript, etc.) for interacting with AI APIs
+About 2 Hour Learning
+Education is broken, but 2 Hour Learning is proving it doesn’t have to be. They’re tearing down the outdated one-size-fits-all model and replacing it with AI-driven personalized learning that helps kids master academics in just two hours a day.
+With students consistently ranking in the top 1-2% nationally and the top 20% achieving an astonishing 6.5x growth, they’re proving that smarter learning is possible. At 2 Hour Learning, it’s talent and performance that matter. 
+They offer a dynamic, on-campus and remote-friendly environment where innovators, educators, and AI specialists can be a part of fixing a broken school system.
+2 Hour Learning is reprogramming learning for the AI era.
+Here’s How They’re Fixing It.
+There is so much to cover for this exciting role, and space here is limited. Hit the Apply button if you found this interesting and want to learn more. We look forward to meeting you!
+Working with us
+This is a full-time (40 hours per week), long-term position. The position is immediately available and requires entering into an independent contractor agreement with Crossover as a Contractor of Record. The compensation level for this role is $30 USD/hour, which equates to $60,000 USD/year assuming 40 hours per week and 50 weeks per year. The payment period is weekly. Consult www.crossover.com/help-and-faqs for more details on this topic.
+Crossover Job Code: LJ-5238-MX-COUNTRY-LeadDataScient.001</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>6ea677323478</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4314306517/</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>2025-12-02T21:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>«tensorflow»: AI Engineer - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>3</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Job Description
+Senior AI Developer 
+Location: Mexico (REMOTE)
+About the Role:
+Are you early in your career and passionate about artificial intelligence, machine learning, and building impactful real-world applications? Join the Oracle Applications Labs (OAL) team as a Senior AI/ML Developer, where you’ll work alongside experienced engineers to design, build, and deploy cutting-edge AI solutions across Oracle’s enterprise applications.
+This is a growth-oriented role designed to give you practical experience in AI/ML development, hands-on exposure to production systems, and an opportunity to contribute to solutions that matter — all while learning from a supportive and collaborative team.
+What You’ll Do:
+Build and Contribute to AI-Powered Applications
+Help design and develop features in AI-driven applications, primarily using Python or similar languages.Collaborate with cross-functional teams to deliver scalable and reliable solutions.
+Work with Data
+Support data preparation efforts, including feature selection, basic ETL processes, and data quality checks.Assist in analyzing datasets for training and evaluating machine learning models.
+Learn and Grow in MLOps &amp; LLMs
+Get hands-on experience with tools and practices in MLOps: model deployment, monitoring, and versioning.Explore foundational concepts in large language models (LLMs), including prompting techniques and task automation.Learn to implement basic agentic workflows using tools like LangGraph or similar frameworks.
+Experiment and Evaluate
+Run model experiments under guidance, using metrics to measure performance and reliability.Begin learning how to debug and improve AI systems through iterative testing.
+Understand Responsible AI
+Develop awareness of AI ethics, privacy, fairness, and secure coding practices in real-world AI development.
+Contribute to Oracle Fusion and Conversational UX
+Support the integration of AI features into Oracle business applications.Participate in designing intuitive, user-centric conversational interfaces.
+Who You Are:
+A degree (or equivalent experience) in Computer Science, Engineering, Mathematics, Physics, Statistics, or a related field.Familiar with at least one programming language — Python preferred.Basic understanding of software engineering principles, data structures, and algorithms.Interest or introductory experience in AI/ML through coursework, self-study, personal projects, or internships.Curious, motivated to learn, and eager to contribute to meaningful projects.Comfortable working in a team environment, with strong communication and organization skills.
+Preferred Qualifications:
+2+ years’ experience with ML tools or libraries (e.g., Scikit-learn, TensorFlow, PyTorch).Participation in AI/ML hackathons, open-source contributions, or passion projects.Exposure to cloud platforms like Oracle Cloud, AWS, GCP, or Azure.Understanding of tech ethics, data privacy, or basic security principles.
+Why Join Us?
+Start your AI career with real impact — your code and ideas will contribute to solutions used by businesses worldwide.Learn from experts — work closely with experienced engineers, data scientists, and product teams.Grow your skills — we’ll support your development in AI/ML, MLOps, cloud technologies, and more.Work on diverse projects — from conversational interfaces to enterprise-scale integrations.Be yourself — we value diversity, inclusion, and creating a safe space for all team members to grow and thrive.
+Your Growth Path Could Include:
+Advancing your Python and data engineering skills.Moving into LLM engineering, platform/MLOps, or applied AI science.Gaining certifications or deeper knowledge in cloud, AI ethics, or enterprise systems.Taking on increased responsibility as a mid-level or senior AI engineer.
+Qualifications
+Career Level - IC3
+About Us
+As a world leader in cloud solutions, Oracle uses tomorrow’s technology to tackle today’s challenges. We’ve partnered with industry-leaders in almost every sector—and continue to thrive after 40+ years of change by operating with integrity.
+We know that true innovation starts when everyone is empowered to contribute. That’s why we’re committed to growing an inclusive workforce that promotes opportunities for all.
+Oracle careers open the door to global opportunities where work-life balance flourishes. We offer competitive benefits based on parity and consistency and support our people with flexible medical, life insurance, and retirement options. We also encourage employees to give back to their communities through our volunteer programs.
+We’re committed to including people with disabilities at all stages of the employment process. If you require accessibility assistance or accommodation for a disability at any point, let us know by emailing accommodation-request_mb@oracle.com or by calling +1 888 404 2494 in the United States.
+Oracle is an Equal Employment Opportunity Employer. All qualified applicants will receive consideration for employment without regard to race, color, religion, sex, national origin, sexual orientation, gender identity, disability and protected veterans’ status, or any other characteristic protected by law. Oracle will consider for employment qualified applicants with arrest and conviction records pursuant to applicable law.</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>bd806fc15583</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325186947/</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>2025-12-02T21:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>«tensorflow»: AI Engineer - Remote Work - BairesDev y más</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>5</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.
+Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.
+Científico de Datos en BairesDev
+Como Científico de Datos en BairesDev, utilizarás técnicas de análisis de datos y machine learning para resolver problemas empresariales complejos. Transformarás datos sin procesar en insights significativos, desarrollarás e implementarás modelos predictivos, y colaborarás con equipos multifuncionales para implementar soluciones basadas en datos que generen valor comercial e impulsen la toma de decisiones estratégicas.
+Qué harás:
+- Analizar conjuntos de datos complejos para identificar patrones, tendencias e insights que aborden desafíos empresariales.- Desarrollar e implementar modelos de machine learning para resolver problemas empresariales específicos.- Colaborar con stakeholders para entender requisitos y traducirlos en soluciones de ciencia de datos.- Crear visualizaciones de datos e informes para comunicar eficazmente hallazgos a audiencias técnicas y no técnicas.- Optimizar modelos existentes y pipelines de datos para mejorar el rendimiento y la precisión.- Mantenerte actualizado con los últimos avances en ciencia de datos, machine learning y tecnologías de IA.
+Qué buscamos:
+- 3+ años de experiencia aplicando técnicas de ciencia de datos a problemas del mundo real.- Experiencia con lenguajes de programación comúnmente utilizados en ciencia de datos (Python, R, etc.).- Conocimiento de algoritmos de machine learning y análisis estadístico.- Familiaridad con herramientas y técnicas de visualización de datos.- Experiencia con SQL y consultas de bases de datos.- Capacidad para traducir conceptos técnicos complejos a stakeholders no técnicos.- Nivel avanzado de inglés.
+Qué ofrecemos para que tu trabajo (y tu vida) seja mais fácil:
+- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.- Hardware y software.- Horarios flexibles- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.
+¡Únete a nuestro equipo global!</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>d0917dc73e93</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4313888009/</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>2025-12-02T19:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>«LLM»: Científico de Datos para Agentes (Colombia) - Echez Group y más</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>3</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Job Description
+Principal AI Developer 
+Location: Mexico (REMOTE)
+About the Role:
+We’re looking for highly experienced AI Developers to join our team and help shape the future of AI at Oracle. In this role, you’ll lead the design and development of advanced AI applications, particularly those powered by large language models (LLMs) and help integrate them across Oracle’s Fusion ecosystem. You’ll work on cutting-edge problems, set engineering best practices, and collaborate with cross-functional teams to deliver secure, scalable, and responsible AI solutions.
+We encourage applicants from all backgrounds and experiences to apply — if you’re passionate about AI and meet most of the qualifications, we want to hear from you.
+What You’ll Do:
+LLM Application Engineering
+Architect and implement scalable applications using LLMs, focusing on prompt engineering, model customization, and performance optimization.Design and orchestrate agent-based solutions (e.g., using LangGraph or similar), including task decomposition, tool invocation, and setting up guardrails for safe operations.Develop effective RAG (retrieval-augmented generation) pipelines with robust chunking, embedding model selection, and vector store optimization.Structure and refine prompts, manage tool/function calling, and evaluate when to use general vs. fine-tuned models based on trade-offs like accuracy, latency, and cost.Build secure, scalable integrations with enterprise systems, using NL2SQL patterns and API connectivity.
+AI/ML Engineering
+Design, train, and optimize machine learning models for practical, real-world use cases.Build end-to-end ML pipelines: data ingestion, feature engineering, model training, validation, and deployment.Work closely with data engineers and developers to embed ML into production systems.Monitor model performance and retrain as needed to maintain quality and relevance.
+LLMOps &amp; Platform Engineering
+Manage versioning for prompts, models, and pipelines; run controlled experiments (A/B tests) and deployments.Implement observability for agent workflows, including tracing, logging, retries, and fallback mechanisms.
+Data Engineering &amp; Feature Development
+Lead data acquisition, transformation, and feature engineering efforts to support reliable training and inference.Ensure clear schema definitions, metadata tracking, and lineage management.
+Evaluation, Quality, and Safety
+Define and maintain rigorous evaluation processes (e.g., precision/recall, hallucination detection, business alignment).Implement and enforce Responsible AI practices, including privacy protection, access controls, and secure data handling.
+Conversational UX &amp; Fusion Integration
+Set standards for conversational UX, including multi-turn dialogues and natural language interfaces.Design AI components that integrate seamlessly into Oracle Fusion applications, promoting automation and user-centric workflows.
+Thought Leadership &amp; Collaboration
+Mentor and support teammates; advocate for best practices in AI/ML development.Collaborate in agile pods and influence architectural and strategic decisions across teams.Evaluate emerging AI technologies and run proof-of-concept experiments to drive innovation
+What We’re Looking For:
+Experience: 8+ years in software/AI development, with 3+ years focused on LLMs or related deep learning systems.Technical Skills: Proficiency in Python (and/or Java), cloud-based data pipelines, and MLOps tools (e.g., OCI Data Science, MLflow, Kubeflow).LLM Expertise: Hands-on experience with models such as OpenAI, Anthropic, or open-source LLMs; familiarity with prompt engineering, fine-tuning, and deployment strategies.Cloud &amp; Enterprise Experience: Experience integrating AI into enterprise cloud ecosystems. Oracle Cloud/Fusion experience is a strong plus.NLP &amp; Conversational AI: Deep understanding of NLP, conversational systems, and dialog design.Responsible AI: Proven ability to design AI systems with safety, fairness, and governance in mind.Collaboration: Excellent communication and mentorship skills; thrives in cross-functional, diverse teams.
+Why Join Us?
+Shape the future of AI at Oracle and influence global-scale business applications.Work with a talented, inclusive, and innovative team on impactful AI projects.Contribute to solutions that are immediately deployed across Oracle’s AI offerings.Enjoy the flexibility of working remotely or from a hub, with a focus on work-life balance.Tackle diverse and complex challenges with the support of world-class engineers and scientists.
+Qualifications
+Career Level - IC4
+About Us
+As a world leader in cloud solutions, Oracle uses tomorrow’s technology to tackle today’s challenges. We’ve partnered with industry-leaders in almost every sector—and continue to thrive after 40+ years of change by operating with integrity.
+We know that true innovation starts when everyone is empowered to contribute. That’s why we’re committed to growing an inclusive workforce that promotes opportunities for all.
+Oracle careers open the door to global opportunities where work-life balance flourishes. We offer competitive benefits based on parity and consistency and support our people with flexible medical, life insurance, and retirement options. We also encourage employees to give back to their communities through our volunteer programs.
+We’re committed to including people with disabilities at all stages of the employment process. If you require accessibility assistance or accommodation for a disability at any point, let us know by emailing accommodation-request_mb@oracle.com or by calling +1 888 404 2494 in the United States.
+Oracle is an Equal Employment Opportunity Employer. All qualified applicants will receive consideration for employment without regard to race, color, religion, sex, national origin, sexual orientation, gender identity, disability and protected veterans’ status, or any other characteristic protected by law. Oracle will consider for employment qualified applicants with arrest and conviction records pursuant to applicable law.</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>521e139011c6</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4340717003/</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>2025-12-02T13:35:20+00:00</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>«desarrollador ia»: Científico de Datos para Agentes (Colombia) - Echez Group y más</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>4</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Gramian Consultancy is a boutique consultancy specializing in IT professional services and engineering talent solutions. With a strong background in software engineering and leadership, we help companies build high-performing teams by matching them with professionals who truly fit their needs.
+Role Overview
+We are looking for Solution Engineers to partner directly with customers and lead the end-to-end delivery of high-impact technical solutions. Successful candidates will need to be able to work with customer teams, translating real-world challenges into production-ready systems that leverage Generative AI, Computer Vision, and Machine Learning. This role is a blend of software engineering, ML engineering, architecture, and consulting. Engineers will design and deploy solutions, integrate models, build custom workflows, and guide customers through successful implementation.
+Commitments Required: 8 hours per day with an overlap of 4 hours with PST. 
+Employment type: Contractor assignment (no medical/paid leave); 100% REMOTE
+Duration of contract: 5+ months with the possibility of transitioning into a full-time role upon successful delivery.
+Locations: LATAM
+Interview: Technical Assessment, Technical Interview, Cultural Interview
+Responsibilities
+You will lead the backend and AI components of a new, HIPAA-compliant clinical intelligence platform in the urology domain. The product ingests data from Electronic Health Records, performs advanced semantic search over structured and unstructured clinical content, and supports workflow automation for medical teams. This is a greenfield build, offering the rare chance to architect foundational systems from scratch alongside the founder.
+Engage directly with enterprise and strategic customers to understand their workflows, data, and technical requirementsArchitect, build, and deploy custom solutions leveraging GenAI, LLMs, Machine Learning and Vision models, and customer data sourcesLead full project lifecycles: scoping, solution design, development, implementation, testing, deployment, and iterationIntegrate and optimize AI/ML pipelines, including data preprocessing, prompt engineering, model selection, and evaluationBuild reliable, scalable software integrations using APIs, cloud services, and containerized systemsTroubleshoot complex technical issues across the stack—applications, models, data pipelines, infrastructure, and integrationsAct as the customer's trusted technical advisor, enabling adoption of new product capabilities and AI featuresPartner closely with internal product and engineering teams to communicate customer feedback and shape roadmap directionProduce high-quality documentation, architecture diagrams, runbooks, and technical assets for customer teamsMentor junior engineers and contribute to internal best practices for FDE delivery
+Requirements
+5-10+ years in engineering roles such as Forward Deployed Engineer, ML Engineer, Software Engineer, Solutions Engineer, Technical Consultant, or similarStrong proficiency in Python, JavaScript/TypeScript, Go, or similar production-oriented languagesHands-on experience with Machine Learning, including training, fine-tuning, evaluating, or deploying modelsDirect experience with Generative AI (LLMs, multimodal models, vector databased, or RAG) and applying them to real-world problemsExposure to Computer Vision techniques (detection, segmentation, OCR, embeddings, multimodal pipelines)Strong knowledge of ML frameworks (PyTorch, TensorFlow, OpenCV, etc.)Experience with cloud infrastructure (AWS, GCP, Azure) and containerization (Docker, Kubernetes)Excellent communication skills with both technical and non-technical audiencesComfort leading customer-facing engagements and guiding stakeholders through ambiguityWillingness and ability to travel frequentlyPrior experience in consulting, technical solutions, professional services, or customer-embedded technical rolesExperience with vector databases, embedding pipelines, or retrieval-augmented generation (RAG)Experience building APIs, microservices, or distributed systemsFamiliarity with MLOps tools (Docker, Kubernetes, model registries, CI/CD for ML)Background in deploying or fine-tuning CV models (YOLO, SAM, CLIP, DETR, etc.)Experience in startup or high-growth environments</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>b8d6a25cdf11</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4339899550/</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2025-12-01T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>«NLP»: AI Engineer (Remote) - Lumenalta y más</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>4</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>At Lumenalta, we partner with forward-thinking organizations to build technology solutions that scale, delight users, and accelerate business growth. Our global teams bring curiosity, commitment, and technical excellence to every project. We value transparency, autonomy, and impact—empowering every team member to do their best work.
+We’re seeking experienced AI Engineers to join a high-growth fintech prospect focused on back-office workflow automation. This role is an opportunity to design and deploy production-grade AI systems for community banks, mortgage, and insurance institutions while shaping a flexible, modern architecture alongside an accomplished executive team.
+What You’ll Be DoingDesign, build, and deploy AI models into production (not just prototypes or wrappers).Develop and maintain backend Python services that power intelligent automation workflows.Implement enterprise-scale data pipelines for ingesting and processing financial and regulatory documents, with automated data quality checks and monitoring.Train and optimize models on banking rules, compliance standards, and regulatory datasets.Build intelligent routing systems (e.g., auto-approval for simple loans/accounts, escalation to humans for complex cases).Collaborate with engineering leadership to shape architecture, delivery models, and stack decisions.Ensure compliance-first design, embedding regulatory considerations into every product feature.
+What We’re Looking ForExperience: 3–5+ years in AI/ML engineering with a track record of deploying AI into production at scale.Technical Skills: Strong backend Python; expertise with ML frameworks (TensorFlow, PyTorch, Scikit-Learn, etc.); familiarity with modern data pipeline tools (Airflow, Spark, Kafka) and workflow orchestration frameworks such as n8n or LangGraph.Applied AI: Background in enterprise applications such as chatbots, workflow automation, RAG pipelines, or intelligent document processing.Domain Awareness: Understanding of regulated industries (financial services, insurance, or similar) with the ability to design compliance-aligned models.Collaboration: Comfortable working with a lean, high-performing team and influencing technical direction.Adaptability: Excels in startup-like environments with flexible, evolving tech stacks.
+Why Lumenalta is an amazing place to work atAt Lumenalta, you can expect that you will:Be 100% dedicated to one project at a time so that you can innovate and grow.Be a part of a team of talented and friendly senior-level developers.Work on projects that allow you to use leading tech.
+The job is 100% Remote; please ensure you have a comfortable office set at your desired work location.
+This is a fully remote position open to candidates based in Latin America (LATAM). While location is flexible, candidates must be willing to maintain at least a 6-hour overlap with core business hours, which are primarily aligned with the Pacific, Central, or Eastern U.S. time zones to ensure effective collaboration with project teams.
+This is an evergreen opening with no set deadline; we’re always excited to connect with professionals who want to help us build the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>805fa90cfb45</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4339809934/</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>2025-12-01T23:35:00+00:00</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>«NLP»: AI Engineer (Remote) - Lumenalta y más</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>4</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>At Lumenalta, we partner with forward-thinking organizations to build technology solutions that scale, delight users, and accelerate business growth. Our global teams bring curiosity, commitment, and technical excellence to every project. We value transparency, autonomy, and impact—empowering every team member to do their best work.
+We’re seeking experienced AI Engineers to join a high-growth fintech prospect focused on back-office workflow automation. This role is an opportunity to design and deploy production-grade AI systems for community banks, mortgage, and insurance institutions while shaping a flexible, modern architecture alongside an accomplished executive team.
+What You’ll Be DoingDesign, build, and deploy AI models into production (not just prototypes or wrappers).Develop and maintain backend Python services that power intelligent automation workflows.Implement enterprise-scale data pipelines for ingesting and processing financial and regulatory documents, with automated data quality checks and monitoring.Train and optimize models on banking rules, compliance standards, and regulatory datasets.Build intelligent routing systems (e.g., auto-approval for simple loans/accounts, escalation to humans for complex cases).Collaborate with engineering leadership to shape architecture, delivery models, and stack decisions.Ensure compliance-first design, embedding regulatory considerations into every product feature.
+What We’re Looking ForExperience: 3–5+ years in AI/ML engineering with a track record of deploying AI into production at scale.Technical Skills: Strong backend Python; expertise with ML frameworks (TensorFlow, PyTorch, Scikit-Learn, etc.); familiarity with modern data pipeline tools (Airflow, Spark, Kafka) and workflow orchestration frameworks such as n8n or LangGraph.Applied AI: Background in enterprise applications such as chatbots, workflow automation, RAG pipelines, or intelligent document processing.Domain Awareness: Understanding of regulated industries (financial services, insurance, or similar) with the ability to design compliance-aligned models.Collaboration: Comfortable working with a lean, high-performing team and influencing technical direction.Adaptability: Excels in startup-like environments with flexible, evolving tech stacks.
+Why Lumenalta is an amazing place to work atAt Lumenalta, you can expect that you will:Be 100% dedicated to one project at a time so that you can innovate and grow.Be a part of a team of talented and friendly senior-level developers.Work on projects that allow you to use leading tech.
+The job is 100% Remote; please ensure you have a comfortable office set at your desired work location.
+This is a fully remote position open to candidates based in Latin America (LATAM). While location is flexible, candidates must be willing to maintain at least a 6-hour overlap with core business hours, which are primarily aligned with the Pacific, Central, or Eastern U.S. time zones to ensure effective collaboration with project teams.
+This is an evergreen opening with no set deadline; we’re always excited to connect with professionals who want to help us build the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>4af8cb1bc987</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4325185596/</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2025-12-01T23:09:03+00:00</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>«LLM»: AI Engineer (Remote) - Lumenalta (formerly Clevertech) y más</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>4</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Persona is the company top startups use to hire people from all around the world. Our vision is a future where each person can find the best role for them and companies can discover the world’s best talent. Founded by two Stanford University graduates, Persona works with the world’s fastest-growing technology startups. Our clients are funded by some of the world’s top investors, like Founders Fund, Sequoia Capital, and Andreessen Horowitz.
+Persona is a talent agency that recruits, trains, and staffs talented remote professionals such as yourself. This is an opportunity to work closely with the future Googles, Facebooks, and Amazons of the world—building out their organizations and helping them reach the next level of success.
+We support everyone we hire with training, mentoring, and technology resources so they are enabled to do their best and are as happy as possible in their roles. We have a large international team dedicated to supporting and taking care of new Persona team members, and our goal is to provide excellent long-term career opportunities for everyone who joins the team.
+Who’s building Persona?We are a global team of passionate problem solvers who love to build new things and make our customers happy. Our team is made up of motivated, hard-working people spanning the globe, united by a culture of learning and continuous improvement.
+What we’re looking for:We are looking for a Data Scientist who will work on building models, analyzing large datasets, and creating tools that power our investment decisions. You'll play a strategic role in leveraging data to identify high-potential startups and improve how we evaluate and support portfolio companies.
+Responsibilities—what you'll do:Build and maintain predictive models to score startups and markets.Apply machine learning techniques to extract insights from structured and unstructured data.Use historical deal flow and startup performance data to improve sourcing and screening.Design tools and internal systems that support scalable decision-making.Automate data pipelines and workflows to reduce manual work.Integrate third-party data (e.g., Crunchbase, PitchBook, LinkedIn) into internal platforms.Work with the investment team to validate insights and hypotheses using data.Provide technical support during due diligence processes.Translate complex models and insights into actionable recommendations.Help roll out native AI solutions across the firm to improve efficiency and deal quality
+Requirements:Bachelor’s or Master’s degree in Statistics, Computer Science, Data Science, Applied Mathematics, or a related field.4+ years of experience in data science, machine learning, or analytics.Prior experience in startups or venture capital firms is strongly preferred; a demonstrated interest is a plus.Experience in Python or R for data analysis and modeling.Strong SQL skills.Experience working with APIs and data scraping.Ability to work U.S. business hours (Pacific Time, Central Time, or Eastern Time)This position is for serious, career-oriented candidates
+Qualities we look for:Strong problem-solving skills and analytical thinking.Ability to explain complex concepts to non-technical audiences.Comfortable working independently and exploring messy datasets.Interest in using data to drive strategic decisions.
+What we offer:Best salaries in the industryPermanent ability to work from anywhere in the worldOpportunities for growth and advancementA fast-paced and collaborative environmentWarm and friendly company cultureFull benefits
+Benefits at Persona:Health insuranceUnlimited paid time off (paid sick and vacation leaves)Annual bonuses based on performanceMonthly tech allowanceOpportunity to be paid in your currency of choiceOthers depending on seniority
+This is a full-time and long-term role. We are looking for individuals who are ready to fully commit their time and energy to one company and grow and develop along with that company. All roles at Persona are 100% work-from-anywhere (work from home or wherever it suits you best). If this is your first time working for a U.S. company, that’s okay; we provide guidance and assistance getting set up as a remote professional. Once hired, we will carefully match you to a client company of ours that perfectly suits your career background, skills, and goals.
+Visit our website for more information: https://www.personatalent.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>593e5ee98fab</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4338918471/</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2025-12-01T23:09:03+00:00</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>«LLM»: AI Engineer (Remote) - Lumenalta (formerly Clevertech) y más</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>4</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>About us: 
+Talent has no borders. Proxify's mission is to connect top developers around the world with the opportunities they deserve. So, it doesn't matter where you are; we are here to help you fast-track your independent career in the right direction. 🙂
+Since our launch, Proxify's developers have successfully worked with 1200+ happy clients to build their products and growth features. 5000+ talented developers trust Proxify and its network to fulfill their dreams and objectives.
+Proxify is shaped by a global network of supportive, talented developers interested in remote full-time jobs. Our Glassdoor (4.5/5) and Trustpilot (4.8/5) ratings reflect the trust developers place in us and our commitment to our members' success.
+The Role:
+We are looking for Machine Learning Engineers with strong Python experience to join our fast-growing Network. You will play a key role in designing and deploying machine learning solutions that power modern applications and enhance user experiences
+What we are looking for:
+Proven track record in building and deploying machine learning models to production.Strong Python programming skills (experience with R or Java is a plus). Python is your primary working language, and you are comfortable using it across the full ML lifecycle.Experience with machine learning frameworks (e.g., PyTorch, TensorFlow, Scikit-learn, Keras).Familiarity with MLOps tools (MLflow, Kubeflow, Airflow) and cloud platforms (AWS, GCP, or Azure).Solid knowledge of statistics, data analysis, and data mining techniques.Experience with databases, data warehouses, and large-scale datasets.
+Responsibilities:
+Design and maintain scalable, reliable data pipelines and monitor models in production.Develop and optimize classification, prediction, and recommendation models applied to real-world business problems.Research and integrate new data sources to enhance model performance and accuracy.Collaborate with software engineers, product teams, analysts, and other stakeholders to improve product performance.Write production-grade code for cloud and on-premise environments, ensuring scalability and robustness.Contribute to MLOps practices, including CI/CD for ML, monitoring, and model lifecycle management.
+What we offer:
+Get paid, not playedNo more unreliable clients. Enjoy on-time monthly payments with flexible withdrawal options
+Predictable project hoursEnjoy a harmonious work-life balance with consistent 8-hour working days with clients.
+Flex days, so you can rechargeEnjoy up to 24 flex days off per year without losing pay, for full-time positions found through Proxify.
+Career-accelerating positions at cutting-edge companiesDiscover exclusive long-term remote positions at the world's most exciting companies.
+Hand-picked opportunities just for youSkip the typical recruitment roadblocks and biases with personally matched positions.
+One seamless process, multiple opportunitiesA one-time contracting process for endless opportunities, with no extra assessments.
+CompensationEnjoy the same pay, every month with positions landed through Proxify.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>f7a00b640816</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4313886061/</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2025-12-01T23:09:03+00:00</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>«LLM»: AI Engineer (Remote) - Lumenalta (formerly Clevertech) y más</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>3</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Job Description
+Principal AI Developer 
+Location: Mexico (REMOTE)
+About the Role:
+We’re looking for highly experienced AI Developers to join our team and help shape the future of AI at Oracle. In this role, you’ll lead the design and development of advanced AI applications, particularly those powered by large language models (LLMs) and help integrate them across Oracle’s Fusion ecosystem. You’ll work on cutting-edge problems, set engineering best practices, and collaborate with cross-functional teams to deliver secure, scalable, and responsible AI solutions.
+We encourage applicants from all backgrounds and experiences to apply — if you’re passionate about AI and meet most of the qualifications, we want to hear from you.
+What You’ll Do:
+LLM Application Engineering
+Architect and implement scalable applications using LLMs, focusing on prompt engineering, model customization, and performance optimization.Design and orchestrate agent-based solutions (e.g., using LangGraph or similar), including task decomposition, tool invocation, and setting up guardrails for safe operations.Develop effective RAG (retrieval-augmented generation) pipelines with robust chunking, embedding model selection, and vector store optimization.Structure and refine prompts, manage tool/function calling, and evaluate when to use general vs. fine-tuned models based on trade-offs like accuracy, latency, and cost.Build secure, scalable integrations with enterprise systems, using NL2SQL patterns and API connectivity.
+AI/ML Engineering
+Design, train, and optimize machine learning models for practical, real-world use cases.Build end-to-end ML pipelines: data ingestion, feature engineering, model training, validation, and deployment.Work closely with data engineers and developers to embed ML into production systems.Monitor model performance and retrain as needed to maintain quality and relevance.
+LLMOps &amp; Platform Engineering
+Manage versioning for prompts, models, and pipelines; run controlled experiments (A/B tests) and deployments.Implement observability for agent workflows, including tracing, logging, retries, and fallback mechanisms.
+Data Engineering &amp; Feature Development
+Lead data acquisition, transformation, and feature engineering efforts to support reliable training and inference.Ensure clear schema definitions, metadata tracking, and lineage management.
+Evaluation, Quality, and Safety
+Define and maintain rigorous evaluation processes (e.g., precision/recall, hallucination detection, business alignment).Implement and enforce Responsible AI practices, including privacy protection, access controls, and secure data handling.
+Conversational UX &amp; Fusion Integration
+Set standards for conversational UX, including multi-turn dialogues and natural language interfaces.Design AI components that integrate seamlessly into Oracle Fusion applications, promoting automation and user-centric workflows.
+Thought Leadership &amp; Collaboration
+Mentor and support teammates; advocate for best practices in AI/ML development.Collaborate in agile pods and influence architectural and strategic decisions across teams.Evaluate emerging AI technologies and run proof-of-concept experiments to drive innovation
+What We’re Looking For:
+Experience: 8+ years in software/AI development, with 3+ years focused on LLMs or related deep learning systems.Technical Skills: Proficiency in Python (and/or Java), cloud-based data pipelines, and MLOps tools (e.g., OCI Data Science, MLflow, Kubeflow).LLM Expertise: Hands-on experience with models such as OpenAI, Anthropic, or open-source LLMs; familiarity with prompt engineering, fine-tuning, and deployment strategies.Cloud &amp; Enterprise Experience: Experience integrating AI into enterprise cloud ecosystems. Oracle Cloud/Fusion experience is a strong plus.NLP &amp; Conversational AI: Deep understanding of NLP, conversational systems, and dialog design.Responsible AI: Proven ability to design AI systems with safety, fairness, and governance in mind.Collaboration: Excellent communication and mentorship skills; thrives in cross-functional, diverse teams.
+Why Join Us?
+Shape the future of AI at Oracle and influence global-scale business applications.Work with a talented, inclusive, and innovative team on impactful AI projects.Contribute to solutions that are immediately deployed across Oracle’s AI offerings.Enjoy the flexibility of working remotely or from a hub, with a focus on work-life balance.Tackle diverse and complex challenges with the support of world-class engineers and scientists.
+Qualifications
+Career Level - IC4
+About Us
+As a world leader in cloud solutions, Oracle uses tomorrow’s technology to tackle today’s challenges. We’ve partnered with industry-leaders in almost every sector—and continue to thrive after 40+ years of change by operating with integrity.
+We know that true innovation starts when everyone is empowered to contribute. That’s why we’re committed to growing an inclusive workforce that promotes opportunities for all.
+Oracle careers open the door to global opportunities where work-life balance flourishes. We offer competitive benefits based on parity and consistency and support our people with flexible medical, life insurance, and retirement options. We also encourage employees to give back to their communities through our volunteer programs.
+We’re committed to including people with disabilities at all stages of the employment process. If you require accessibility assistance or accommodation for a disability at any point, let us know by emailing accommodation-request_mb@oracle.com or by calling +1 888 404 2494 in the United States.
+Oracle is an Equal Employment Opportunity Employer. All qualified applicants will receive consideration for employment without regard to race, color, religion, sex, national origin, sexual orientation, gender identity, disability and protected veterans’ status, or any other characteristic protected by law. Oracle will consider for employment qualified applicants with arrest and conviction records pursuant to applicable law.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>7adfc52fd083</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-junior-it-administrator-remote-freelance-en-caracas-E4AF1628FE3C7A4D61373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2025-11-15T18:04:04+00:00</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Grandes empresas en Distrito Capital buscan talento como el tuyo</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>1</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+500,00 $ (Mensual)
+Contrato de obra o labor
+Por Horas
+Remoto
+At Alpha Co. there is no office, we believe work is something you do, not who you are. Our team is fully remote and the ties that bind us are a commitment to each other and to our mission. We work hard to foster collaboration virtually and, while disparate, our team is strongest when we come together.
+Your primary duties will include:
+-IT Transformation: The IT Transformation team member will gain hands-on experience
+with B2B and B2C technology tools and will be assigned to a self-contained project that
+would allow for the development of a feature or capability that we would be unable to
+reach otherwise!
+-As a Software Developer, you would be responsible for developing solutions that drive
+innovation and competitive advantage.
+-This role encompasses writing code to build and support Alpha Co.’s systems,
+applications, and platforms and configuring, optimizing and deploying packaged software.
+-You will work with other project developers and architects to ensure that designs and
+quality meet Alpha Co.’s requirements.
+Who you are
+You’re someone who is looking to jumpstart their career without ever leaving the house. You value flexibility but are dependable, hard-working, and self motivated. You like working in a competitive, collaborative environment and you love a good challenge. You either have past english-speaking customer-facing experience or possess excellent bilingual skills and a go get it attitude. Our team is made up of individuals who value success but never at the expense of first helping others.
+Working Hours:
+Flexible up to 35 hours a week. No less than an average of 20.
+We ask our employees be available for U.S. working hours: 10:00 AM-8:00 PM Argentina time
+Requirements:
+-Currently pursuing bachelor's Degree in Computer Science, Computer Engineering, or
+related degree. (Optional)
+-Interest in technical development and programming.
+-Intermediate English proficiency.
+-Excellent organization skills
+-Must be self-motivated
+-Preferred availability during commercial days and hours in United States
+-High quality wifi connection.
+Benefits
+-We offer remuneration in US dollars.
+-Chance to work in a startup environment and the possibility to grow.
+-100% remote work.
+-Compensation is tied to performance
+-Working hours aren't strict as long as you are meeting your goals
+-We offer ample learning opportunities for those looking to expand their skills
+-Opportunities to interface with respected business professionals
+-Personal and Professional development are prioritized in our working culture
+-We value and expect input from our team members. Your voice matters.
+Requerimientos
+Educación mínima: Bachillerato / Educación Media
+años de experiencia
+Idiomas: Inglés
+Edad: entre 20 y 45 años
+Palabras clave: jr, junior, tecnologias, la, informacion, it, administrador, administrator, casa, remoto, remote, teletrabajo, home
+12 de diciembre (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>968ff1e57129</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-coordinador-de-ventas-canal-moderno-en-caracas-1F6AD15F1EE7BE0961373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2025-11-15T17:02:15+00:00</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Descubre las oportunidades que Isonic, C.A tiene para ti</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>1</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+A convenir
+Contrato por tiempo indefinido
+Tiempo Completo
+Estamos buscando un profesional universitario dinámico y con experiencia en consumo masivo y cuentas claves para desempeñar el rol de Coordinador de Ventas.
+En este puesto, serás responsable de liderar y gestionar al equipo de ventas, desarrollando estrategias para alcanzar y superar los objetivos comerciales en el canal moderno.
+Tu capacidad para analizar datos y tendencias del mercado, así como tu habilidad para gestionar relaciones con clientes y compradores, serán claves para el éxito en este rol.
+Necesitamos alguien con un mínimo de cinco años de experiencia en ventas, en Empresas de Consumo Masivo, preferiblemente alimentos.
+Debes tener una sólida comprensión del mercado y las dinámicas de ventas, así como habilidades de liderazgo,  gestión de equipos y negociación.
+Entre tus responsabilidades estará la formulación y cumplimiento de presupuesto de ventas, la supervisión del equipo de trabajo, la gestión de relaciones con clientes y compradores para la codificación de productos y la elaboración y análisis de indicadores de gestión, con el fin de generar estrategias de mejora continua.
+Si tienes un enfoque proactivo,  una actitud ganadora, conoces el canal moderno y te apasiona el mundo de las ventas, este puesto es para ti.
+Aplica ahora y forma parte de nuestro equipo.
+Requerimientos
+Educación mínima: Universidad
+5 años de experiencia
+Edad: entre 35 y 45 años
+Disponibilidad de viajar: Si
+Palabras clave: residente, encargado, supervisor, subgerente, responsable, coordinador, gestor, capitan, cambaceo, sales
+Hace  6  días (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>245ed544bd2f</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-analista-de-atencion-al-cliente-y-facturacion-sueldo-fijo-de-300-en-caracas-4F49CCA3341EAD8061373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>2025-11-15T12:03:44+00:00</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>💼 Trabajo disponible: Analista en Distrito Capital</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>1</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+300,00 $ (Mensual)
+Contrato por tiempo indefinido
+Tiempo Completo
+Nos encontramos en la búsqueda de Analistas de Atención al Cliente, para formar parte de nuestro gran equipo de Call Center.
+Objetivo principal del cargo: brindar atención al cliente de forma eficiente, profesional y orientada a la resolución, combinando habilidades comunicacionales con capacidad analítica. Será responsable de gestionar solicitudes, atender requerimientos y realizar validaciones numéricas como parte de sus funciones, especialmente en procesos relacionados con referencias de pago, conciliaciones y revisión de datos.
+Requisitos:
+Formación académica: Estudiante universitario, Técnico o profesional en carreras administrativas, contables, financieras o afines. (no limitativo)
+Experiencia previa: Mínimo 1 año en atención al cliente, soporte administrativo o gestión de datos. (no limitativo)
+Habilidades analíticas y numéricas:
+- Agilidad numérica para interpretar, comparar y validar datos con rapidez y precisión.
+- Validación cruzada de datos como referencias de pago, montos, fechas y comprobantes.
+- Manejo intermedio de Excel.
+Orientación al cliente:
+- Comunicación clara, empática y profesional.
+- Capacidad para entender y canalizar requerimientos de forma efectiva.
+Gestión operativa:
+- Registro y seguimiento de casos.
+- Apoyo en tareas administrativas vinculadas a la atención.
+- Escalamiento oportuno de incidencias.
+Lugar y horario de trabajo:
+Los Ruices - Caracas, de Lunes a viernes de 09:00 a.m. a 06:00 p.m.
+Ofrecemos:
+Ingreso fijo mensual de $300 al cambio en Bs.
+Servicio de Telemedicina 24/7.
+Oportunidades de crecimiento.
+Un ambiente de trabajo jovial y dinámico.
+Postúlate y pronto te estaremos contactando!
+Te esperamos!!!
+Requerimientos
+Educación mínima: Educación Técnico/Profesional
+Menos de 1 año de experiencia
+Edad: entre 21 y 40 años
+Palabras clave: analyst, care, costumer, cliente, billing, facturacion, nominas, sueldo, paga, retribucion, salary, payslip, payroll, wage, pay, payment, nominista, permanent, fijo
+Hace  4  días (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>edd9e65b0dec</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>https://ve.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-analista-de-atencion-al-cliente-horario-900am-hasta-las-600pm-en-caracas-A833B96381C78E7161373E686DCF3405</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>2025-11-15T12:03:44+00:00</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>💼 Trabajo disponible: Analista en Distrito Capital</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>1</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Descripción de la oferta
+300,00 $ (Mensual)
+Contrato por tiempo indefinido
+Tiempo Completo
+Nos encontramos en la búsqueda de Analistas de Atención al Cliente, para formar parte de nuestro gran equipo de Call Center.
+Objetivo principal del cargo: brindar atención al cliente de forma eficiente, profesional y orientada a la resolución, combinando habilidades comunicacionales con capacidad analítica. Será responsable de gestionar solicitudes, atender requerimientos y realizar validaciones numéricas como parte de sus funciones, especialmente en procesos relacionados con referencias de pago, conciliaciones y revisión de datos.
+Requisitos:
+Formación académica: Estudiante universitario, Técnico o profesional en carreras administrativas, contables, financieras o afines. (no limitativo)
+Experiencia previa: Mínimo 1 año en atención al cliente, soporte administrativo o gestión de datos. (no limitativo)
+Habilidades analíticas y numéricas:
+- Agilidad numérica para interpretar, comparar y validar datos con rapidez y precisión.
+- Validación cruzada de datos como referencias de pago, montos, fechas y comprobantes.
+- Manejo intermedio de Excel.
+Orientación al cliente:
+- Comunicación clara, empática y profesional.
+- Capacidad para entender y canalizar requerimientos de forma efectiva.
+Gestión operativa:
+- Registro y seguimiento de casos.
+- Apoyo en tareas administrativas vinculadas a la atención.
+- Escalamiento oportuno de incidencias.
+Lugar y horario de trabajo:
+Los Ruices - Caracas, de Lunes a viernes de 09:00 a.m. a 06:00 p.m.
+Ofrecemos:
+Ingreso fijo mensual de $300 al cambio en Bs.
+Servicio de Telemedicina 24/7.
+Oportunidades de crecimiento.
+Un ambiente de trabajo jovial y dinámico.
+Postúlate y pronto te estaremos contactando!
+Te esperamos!!!
+Requerimientos
+Educación mínima: Educación Técnico/Profesional
+1 año de experiencia
+Edad: entre 20 y 45 años
+Palabras clave: analyst, care, costumer, cliente
+Hace  4  días (actualizada)
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
